--- a/E-Com/AMZN.xlsx
+++ b/E-Com/AMZN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\E-Com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E761D5-E21E-4D7F-9732-1D85380FD1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40ADB66D-227D-4E33-980A-08127615B884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2400" yWindow="2175" windowWidth="16845" windowHeight="12285" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
   <si>
     <t>Price</t>
   </si>
@@ -201,10 +201,55 @@
     <t>Management</t>
   </si>
   <si>
-    <t>Sales Regions</t>
-  </si>
-  <si>
     <t>Employees</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>International</t>
+  </si>
+  <si>
+    <t>AWS</t>
+  </si>
+  <si>
+    <t>US %</t>
+  </si>
+  <si>
+    <t>International %</t>
+  </si>
+  <si>
+    <t>AWS %</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>NI US</t>
+  </si>
+  <si>
+    <t>NI Int.</t>
+  </si>
+  <si>
+    <t>NI AWS</t>
+  </si>
+  <si>
+    <t>Net Margin</t>
+  </si>
+  <si>
+    <t>US Margin</t>
+  </si>
+  <si>
+    <t>Internation Margin</t>
+  </si>
+  <si>
+    <t>AWS Margin</t>
+  </si>
+  <si>
+    <t>Balance Sheeet</t>
+  </si>
+  <si>
+    <t>FY17</t>
   </si>
 </sst>
 </file>
@@ -242,12 +287,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -263,7 +314,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -271,10 +322,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -552,26 +609,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L10"/>
+  <dimension ref="K2:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B4" sqref="B4:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="11.1015625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="11:19" x14ac:dyDescent="0.25">
       <c r="K2" t="s">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>105.28</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+        <v>128.78</v>
+      </c>
+      <c r="M2" s="12">
+        <v>45119</v>
+      </c>
+    </row>
+    <row r="3" spans="11:19" x14ac:dyDescent="0.25">
       <c r="K3" t="s">
         <v>1</v>
       </c>
@@ -579,40 +640,37 @@
         <v>10171</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" t="s">
-        <v>54</v>
-      </c>
+    <row r="4" spans="11:19" x14ac:dyDescent="0.25">
       <c r="K4" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="1">
         <f>L2*L3</f>
-        <v>1070802.8800000001</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+        <v>1309821.3800000001</v>
+      </c>
+    </row>
+    <row r="5" spans="11:19" x14ac:dyDescent="0.25">
       <c r="K5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="11:19" x14ac:dyDescent="0.25">
       <c r="K6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="11:19" x14ac:dyDescent="0.25">
       <c r="K7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="11:19" x14ac:dyDescent="0.25">
       <c r="K8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="K10" t="s">
+    <row r="9" spans="11:19" x14ac:dyDescent="0.25">
+      <c r="S9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -623,988 +681,2580 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18DAFE1B-0872-4079-929A-2D64CB797B54}">
-  <dimension ref="A1:AB24"/>
+  <dimension ref="A1:AC43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Q6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="W3" s="1">
+        <v>141366</v>
+      </c>
+      <c r="X3" s="1">
+        <v>170733</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="W4" s="1">
+        <v>65866</v>
+      </c>
+      <c r="X4" s="1">
+        <v>74723</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="W5" s="1">
+        <v>25655</v>
+      </c>
+      <c r="X5" s="1">
+        <v>35026</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="1">
+      <c r="C7" s="1">
+        <v>34283</v>
+      </c>
+      <c r="D7" s="1">
+        <v>35856</v>
+      </c>
+      <c r="E7" s="1">
+        <v>39726</v>
+      </c>
+      <c r="G7" s="1">
+        <v>41841</v>
+      </c>
+      <c r="H7" s="1">
+        <v>50244</v>
+      </c>
+      <c r="I7" s="1">
         <v>52774</v>
       </c>
-      <c r="L2" s="1">
+      <c r="J7" s="1">
+        <f>Y7-I7-H7-G7</f>
+        <v>71056</v>
+      </c>
+      <c r="K7" s="1">
+        <v>57491</v>
+      </c>
+      <c r="L7" s="1">
         <v>58004</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M7" s="1">
         <v>54876</v>
       </c>
-      <c r="O2" s="1">
+      <c r="N7" s="1">
+        <f>Z7-M7-L7-K7</f>
+        <v>71416</v>
+      </c>
+      <c r="O7" s="1">
         <v>56455</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P7" s="1">
         <v>56575</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q7" s="1">
         <v>59340</v>
       </c>
-      <c r="R2" s="1">
-        <f>Z2-Q2-P2-O2</f>
+      <c r="R7" s="1">
+        <f>AA7-Q7-P7-O7</f>
         <v>70531</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S7" s="1">
         <v>56981</v>
       </c>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1">
+      <c r="V7" s="1">
+        <v>118573</v>
+      </c>
+      <c r="W7" s="1">
+        <v>141915</v>
+      </c>
+      <c r="X7" s="1">
+        <v>160408</v>
+      </c>
+      <c r="Y7" s="1">
         <v>215915</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Z7" s="1">
         <v>241787</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="AA7" s="1">
         <v>242901</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="1">
+      <c r="C8" s="1">
+        <v>25417</v>
+      </c>
+      <c r="D8" s="1">
+        <v>27548</v>
+      </c>
+      <c r="E8" s="1">
+        <v>30255</v>
+      </c>
+      <c r="G8" s="1">
+        <v>33611</v>
+      </c>
+      <c r="H8" s="1">
+        <v>38668</v>
+      </c>
+      <c r="I8" s="1">
         <v>43371</v>
       </c>
-      <c r="L3" s="1">
+      <c r="J8" s="1">
+        <f>Y8-I8-H8-G8</f>
+        <v>54499</v>
+      </c>
+      <c r="K8" s="1">
+        <v>51027</v>
+      </c>
+      <c r="L8" s="1">
         <v>55076</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M8" s="1">
         <v>55936</v>
       </c>
-      <c r="O3" s="1">
+      <c r="N8" s="1">
+        <f>Z8-M8-L8-K8</f>
+        <v>65996</v>
+      </c>
+      <c r="O8" s="1">
         <v>59989</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P8" s="1">
         <v>64659</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q8" s="1">
         <v>67761</v>
       </c>
-      <c r="R3" s="1">
-        <f>Z3-Q3-P3-O3</f>
+      <c r="R8" s="1">
+        <f>AA8-Q8-P8-O8</f>
         <v>78673</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S8" s="1">
         <v>70377</v>
       </c>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1">
+      <c r="V8" s="1">
+        <v>59293</v>
+      </c>
+      <c r="W8" s="1">
+        <v>90972</v>
+      </c>
+      <c r="X8" s="1">
+        <v>120114</v>
+      </c>
+      <c r="Y8" s="1">
         <v>170149</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="Z8" s="1">
         <v>228035</v>
       </c>
-      <c r="Z3" s="1">
+      <c r="AA8" s="1">
         <v>271082</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="4" t="s">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="5">
-        <f>I2+I3</f>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5">
+        <f>C7+C8</f>
+        <v>59700</v>
+      </c>
+      <c r="D9" s="5">
+        <f>D7+D8</f>
+        <v>63404</v>
+      </c>
+      <c r="E9" s="5">
+        <f>E7+E8</f>
+        <v>69981</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5">
+        <f>G7+G8</f>
+        <v>75452</v>
+      </c>
+      <c r="H9" s="5">
+        <f>H7+H8</f>
+        <v>88912</v>
+      </c>
+      <c r="I9" s="5">
+        <f>I7+I8</f>
         <v>96145</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="5">
-        <f>L2+L3</f>
+      <c r="J9" s="5">
+        <f>J7+J8</f>
+        <v>125555</v>
+      </c>
+      <c r="K9" s="5">
+        <f>K7+K8</f>
+        <v>108518</v>
+      </c>
+      <c r="L9" s="5">
+        <f>L7+L8</f>
         <v>113080</v>
       </c>
-      <c r="M4" s="5">
-        <f>M2+M3</f>
+      <c r="M9" s="5">
+        <f>M7+M8</f>
         <v>110812</v>
       </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="5">
-        <f>O2+O3</f>
+      <c r="N9" s="5">
+        <f>N7+N8</f>
+        <v>137412</v>
+      </c>
+      <c r="O9" s="5">
+        <f>O7+O8</f>
         <v>116444</v>
       </c>
-      <c r="P4" s="5">
-        <f>P2+P3</f>
+      <c r="P9" s="5">
+        <f>P7+P8</f>
         <v>121234</v>
       </c>
-      <c r="Q4" s="5">
-        <f>Q2+Q3</f>
+      <c r="Q9" s="5">
+        <f>Q7+Q8</f>
         <v>127101</v>
       </c>
-      <c r="R4" s="5">
-        <f>R2+R3</f>
+      <c r="R9" s="5">
+        <f>R7+R8</f>
         <v>149204</v>
       </c>
-      <c r="S4" s="5">
-        <f>S2+S3</f>
+      <c r="S9" s="5">
+        <f>S7+S8</f>
         <v>127358</v>
       </c>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5">
-        <f>X2+X3</f>
+      <c r="V9" s="5">
+        <f>V7+V8</f>
+        <v>177866</v>
+      </c>
+      <c r="W9" s="5">
+        <f>W7+W8</f>
+        <v>232887</v>
+      </c>
+      <c r="X9" s="5">
+        <f>X7+X8</f>
+        <v>280522</v>
+      </c>
+      <c r="Y9" s="5">
+        <f>Y7+Y8</f>
         <v>386064</v>
       </c>
-      <c r="Y4" s="5">
-        <f>Y2+Y3</f>
+      <c r="Z9" s="5">
+        <f>Z7+Z8</f>
         <v>469822</v>
       </c>
-      <c r="Z4" s="5">
-        <f>Z2+Z3</f>
+      <c r="AA9" s="5">
+        <f>AA7+AA8</f>
         <v>513983</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="1">
+      <c r="C10" s="1">
+        <v>33920</v>
+      </c>
+      <c r="D10" s="1">
+        <v>36337</v>
+      </c>
+      <c r="E10" s="1">
+        <v>41302</v>
+      </c>
+      <c r="G10" s="1">
+        <v>44257</v>
+      </c>
+      <c r="H10" s="1">
+        <v>52660</v>
+      </c>
+      <c r="I10" s="1">
         <v>57106</v>
       </c>
-      <c r="L5" s="1">
+      <c r="J10" s="1">
+        <f>Y10-I10-H10-G10</f>
+        <v>79284</v>
+      </c>
+      <c r="K10" s="1">
+        <v>62403</v>
+      </c>
+      <c r="L10" s="1">
         <v>64176</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M10" s="1">
         <v>62930</v>
       </c>
-      <c r="O5" s="1">
+      <c r="N10" s="1">
+        <f>Z10-M10-L10-K10</f>
+        <v>82835</v>
+      </c>
+      <c r="O10" s="1">
         <v>66499</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P10" s="1">
         <v>66424</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q10" s="1">
         <v>70268</v>
       </c>
-      <c r="R5" s="1">
-        <f>Z5-SUM(O5:Q5)</f>
+      <c r="R10" s="1">
+        <f>AA10-SUM(O10:Q10)</f>
         <v>85640</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S10" s="1">
         <v>67791</v>
       </c>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1">
+      <c r="V10" s="1">
+        <v>111934</v>
+      </c>
+      <c r="W10" s="1">
+        <v>139156</v>
+      </c>
+      <c r="X10" s="1">
+        <v>165536</v>
+      </c>
+      <c r="Y10" s="1">
         <v>233307</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="Z10" s="1">
         <v>272344</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="AA10" s="1">
         <v>288831</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="1">
+      <c r="C11" s="1">
+        <v>8601</v>
+      </c>
+      <c r="D11" s="1">
+        <v>9271</v>
+      </c>
+      <c r="E11" s="1">
+        <v>10167</v>
+      </c>
+      <c r="G11" s="1">
+        <v>11531</v>
+      </c>
+      <c r="H11" s="1">
+        <v>13806</v>
+      </c>
+      <c r="I11" s="1">
         <v>14705</v>
       </c>
-      <c r="L6" s="1">
+      <c r="J11" s="1">
+        <f>Y11-I11-H11-G11</f>
+        <v>18475</v>
+      </c>
+      <c r="K11" s="1">
+        <v>16530</v>
+      </c>
+      <c r="L11" s="1">
         <v>17638</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M11" s="1">
         <v>18498</v>
       </c>
-      <c r="O6" s="1">
+      <c r="N11" s="1">
+        <f>Z11-M11-L11-K11</f>
+        <v>22445</v>
+      </c>
+      <c r="O11" s="1">
         <v>20271</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P11" s="1">
         <v>20342</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q11" s="1">
         <v>20583</v>
       </c>
-      <c r="R6" s="1">
-        <f t="shared" ref="R6:R10" si="0">Z6-SUM(O6:Q6)</f>
+      <c r="R11" s="1">
+        <f t="shared" ref="R11:R15" si="0">AA11-SUM(O11:Q11)</f>
         <v>23103</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S11" s="1">
         <v>20905</v>
       </c>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1">
+      <c r="V11" s="1">
+        <v>25249</v>
+      </c>
+      <c r="W11" s="1">
+        <v>34027</v>
+      </c>
+      <c r="X11" s="1">
+        <v>40232</v>
+      </c>
+      <c r="Y11" s="1">
         <v>58517</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="Z11" s="1">
         <v>75111</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="AA11" s="1">
         <v>84299</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="1">
+      <c r="C12" s="1">
+        <v>7927</v>
+      </c>
+      <c r="D12" s="1">
+        <v>9065</v>
+      </c>
+      <c r="E12" s="1">
+        <v>9200</v>
+      </c>
+      <c r="G12" s="1">
+        <v>9325</v>
+      </c>
+      <c r="H12" s="1">
+        <v>10388</v>
+      </c>
+      <c r="I12" s="1">
         <v>10976</v>
       </c>
-      <c r="L7" s="1">
+      <c r="J12" s="1">
+        <f>Y12-I12-H12-G12</f>
+        <v>12051</v>
+      </c>
+      <c r="K12" s="1">
+        <v>12488</v>
+      </c>
+      <c r="L12" s="1">
         <v>13871</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M12" s="1">
         <v>14380</v>
       </c>
-      <c r="O7" s="1">
+      <c r="N12" s="1">
+        <f>Z12-M12-L12-K12</f>
+        <v>15313</v>
+      </c>
+      <c r="O12" s="1">
         <v>14842</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P12" s="1">
         <v>18072</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q12" s="1">
         <v>19485</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R12" s="1">
         <f t="shared" si="0"/>
         <v>20814</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S12" s="1">
         <v>20450</v>
       </c>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1">
+      <c r="V12" s="1">
+        <v>22620</v>
+      </c>
+      <c r="W12" s="1">
+        <v>28837</v>
+      </c>
+      <c r="X12" s="1">
+        <v>35931</v>
+      </c>
+      <c r="Y12" s="1">
         <v>42740</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="Z12" s="1">
         <v>56052</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="AA12" s="1">
         <v>73213</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="1">
+      <c r="C13" s="1">
+        <v>3664</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4291</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4752</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4828</v>
+      </c>
+      <c r="H13" s="1">
+        <v>4345</v>
+      </c>
+      <c r="I13" s="1">
         <v>5434</v>
       </c>
-      <c r="L8" s="1">
+      <c r="J13" s="1">
+        <f>Y13-I13-H13-G13</f>
+        <v>7401</v>
+      </c>
+      <c r="K13" s="1">
+        <v>6207</v>
+      </c>
+      <c r="L13" s="1">
         <v>7524</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M13" s="1">
         <v>8010</v>
       </c>
-      <c r="O8" s="1">
+      <c r="N13" s="1">
+        <f>Z13-M13-L13-K13</f>
+        <v>10810</v>
+      </c>
+      <c r="O13" s="1">
         <v>8320</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P13" s="1">
         <v>10086</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q13" s="1">
         <v>11014</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R13" s="1">
         <f t="shared" si="0"/>
         <v>12818</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S13" s="1">
         <v>10172</v>
       </c>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1">
+      <c r="V13" s="1">
+        <v>10069</v>
+      </c>
+      <c r="W13" s="1">
+        <v>13814</v>
+      </c>
+      <c r="X13" s="1">
+        <v>18878</v>
+      </c>
+      <c r="Y13" s="1">
         <v>22008</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="Z13" s="1">
         <v>32551</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="AA13" s="1">
         <v>42238</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="1">
+      <c r="C14" s="1">
+        <v>1173</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1270</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1348</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1452</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1580</v>
+      </c>
+      <c r="I14" s="1">
         <v>1668</v>
       </c>
-      <c r="L9" s="1">
+      <c r="J14" s="1">
+        <f>Y14-I14-H14-G14</f>
+        <v>1968</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1987</v>
+      </c>
+      <c r="L14" s="1">
         <v>2158</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M14" s="1">
         <v>2153</v>
       </c>
-      <c r="O9" s="1">
+      <c r="N14" s="1">
+        <f>Z14-M14-L14-K14</f>
+        <v>2525</v>
+      </c>
+      <c r="O14" s="1">
         <v>2594</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P14" s="1">
         <v>2903</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q14" s="1">
         <v>3061</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R14" s="1">
         <f t="shared" si="0"/>
         <v>3333</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S14" s="1">
         <v>3043</v>
       </c>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1">
+      <c r="V14" s="1">
+        <v>3674</v>
+      </c>
+      <c r="W14" s="1">
+        <v>4336</v>
+      </c>
+      <c r="X14" s="1">
+        <v>5203</v>
+      </c>
+      <c r="Y14" s="1">
         <v>6668</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="Z14" s="1">
         <v>8823</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="AA14" s="1">
         <v>11891</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="1">
+      <c r="C15" s="1">
+        <v>-5</v>
+      </c>
+      <c r="D15" s="1">
+        <v>86</v>
+      </c>
+      <c r="E15" s="1">
+        <v>55</v>
+      </c>
+      <c r="G15" s="1">
+        <v>70</v>
+      </c>
+      <c r="H15" s="1">
+        <v>290</v>
+      </c>
+      <c r="I15" s="1">
         <v>62</v>
       </c>
-      <c r="L10" s="1">
+      <c r="J15" s="1">
+        <f>Y15-I15-H15-G15</f>
+        <v>-497</v>
+      </c>
+      <c r="K15" s="1">
+        <v>38</v>
+      </c>
+      <c r="L15" s="1">
         <v>11</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M15" s="1">
         <v>-11</v>
       </c>
-      <c r="O10" s="1">
+      <c r="N15" s="1">
+        <f>Z15-M15-L15-K15</f>
+        <v>24</v>
+      </c>
+      <c r="O15" s="1">
         <v>249</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P15" s="1">
         <v>90</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q15" s="1">
         <v>165</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R15" s="1">
         <f t="shared" si="0"/>
         <v>759</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S15" s="1">
         <v>223</v>
       </c>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1">
+      <c r="V15" s="1">
+        <v>214</v>
+      </c>
+      <c r="W15" s="1">
+        <v>296</v>
+      </c>
+      <c r="X15" s="1">
+        <v>201</v>
+      </c>
+      <c r="Y15" s="1">
         <v>-75</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="Z15" s="1">
         <v>62</v>
       </c>
-      <c r="Z10" s="1">
+      <c r="AA15" s="1">
         <v>1263</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="5">
-        <f>I4-SUM(I5:I10)</f>
+      <c r="C16" s="5">
+        <f>C9-SUM(C10:C15)</f>
+        <v>4420</v>
+      </c>
+      <c r="D16" s="5">
+        <f>D9-SUM(D10:D15)</f>
+        <v>3084</v>
+      </c>
+      <c r="E16" s="5">
+        <f>E9-SUM(E10:E15)</f>
+        <v>3157</v>
+      </c>
+      <c r="G16" s="5">
+        <f>G9-SUM(G10:G15)</f>
+        <v>3989</v>
+      </c>
+      <c r="H16" s="5">
+        <f>H9-SUM(H10:H15)</f>
+        <v>5843</v>
+      </c>
+      <c r="I16" s="5">
+        <f>I9-SUM(I10:I15)</f>
         <v>6194</v>
       </c>
-      <c r="L11" s="5">
-        <f>L4-SUM(L5:L10)</f>
+      <c r="J16" s="5">
+        <f>J9-SUM(J10:J15)</f>
+        <v>6873</v>
+      </c>
+      <c r="K16" s="5">
+        <f>K9-SUM(K10:K15)</f>
+        <v>8865</v>
+      </c>
+      <c r="L16" s="5">
+        <f>L9-SUM(L10:L15)</f>
         <v>7702</v>
       </c>
-      <c r="M11" s="5">
-        <f>M4-SUM(M5:M10)</f>
+      <c r="M16" s="5">
+        <f>M9-SUM(M10:M15)</f>
         <v>4852</v>
       </c>
-      <c r="O11" s="5">
-        <f>O4-SUM(O5:O10)</f>
+      <c r="N16" s="5">
+        <f>N9-SUM(N10:N15)</f>
+        <v>3460</v>
+      </c>
+      <c r="O16" s="5">
+        <f>O9-SUM(O10:O15)</f>
         <v>3669</v>
       </c>
-      <c r="P11" s="5">
-        <f>P4-SUM(P5:P10)</f>
+      <c r="P16" s="5">
+        <f>P9-SUM(P10:P15)</f>
         <v>3317</v>
       </c>
-      <c r="Q11" s="5">
-        <f>Q4-SUM(Q5:Q10)</f>
+      <c r="Q16" s="5">
+        <f>Q9-SUM(Q10:Q15)</f>
         <v>2525</v>
       </c>
-      <c r="R11" s="5">
-        <f>R4-SUM(R5:R10)</f>
+      <c r="R16" s="5">
+        <f>R9-SUM(R10:R15)</f>
         <v>2737</v>
       </c>
-      <c r="S11" s="5">
-        <f>S4-SUM(S5:S10)</f>
+      <c r="S16" s="5">
+        <f>S9-SUM(S10:S15)</f>
         <v>4774</v>
       </c>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5">
-        <f>X4-SUM(X5:X10)</f>
+      <c r="V16" s="5">
+        <f>V9-SUM(V10:V15)</f>
+        <v>4106</v>
+      </c>
+      <c r="W16" s="5">
+        <f>W9-SUM(W10:W15)</f>
+        <v>12421</v>
+      </c>
+      <c r="X16" s="5">
+        <f>X9-SUM(X10:X15)</f>
+        <v>14541</v>
+      </c>
+      <c r="Y16" s="5">
+        <f>Y9-SUM(Y10:Y15)</f>
         <v>22899</v>
       </c>
-      <c r="Y11" s="5">
-        <f>Y4-SUM(Y5:Y10)</f>
+      <c r="Z16" s="5">
+        <f>Z9-SUM(Z10:Z15)</f>
         <v>24879</v>
       </c>
-      <c r="Z11" s="5">
-        <f>Z4-SUM(Z5:Z10)</f>
+      <c r="AA16" s="5">
+        <f>AA9-SUM(AA10:AA15)</f>
         <v>12248</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="1">
+      <c r="C17" s="1">
+        <v>183</v>
+      </c>
+      <c r="D17" s="1">
+        <v>215</v>
+      </c>
+      <c r="E17" s="1">
+        <v>224</v>
+      </c>
+      <c r="G17" s="1">
+        <v>202</v>
+      </c>
+      <c r="H17" s="1">
+        <v>135</v>
+      </c>
+      <c r="I17" s="1">
         <v>118</v>
       </c>
-      <c r="L12" s="1">
+      <c r="J17" s="1">
+        <f>Y17-I17-H17-G17</f>
+        <v>100</v>
+      </c>
+      <c r="K17" s="1">
+        <v>105</v>
+      </c>
+      <c r="L17" s="1">
         <v>106</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M17" s="1">
         <v>119</v>
       </c>
-      <c r="O12" s="1">
+      <c r="N17" s="1">
+        <f>Z17-M17-L17-K17</f>
+        <v>118</v>
+      </c>
+      <c r="O17" s="1">
         <v>108</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P17" s="1">
         <v>159</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q17" s="1">
         <v>277</v>
       </c>
-      <c r="R12" s="1">
-        <f>Z12-SUM(O12:Q12)</f>
+      <c r="R17" s="1">
+        <f>AA17-SUM(O17:Q17)</f>
         <v>445</v>
       </c>
-      <c r="S12" s="1">
+      <c r="S17" s="1">
         <v>611</v>
       </c>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1">
+      <c r="V17" s="1">
+        <v>202</v>
+      </c>
+      <c r="W17" s="1">
+        <v>440</v>
+      </c>
+      <c r="X17" s="1">
+        <v>832</v>
+      </c>
+      <c r="Y17" s="1">
         <v>555</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="Z17" s="1">
         <v>448</v>
       </c>
-      <c r="Z12" s="1">
+      <c r="AA17" s="1">
         <v>989</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="1">
+      <c r="C18" s="1">
+        <v>-366</v>
+      </c>
+      <c r="D18" s="1">
+        <v>-383</v>
+      </c>
+      <c r="E18" s="1">
+        <v>-396</v>
+      </c>
+      <c r="G18" s="1">
+        <v>-402</v>
+      </c>
+      <c r="H18" s="1">
+        <v>-403</v>
+      </c>
+      <c r="I18" s="1">
         <v>-428</v>
       </c>
-      <c r="L13" s="1">
+      <c r="J18" s="1">
+        <f>Y18-I18-H18-G18</f>
+        <v>-414</v>
+      </c>
+      <c r="K18" s="1">
+        <v>-399</v>
+      </c>
+      <c r="L18" s="1">
         <v>-435</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M18" s="1">
         <v>-493</v>
       </c>
-      <c r="O13" s="1">
+      <c r="N18" s="1">
+        <f>Z18-M18-L18-K18</f>
+        <v>-482</v>
+      </c>
+      <c r="O18" s="1">
         <v>-472</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P18" s="1">
         <v>-584</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q18" s="1">
         <v>-617</v>
       </c>
-      <c r="R13" s="1">
-        <f t="shared" ref="R13:R14" si="1">Z13-SUM(O13:Q13)</f>
+      <c r="R18" s="1">
+        <f t="shared" ref="R18:R19" si="1">AA18-SUM(O18:Q18)</f>
         <v>-694</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S18" s="1">
         <v>-823</v>
       </c>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1">
+      <c r="V18" s="1">
+        <v>-848</v>
+      </c>
+      <c r="W18" s="1">
+        <v>-1417</v>
+      </c>
+      <c r="X18" s="1">
+        <v>-1600</v>
+      </c>
+      <c r="Y18" s="1">
         <v>-1647</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="Z18" s="1">
         <v>-1809</v>
       </c>
-      <c r="Z13" s="1">
+      <c r="AA18" s="1">
         <f>-2367</f>
         <v>-2367</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="1">
+      <c r="C19" s="1">
+        <v>164</v>
+      </c>
+      <c r="D19" s="1">
+        <v>-27</v>
+      </c>
+      <c r="E19" s="1">
+        <v>-353</v>
+      </c>
+      <c r="G19" s="1">
+        <v>-406</v>
+      </c>
+      <c r="H19" s="1">
+        <v>646</v>
+      </c>
+      <c r="I19" s="1">
         <v>925</v>
       </c>
-      <c r="L14" s="1">
+      <c r="J19" s="1">
+        <f>Y19-I19-H19-G19</f>
+        <v>1206</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1697</v>
+      </c>
+      <c r="L19" s="1">
         <v>1261</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M19" s="1">
         <v>-163</v>
       </c>
-      <c r="O14" s="1">
+      <c r="N19" s="1">
+        <f>Z19-M19-L19-K19</f>
+        <v>11838</v>
+      </c>
+      <c r="O19" s="1">
         <v>-8570</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P19" s="1">
         <v>-5545</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q19" s="1">
         <v>759</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R19" s="1">
         <f t="shared" si="1"/>
         <v>-3450</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S19" s="1">
         <v>-443</v>
       </c>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1">
+      <c r="V19" s="1">
+        <v>346</v>
+      </c>
+      <c r="W19" s="1">
+        <v>-183</v>
+      </c>
+      <c r="X19" s="1">
+        <v>203</v>
+      </c>
+      <c r="Y19" s="1">
         <v>2371</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="Z19" s="1">
         <v>14633</v>
       </c>
-      <c r="Z14" s="1">
+      <c r="AA19" s="8">
         <v>-16806</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>47</v>
       </c>
-      <c r="I15" s="5">
-        <f>I11+I12+I13+I14</f>
+      <c r="C20" s="5">
+        <f>C16+C17+C18+C19</f>
+        <v>4401</v>
+      </c>
+      <c r="D20" s="5">
+        <f>D16+D17+D18+D19</f>
+        <v>2889</v>
+      </c>
+      <c r="E20" s="5">
+        <f>E16+E17+E18+E19</f>
+        <v>2632</v>
+      </c>
+      <c r="G20" s="5">
+        <f>G16+G17+G18+G19</f>
+        <v>3383</v>
+      </c>
+      <c r="H20" s="5">
+        <f>H16+H17+H18+H19</f>
+        <v>6221</v>
+      </c>
+      <c r="I20" s="5">
+        <f>I16+I17+I18+I19</f>
         <v>6809</v>
       </c>
-      <c r="L15" s="5">
-        <f>L11+L12+L13+L14</f>
+      <c r="J20" s="5">
+        <f>J16+J17+J18+J19</f>
+        <v>7765</v>
+      </c>
+      <c r="K20" s="5">
+        <f>K16+K17+K18+K19</f>
+        <v>10268</v>
+      </c>
+      <c r="L20" s="5">
+        <f>L16+L17+L18+L19</f>
         <v>8634</v>
       </c>
-      <c r="M15" s="5">
-        <f>M11+M12+M13+M14</f>
+      <c r="M20" s="5">
+        <f>M16+M17+M18+M19</f>
         <v>4315</v>
       </c>
-      <c r="O15" s="5">
-        <f>O11+O12+O13+O14</f>
+      <c r="N20" s="5">
+        <f>N16+N17+N18+N19</f>
+        <v>14934</v>
+      </c>
+      <c r="O20" s="5">
+        <f>O16+O17+O18+O19</f>
         <v>-5265</v>
       </c>
-      <c r="P15" s="5">
-        <f>P11+P12+P13+P14</f>
+      <c r="P20" s="5">
+        <f>P16+P17+P18+P19</f>
         <v>-2653</v>
       </c>
-      <c r="Q15" s="5">
-        <f>Q11+Q12+Q13+Q14</f>
+      <c r="Q20" s="5">
+        <f>Q16+Q17+Q18+Q19</f>
         <v>2944</v>
       </c>
-      <c r="R15" s="5">
-        <f>R11+R12+R13+R14</f>
+      <c r="R20" s="5">
+        <f>R16+R17+R18+R19</f>
         <v>-962</v>
       </c>
-      <c r="S15" s="5">
-        <f>S11+S12+S13+S14</f>
+      <c r="S20" s="5">
+        <f>S16+S17+S18+S19</f>
         <v>4119</v>
       </c>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5">
-        <f>X11+X12+X13+X14</f>
+      <c r="V20" s="5">
+        <f>V16+V17+V18+V19</f>
+        <v>3806</v>
+      </c>
+      <c r="W20" s="5">
+        <f>W16+W17+W18+W19</f>
+        <v>11261</v>
+      </c>
+      <c r="X20" s="5">
+        <f>X16+X17+X18+X19</f>
+        <v>13976</v>
+      </c>
+      <c r="Y20" s="5">
+        <f>Y16+Y17+Y18+Y19</f>
         <v>24178</v>
       </c>
-      <c r="Y15" s="5">
-        <f>Y11+Y12+Y13+Y14</f>
+      <c r="Z20" s="5">
+        <f>Z16+Z17+Z18+Z19</f>
         <v>38151</v>
       </c>
-      <c r="Z15" s="5">
-        <f>Z11+Z12+Z13+Z14</f>
+      <c r="AA20" s="5">
+        <f>AA16+AA17+AA18+AA19</f>
         <v>-5936</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="1">
+      <c r="C21" s="1">
+        <f>-836-4</f>
+        <v>-840</v>
+      </c>
+      <c r="D21" s="1">
+        <f>-257-7</f>
+        <v>-264</v>
+      </c>
+      <c r="E21" s="1">
+        <f>-494-4</f>
+        <v>-498</v>
+      </c>
+      <c r="G21" s="1">
+        <f>-744-104</f>
+        <v>-848</v>
+      </c>
+      <c r="H21" s="1">
+        <f>-984+6</f>
+        <v>-978</v>
+      </c>
+      <c r="I21" s="1">
         <f>-569+91</f>
         <v>-478</v>
       </c>
-      <c r="L16" s="1">
+      <c r="J21" s="1">
+        <f>U21-I21-H21-G21</f>
+        <v>2304</v>
+      </c>
+      <c r="K21" s="1">
+        <f>-2156-5</f>
+        <v>-2161</v>
+      </c>
+      <c r="L21" s="1">
         <v>-868</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M21" s="1">
         <v>-1155</v>
       </c>
-      <c r="O16" s="1">
+      <c r="N21" s="1">
+        <f>Z21-M21-L21-K21</f>
+        <v>-603</v>
+      </c>
+      <c r="O21" s="1">
         <v>1422</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P21" s="1">
         <f>637-12</f>
         <v>625</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q21" s="1">
         <f>-69-3</f>
         <v>-72</v>
       </c>
-      <c r="R16" s="1">
-        <f>Z16-SUM(O16:Q16)</f>
+      <c r="R21" s="1">
+        <f>AA21-SUM(O21:Q21)</f>
         <v>1239</v>
       </c>
-      <c r="S16" s="1">
+      <c r="S21" s="1">
         <f>-948+1</f>
         <v>-947</v>
       </c>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1">
+      <c r="V21" s="1">
+        <f>-769-4</f>
+        <v>-773</v>
+      </c>
+      <c r="W21" s="1">
+        <f>-1197+9</f>
+        <v>-1188</v>
+      </c>
+      <c r="X21" s="1">
+        <f>-2374-14</f>
+        <v>-2388</v>
+      </c>
+      <c r="Y21" s="1">
         <v>-2863</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="Z21" s="1">
         <f>-4791+4</f>
         <v>-4787</v>
       </c>
-      <c r="Z16" s="1">
+      <c r="AA21" s="1">
         <f>3217-3</f>
         <v>3214</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="5">
-        <f>I15+I16</f>
+      <c r="C22" s="5">
+        <f>C20+C21</f>
+        <v>3561</v>
+      </c>
+      <c r="D22" s="5">
+        <f>D20+D21</f>
+        <v>2625</v>
+      </c>
+      <c r="E22" s="5">
+        <f>E20+E21</f>
+        <v>2134</v>
+      </c>
+      <c r="G22" s="5">
+        <f>G20+G21</f>
+        <v>2535</v>
+      </c>
+      <c r="H22" s="5">
+        <f>H20+H21</f>
+        <v>5243</v>
+      </c>
+      <c r="I22" s="5">
+        <f>I20+I21</f>
         <v>6331</v>
       </c>
-      <c r="L17" s="5">
-        <f>L15+L16</f>
+      <c r="J22" s="5">
+        <f>J20+J21</f>
+        <v>10069</v>
+      </c>
+      <c r="K22" s="5">
+        <f>K20+K21</f>
+        <v>8107</v>
+      </c>
+      <c r="L22" s="5">
+        <f>L20+L21</f>
         <v>7766</v>
       </c>
-      <c r="M17" s="5">
-        <f>M15+M16</f>
+      <c r="M22" s="5">
+        <f>M20+M21</f>
         <v>3160</v>
       </c>
-      <c r="O17" s="5">
-        <f>O15+O16</f>
+      <c r="N22" s="5">
+        <f>N20+N21</f>
+        <v>14331</v>
+      </c>
+      <c r="O22" s="5">
+        <f>O20+O21</f>
         <v>-3843</v>
       </c>
-      <c r="P17" s="5">
-        <f>P15+P16</f>
+      <c r="P22" s="5">
+        <f>P20+P21</f>
         <v>-2028</v>
       </c>
-      <c r="Q17" s="5">
-        <f>Q15+Q16</f>
+      <c r="Q22" s="5">
+        <f>Q20+Q21</f>
         <v>2872</v>
       </c>
-      <c r="R17" s="5">
-        <f>R15+R16</f>
+      <c r="R22" s="5">
+        <f>R20+R21</f>
         <v>277</v>
       </c>
-      <c r="S17" s="5">
-        <f>S15+S16</f>
+      <c r="S22" s="5">
+        <f>S20+S21</f>
         <v>3172</v>
       </c>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5">
-        <f>X15+X16</f>
+      <c r="V22" s="5">
+        <f>V20+V21</f>
+        <v>3033</v>
+      </c>
+      <c r="W22" s="5">
+        <f>W20+W21</f>
+        <v>10073</v>
+      </c>
+      <c r="X22" s="5">
+        <f>X20+X21</f>
+        <v>11588</v>
+      </c>
+      <c r="Y22" s="5">
+        <f>Y20+Y21</f>
         <v>21315</v>
       </c>
-      <c r="Y17" s="5">
-        <f>Y15+Y16</f>
+      <c r="Z22" s="5">
+        <f>Z20+Z21</f>
         <v>33364</v>
       </c>
-      <c r="Z17" s="5">
-        <f>Z15+Z16</f>
+      <c r="AA22" s="5">
+        <f>AA20+AA21</f>
         <v>-2722</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="W23" s="5">
+        <v>7267</v>
+      </c>
+      <c r="X23" s="5">
+        <v>7033</v>
+      </c>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="W24" s="5">
+        <v>-2142</v>
+      </c>
+      <c r="X24" s="5">
+        <v>-1693</v>
+      </c>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="W25" s="5">
+        <v>7296</v>
+      </c>
+      <c r="X25" s="5">
+        <v>9201</v>
+      </c>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>49</v>
       </c>
-      <c r="I18" s="3">
-        <f>I17/I19</f>
+      <c r="C26" s="3">
+        <f>C22/C27</f>
+        <v>7.2525458248472505</v>
+      </c>
+      <c r="D26" s="3">
+        <f>D22/D27</f>
+        <v>5.3245436105476678</v>
+      </c>
+      <c r="E26" s="3">
+        <f>E22/E27</f>
+        <v>4.3111111111111109</v>
+      </c>
+      <c r="G26" s="3">
+        <f>G22/G27</f>
+        <v>5.0903614457831328</v>
+      </c>
+      <c r="H26" s="3">
+        <f>H22/H27</f>
+        <v>10.486000000000001</v>
+      </c>
+      <c r="I26" s="3">
+        <f>I22/I27</f>
         <v>12.636726546906187</v>
       </c>
-      <c r="L18" s="3">
-        <f>L17/L19</f>
+      <c r="J26" s="3">
+        <f>J22/J27</f>
+        <v>20.097804391217565</v>
+      </c>
+      <c r="K26" s="3">
+        <f>K22/K27</f>
+        <v>16.085317460317459</v>
+      </c>
+      <c r="L26" s="3">
+        <f>L22/L27</f>
         <v>0.76868256953380187</v>
       </c>
-      <c r="M18" s="3">
-        <f>M17/M19</f>
+      <c r="M26" s="3">
+        <f>M22/M27</f>
         <v>0.31188314251875249</v>
       </c>
-      <c r="O18" s="3">
-        <f>O17/O19</f>
+      <c r="N26" s="3">
+        <f>N22/N27</f>
+        <v>1.4144295302013423</v>
+      </c>
+      <c r="O26" s="3">
+        <f>O22/O27</f>
         <v>-0.37783895388850652</v>
       </c>
-      <c r="P18" s="3">
-        <f>P17/P19</f>
+      <c r="P26" s="3">
+        <f>P22/P27</f>
         <v>-0.19931203931203931</v>
       </c>
-      <c r="Q18" s="3">
-        <f>Q17/Q19</f>
+      <c r="Q26" s="3">
+        <f>Q22/Q27</f>
         <v>0.28181728976547932</v>
       </c>
-      <c r="R18" s="3">
-        <f>Z18-SUM(O18:Q18)</f>
+      <c r="R26" s="3">
+        <f>AA26-SUM(O26:Q26)</f>
         <v>2.8182854480311437E-2</v>
       </c>
-      <c r="S18" s="3">
-        <f>S17/S19</f>
+      <c r="S26" s="3">
+        <f>S22/S27</f>
         <v>0.30946341463414634</v>
       </c>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3">
-        <f>X17/X19</f>
-        <v>2.1304347826086958</v>
-      </c>
-      <c r="Y18" s="3">
-        <f>Y17/Y19</f>
+      <c r="V26" s="3">
+        <f>V22/V27</f>
+        <v>6.3187499999999996</v>
+      </c>
+      <c r="W26" s="3">
+        <f>W22/W27</f>
+        <v>20.683778234086244</v>
+      </c>
+      <c r="X26" s="3">
+        <f>X22/X27</f>
+        <v>23.457489878542511</v>
+      </c>
+      <c r="Y26" s="3">
+        <f>Y22/Y27</f>
+        <v>42.544910179640716</v>
+      </c>
+      <c r="Z26" s="3">
+        <f>Z22/Z27</f>
         <v>3.2978155579717305</v>
       </c>
-      <c r="Z18" s="3">
-        <f>Z17/Z19</f>
+      <c r="AA26" s="3">
+        <f>AA22/AA27</f>
         <v>-0.2671508489547551</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>1</v>
       </c>
-      <c r="I19" s="1">
+      <c r="C27" s="1">
+        <v>491</v>
+      </c>
+      <c r="D27" s="1">
+        <v>493</v>
+      </c>
+      <c r="E27" s="1">
+        <v>495</v>
+      </c>
+      <c r="G27" s="1">
+        <v>498</v>
+      </c>
+      <c r="H27" s="1">
+        <v>500</v>
+      </c>
+      <c r="I27" s="1">
         <v>501</v>
       </c>
-      <c r="L19" s="1">
+      <c r="J27" s="1">
+        <v>501</v>
+      </c>
+      <c r="K27" s="1">
+        <v>504</v>
+      </c>
+      <c r="L27" s="1">
         <v>10103</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M27" s="1">
         <v>10132</v>
       </c>
-      <c r="O19" s="1">
+      <c r="N27" s="1">
+        <f>M27</f>
+        <v>10132</v>
+      </c>
+      <c r="O27" s="1">
         <v>10171</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P27" s="1">
         <v>10175</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q27" s="1">
         <v>10191</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R27" s="1">
         <v>10189</v>
       </c>
-      <c r="S19" s="1">
+      <c r="S27" s="1">
         <v>10250</v>
       </c>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1">
-        <v>10005</v>
-      </c>
-      <c r="Y19" s="1">
+      <c r="V27" s="1">
+        <v>480</v>
+      </c>
+      <c r="W27" s="1">
+        <v>487</v>
+      </c>
+      <c r="X27" s="1">
+        <v>494</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>501</v>
+      </c>
+      <c r="Z27" s="1">
         <v>10117</v>
       </c>
-      <c r="Z19" s="1">
+      <c r="AA27" s="1">
         <v>10189</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>50</v>
       </c>
-      <c r="O21" s="6" t="e">
-        <f t="shared" ref="O21:P21" si="2">O4/K4-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P21" s="6">
+      <c r="G29" s="6">
+        <f t="shared" ref="G29:H29" si="2">G9/C9-1</f>
+        <v>0.26385259631490787</v>
+      </c>
+      <c r="H29" s="6">
         <f t="shared" si="2"/>
+        <v>0.40230900258658764</v>
+      </c>
+      <c r="I29" s="6">
+        <f t="shared" ref="I29" si="3">I9/E9-1</f>
+        <v>0.37387290836084075</v>
+      </c>
+      <c r="J29" s="6" t="e">
+        <f t="shared" ref="J29" si="4">J9/F9-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K29" s="6">
+        <f t="shared" ref="K29" si="5">K9/G9-1</f>
+        <v>0.43823888034777081</v>
+      </c>
+      <c r="L29" s="6">
+        <f t="shared" ref="L29:M29" si="6">L9/H9-1</f>
+        <v>0.27181932697498645</v>
+      </c>
+      <c r="M29" s="6">
+        <f t="shared" si="6"/>
+        <v>0.15255083467679031</v>
+      </c>
+      <c r="N29" s="6">
+        <f>N9/J9-1</f>
+        <v>9.4436701047349692E-2</v>
+      </c>
+      <c r="O29" s="6">
+        <f>O9/K9-1</f>
+        <v>7.3038574245747334E-2</v>
+      </c>
+      <c r="P29" s="6">
+        <f>P9/L9-1</f>
         <v>7.2108241952600016E-2</v>
       </c>
-      <c r="Q21" s="6">
-        <f>Q4/M4-1</f>
+      <c r="Q29" s="6">
+        <f>Q9/M9-1</f>
         <v>0.14699671515720314</v>
       </c>
-      <c r="R21" s="6" t="e">
-        <f>R4/N4-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S21" s="6">
-        <f>S4/O4-1</f>
+      <c r="R29" s="6">
+        <f>R9/N9-1</f>
+        <v>8.5814921549791867E-2</v>
+      </c>
+      <c r="S29" s="6">
+        <f>S9/O9-1</f>
         <v>9.3727456975026602E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="s">
+      <c r="Z29" s="7">
+        <f>Z9/Y9-1</f>
+        <v>0.21695366571345676</v>
+      </c>
+      <c r="AA29" s="7">
+        <f>AA9/Z9-1</f>
+        <v>9.399517263985091E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="7">
+        <f t="shared" ref="C30:I30" si="7">C22/C9</f>
+        <v>5.9648241206030149E-2</v>
+      </c>
+      <c r="D30" s="7">
+        <f t="shared" si="7"/>
+        <v>4.1401173427544007E-2</v>
+      </c>
+      <c r="E30" s="7">
+        <f t="shared" si="7"/>
+        <v>3.0493991226189964E-2</v>
+      </c>
+      <c r="F30" s="7" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G30" s="7">
+        <f t="shared" si="7"/>
+        <v>3.3597518952446587E-2</v>
+      </c>
+      <c r="H30" s="7">
+        <f t="shared" si="7"/>
+        <v>5.896841821126507E-2</v>
+      </c>
+      <c r="I30" s="7">
+        <f t="shared" si="7"/>
+        <v>6.5848458058141351E-2</v>
+      </c>
+      <c r="J30" s="7">
+        <f t="shared" ref="J30:S30" si="8">J22/J9</f>
+        <v>8.0195930070487031E-2</v>
+      </c>
+      <c r="K30" s="7">
+        <f t="shared" si="8"/>
+        <v>7.470650030409702E-2</v>
+      </c>
+      <c r="L30" s="7">
+        <f t="shared" si="8"/>
+        <v>6.8677042801556426E-2</v>
+      </c>
+      <c r="M30" s="7">
+        <f t="shared" si="8"/>
+        <v>2.8516767137133161E-2</v>
+      </c>
+      <c r="N30" s="7">
+        <f t="shared" si="8"/>
+        <v>0.10429220155444939</v>
+      </c>
+      <c r="O30" s="7">
+        <f t="shared" si="8"/>
+        <v>-3.3002988561025043E-2</v>
+      </c>
+      <c r="P30" s="7">
+        <f t="shared" si="8"/>
+        <v>-1.6727980599501788E-2</v>
+      </c>
+      <c r="Q30" s="7">
+        <f t="shared" si="8"/>
+        <v>2.2596203019645794E-2</v>
+      </c>
+      <c r="R30" s="7">
+        <f t="shared" si="8"/>
+        <v>1.8565185919948526E-3</v>
+      </c>
+      <c r="S30" s="7">
+        <f t="shared" si="8"/>
+        <v>2.4906170008951147E-2</v>
+      </c>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7">
+        <f>V22/V9</f>
+        <v>1.7052162864178651E-2</v>
+      </c>
+      <c r="W30" s="7">
+        <f>W22/W9</f>
+        <v>4.3252736305590261E-2</v>
+      </c>
+      <c r="X30" s="7">
+        <f>X22/X9</f>
+        <v>4.1308703060722513E-2</v>
+      </c>
+      <c r="Y30" s="7">
+        <f>Y22/Y9</f>
+        <v>5.5211053089643171E-2</v>
+      </c>
+      <c r="Z30" s="7">
+        <f>Z22/Z9</f>
+        <v>7.1014128755145567E-2</v>
+      </c>
+      <c r="AA30" s="7">
+        <f>AA22/AA9</f>
+        <v>-5.2958950004183018E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="O22" s="6" t="e">
-        <f t="shared" ref="O22:P22" si="3">-(O17/K17-1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P22" s="6">
-        <f t="shared" si="3"/>
+      <c r="G31" s="10">
+        <f t="shared" ref="G31:J31" si="9">-(G22/C22-1)</f>
+        <v>0.2881213142375737</v>
+      </c>
+      <c r="H31" s="10">
+        <f t="shared" si="9"/>
+        <v>-0.9973333333333334</v>
+      </c>
+      <c r="I31" s="10">
+        <f t="shared" si="9"/>
+        <v>-1.9667291471415185</v>
+      </c>
+      <c r="J31" s="10" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K31" s="10">
+        <f>K22/G22-1</f>
+        <v>2.1980276134122287</v>
+      </c>
+      <c r="L31" s="10">
+        <f>-(L22/H22-1)</f>
+        <v>-0.48121304596604997</v>
+      </c>
+      <c r="M31" s="10">
+        <f t="shared" ref="M31" si="10">-(M22/I22-1)</f>
+        <v>0.50086874111514768</v>
+      </c>
+      <c r="N31" s="10">
+        <f t="shared" ref="N31" si="11">-(N22/J22-1)</f>
+        <v>-0.42327937233091673</v>
+      </c>
+      <c r="O31" s="10">
+        <f t="shared" ref="O31:P31" si="12">-(O22/K22-1)</f>
+        <v>1.4740347847539164</v>
+      </c>
+      <c r="P31" s="10">
+        <f t="shared" si="12"/>
         <v>1.2611382951326293</v>
       </c>
-      <c r="Q22" s="6">
-        <f>-(Q17/M17-1)</f>
+      <c r="Q31" s="10">
+        <f>-(Q22/M22-1)</f>
         <v>9.1139240506329156E-2</v>
       </c>
-      <c r="R22" s="6" t="e">
-        <f>-(R17/N17-1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S22" s="6">
-        <f>-(S17/O17-1)</f>
+      <c r="R31" s="10">
+        <f>-(R22/N22-1)</f>
+        <v>0.9806712720675459</v>
+      </c>
+      <c r="S31" s="10">
+        <f>-(S22/O22-1)</f>
         <v>1.8253968253968254</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" t="s">
+      <c r="W31" s="11">
+        <f>W22/V22-1</f>
+        <v>2.3211341905703922</v>
+      </c>
+      <c r="X31" s="11">
+        <f>X22/W22-1</f>
+        <v>0.1504020649260398</v>
+      </c>
+      <c r="Y31" s="11">
+        <f>Y22/X22-1</f>
+        <v>0.83940283051432507</v>
+      </c>
+      <c r="Z31" s="11">
+        <f>Z22/Y22-1</f>
+        <v>0.56528266479005396</v>
+      </c>
+      <c r="AA31" s="11">
+        <f>AA22/Z22-1</f>
+        <v>-1.0815849418534949</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>52</v>
       </c>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6">
-        <f>-Q16/Q15</f>
+      <c r="G32" s="6">
+        <f t="shared" ref="G32:K32" si="13">-G21/G20</f>
+        <v>0.25066509015666566</v>
+      </c>
+      <c r="H32" s="6">
+        <f t="shared" si="13"/>
+        <v>0.1572094518566147</v>
+      </c>
+      <c r="I32" s="6">
+        <f t="shared" si="13"/>
+        <v>7.0201204288441774E-2</v>
+      </c>
+      <c r="J32" s="6">
+        <f t="shared" si="13"/>
+        <v>-0.29671603348358017</v>
+      </c>
+      <c r="K32" s="6">
+        <f t="shared" si="13"/>
+        <v>0.21045968056096612</v>
+      </c>
+      <c r="L32" s="6">
+        <f>-L21/L20</f>
+        <v>0.1005327773917072</v>
+      </c>
+      <c r="M32" s="6">
+        <f>-M21/M20</f>
+        <v>0.26767091541135574</v>
+      </c>
+      <c r="N32" s="6">
+        <f>-N21/N20</f>
+        <v>4.0377661711530732E-2</v>
+      </c>
+      <c r="O32" s="6">
+        <f>-O21/O20</f>
+        <v>0.27008547008547007</v>
+      </c>
+      <c r="P32" s="6">
+        <f t="shared" ref="L32:P32" si="14">-P21/P20</f>
+        <v>0.23558235959291368</v>
+      </c>
+      <c r="Q32" s="6">
+        <f>-Q21/Q20</f>
         <v>2.4456521739130436E-2</v>
       </c>
-      <c r="R23" s="6">
-        <f>-R16/R15</f>
+      <c r="R32" s="6">
+        <f>-R21/R20</f>
         <v>1.287941787941788</v>
       </c>
-      <c r="S23" s="6">
-        <f>-S16/S15</f>
+      <c r="S32" s="6">
+        <f>-S21/S20</f>
         <v>0.22991017237193492</v>
       </c>
-      <c r="X23" s="6">
-        <f>-X16/X15</f>
+      <c r="W32" s="6">
+        <f>-W21/W20</f>
+        <v>0.10549684752686263</v>
+      </c>
+      <c r="X32" s="6">
+        <f>-X21/X20</f>
+        <v>0.1708643388666285</v>
+      </c>
+      <c r="Y32" s="6">
+        <f>-Y21/Y20</f>
         <v>0.1184134337000579</v>
       </c>
-      <c r="Y23" s="6">
-        <f>-Y16/Y15</f>
+      <c r="Z32" s="6">
+        <f>-Z21/Z20</f>
         <v>0.12547508584309716</v>
       </c>
-      <c r="Z23" s="6">
-        <f>-Z16/Z15</f>
+      <c r="AA32" s="6">
+        <f>-AA21/AA20</f>
         <v>0.5414420485175202</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" t="s">
+    <row r="33" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="7" t="e">
+        <f t="shared" ref="C35:S35" si="15">C3/SUM(C$3:C$5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D35" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E35" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F35" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G35" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H35" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I35" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J35" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K35" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L35" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M35" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N35" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O35" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P35" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q35" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R35" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S35" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7">
+        <f>W3/SUM(W$3:W$5)</f>
+        <v>0.6070154194952917</v>
+      </c>
+      <c r="X35" s="7">
+        <f>X3/SUM(X$3:X$5)</f>
+        <v>0.60871285857916013</v>
+      </c>
+      <c r="Y35" s="7" t="e">
+        <f>Y3/SUM(Y$3:Y$5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z35" s="7" t="e">
+        <f>Z3/SUM(Z$3:Z$5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA35" s="7" t="e">
+        <f>AA3/SUM(AA$3:AA$5)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="7" t="e">
+        <f t="shared" ref="C36:S36" si="16">C4/SUM(C$3:C$5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D36" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E36" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F36" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G36" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H36" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I36" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J36" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K36" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L36" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M36" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N36" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O36" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P36" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q36" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R36" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S36" s="7" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7">
+        <f>W4/SUM(W$3:W$5)</f>
+        <v>0.28282385878129734</v>
+      </c>
+      <c r="X36" s="7">
+        <f>X4/SUM(X$3:X$5)</f>
+        <v>0.26640925264366339</v>
+      </c>
+      <c r="Y36" s="7" t="e">
+        <f>Y4/SUM(Y$3:Y$5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z36" s="7" t="e">
+        <f>Z4/SUM(Z$3:Z$5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA36" s="7" t="e">
+        <f>AA4/SUM(AA$3:AA$5)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="7" t="e">
+        <f t="shared" ref="C37:S37" si="17">C5/SUM(C$3:C$5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D37" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E37" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F37" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G37" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H37" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I37" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J37" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K37" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L37" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M37" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N37" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O37" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P37" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q37" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R37" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S37" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7">
+        <f>W5/SUM(W$3:W$5)</f>
+        <v>0.11016072172341093</v>
+      </c>
+      <c r="X37" s="7">
+        <f>X5/SUM(X$3:X$5)</f>
+        <v>0.12487788877717643</v>
+      </c>
+      <c r="Y37" s="7" t="e">
+        <f>Y5/SUM(Y$3:Y$5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z37" s="7" t="e">
+        <f>Z5/SUM(Z$3:Z$5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA37" s="7" t="e">
+        <f>AA5/SUM(AA$3:AA$5)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="7" t="e">
+        <f t="shared" ref="C38:S38" si="18">C23/C3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D38" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F38" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G38" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H38" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I38" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J38" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K38" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L38" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M38" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N38" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O38" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P38" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q38" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R38" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S38" s="7" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7">
+        <f>W23/W3</f>
+        <v>5.1405571353790869E-2</v>
+      </c>
+      <c r="X38" s="7">
+        <f>X23/X3</f>
+        <v>4.1192973824626757E-2</v>
+      </c>
+      <c r="Y38" s="7" t="e">
+        <f>Y23/Y3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z38" s="7" t="e">
+        <f t="shared" ref="Z38:AA38" si="19">Z23/Z3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA38" s="7" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="7" t="e">
+        <f t="shared" ref="C39:S39" si="20">C24/C4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D39" s="7" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E39" s="7" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F39" s="7" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G39" s="7" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H39" s="7" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I39" s="7" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J39" s="7" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K39" s="7" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L39" s="7" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M39" s="7" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N39" s="7" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O39" s="7" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P39" s="7" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q39" s="7" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R39" s="7" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S39" s="7" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7">
+        <f>W24/W4</f>
+        <v>-3.2520572070567515E-2</v>
+      </c>
+      <c r="X39" s="7">
+        <f>X24/X4</f>
+        <v>-2.2657013235549965E-2</v>
+      </c>
+      <c r="Y39" s="7" t="e">
+        <f>Y24/Y4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z39" s="7" t="e">
+        <f t="shared" ref="Z39:AA39" si="21">Z24/Z4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA39" s="7" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="7" t="e">
+        <f t="shared" ref="C40:S40" si="22">C25/C5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D40" s="7" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E40" s="7" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F40" s="7" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G40" s="7" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H40" s="7" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I40" s="7" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J40" s="7" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K40" s="7" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L40" s="7" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M40" s="7" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N40" s="7" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O40" s="7" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P40" s="7" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q40" s="7" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R40" s="7" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S40" s="7" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7">
+        <f>W25/W5</f>
+        <v>0.28438900799064509</v>
+      </c>
+      <c r="X40" s="7">
+        <f>X25/X5</f>
+        <v>0.26269057271740992</v>
+      </c>
+      <c r="Y40" s="7" t="e">
+        <f>Y25/Y5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z40" s="7" t="e">
+        <f>Z25/Z5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA40" s="7" t="e">
+        <f>AA25/AA5</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/E-Com/AMZN.xlsx
+++ b/E-Com/AMZN.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\E-Com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40ADB66D-227D-4E33-980A-08127615B884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD012DF9-933C-41A0-85D5-CBC013E10987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="2175" windowWidth="16845" windowHeight="12285" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
+    <sheet name="Net Sales" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="96">
   <si>
     <t>Price</t>
   </si>
@@ -246,10 +247,85 @@
     <t>AWS Margin</t>
   </si>
   <si>
-    <t>Balance Sheeet</t>
-  </si>
-  <si>
     <t>FY17</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>Operating Leases</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>Accrued Exp.</t>
+  </si>
+  <si>
+    <t>Unearned Rev</t>
+  </si>
+  <si>
+    <t>Long-term Lease</t>
+  </si>
+  <si>
+    <t>Long-Term Debt</t>
+  </si>
+  <si>
+    <t>Other ltl</t>
+  </si>
+  <si>
+    <t>S/E</t>
+  </si>
+  <si>
+    <t>Liabilities</t>
+  </si>
+  <si>
+    <t>Net Sales</t>
+  </si>
+  <si>
+    <t>Online Stores</t>
+  </si>
+  <si>
+    <t>Physical Stores</t>
+  </si>
+  <si>
+    <t>Third-Party Seller Services</t>
+  </si>
+  <si>
+    <t>Subsciption Services</t>
+  </si>
+  <si>
+    <t>Advertising Services</t>
+  </si>
+  <si>
+    <t>AWS Growth y/y</t>
+  </si>
+  <si>
+    <t>ads y/y</t>
+  </si>
+  <si>
+    <t>aws y/y</t>
+  </si>
+  <si>
+    <t>3rd party y/y</t>
+  </si>
+  <si>
+    <t>Online y/y</t>
   </si>
 </sst>
 </file>
@@ -314,7 +390,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -324,10 +400,9 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -609,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="K2:S9"/>
+  <dimension ref="B2:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B15"/>
+      <selection activeCell="B4" sqref="B4:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,18 +696,18 @@
     <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K2" t="s">
         <v>0</v>
       </c>
       <c r="L2">
         <v>128.78</v>
       </c>
-      <c r="M2" s="12">
+      <c r="M2" s="9">
         <v>45119</v>
       </c>
     </row>
-    <row r="3" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K3" t="s">
         <v>1</v>
       </c>
@@ -640,7 +715,10 @@
         <v>10171</v>
       </c>
     </row>
-    <row r="4" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="K4" t="s">
         <v>2</v>
       </c>
@@ -649,29 +727,54 @@
         <v>1309821.3800000001</v>
       </c>
     </row>
-    <row r="5" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
       <c r="K5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
       <c r="K6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
       <c r="K7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
       <c r="K8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>90</v>
+      </c>
       <c r="S9" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -681,18 +784,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18DAFE1B-0872-4079-929A-2D64CB797B54}">
-  <dimension ref="A1:AC43"/>
+  <dimension ref="A1:AC62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U15" sqref="U15"/>
+      <selection pane="bottomRight" activeCell="V31" sqref="V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -754,7 +857,7 @@
         <v>17</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="W1" s="4" t="s">
         <v>24</v>
@@ -785,33 +888,234 @@
       <c r="A3" t="s">
         <v>61</v>
       </c>
+      <c r="C3" s="1">
+        <v>35812</v>
+      </c>
+      <c r="D3" s="1">
+        <v>38653</v>
+      </c>
+      <c r="E3" s="1">
+        <v>42638</v>
+      </c>
+      <c r="F3" s="1">
+        <f>X3-E3-D3-C3</f>
+        <v>53630</v>
+      </c>
+      <c r="G3" s="1">
+        <v>46127</v>
+      </c>
+      <c r="H3" s="1">
+        <v>55436</v>
+      </c>
+      <c r="I3" s="1">
+        <v>59373</v>
+      </c>
+      <c r="J3" s="1">
+        <f>Y3-I3-H3-G3</f>
+        <v>75346</v>
+      </c>
+      <c r="K3" s="1">
+        <v>64336</v>
+      </c>
+      <c r="L3" s="1">
+        <v>67550</v>
+      </c>
+      <c r="M3" s="1">
+        <v>65557</v>
+      </c>
+      <c r="N3" s="1">
+        <f>Z3-M3-L3-K3</f>
+        <v>82390</v>
+      </c>
+      <c r="O3" s="1">
+        <v>69244</v>
+      </c>
+      <c r="P3" s="1">
+        <v>74430</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>78843</v>
+      </c>
+      <c r="R3" s="1">
+        <f>AA3-SUM(O3:Q3)</f>
+        <v>93363</v>
+      </c>
+      <c r="S3" s="1">
+        <v>76881</v>
+      </c>
+      <c r="V3" s="1">
+        <v>106110</v>
+      </c>
       <c r="W3" s="1">
         <v>141366</v>
       </c>
       <c r="X3" s="1">
         <v>170733</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>236282</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>279833</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>315880</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
+      <c r="C4" s="1">
+        <v>16192</v>
+      </c>
+      <c r="D4" s="1">
+        <v>16370</v>
+      </c>
+      <c r="E4" s="1">
+        <v>18348</v>
+      </c>
+      <c r="F4" s="1">
+        <f>X4-E4-D4-C4</f>
+        <v>23813</v>
+      </c>
+      <c r="G4" s="1">
+        <v>19106</v>
+      </c>
+      <c r="H4" s="1">
+        <v>22668</v>
+      </c>
+      <c r="I4" s="1">
+        <v>25171</v>
+      </c>
+      <c r="J4" s="1">
+        <f>Y4-I4-H4-G4</f>
+        <v>37467</v>
+      </c>
+      <c r="K4" s="1">
+        <v>30649</v>
+      </c>
+      <c r="L4" s="1">
+        <v>30721</v>
+      </c>
+      <c r="M4" s="1">
+        <v>29145</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" ref="N4:N5" si="0">Z4-M4-L4-K4</f>
+        <v>37272</v>
+      </c>
+      <c r="O4" s="1">
+        <v>28759</v>
+      </c>
+      <c r="P4" s="1">
+        <v>27065</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>27720</v>
+      </c>
+      <c r="R4" s="1">
+        <f>AA4-SUM(O4:Q4)</f>
+        <v>34463</v>
+      </c>
+      <c r="S4" s="1">
+        <v>29123</v>
+      </c>
+      <c r="V4" s="1">
+        <v>54297</v>
+      </c>
       <c r="W4" s="1">
         <v>65866</v>
       </c>
       <c r="X4" s="1">
         <v>74723</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>104412</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>127787</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>118007</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>57</v>
       </c>
+      <c r="C5" s="1">
+        <v>7696</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8381</v>
+      </c>
+      <c r="E5" s="1">
+        <v>8995</v>
+      </c>
+      <c r="F5" s="1">
+        <f>X5-E5-D5-C5</f>
+        <v>9954</v>
+      </c>
+      <c r="G5" s="1">
+        <v>10219</v>
+      </c>
+      <c r="H5" s="1">
+        <v>10808</v>
+      </c>
+      <c r="I5" s="1">
+        <v>11601</v>
+      </c>
+      <c r="J5" s="1">
+        <f>Y5-I5-H5-G5</f>
+        <v>12742</v>
+      </c>
+      <c r="K5" s="1">
+        <v>13503</v>
+      </c>
+      <c r="L5" s="1">
+        <v>14809</v>
+      </c>
+      <c r="M5" s="1">
+        <v>16110</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="0"/>
+        <v>17780</v>
+      </c>
+      <c r="O5" s="1">
+        <v>18441</v>
+      </c>
+      <c r="P5" s="1">
+        <v>19739</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>20538</v>
+      </c>
+      <c r="R5" s="1">
+        <f>AA5-SUM(O5:Q5)</f>
+        <v>21378</v>
+      </c>
+      <c r="S5" s="1">
+        <v>21354</v>
+      </c>
+      <c r="V5" s="1">
+        <v>17459</v>
+      </c>
       <c r="W5" s="1">
         <v>25655</v>
       </c>
       <c r="X5" s="1">
         <v>35026</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>45370</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>62202</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>80096</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -830,6 +1134,10 @@
       <c r="E7" s="1">
         <v>39726</v>
       </c>
+      <c r="F7" s="1">
+        <f>X7-E7-D7-C7</f>
+        <v>50543</v>
+      </c>
       <c r="G7" s="1">
         <v>41841</v>
       </c>
@@ -903,6 +1211,10 @@
       </c>
       <c r="E8" s="1">
         <v>30255</v>
+      </c>
+      <c r="F8" s="1">
+        <f>X8-E8-D8-C8</f>
+        <v>36894</v>
       </c>
       <c r="G8" s="1">
         <v>33611</v>
@@ -982,81 +1294,84 @@
         <f>E7+E8</f>
         <v>69981</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="5">
+        <f>F7+F8</f>
+        <v>87437</v>
+      </c>
       <c r="G9" s="5">
-        <f>G7+G8</f>
+        <f t="shared" ref="G9:S9" si="1">G7+G8</f>
         <v>75452</v>
       </c>
       <c r="H9" s="5">
-        <f>H7+H8</f>
+        <f t="shared" si="1"/>
         <v>88912</v>
       </c>
       <c r="I9" s="5">
-        <f>I7+I8</f>
+        <f t="shared" si="1"/>
         <v>96145</v>
       </c>
       <c r="J9" s="5">
-        <f>J7+J8</f>
+        <f t="shared" si="1"/>
         <v>125555</v>
       </c>
       <c r="K9" s="5">
-        <f>K7+K8</f>
+        <f t="shared" si="1"/>
         <v>108518</v>
       </c>
       <c r="L9" s="5">
-        <f>L7+L8</f>
+        <f t="shared" si="1"/>
         <v>113080</v>
       </c>
       <c r="M9" s="5">
-        <f>M7+M8</f>
+        <f t="shared" si="1"/>
         <v>110812</v>
       </c>
       <c r="N9" s="5">
-        <f>N7+N8</f>
+        <f t="shared" si="1"/>
         <v>137412</v>
       </c>
       <c r="O9" s="5">
-        <f>O7+O8</f>
+        <f t="shared" si="1"/>
         <v>116444</v>
       </c>
       <c r="P9" s="5">
-        <f>P7+P8</f>
+        <f t="shared" si="1"/>
         <v>121234</v>
       </c>
       <c r="Q9" s="5">
-        <f>Q7+Q8</f>
+        <f t="shared" si="1"/>
         <v>127101</v>
       </c>
       <c r="R9" s="5">
-        <f>R7+R8</f>
+        <f t="shared" si="1"/>
         <v>149204</v>
       </c>
       <c r="S9" s="5">
-        <f>S7+S8</f>
+        <f t="shared" si="1"/>
         <v>127358</v>
       </c>
       <c r="V9" s="5">
-        <f>V7+V8</f>
+        <f t="shared" ref="V9:AA9" si="2">V7+V8</f>
         <v>177866</v>
       </c>
       <c r="W9" s="5">
-        <f>W7+W8</f>
+        <f t="shared" si="2"/>
         <v>232887</v>
       </c>
       <c r="X9" s="5">
-        <f>X7+X8</f>
+        <f t="shared" si="2"/>
         <v>280522</v>
       </c>
       <c r="Y9" s="5">
-        <f>Y7+Y8</f>
+        <f t="shared" si="2"/>
         <v>386064</v>
       </c>
       <c r="Z9" s="5">
-        <f>Z7+Z8</f>
+        <f t="shared" si="2"/>
         <v>469822</v>
       </c>
       <c r="AA9" s="5">
-        <f>AA7+AA8</f>
+        <f t="shared" si="2"/>
         <v>513983</v>
       </c>
     </row>
@@ -1073,6 +1388,10 @@
       <c r="E10" s="1">
         <v>41302</v>
       </c>
+      <c r="F10" s="1">
+        <f>X10-E10-D10-C10</f>
+        <v>53977</v>
+      </c>
       <c r="G10" s="1">
         <v>44257</v>
       </c>
@@ -1083,7 +1402,7 @@
         <v>57106</v>
       </c>
       <c r="J10" s="1">
-        <f>Y10-I10-H10-G10</f>
+        <f t="shared" ref="J10:J15" si="3">Y10-I10-H10-G10</f>
         <v>79284</v>
       </c>
       <c r="K10" s="1">
@@ -1096,7 +1415,7 @@
         <v>62930</v>
       </c>
       <c r="N10" s="1">
-        <f>Z10-M10-L10-K10</f>
+        <f t="shared" ref="N10:N15" si="4">Z10-M10-L10-K10</f>
         <v>82835</v>
       </c>
       <c r="O10" s="1">
@@ -1147,6 +1466,10 @@
       <c r="E11" s="1">
         <v>10167</v>
       </c>
+      <c r="F11" s="1">
+        <f>X11-E11-D11-C11</f>
+        <v>12193</v>
+      </c>
       <c r="G11" s="1">
         <v>11531</v>
       </c>
@@ -1157,7 +1480,7 @@
         <v>14705</v>
       </c>
       <c r="J11" s="1">
-        <f>Y11-I11-H11-G11</f>
+        <f t="shared" si="3"/>
         <v>18475</v>
       </c>
       <c r="K11" s="1">
@@ -1170,7 +1493,7 @@
         <v>18498</v>
       </c>
       <c r="N11" s="1">
-        <f>Z11-M11-L11-K11</f>
+        <f t="shared" si="4"/>
         <v>22445</v>
       </c>
       <c r="O11" s="1">
@@ -1183,7 +1506,7 @@
         <v>20583</v>
       </c>
       <c r="R11" s="1">
-        <f t="shared" ref="R11:R15" si="0">AA11-SUM(O11:Q11)</f>
+        <f t="shared" ref="R11:R15" si="5">AA11-SUM(O11:Q11)</f>
         <v>23103</v>
       </c>
       <c r="S11" s="1">
@@ -1221,6 +1544,10 @@
       <c r="E12" s="1">
         <v>9200</v>
       </c>
+      <c r="F12" s="1">
+        <f>X12-E12-D12-C12</f>
+        <v>9739</v>
+      </c>
       <c r="G12" s="1">
         <v>9325</v>
       </c>
@@ -1231,7 +1558,7 @@
         <v>10976</v>
       </c>
       <c r="J12" s="1">
-        <f>Y12-I12-H12-G12</f>
+        <f t="shared" si="3"/>
         <v>12051</v>
       </c>
       <c r="K12" s="1">
@@ -1244,7 +1571,7 @@
         <v>14380</v>
       </c>
       <c r="N12" s="1">
-        <f>Z12-M12-L12-K12</f>
+        <f t="shared" si="4"/>
         <v>15313</v>
       </c>
       <c r="O12" s="1">
@@ -1257,7 +1584,7 @@
         <v>19485</v>
       </c>
       <c r="R12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>20814</v>
       </c>
       <c r="S12" s="1">
@@ -1295,6 +1622,10 @@
       <c r="E13" s="1">
         <v>4752</v>
       </c>
+      <c r="F13" s="1">
+        <f>X13-E13-D13-C13</f>
+        <v>6171</v>
+      </c>
       <c r="G13" s="1">
         <v>4828</v>
       </c>
@@ -1305,7 +1636,7 @@
         <v>5434</v>
       </c>
       <c r="J13" s="1">
-        <f>Y13-I13-H13-G13</f>
+        <f t="shared" si="3"/>
         <v>7401</v>
       </c>
       <c r="K13" s="1">
@@ -1318,7 +1649,7 @@
         <v>8010</v>
       </c>
       <c r="N13" s="1">
-        <f>Z13-M13-L13-K13</f>
+        <f t="shared" si="4"/>
         <v>10810</v>
       </c>
       <c r="O13" s="1">
@@ -1331,7 +1662,7 @@
         <v>11014</v>
       </c>
       <c r="R13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>12818</v>
       </c>
       <c r="S13" s="1">
@@ -1369,6 +1700,10 @@
       <c r="E14" s="1">
         <v>1348</v>
       </c>
+      <c r="F14" s="1">
+        <f>X14-E14-D14-C14</f>
+        <v>1412</v>
+      </c>
       <c r="G14" s="1">
         <v>1452</v>
       </c>
@@ -1379,7 +1714,7 @@
         <v>1668</v>
       </c>
       <c r="J14" s="1">
-        <f>Y14-I14-H14-G14</f>
+        <f t="shared" si="3"/>
         <v>1968</v>
       </c>
       <c r="K14" s="1">
@@ -1392,7 +1727,7 @@
         <v>2153</v>
       </c>
       <c r="N14" s="1">
-        <f>Z14-M14-L14-K14</f>
+        <f t="shared" si="4"/>
         <v>2525</v>
       </c>
       <c r="O14" s="1">
@@ -1405,7 +1740,7 @@
         <v>3061</v>
       </c>
       <c r="R14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3333</v>
       </c>
       <c r="S14" s="1">
@@ -1443,6 +1778,10 @@
       <c r="E15" s="1">
         <v>55</v>
       </c>
+      <c r="F15" s="1">
+        <f>X15-E15-D15-C15</f>
+        <v>65</v>
+      </c>
       <c r="G15" s="1">
         <v>70</v>
       </c>
@@ -1453,7 +1792,7 @@
         <v>62</v>
       </c>
       <c r="J15" s="1">
-        <f>Y15-I15-H15-G15</f>
+        <f t="shared" si="3"/>
         <v>-497</v>
       </c>
       <c r="K15" s="1">
@@ -1466,7 +1805,7 @@
         <v>-11</v>
       </c>
       <c r="N15" s="1">
-        <f>Z15-M15-L15-K15</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="O15" s="1">
@@ -1479,7 +1818,7 @@
         <v>165</v>
       </c>
       <c r="R15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>759</v>
       </c>
       <c r="S15" s="1">
@@ -1520,80 +1859,84 @@
         <f>E9-SUM(E10:E15)</f>
         <v>3157</v>
       </c>
+      <c r="F16" s="5">
+        <f>F9-SUM(F10:F15)</f>
+        <v>3880</v>
+      </c>
       <c r="G16" s="5">
-        <f>G9-SUM(G10:G15)</f>
+        <f t="shared" ref="G16:S16" si="6">G9-SUM(G10:G15)</f>
         <v>3989</v>
       </c>
       <c r="H16" s="5">
-        <f>H9-SUM(H10:H15)</f>
+        <f t="shared" si="6"/>
         <v>5843</v>
       </c>
       <c r="I16" s="5">
-        <f>I9-SUM(I10:I15)</f>
+        <f t="shared" si="6"/>
         <v>6194</v>
       </c>
       <c r="J16" s="5">
-        <f>J9-SUM(J10:J15)</f>
+        <f t="shared" si="6"/>
         <v>6873</v>
       </c>
       <c r="K16" s="5">
-        <f>K9-SUM(K10:K15)</f>
+        <f t="shared" si="6"/>
         <v>8865</v>
       </c>
       <c r="L16" s="5">
-        <f>L9-SUM(L10:L15)</f>
+        <f t="shared" si="6"/>
         <v>7702</v>
       </c>
       <c r="M16" s="5">
-        <f>M9-SUM(M10:M15)</f>
+        <f t="shared" si="6"/>
         <v>4852</v>
       </c>
       <c r="N16" s="5">
-        <f>N9-SUM(N10:N15)</f>
+        <f t="shared" si="6"/>
         <v>3460</v>
       </c>
       <c r="O16" s="5">
-        <f>O9-SUM(O10:O15)</f>
+        <f t="shared" si="6"/>
         <v>3669</v>
       </c>
       <c r="P16" s="5">
-        <f>P9-SUM(P10:P15)</f>
+        <f t="shared" si="6"/>
         <v>3317</v>
       </c>
       <c r="Q16" s="5">
-        <f>Q9-SUM(Q10:Q15)</f>
+        <f t="shared" si="6"/>
         <v>2525</v>
       </c>
       <c r="R16" s="5">
-        <f>R9-SUM(R10:R15)</f>
+        <f t="shared" si="6"/>
         <v>2737</v>
       </c>
       <c r="S16" s="5">
-        <f>S9-SUM(S10:S15)</f>
+        <f t="shared" si="6"/>
         <v>4774</v>
       </c>
       <c r="V16" s="5">
-        <f>V9-SUM(V10:V15)</f>
+        <f t="shared" ref="V16:AA16" si="7">V9-SUM(V10:V15)</f>
         <v>4106</v>
       </c>
       <c r="W16" s="5">
-        <f>W9-SUM(W10:W15)</f>
+        <f t="shared" si="7"/>
         <v>12421</v>
       </c>
       <c r="X16" s="5">
-        <f>X9-SUM(X10:X15)</f>
+        <f t="shared" si="7"/>
         <v>14541</v>
       </c>
       <c r="Y16" s="5">
-        <f>Y9-SUM(Y10:Y15)</f>
+        <f t="shared" si="7"/>
         <v>22899</v>
       </c>
       <c r="Z16" s="5">
-        <f>Z9-SUM(Z10:Z15)</f>
+        <f t="shared" si="7"/>
         <v>24879</v>
       </c>
       <c r="AA16" s="5">
-        <f>AA9-SUM(AA10:AA15)</f>
+        <f t="shared" si="7"/>
         <v>12248</v>
       </c>
     </row>
@@ -1610,6 +1953,10 @@
       <c r="E17" s="1">
         <v>224</v>
       </c>
+      <c r="F17" s="1">
+        <f>X17-E17-D17-C17</f>
+        <v>210</v>
+      </c>
       <c r="G17" s="1">
         <v>202</v>
       </c>
@@ -1684,6 +2031,10 @@
       <c r="E18" s="1">
         <v>-396</v>
       </c>
+      <c r="F18" s="1">
+        <f>X18-E18-D18-C18</f>
+        <v>-455</v>
+      </c>
       <c r="G18" s="1">
         <v>-402</v>
       </c>
@@ -1720,7 +2071,7 @@
         <v>-617</v>
       </c>
       <c r="R18" s="1">
-        <f t="shared" ref="R18:R19" si="1">AA18-SUM(O18:Q18)</f>
+        <f t="shared" ref="R18:R19" si="8">AA18-SUM(O18:Q18)</f>
         <v>-694</v>
       </c>
       <c r="S18" s="1">
@@ -1759,6 +2110,10 @@
       <c r="E19" s="1">
         <v>-353</v>
       </c>
+      <c r="F19" s="1">
+        <f>X19-E19-D19-C19</f>
+        <v>419</v>
+      </c>
       <c r="G19" s="1">
         <v>-406</v>
       </c>
@@ -1795,7 +2150,7 @@
         <v>759</v>
       </c>
       <c r="R19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>-3450</v>
       </c>
       <c r="S19" s="1">
@@ -1836,80 +2191,84 @@
         <f>E16+E17+E18+E19</f>
         <v>2632</v>
       </c>
+      <c r="F20" s="5">
+        <f>F16+F17+F18+F19</f>
+        <v>4054</v>
+      </c>
       <c r="G20" s="5">
-        <f>G16+G17+G18+G19</f>
+        <f t="shared" ref="G20:S20" si="9">G16+G17+G18+G19</f>
         <v>3383</v>
       </c>
       <c r="H20" s="5">
-        <f>H16+H17+H18+H19</f>
+        <f t="shared" si="9"/>
         <v>6221</v>
       </c>
       <c r="I20" s="5">
-        <f>I16+I17+I18+I19</f>
+        <f t="shared" si="9"/>
         <v>6809</v>
       </c>
       <c r="J20" s="5">
-        <f>J16+J17+J18+J19</f>
+        <f t="shared" si="9"/>
         <v>7765</v>
       </c>
       <c r="K20" s="5">
-        <f>K16+K17+K18+K19</f>
+        <f t="shared" si="9"/>
         <v>10268</v>
       </c>
       <c r="L20" s="5">
-        <f>L16+L17+L18+L19</f>
+        <f t="shared" si="9"/>
         <v>8634</v>
       </c>
       <c r="M20" s="5">
-        <f>M16+M17+M18+M19</f>
+        <f t="shared" si="9"/>
         <v>4315</v>
       </c>
       <c r="N20" s="5">
-        <f>N16+N17+N18+N19</f>
+        <f t="shared" si="9"/>
         <v>14934</v>
       </c>
       <c r="O20" s="5">
-        <f>O16+O17+O18+O19</f>
+        <f t="shared" si="9"/>
         <v>-5265</v>
       </c>
       <c r="P20" s="5">
-        <f>P16+P17+P18+P19</f>
+        <f t="shared" si="9"/>
         <v>-2653</v>
       </c>
       <c r="Q20" s="5">
-        <f>Q16+Q17+Q18+Q19</f>
+        <f t="shared" si="9"/>
         <v>2944</v>
       </c>
       <c r="R20" s="5">
-        <f>R16+R17+R18+R19</f>
+        <f t="shared" si="9"/>
         <v>-962</v>
       </c>
       <c r="S20" s="5">
-        <f>S16+S17+S18+S19</f>
+        <f t="shared" si="9"/>
         <v>4119</v>
       </c>
       <c r="V20" s="5">
-        <f>V16+V17+V18+V19</f>
+        <f t="shared" ref="V20:AA20" si="10">V16+V17+V18+V19</f>
         <v>3806</v>
       </c>
       <c r="W20" s="5">
-        <f>W16+W17+W18+W19</f>
+        <f t="shared" si="10"/>
         <v>11261</v>
       </c>
       <c r="X20" s="5">
-        <f>X16+X17+X18+X19</f>
+        <f t="shared" si="10"/>
         <v>13976</v>
       </c>
       <c r="Y20" s="5">
-        <f>Y16+Y17+Y18+Y19</f>
+        <f t="shared" si="10"/>
         <v>24178</v>
       </c>
       <c r="Z20" s="5">
-        <f>Z16+Z17+Z18+Z19</f>
+        <f t="shared" si="10"/>
         <v>38151</v>
       </c>
       <c r="AA20" s="5">
-        <f>AA16+AA17+AA18+AA19</f>
+        <f t="shared" si="10"/>
         <v>-5936</v>
       </c>
     </row>
@@ -1929,6 +2288,10 @@
         <f>-494-4</f>
         <v>-498</v>
       </c>
+      <c r="F21" s="1">
+        <f>X21-E21-D21-C21</f>
+        <v>-786</v>
+      </c>
       <c r="G21" s="1">
         <f>-744-104</f>
         <v>-848</v>
@@ -2018,172 +2381,320 @@
         <f>E20+E21</f>
         <v>2134</v>
       </c>
+      <c r="F22" s="5">
+        <f>F20+F21</f>
+        <v>3268</v>
+      </c>
       <c r="G22" s="5">
-        <f>G20+G21</f>
+        <f t="shared" ref="G22:S22" si="11">G20+G21</f>
         <v>2535</v>
       </c>
       <c r="H22" s="5">
-        <f>H20+H21</f>
+        <f t="shared" si="11"/>
         <v>5243</v>
       </c>
       <c r="I22" s="5">
-        <f>I20+I21</f>
+        <f t="shared" si="11"/>
         <v>6331</v>
       </c>
       <c r="J22" s="5">
-        <f>J20+J21</f>
+        <f t="shared" si="11"/>
         <v>10069</v>
       </c>
       <c r="K22" s="5">
-        <f>K20+K21</f>
+        <f t="shared" si="11"/>
         <v>8107</v>
       </c>
       <c r="L22" s="5">
-        <f>L20+L21</f>
+        <f t="shared" si="11"/>
         <v>7766</v>
       </c>
       <c r="M22" s="5">
-        <f>M20+M21</f>
+        <f t="shared" si="11"/>
         <v>3160</v>
       </c>
       <c r="N22" s="5">
-        <f>N20+N21</f>
+        <f t="shared" si="11"/>
         <v>14331</v>
       </c>
       <c r="O22" s="5">
-        <f>O20+O21</f>
+        <f t="shared" si="11"/>
         <v>-3843</v>
       </c>
       <c r="P22" s="5">
-        <f>P20+P21</f>
+        <f t="shared" si="11"/>
         <v>-2028</v>
       </c>
       <c r="Q22" s="5">
-        <f>Q20+Q21</f>
+        <f t="shared" si="11"/>
         <v>2872</v>
       </c>
       <c r="R22" s="5">
-        <f>R20+R21</f>
+        <f t="shared" si="11"/>
         <v>277</v>
       </c>
       <c r="S22" s="5">
-        <f>S20+S21</f>
+        <f t="shared" si="11"/>
         <v>3172</v>
       </c>
       <c r="V22" s="5">
-        <f>V20+V21</f>
+        <f t="shared" ref="V22:AA22" si="12">V20+V21</f>
         <v>3033</v>
       </c>
       <c r="W22" s="5">
-        <f>W20+W21</f>
+        <f t="shared" si="12"/>
         <v>10073</v>
       </c>
       <c r="X22" s="5">
-        <f>X20+X21</f>
+        <f t="shared" si="12"/>
         <v>11588</v>
       </c>
       <c r="Y22" s="5">
-        <f>Y20+Y21</f>
+        <f t="shared" si="12"/>
         <v>21315</v>
       </c>
       <c r="Z22" s="5">
-        <f>Z20+Z21</f>
+        <f t="shared" si="12"/>
         <v>33364</v>
       </c>
       <c r="AA22" s="5">
-        <f>AA20+AA21</f>
+        <f t="shared" si="12"/>
         <v>-2722</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="W23" s="5">
+      <c r="C23" s="11">
+        <v>2287</v>
+      </c>
+      <c r="D23" s="11">
+        <v>1564</v>
+      </c>
+      <c r="E23" s="11">
+        <v>1282</v>
+      </c>
+      <c r="F23" s="1">
+        <f>X23-E23-D23-C23</f>
+        <v>1900</v>
+      </c>
+      <c r="G23" s="11">
+        <v>1312</v>
+      </c>
+      <c r="H23" s="11">
+        <v>2141</v>
+      </c>
+      <c r="I23" s="11">
+        <v>2252</v>
+      </c>
+      <c r="J23" s="1">
+        <f>Y23-I23-H23-G23</f>
+        <v>2946</v>
+      </c>
+      <c r="K23" s="11">
+        <v>3450</v>
+      </c>
+      <c r="L23" s="11">
+        <v>3147</v>
+      </c>
+      <c r="M23" s="11">
+        <v>880</v>
+      </c>
+      <c r="N23" s="1">
+        <f>Z23-M23-L23-K23</f>
+        <v>-206</v>
+      </c>
+      <c r="O23" s="11">
+        <v>-1568</v>
+      </c>
+      <c r="P23" s="11">
+        <v>-627</v>
+      </c>
+      <c r="Q23" s="11">
+        <v>-412</v>
+      </c>
+      <c r="R23" s="1">
+        <f>AA23-SUM(O23:Q23)</f>
+        <v>-240</v>
+      </c>
+      <c r="S23" s="11">
+        <v>898</v>
+      </c>
+      <c r="V23" s="10">
+        <v>2837</v>
+      </c>
+      <c r="W23" s="11">
         <v>7267</v>
       </c>
-      <c r="X23" s="5">
+      <c r="X23" s="11">
         <v>7033</v>
       </c>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="Y23" s="11">
+        <v>8651</v>
+      </c>
+      <c r="Z23" s="11">
+        <v>7271</v>
+      </c>
+      <c r="AA23" s="11">
+        <v>-2847</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="W24" s="5">
+      <c r="C24" s="11">
+        <v>-90</v>
+      </c>
+      <c r="D24" s="11">
+        <v>-601</v>
+      </c>
+      <c r="E24" s="11">
+        <v>-386</v>
+      </c>
+      <c r="F24" s="1">
+        <f>X24-E24-D24-C24</f>
+        <v>-616</v>
+      </c>
+      <c r="G24" s="11">
+        <v>-398</v>
+      </c>
+      <c r="H24" s="11">
+        <v>345</v>
+      </c>
+      <c r="I24" s="11">
+        <v>407</v>
+      </c>
+      <c r="J24" s="1">
+        <f>Y24-I24-H24-G24</f>
+        <v>363</v>
+      </c>
+      <c r="K24" s="11">
+        <v>1252</v>
+      </c>
+      <c r="L24" s="11">
+        <v>362</v>
+      </c>
+      <c r="M24" s="11">
+        <v>-911</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" ref="N24:N25" si="13">Z24-M24-L24-K24</f>
+        <v>-1627</v>
+      </c>
+      <c r="O24" s="11">
+        <v>-1281</v>
+      </c>
+      <c r="P24" s="11">
+        <v>-1771</v>
+      </c>
+      <c r="Q24" s="11">
+        <v>-2466</v>
+      </c>
+      <c r="R24" s="1">
+        <f>AA24-SUM(O24:Q24)</f>
+        <v>-2228</v>
+      </c>
+      <c r="S24" s="11">
+        <v>-1247</v>
+      </c>
+      <c r="V24" s="10">
+        <v>-3062</v>
+      </c>
+      <c r="W24" s="11">
         <v>-2142</v>
       </c>
-      <c r="X24" s="5">
+      <c r="X24" s="11">
         <v>-1693</v>
       </c>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="Y24" s="11">
+        <v>717</v>
+      </c>
+      <c r="Z24" s="11">
+        <v>-924</v>
+      </c>
+      <c r="AA24" s="11">
+        <v>-7746</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="W25" s="5">
+      <c r="C25" s="11">
+        <v>2223</v>
+      </c>
+      <c r="D25" s="11">
+        <v>2121</v>
+      </c>
+      <c r="E25" s="11">
+        <v>2261</v>
+      </c>
+      <c r="F25" s="1">
+        <f>X25-E25-D25-C25</f>
+        <v>2596</v>
+      </c>
+      <c r="G25" s="11">
+        <v>3075</v>
+      </c>
+      <c r="H25" s="11">
+        <v>3357</v>
+      </c>
+      <c r="I25" s="11">
+        <v>3535</v>
+      </c>
+      <c r="J25" s="1">
+        <f>Y25-I25-H25-G25</f>
+        <v>3564</v>
+      </c>
+      <c r="K25" s="11">
+        <v>4163</v>
+      </c>
+      <c r="L25" s="11">
+        <v>4193</v>
+      </c>
+      <c r="M25" s="11">
+        <v>4883</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="13"/>
+        <v>5293</v>
+      </c>
+      <c r="O25" s="11">
+        <v>6518</v>
+      </c>
+      <c r="P25" s="11">
+        <v>5715</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>5403</v>
+      </c>
+      <c r="R25" s="1">
+        <f>AA25-SUM(O25:Q25)</f>
+        <v>5205</v>
+      </c>
+      <c r="S25" s="11">
+        <v>5123</v>
+      </c>
+      <c r="V25" s="10">
+        <v>4331</v>
+      </c>
+      <c r="W25" s="11">
         <v>7296</v>
       </c>
-      <c r="X25" s="5">
+      <c r="X25" s="11">
         <v>9201</v>
       </c>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
+      <c r="Y25" s="11">
+        <v>13531</v>
+      </c>
+      <c r="Z25" s="11">
+        <v>18532</v>
+      </c>
+      <c r="AA25" s="11">
+        <v>22841</v>
+      </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -2201,48 +2712,52 @@
         <f>E22/E27</f>
         <v>4.3111111111111109</v>
       </c>
+      <c r="F26" s="3">
+        <f>F22/F27</f>
+        <v>6.6020202020202019</v>
+      </c>
       <c r="G26" s="3">
-        <f>G22/G27</f>
+        <f t="shared" ref="G26:Q26" si="14">G22/G27</f>
         <v>5.0903614457831328</v>
       </c>
       <c r="H26" s="3">
-        <f>H22/H27</f>
+        <f t="shared" si="14"/>
         <v>10.486000000000001</v>
       </c>
       <c r="I26" s="3">
-        <f>I22/I27</f>
+        <f t="shared" si="14"/>
         <v>12.636726546906187</v>
       </c>
       <c r="J26" s="3">
-        <f>J22/J27</f>
+        <f t="shared" si="14"/>
         <v>20.097804391217565</v>
       </c>
       <c r="K26" s="3">
-        <f>K22/K27</f>
+        <f t="shared" si="14"/>
         <v>16.085317460317459</v>
       </c>
       <c r="L26" s="3">
-        <f>L22/L27</f>
+        <f t="shared" si="14"/>
         <v>0.76868256953380187</v>
       </c>
       <c r="M26" s="3">
-        <f>M22/M27</f>
+        <f t="shared" si="14"/>
         <v>0.31188314251875249</v>
       </c>
       <c r="N26" s="3">
-        <f>N22/N27</f>
+        <f t="shared" si="14"/>
         <v>1.4144295302013423</v>
       </c>
       <c r="O26" s="3">
-        <f>O22/O27</f>
+        <f t="shared" si="14"/>
         <v>-0.37783895388850652</v>
       </c>
       <c r="P26" s="3">
-        <f>P22/P27</f>
+        <f t="shared" si="14"/>
         <v>-0.19931203931203931</v>
       </c>
       <c r="Q26" s="3">
-        <f>Q22/Q27</f>
+        <f t="shared" si="14"/>
         <v>0.28181728976547932</v>
       </c>
       <c r="R26" s="3">
@@ -2254,27 +2769,27 @@
         <v>0.30946341463414634</v>
       </c>
       <c r="V26" s="3">
-        <f>V22/V27</f>
+        <f t="shared" ref="V26:AA26" si="15">V22/V27</f>
         <v>6.3187499999999996</v>
       </c>
       <c r="W26" s="3">
-        <f>W22/W27</f>
+        <f t="shared" si="15"/>
         <v>20.683778234086244</v>
       </c>
       <c r="X26" s="3">
-        <f>X22/X27</f>
+        <f t="shared" si="15"/>
         <v>23.457489878542511</v>
       </c>
       <c r="Y26" s="3">
-        <f>Y22/Y27</f>
+        <f t="shared" si="15"/>
         <v>42.544910179640716</v>
       </c>
       <c r="Z26" s="3">
-        <f>Z22/Z27</f>
+        <f t="shared" si="15"/>
         <v>3.2978155579717305</v>
       </c>
       <c r="AA26" s="3">
-        <f>AA22/AA27</f>
+        <f t="shared" si="15"/>
         <v>-0.2671508489547551</v>
       </c>
     </row>
@@ -2291,6 +2806,9 @@
       <c r="E27" s="1">
         <v>495</v>
       </c>
+      <c r="F27" s="1">
+        <v>495</v>
+      </c>
       <c r="G27" s="1">
         <v>498</v>
       </c>
@@ -2355,56 +2873,69 @@
         <v>50</v>
       </c>
       <c r="G29" s="6">
-        <f t="shared" ref="G29:H29" si="2">G9/C9-1</f>
+        <f t="shared" ref="G29:H29" si="16">G9/C9-1</f>
         <v>0.26385259631490787</v>
       </c>
       <c r="H29" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>0.40230900258658764</v>
       </c>
       <c r="I29" s="6">
-        <f t="shared" ref="I29" si="3">I9/E9-1</f>
+        <f t="shared" ref="I29" si="17">I9/E9-1</f>
         <v>0.37387290836084075</v>
       </c>
-      <c r="J29" s="6" t="e">
-        <f t="shared" ref="J29" si="4">J9/F9-1</f>
-        <v>#DIV/0!</v>
+      <c r="J29" s="6">
+        <f t="shared" ref="J29" si="18">J9/F9-1</f>
+        <v>0.43594816839553041</v>
       </c>
       <c r="K29" s="6">
-        <f t="shared" ref="K29" si="5">K9/G9-1</f>
+        <f t="shared" ref="K29" si="19">K9/G9-1</f>
         <v>0.43823888034777081</v>
       </c>
       <c r="L29" s="6">
-        <f t="shared" ref="L29:M29" si="6">L9/H9-1</f>
+        <f t="shared" ref="L29:M29" si="20">L9/H9-1</f>
         <v>0.27181932697498645</v>
       </c>
       <c r="M29" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>0.15255083467679031</v>
       </c>
       <c r="N29" s="6">
-        <f>N9/J9-1</f>
+        <f t="shared" ref="N29:S29" si="21">N9/J9-1</f>
         <v>9.4436701047349692E-2</v>
       </c>
       <c r="O29" s="6">
-        <f>O9/K9-1</f>
+        <f t="shared" si="21"/>
         <v>7.3038574245747334E-2</v>
       </c>
       <c r="P29" s="6">
-        <f>P9/L9-1</f>
+        <f t="shared" si="21"/>
         <v>7.2108241952600016E-2</v>
       </c>
       <c r="Q29" s="6">
-        <f>Q9/M9-1</f>
+        <f t="shared" si="21"/>
         <v>0.14699671515720314</v>
       </c>
       <c r="R29" s="6">
-        <f>R9/N9-1</f>
+        <f t="shared" si="21"/>
         <v>8.5814921549791867E-2</v>
       </c>
       <c r="S29" s="6">
-        <f>S9/O9-1</f>
+        <f t="shared" si="21"/>
         <v>9.3727456975026602E-2</v>
+      </c>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7">
+        <f>W9/V9-1</f>
+        <v>0.3093396152159491</v>
+      </c>
+      <c r="X29" s="7">
+        <f t="shared" ref="W29:Y29" si="22">X9/W9-1</f>
+        <v>0.20454125820676983</v>
+      </c>
+      <c r="Y29" s="7">
+        <f t="shared" si="22"/>
+        <v>0.37623430604373276</v>
       </c>
       <c r="Z29" s="7">
         <f>Z9/Y9-1</f>
@@ -2417,845 +2948,1313 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" s="6">
+        <f t="shared" ref="G30" si="23">G5/C5-1</f>
+        <v>0.32783264033264037</v>
+      </c>
+      <c r="H30" s="6">
+        <f t="shared" ref="H30" si="24">H5/D5-1</f>
+        <v>0.28958358191146649</v>
+      </c>
+      <c r="I30" s="6">
+        <f t="shared" ref="I30" si="25">I5/E5-1</f>
+        <v>0.28971650917176217</v>
+      </c>
+      <c r="J30" s="6">
+        <f t="shared" ref="J30" si="26">J5/F5-1</f>
+        <v>0.28008840667068524</v>
+      </c>
+      <c r="K30" s="6">
+        <f t="shared" ref="K30:N30" si="27">K5/G5-1</f>
+        <v>0.32136216850963883</v>
+      </c>
+      <c r="L30" s="6">
+        <f t="shared" si="27"/>
+        <v>0.37018874907475952</v>
+      </c>
+      <c r="M30" s="6">
+        <f t="shared" si="27"/>
+        <v>0.3886733902249806</v>
+      </c>
+      <c r="N30" s="6">
+        <f t="shared" si="27"/>
+        <v>0.39538533982106427</v>
+      </c>
+      <c r="O30" s="6">
+        <f>O5/K5-1</f>
+        <v>0.36569651188624741</v>
+      </c>
+      <c r="P30" s="6">
+        <f t="shared" ref="K30:R30" si="28">P5/L5-1</f>
+        <v>0.33290566547369838</v>
+      </c>
+      <c r="Q30" s="6">
+        <f t="shared" si="28"/>
+        <v>0.27486033519553077</v>
+      </c>
+      <c r="R30" s="6">
+        <f t="shared" si="28"/>
+        <v>0.20236220472440936</v>
+      </c>
+      <c r="S30" s="6">
+        <f>S5/O5-1</f>
+        <v>0.157963234097934</v>
+      </c>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7">
+        <f>W5/V5-1</f>
+        <v>0.46944269431238905</v>
+      </c>
+      <c r="X30" s="7">
+        <f t="shared" ref="X30:AA30" si="29">X5/W5-1</f>
+        <v>0.36526992788930035</v>
+      </c>
+      <c r="Y30" s="7">
+        <f t="shared" si="29"/>
+        <v>0.29532347399074976</v>
+      </c>
+      <c r="Z30" s="7">
+        <f t="shared" si="29"/>
+        <v>0.37099404893101173</v>
+      </c>
+      <c r="AA30" s="7">
+        <f t="shared" si="29"/>
+        <v>0.28767563743931057</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="7">
-        <f t="shared" ref="C30:I30" si="7">C22/C9</f>
+      <c r="C31" s="7">
+        <f t="shared" ref="C31:I31" si="30">C22/C9</f>
         <v>5.9648241206030149E-2</v>
       </c>
-      <c r="D30" s="7">
-        <f t="shared" si="7"/>
+      <c r="D31" s="7">
+        <f t="shared" si="30"/>
         <v>4.1401173427544007E-2</v>
       </c>
-      <c r="E30" s="7">
-        <f t="shared" si="7"/>
+      <c r="E31" s="7">
+        <f t="shared" si="30"/>
         <v>3.0493991226189964E-2</v>
       </c>
-      <c r="F30" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G30" s="7">
-        <f t="shared" si="7"/>
+      <c r="F31" s="7">
+        <f t="shared" si="30"/>
+        <v>3.7375481775449755E-2</v>
+      </c>
+      <c r="G31" s="7">
+        <f t="shared" si="30"/>
         <v>3.3597518952446587E-2</v>
       </c>
-      <c r="H30" s="7">
-        <f t="shared" si="7"/>
+      <c r="H31" s="7">
+        <f t="shared" si="30"/>
         <v>5.896841821126507E-2</v>
       </c>
-      <c r="I30" s="7">
-        <f t="shared" si="7"/>
+      <c r="I31" s="7">
+        <f t="shared" si="30"/>
         <v>6.5848458058141351E-2</v>
       </c>
-      <c r="J30" s="7">
-        <f t="shared" ref="J30:S30" si="8">J22/J9</f>
+      <c r="J31" s="7">
+        <f t="shared" ref="J31:S31" si="31">J22/J9</f>
         <v>8.0195930070487031E-2</v>
       </c>
-      <c r="K30" s="7">
-        <f t="shared" si="8"/>
+      <c r="K31" s="7">
+        <f t="shared" si="31"/>
         <v>7.470650030409702E-2</v>
       </c>
-      <c r="L30" s="7">
-        <f t="shared" si="8"/>
+      <c r="L31" s="7">
+        <f t="shared" si="31"/>
         <v>6.8677042801556426E-2</v>
       </c>
-      <c r="M30" s="7">
-        <f t="shared" si="8"/>
+      <c r="M31" s="7">
+        <f t="shared" si="31"/>
         <v>2.8516767137133161E-2</v>
       </c>
-      <c r="N30" s="7">
-        <f t="shared" si="8"/>
+      <c r="N31" s="7">
+        <f t="shared" si="31"/>
         <v>0.10429220155444939</v>
       </c>
-      <c r="O30" s="7">
-        <f t="shared" si="8"/>
+      <c r="O31" s="7">
+        <f t="shared" si="31"/>
         <v>-3.3002988561025043E-2</v>
       </c>
-      <c r="P30" s="7">
-        <f t="shared" si="8"/>
+      <c r="P31" s="7">
+        <f t="shared" si="31"/>
         <v>-1.6727980599501788E-2</v>
       </c>
-      <c r="Q30" s="7">
-        <f t="shared" si="8"/>
+      <c r="Q31" s="7">
+        <f t="shared" si="31"/>
         <v>2.2596203019645794E-2</v>
       </c>
-      <c r="R30" s="7">
-        <f t="shared" si="8"/>
+      <c r="R31" s="7">
+        <f t="shared" si="31"/>
         <v>1.8565185919948526E-3</v>
       </c>
-      <c r="S30" s="7">
-        <f t="shared" si="8"/>
+      <c r="S31" s="7">
+        <f t="shared" si="31"/>
         <v>2.4906170008951147E-2</v>
       </c>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7">
-        <f>V22/V9</f>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7">
+        <f t="shared" ref="V31:AA31" si="32">V22/V9</f>
         <v>1.7052162864178651E-2</v>
       </c>
-      <c r="W30" s="7">
-        <f>W22/W9</f>
+      <c r="W31" s="7">
+        <f t="shared" si="32"/>
         <v>4.3252736305590261E-2</v>
       </c>
-      <c r="X30" s="7">
-        <f>X22/X9</f>
+      <c r="X31" s="7">
+        <f t="shared" si="32"/>
         <v>4.1308703060722513E-2</v>
       </c>
-      <c r="Y30" s="7">
-        <f>Y22/Y9</f>
+      <c r="Y31" s="7">
+        <f t="shared" si="32"/>
         <v>5.5211053089643171E-2</v>
       </c>
-      <c r="Z30" s="7">
-        <f>Z22/Z9</f>
+      <c r="Z31" s="7">
+        <f t="shared" si="32"/>
         <v>7.1014128755145567E-2</v>
       </c>
-      <c r="AA30" s="7">
-        <f>AA22/AA9</f>
+      <c r="AA31" s="7">
+        <f t="shared" si="32"/>
         <v>-5.2958950004183018E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>51</v>
       </c>
-      <c r="G31" s="10">
-        <f t="shared" ref="G31:J31" si="9">-(G22/C22-1)</f>
+      <c r="G32" s="6">
+        <f t="shared" ref="G32:J32" si="33">-(G22/C22-1)</f>
         <v>0.2881213142375737</v>
       </c>
-      <c r="H31" s="10">
-        <f t="shared" si="9"/>
+      <c r="H32" s="6">
+        <f t="shared" si="33"/>
         <v>-0.9973333333333334</v>
       </c>
-      <c r="I31" s="10">
-        <f t="shared" si="9"/>
+      <c r="I32" s="6">
+        <f t="shared" si="33"/>
         <v>-1.9667291471415185</v>
       </c>
-      <c r="J31" s="10" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K31" s="10">
+      <c r="J32" s="6">
+        <f t="shared" si="33"/>
+        <v>-2.0810893512851898</v>
+      </c>
+      <c r="K32" s="6">
         <f>K22/G22-1</f>
         <v>2.1980276134122287</v>
       </c>
-      <c r="L31" s="10">
+      <c r="L32" s="6">
         <f>-(L22/H22-1)</f>
         <v>-0.48121304596604997</v>
       </c>
-      <c r="M31" s="10">
-        <f t="shared" ref="M31" si="10">-(M22/I22-1)</f>
+      <c r="M32" s="6">
+        <f t="shared" ref="M32" si="34">-(M22/I22-1)</f>
         <v>0.50086874111514768</v>
       </c>
-      <c r="N31" s="10">
-        <f t="shared" ref="N31" si="11">-(N22/J22-1)</f>
+      <c r="N32" s="6">
+        <f t="shared" ref="N32" si="35">-(N22/J22-1)</f>
         <v>-0.42327937233091673</v>
       </c>
-      <c r="O31" s="10">
-        <f t="shared" ref="O31:P31" si="12">-(O22/K22-1)</f>
+      <c r="O32" s="6">
+        <f t="shared" ref="O32:P32" si="36">-(O22/K22-1)</f>
         <v>1.4740347847539164</v>
       </c>
-      <c r="P31" s="10">
-        <f t="shared" si="12"/>
+      <c r="P32" s="6">
+        <f t="shared" si="36"/>
         <v>1.2611382951326293</v>
       </c>
-      <c r="Q31" s="10">
+      <c r="Q32" s="6">
         <f>-(Q22/M22-1)</f>
         <v>9.1139240506329156E-2</v>
       </c>
-      <c r="R31" s="10">
+      <c r="R32" s="6">
         <f>-(R22/N22-1)</f>
         <v>0.9806712720675459</v>
       </c>
-      <c r="S31" s="10">
+      <c r="S32" s="6">
         <f>-(S22/O22-1)</f>
         <v>1.8253968253968254</v>
       </c>
-      <c r="W31" s="11">
+      <c r="W32" s="7">
         <f>W22/V22-1</f>
         <v>2.3211341905703922</v>
       </c>
-      <c r="X31" s="11">
+      <c r="X32" s="7">
         <f>X22/W22-1</f>
         <v>0.1504020649260398</v>
       </c>
-      <c r="Y31" s="11">
+      <c r="Y32" s="7">
         <f>Y22/X22-1</f>
         <v>0.83940283051432507</v>
       </c>
-      <c r="Z31" s="11">
+      <c r="Z32" s="7">
         <f>Z22/Y22-1</f>
         <v>0.56528266479005396</v>
       </c>
-      <c r="AA31" s="11">
+      <c r="AA32" s="7">
         <f>AA22/Z22-1</f>
         <v>-1.0815849418534949</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>52</v>
       </c>
-      <c r="G32" s="6">
-        <f t="shared" ref="G32:K32" si="13">-G21/G20</f>
+      <c r="G33" s="6">
+        <f t="shared" ref="G33:K33" si="37">-G21/G20</f>
         <v>0.25066509015666566</v>
       </c>
-      <c r="H32" s="6">
-        <f t="shared" si="13"/>
+      <c r="H33" s="6">
+        <f t="shared" si="37"/>
         <v>0.1572094518566147</v>
       </c>
-      <c r="I32" s="6">
-        <f t="shared" si="13"/>
+      <c r="I33" s="6">
+        <f t="shared" si="37"/>
         <v>7.0201204288441774E-2</v>
       </c>
-      <c r="J32" s="6">
-        <f t="shared" si="13"/>
+      <c r="J33" s="6">
+        <f t="shared" si="37"/>
         <v>-0.29671603348358017</v>
       </c>
-      <c r="K32" s="6">
-        <f t="shared" si="13"/>
+      <c r="K33" s="6">
+        <f t="shared" si="37"/>
         <v>0.21045968056096612</v>
       </c>
-      <c r="L32" s="6">
+      <c r="L33" s="6">
         <f>-L21/L20</f>
         <v>0.1005327773917072</v>
       </c>
-      <c r="M32" s="6">
+      <c r="M33" s="6">
         <f>-M21/M20</f>
         <v>0.26767091541135574</v>
       </c>
-      <c r="N32" s="6">
+      <c r="N33" s="6">
         <f>-N21/N20</f>
         <v>4.0377661711530732E-2</v>
       </c>
-      <c r="O32" s="6">
+      <c r="O33" s="6">
         <f>-O21/O20</f>
         <v>0.27008547008547007</v>
       </c>
-      <c r="P32" s="6">
-        <f t="shared" ref="L32:P32" si="14">-P21/P20</f>
+      <c r="P33" s="6">
+        <f t="shared" ref="P33" si="38">-P21/P20</f>
         <v>0.23558235959291368</v>
       </c>
-      <c r="Q32" s="6">
+      <c r="Q33" s="6">
         <f>-Q21/Q20</f>
         <v>2.4456521739130436E-2</v>
       </c>
-      <c r="R32" s="6">
+      <c r="R33" s="6">
         <f>-R21/R20</f>
         <v>1.287941787941788</v>
       </c>
-      <c r="S32" s="6">
+      <c r="S33" s="6">
         <f>-S21/S20</f>
         <v>0.22991017237193492</v>
       </c>
-      <c r="W32" s="6">
+      <c r="W33" s="6">
         <f>-W21/W20</f>
         <v>0.10549684752686263</v>
       </c>
-      <c r="X32" s="6">
+      <c r="X33" s="6">
         <f>-X21/X20</f>
         <v>0.1708643388666285</v>
       </c>
-      <c r="Y32" s="6">
+      <c r="Y33" s="6">
         <f>-Y21/Y20</f>
         <v>0.1184134337000579</v>
       </c>
-      <c r="Z32" s="6">
+      <c r="Z33" s="6">
         <f>-Z21/Z20</f>
         <v>0.12547508584309716</v>
       </c>
-      <c r="AA32" s="6">
+      <c r="AA33" s="6">
         <f>-AA21/AA20</f>
         <v>0.5414420485175202</v>
       </c>
     </row>
-    <row r="33" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+    <row r="34" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="7" t="e">
-        <f t="shared" ref="C35:S35" si="15">C3/SUM(C$3:C$5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D35" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E35" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F35" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G35" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H35" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I35" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J35" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K35" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L35" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M35" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N35" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O35" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P35" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q35" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R35" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S35" s="7" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T35" s="7"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="7"/>
-      <c r="W35" s="7">
-        <f>W3/SUM(W$3:W$5)</f>
-        <v>0.6070154194952917</v>
-      </c>
-      <c r="X35" s="7">
-        <f>X3/SUM(X$3:X$5)</f>
-        <v>0.60871285857916013</v>
-      </c>
-      <c r="Y35" s="7" t="e">
-        <f>Y3/SUM(Y$3:Y$5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z35" s="7" t="e">
-        <f>Z3/SUM(Z$3:Z$5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA35" s="7" t="e">
-        <f>AA3/SUM(AA$3:AA$5)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="7" t="e">
-        <f t="shared" ref="C36:S36" si="16">C4/SUM(C$3:C$5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D36" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E36" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F36" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G36" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H36" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I36" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J36" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K36" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L36" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M36" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N36" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O36" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P36" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q36" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R36" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S36" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+      <c r="C36" s="7">
+        <f t="shared" ref="C36:S36" si="39">C3/SUM(C$3:C$5)</f>
+        <v>0.59986599664991624</v>
+      </c>
+      <c r="D36" s="7">
+        <f t="shared" si="39"/>
+        <v>0.60963030723613654</v>
+      </c>
+      <c r="E36" s="7">
+        <f t="shared" si="39"/>
+        <v>0.6092796616224404</v>
+      </c>
+      <c r="F36" s="7">
+        <f t="shared" si="39"/>
+        <v>0.61363662368273508</v>
+      </c>
+      <c r="G36" s="7">
+        <f t="shared" si="39"/>
+        <v>0.61134231034299957</v>
+      </c>
+      <c r="H36" s="7">
+        <f t="shared" si="39"/>
+        <v>0.62349289184811951</v>
+      </c>
+      <c r="I36" s="7">
+        <f t="shared" si="39"/>
+        <v>0.61753601331322483</v>
+      </c>
+      <c r="J36" s="7">
+        <f>J3/SUM(J$3:J$5)</f>
+        <v>0.60010354028115165</v>
+      </c>
+      <c r="K36" s="7">
+        <f t="shared" si="39"/>
+        <v>0.59302411326598337</v>
+      </c>
+      <c r="L36" s="7">
+        <f t="shared" si="39"/>
+        <v>0.59736469755925004</v>
+      </c>
+      <c r="M36" s="7">
+        <f t="shared" si="39"/>
+        <v>0.5916056022813414</v>
+      </c>
+      <c r="N36" s="7">
+        <f t="shared" si="39"/>
+        <v>0.59945286011553967</v>
+      </c>
+      <c r="O36" s="7">
+        <f t="shared" si="39"/>
+        <v>0.59465494143107411</v>
+      </c>
+      <c r="P36" s="7">
+        <f t="shared" si="39"/>
+        <v>0.61393668442846061</v>
+      </c>
+      <c r="Q36" s="7">
+        <f t="shared" si="39"/>
+        <v>0.62031770009677345</v>
+      </c>
+      <c r="R36" s="7">
+        <f t="shared" si="39"/>
+        <v>0.62574059676684268</v>
+      </c>
+      <c r="S36" s="7">
+        <f t="shared" si="39"/>
+        <v>0.60366054743321973</v>
       </c>
       <c r="T36" s="7"/>
       <c r="U36" s="7"/>
       <c r="V36" s="7"/>
       <c r="W36" s="7">
-        <f>W4/SUM(W$3:W$5)</f>
-        <v>0.28282385878129734</v>
+        <f t="shared" ref="W36:AA38" si="40">W3/SUM(W$3:W$5)</f>
+        <v>0.6070154194952917</v>
       </c>
       <c r="X36" s="7">
-        <f>X4/SUM(X$3:X$5)</f>
-        <v>0.26640925264366339</v>
-      </c>
-      <c r="Y36" s="7" t="e">
-        <f>Y4/SUM(Y$3:Y$5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z36" s="7" t="e">
-        <f>Z4/SUM(Z$3:Z$5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA36" s="7" t="e">
-        <f>AA4/SUM(AA$3:AA$5)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="40"/>
+        <v>0.60871285857916013</v>
+      </c>
+      <c r="Y36" s="7">
+        <f t="shared" si="40"/>
+        <v>0.61202805752414102</v>
+      </c>
+      <c r="Z36" s="7">
+        <f t="shared" si="40"/>
+        <v>0.59561493501794294</v>
+      </c>
+      <c r="AA36" s="7">
+        <f t="shared" si="40"/>
+        <v>0.61457285552245888</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" s="7" t="e">
-        <f t="shared" ref="C37:S37" si="17">C5/SUM(C$3:C$5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D37" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E37" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F37" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G37" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H37" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I37" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J37" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K37" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L37" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M37" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N37" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O37" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P37" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q37" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R37" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S37" s="7" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>59</v>
+      </c>
+      <c r="C37" s="7">
+        <f t="shared" ref="C37:S37" si="41">C4/SUM(C$3:C$5)</f>
+        <v>0.27122278056951421</v>
+      </c>
+      <c r="D37" s="7">
+        <f t="shared" si="41"/>
+        <v>0.25818560343196012</v>
+      </c>
+      <c r="E37" s="7">
+        <f t="shared" si="41"/>
+        <v>0.26218545033651991</v>
+      </c>
+      <c r="F37" s="7">
+        <f t="shared" si="41"/>
+        <v>0.2724693067267755</v>
+      </c>
+      <c r="G37" s="7">
+        <f t="shared" si="41"/>
+        <v>0.25322059057413987</v>
+      </c>
+      <c r="H37" s="7">
+        <f t="shared" si="41"/>
+        <v>0.25494871333453301</v>
+      </c>
+      <c r="I37" s="7">
+        <f>I4/SUM(I$3:I$5)</f>
+        <v>0.26180248582869625</v>
+      </c>
+      <c r="J37" s="7">
+        <f t="shared" si="41"/>
+        <v>0.2984110549161722</v>
+      </c>
+      <c r="K37" s="7">
+        <f t="shared" si="41"/>
+        <v>0.28251050807462574</v>
+      </c>
+      <c r="L37" s="7">
+        <f t="shared" si="41"/>
+        <v>0.27167492041032898</v>
+      </c>
+      <c r="M37" s="7">
+        <f t="shared" si="41"/>
+        <v>0.26301303107966645</v>
+      </c>
+      <c r="N37" s="7">
+        <f t="shared" si="41"/>
+        <v>0.27118348103199896</v>
+      </c>
+      <c r="O37" s="7">
+        <f t="shared" si="41"/>
+        <v>0.24697708769880802</v>
+      </c>
+      <c r="P37" s="7">
+        <f t="shared" si="41"/>
+        <v>0.223245954105284</v>
+      </c>
+      <c r="Q37" s="7">
+        <f t="shared" si="41"/>
+        <v>0.21809427148488211</v>
+      </c>
+      <c r="R37" s="7">
+        <f t="shared" si="41"/>
+        <v>0.23097906222353287</v>
+      </c>
+      <c r="S37" s="7">
+        <f t="shared" si="41"/>
+        <v>0.22867036228583992</v>
       </c>
       <c r="T37" s="7"/>
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
       <c r="W37" s="7">
-        <f>W5/SUM(W$3:W$5)</f>
-        <v>0.11016072172341093</v>
+        <f t="shared" si="40"/>
+        <v>0.28282385878129734</v>
       </c>
       <c r="X37" s="7">
-        <f>X5/SUM(X$3:X$5)</f>
-        <v>0.12487788877717643</v>
-      </c>
-      <c r="Y37" s="7" t="e">
-        <f>Y5/SUM(Y$3:Y$5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z37" s="7" t="e">
-        <f>Z5/SUM(Z$3:Z$5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA37" s="7" t="e">
-        <f>AA5/SUM(AA$3:AA$5)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="40"/>
+        <v>0.26640925264366339</v>
+      </c>
+      <c r="Y37" s="7">
+        <f t="shared" si="40"/>
+        <v>0.27045256744995649</v>
+      </c>
+      <c r="Z37" s="7">
+        <f t="shared" si="40"/>
+        <v>0.27199024311334929</v>
+      </c>
+      <c r="AA37" s="7">
+        <f t="shared" si="40"/>
+        <v>0.22959319666214642</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="7" t="e">
-        <f t="shared" ref="C38:S38" si="18">C23/C3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D38" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E38" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F38" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G38" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H38" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I38" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J38" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K38" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L38" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M38" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N38" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O38" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P38" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q38" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R38" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S38" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>60</v>
+      </c>
+      <c r="C38" s="7">
+        <f t="shared" ref="C38:S38" si="42">C5/SUM(C$3:C$5)</f>
+        <v>0.12891122278056952</v>
+      </c>
+      <c r="D38" s="7">
+        <f t="shared" si="42"/>
+        <v>0.13218408933190334</v>
+      </c>
+      <c r="E38" s="7">
+        <f t="shared" si="42"/>
+        <v>0.12853488804103971</v>
+      </c>
+      <c r="F38" s="7">
+        <f t="shared" si="42"/>
+        <v>0.11389406959048938</v>
+      </c>
+      <c r="G38" s="7">
+        <f t="shared" si="42"/>
+        <v>0.13543709908286064</v>
+      </c>
+      <c r="H38" s="7">
+        <f t="shared" si="42"/>
+        <v>0.1215583948173475</v>
+      </c>
+      <c r="I38" s="7">
+        <f t="shared" si="42"/>
+        <v>0.12066150085807895</v>
+      </c>
+      <c r="J38" s="7">
+        <f t="shared" si="42"/>
+        <v>0.10148540480267612</v>
+      </c>
+      <c r="K38" s="7">
+        <f t="shared" si="42"/>
+        <v>0.1244653786593909</v>
+      </c>
+      <c r="L38" s="7">
+        <f t="shared" si="42"/>
+        <v>0.13096038203042093</v>
+      </c>
+      <c r="M38" s="7">
+        <f t="shared" si="42"/>
+        <v>0.14538136663899218</v>
+      </c>
+      <c r="N38" s="7">
+        <f t="shared" si="42"/>
+        <v>0.1293636588524614</v>
+      </c>
+      <c r="O38" s="7">
+        <f t="shared" si="42"/>
+        <v>0.15836797087011784</v>
+      </c>
+      <c r="P38" s="7">
+        <f t="shared" si="42"/>
+        <v>0.16281736146625533</v>
+      </c>
+      <c r="Q38" s="7">
+        <f t="shared" si="42"/>
+        <v>0.16158802841834446</v>
+      </c>
+      <c r="R38" s="7">
+        <f t="shared" si="42"/>
+        <v>0.14328034100962442</v>
+      </c>
+      <c r="S38" s="7">
+        <f t="shared" si="42"/>
+        <v>0.16766909028094035</v>
       </c>
       <c r="T38" s="7"/>
       <c r="U38" s="7"/>
       <c r="V38" s="7"/>
       <c r="W38" s="7">
-        <f>W23/W3</f>
-        <v>5.1405571353790869E-2</v>
+        <f t="shared" si="40"/>
+        <v>0.11016072172341093</v>
       </c>
       <c r="X38" s="7">
-        <f>X23/X3</f>
-        <v>4.1192973824626757E-2</v>
-      </c>
-      <c r="Y38" s="7" t="e">
-        <f>Y23/Y3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z38" s="7" t="e">
-        <f t="shared" ref="Z38:AA38" si="19">Z23/Z3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA38" s="7" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="40"/>
+        <v>0.12487788877717643</v>
+      </c>
+      <c r="Y38" s="7">
+        <f t="shared" si="40"/>
+        <v>0.11751937502590244</v>
+      </c>
+      <c r="Z38" s="7">
+        <f t="shared" si="40"/>
+        <v>0.13239482186870771</v>
+      </c>
+      <c r="AA38" s="7">
+        <f t="shared" si="40"/>
+        <v>0.15583394781539467</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" s="7" t="e">
-        <f t="shared" ref="C39:S39" si="20">C24/C4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D39" s="7" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E39" s="7" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F39" s="7" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G39" s="7" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H39" s="7" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I39" s="7" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J39" s="7" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K39" s="7" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L39" s="7" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M39" s="7" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N39" s="7" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O39" s="7" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P39" s="7" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q39" s="7" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R39" s="7" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S39" s="7" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+        <v>66</v>
+      </c>
+      <c r="C39" s="7">
+        <f t="shared" ref="C39:S39" si="43">C23/C3</f>
+        <v>6.3861275550094937E-2</v>
+      </c>
+      <c r="D39" s="7">
+        <f t="shared" si="43"/>
+        <v>4.0462577290249137E-2</v>
+      </c>
+      <c r="E39" s="7">
+        <f t="shared" si="43"/>
+        <v>3.0067076316900417E-2</v>
+      </c>
+      <c r="F39" s="7">
+        <f t="shared" si="43"/>
+        <v>3.5427932127540557E-2</v>
+      </c>
+      <c r="G39" s="7">
+        <f t="shared" si="43"/>
+        <v>2.8443211134476554E-2</v>
+      </c>
+      <c r="H39" s="7">
+        <f t="shared" si="43"/>
+        <v>3.8621112634389207E-2</v>
+      </c>
+      <c r="I39" s="7">
+        <f t="shared" si="43"/>
+        <v>3.7929698684587274E-2</v>
+      </c>
+      <c r="J39" s="7">
+        <f t="shared" si="43"/>
+        <v>3.9099620417805854E-2</v>
+      </c>
+      <c r="K39" s="7">
+        <f t="shared" si="43"/>
+        <v>5.3624720218851035E-2</v>
+      </c>
+      <c r="L39" s="7">
+        <f t="shared" si="43"/>
+        <v>4.6587712805329383E-2</v>
+      </c>
+      <c r="M39" s="7">
+        <f t="shared" si="43"/>
+        <v>1.3423433043000747E-2</v>
+      </c>
+      <c r="N39" s="7">
+        <f t="shared" si="43"/>
+        <v>-2.5003034348828742E-3</v>
+      </c>
+      <c r="O39" s="7">
+        <f t="shared" si="43"/>
+        <v>-2.2644561261625555E-2</v>
+      </c>
+      <c r="P39" s="7">
+        <f t="shared" si="43"/>
+        <v>-8.4240225715437322E-3</v>
+      </c>
+      <c r="Q39" s="7">
+        <f t="shared" si="43"/>
+        <v>-5.2255748766536023E-3</v>
+      </c>
+      <c r="R39" s="7">
+        <f t="shared" si="43"/>
+        <v>-2.5706114842068057E-3</v>
+      </c>
+      <c r="S39" s="7">
+        <f t="shared" si="43"/>
+        <v>1.1680389172877564E-2</v>
       </c>
       <c r="T39" s="7"/>
       <c r="U39" s="7"/>
       <c r="V39" s="7"/>
       <c r="W39" s="7">
-        <f>W24/W4</f>
-        <v>-3.2520572070567515E-2</v>
+        <f t="shared" ref="W39:Y41" si="44">W23/W3</f>
+        <v>5.1405571353790869E-2</v>
       </c>
       <c r="X39" s="7">
-        <f>X24/X4</f>
-        <v>-2.2657013235549965E-2</v>
-      </c>
-      <c r="Y39" s="7" t="e">
-        <f>Y24/Y4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z39" s="7" t="e">
-        <f t="shared" ref="Z39:AA39" si="21">Z24/Z4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA39" s="7" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+        <f t="shared" si="44"/>
+        <v>4.1192973824626757E-2</v>
+      </c>
+      <c r="Y39" s="7">
+        <f t="shared" si="44"/>
+        <v>3.6613030192735797E-2</v>
+      </c>
+      <c r="Z39" s="7">
+        <f t="shared" ref="Z39:AA39" si="45">Z23/Z3</f>
+        <v>2.5983354357777676E-2</v>
+      </c>
+      <c r="AA39" s="7">
+        <f t="shared" si="45"/>
+        <v>-9.0129162973280989E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>68</v>
-      </c>
-      <c r="C40" s="7" t="e">
-        <f t="shared" ref="C40:S40" si="22">C25/C5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D40" s="7" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E40" s="7" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F40" s="7" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G40" s="7" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H40" s="7" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I40" s="7" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J40" s="7" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K40" s="7" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L40" s="7" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M40" s="7" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N40" s="7" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O40" s="7" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P40" s="7" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q40" s="7" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R40" s="7" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S40" s="7" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>67</v>
+      </c>
+      <c r="C40" s="7">
+        <f t="shared" ref="C40:S40" si="46">C24/C4</f>
+        <v>-5.558300395256917E-3</v>
+      </c>
+      <c r="D40" s="7">
+        <f t="shared" si="46"/>
+        <v>-3.6713500305436776E-2</v>
+      </c>
+      <c r="E40" s="7">
+        <f t="shared" si="46"/>
+        <v>-2.10377152823196E-2</v>
+      </c>
+      <c r="F40" s="7">
+        <f t="shared" si="46"/>
+        <v>-2.5868223239407045E-2</v>
+      </c>
+      <c r="G40" s="7">
+        <f t="shared" si="46"/>
+        <v>-2.0831152517533758E-2</v>
+      </c>
+      <c r="H40" s="7">
+        <f t="shared" si="46"/>
+        <v>1.5219692959237693E-2</v>
+      </c>
+      <c r="I40" s="7">
+        <f t="shared" si="46"/>
+        <v>1.6169401295141234E-2</v>
+      </c>
+      <c r="J40" s="7">
+        <f t="shared" si="46"/>
+        <v>9.6885259027944589E-3</v>
+      </c>
+      <c r="K40" s="7">
+        <f t="shared" si="46"/>
+        <v>4.084961988971908E-2</v>
+      </c>
+      <c r="L40" s="7">
+        <f t="shared" si="46"/>
+        <v>1.178347059015006E-2</v>
+      </c>
+      <c r="M40" s="7">
+        <f t="shared" si="46"/>
+        <v>-3.1257505575570423E-2</v>
+      </c>
+      <c r="N40" s="7">
+        <f t="shared" si="46"/>
+        <v>-4.3652071259927025E-2</v>
+      </c>
+      <c r="O40" s="7">
+        <f t="shared" si="46"/>
+        <v>-4.4542577975590247E-2</v>
+      </c>
+      <c r="P40" s="7">
+        <f t="shared" si="46"/>
+        <v>-6.5435063735451687E-2</v>
+      </c>
+      <c r="Q40" s="7">
+        <f t="shared" si="46"/>
+        <v>-8.8961038961038963E-2</v>
+      </c>
+      <c r="R40" s="7">
+        <f t="shared" si="46"/>
+        <v>-6.4649043902155937E-2</v>
+      </c>
+      <c r="S40" s="7">
+        <f t="shared" si="46"/>
+        <v>-4.2818390962469526E-2</v>
       </c>
       <c r="T40" s="7"/>
       <c r="U40" s="7"/>
       <c r="V40" s="7"/>
       <c r="W40" s="7">
-        <f>W25/W5</f>
+        <f t="shared" si="44"/>
+        <v>-3.2520572070567515E-2</v>
+      </c>
+      <c r="X40" s="7">
+        <f t="shared" si="44"/>
+        <v>-2.2657013235549965E-2</v>
+      </c>
+      <c r="Y40" s="7">
+        <f t="shared" si="44"/>
+        <v>6.8670267785312031E-3</v>
+      </c>
+      <c r="Z40" s="7">
+        <f t="shared" ref="Z40:AA40" si="47">Z24/Z4</f>
+        <v>-7.2307824739605746E-3</v>
+      </c>
+      <c r="AA40" s="7">
+        <f t="shared" si="47"/>
+        <v>-6.5640173887989692E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="7">
+        <f t="shared" ref="C41:S41" si="48">C25/C5</f>
+        <v>0.28885135135135137</v>
+      </c>
+      <c r="D41" s="7">
+        <f t="shared" si="48"/>
+        <v>0.25307242572485383</v>
+      </c>
+      <c r="E41" s="7">
+        <f t="shared" si="48"/>
+        <v>0.25136186770428015</v>
+      </c>
+      <c r="F41" s="7">
+        <f t="shared" si="48"/>
+        <v>0.26079967852119751</v>
+      </c>
+      <c r="G41" s="7">
+        <f t="shared" si="48"/>
+        <v>0.30091006947842253</v>
+      </c>
+      <c r="H41" s="7">
+        <f t="shared" si="48"/>
+        <v>0.31060325684678014</v>
+      </c>
+      <c r="I41" s="7">
+        <f t="shared" si="48"/>
+        <v>0.30471511076631325</v>
+      </c>
+      <c r="J41" s="7">
+        <f t="shared" si="48"/>
+        <v>0.27970491288651705</v>
+      </c>
+      <c r="K41" s="7">
+        <f t="shared" si="48"/>
+        <v>0.30830185884618233</v>
+      </c>
+      <c r="L41" s="7">
+        <f t="shared" si="48"/>
+        <v>0.28313863191302585</v>
+      </c>
+      <c r="M41" s="7">
+        <f t="shared" si="48"/>
+        <v>0.3031036623215394</v>
+      </c>
+      <c r="N41" s="7">
+        <f t="shared" si="48"/>
+        <v>0.29769403824521934</v>
+      </c>
+      <c r="O41" s="7">
+        <f t="shared" si="48"/>
+        <v>0.35345154818068436</v>
+      </c>
+      <c r="P41" s="7">
+        <f t="shared" si="48"/>
+        <v>0.28952834490095747</v>
+      </c>
+      <c r="Q41" s="7">
+        <f t="shared" si="48"/>
+        <v>0.26307332749050538</v>
+      </c>
+      <c r="R41" s="7">
+        <f t="shared" si="48"/>
+        <v>0.24347460005613247</v>
+      </c>
+      <c r="S41" s="7">
+        <f t="shared" si="48"/>
+        <v>0.23990821391776718</v>
+      </c>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7">
+        <f t="shared" si="44"/>
         <v>0.28438900799064509</v>
       </c>
-      <c r="X40" s="7">
-        <f>X25/X5</f>
+      <c r="X41" s="7">
+        <f t="shared" si="44"/>
         <v>0.26269057271740992</v>
       </c>
-      <c r="Y40" s="7" t="e">
-        <f>Y25/Y5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z40" s="7" t="e">
+      <c r="Y41" s="7">
+        <f t="shared" si="44"/>
+        <v>0.29823672029975756</v>
+      </c>
+      <c r="Z41" s="7">
         <f>Z25/Z5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA40" s="7" t="e">
+        <v>0.29793254236198191</v>
+      </c>
+      <c r="AA41" s="7">
         <f>AA25/AA5</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>69</v>
-      </c>
+        <v>0.28517029564522572</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="W44" s="1">
+        <f>W45+W46-W54-W58-W59</f>
+        <v>-38000</v>
+      </c>
+      <c r="X44" s="1">
+        <f>X45+X46-X54-X58-X59</f>
+        <v>-27747</v>
+      </c>
+      <c r="Y44" s="1">
+        <f>Y45+Y46-Y54-Y58-Y59</f>
+        <v>-36976</v>
+      </c>
+      <c r="Z44" s="1">
+        <f>Z45+Z46-Z54-Z58-Z59</f>
+        <v>-55002</v>
+      </c>
+      <c r="AA44" s="1">
+        <f>AA45+AA46-AA54-AA58-AA59</f>
+        <v>-97845</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="W45" s="1">
+        <v>31750</v>
+      </c>
+      <c r="X45" s="1">
+        <v>36092</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>42122</v>
+      </c>
+      <c r="Z45" s="1">
+        <v>36220</v>
+      </c>
+      <c r="AA45" s="1">
+        <v>53888</v>
+      </c>
+      <c r="AB45" s="1"/>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>70</v>
+      </c>
+      <c r="W46" s="1">
+        <v>9500</v>
+      </c>
+      <c r="X46" s="1">
+        <v>18929</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>42274</v>
+      </c>
+      <c r="Z46" s="1">
+        <v>59829</v>
+      </c>
+      <c r="AA46" s="1">
+        <v>16138</v>
+      </c>
+      <c r="AB46" s="1"/>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>71</v>
+      </c>
+      <c r="W47" s="1">
+        <v>17174</v>
+      </c>
+      <c r="X47" s="1">
+        <v>20497</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>23795</v>
+      </c>
+      <c r="Z47" s="1">
+        <v>32640</v>
+      </c>
+      <c r="AA47" s="1">
+        <v>34405</v>
+      </c>
+      <c r="AB47" s="1"/>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>72</v>
+      </c>
+      <c r="W48" s="1">
+        <v>16677</v>
+      </c>
+      <c r="X48" s="1">
+        <v>20816</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>24542</v>
+      </c>
+      <c r="Z48" s="1">
+        <v>32891</v>
+      </c>
+      <c r="AA48" s="1">
+        <v>42360</v>
+      </c>
+      <c r="AB48" s="1"/>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>73</v>
+      </c>
+      <c r="W49" s="1">
+        <v>61797</v>
+      </c>
+      <c r="X49" s="1">
+        <v>72705</v>
+      </c>
+      <c r="Y49" s="1">
+        <v>113114</v>
+      </c>
+      <c r="Z49" s="1">
+        <v>160281</v>
+      </c>
+      <c r="AA49" s="1">
+        <v>186715</v>
+      </c>
+      <c r="AB49" s="1"/>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>74</v>
+      </c>
+      <c r="W50" s="1">
+        <v>0</v>
+      </c>
+      <c r="X50" s="1">
+        <v>25141</v>
+      </c>
+      <c r="Y50" s="1">
+        <v>37553</v>
+      </c>
+      <c r="Z50" s="1">
+        <v>56082</v>
+      </c>
+      <c r="AA50" s="1">
+        <v>66123</v>
+      </c>
+      <c r="AB50" s="1"/>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>75</v>
+      </c>
+      <c r="W51" s="1">
+        <v>14548</v>
+      </c>
+      <c r="X51" s="1">
+        <v>14754</v>
+      </c>
+      <c r="Y51" s="1">
+        <v>15017</v>
+      </c>
+      <c r="Z51" s="1">
+        <v>15371</v>
+      </c>
+      <c r="AA51" s="1">
+        <v>20288</v>
+      </c>
+      <c r="AB51" s="1"/>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>41</v>
+      </c>
+      <c r="W52" s="1">
+        <v>11202</v>
+      </c>
+      <c r="X52" s="1">
+        <v>16314</v>
+      </c>
+      <c r="Y52" s="1">
+        <v>22778</v>
+      </c>
+      <c r="Z52" s="1">
+        <v>27235</v>
+      </c>
+      <c r="AA52" s="1">
+        <v>42758</v>
+      </c>
+      <c r="AB52" s="1"/>
+    </row>
+    <row r="53" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="W53" s="5">
+        <f>SUM(W45:W52)</f>
+        <v>162648</v>
+      </c>
+      <c r="X53" s="5">
+        <f>SUM(X45:X52)</f>
+        <v>225248</v>
+      </c>
+      <c r="Y53" s="5">
+        <f>SUM(Y45:Y52)</f>
+        <v>321195</v>
+      </c>
+      <c r="Z53" s="5">
+        <f>SUM(Z45:Z52)</f>
+        <v>420549</v>
+      </c>
+      <c r="AA53" s="5">
+        <f>SUM(AA45:AA52)</f>
+        <v>462675</v>
+      </c>
+      <c r="AB53" s="5"/>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>77</v>
+      </c>
+      <c r="W54" s="1">
+        <v>38192</v>
+      </c>
+      <c r="X54" s="1">
+        <v>47183</v>
+      </c>
+      <c r="Y54" s="1">
+        <v>72539</v>
+      </c>
+      <c r="Z54" s="1">
+        <v>78664</v>
+      </c>
+      <c r="AA54" s="1">
+        <v>79600</v>
+      </c>
+      <c r="AB54" s="1"/>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>78</v>
+      </c>
+      <c r="W55" s="1">
+        <v>23663</v>
+      </c>
+      <c r="X55" s="1">
+        <v>32439</v>
+      </c>
+      <c r="Y55" s="1">
+        <v>44138</v>
+      </c>
+      <c r="Z55" s="1">
+        <v>51775</v>
+      </c>
+      <c r="AA55" s="1">
+        <v>62566</v>
+      </c>
+      <c r="AB55" s="1"/>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>79</v>
+      </c>
+      <c r="W56" s="1">
+        <v>6536</v>
+      </c>
+      <c r="X56" s="1">
+        <v>8190</v>
+      </c>
+      <c r="Y56" s="1">
+        <v>9708</v>
+      </c>
+      <c r="Z56" s="1">
+        <v>11827</v>
+      </c>
+      <c r="AA56" s="1">
+        <v>13227</v>
+      </c>
+      <c r="AB56" s="1"/>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>80</v>
+      </c>
+      <c r="W57" s="1">
+        <v>9650</v>
+      </c>
+      <c r="X57" s="1">
+        <v>39791</v>
+      </c>
+      <c r="Y57" s="1">
+        <v>52573</v>
+      </c>
+      <c r="Z57" s="1">
+        <v>67651</v>
+      </c>
+      <c r="AA57" s="1">
+        <v>72968</v>
+      </c>
+      <c r="AB57" s="1"/>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>81</v>
+      </c>
+      <c r="W58" s="1">
+        <v>23495</v>
+      </c>
+      <c r="X58" s="1">
+        <v>23414</v>
+      </c>
+      <c r="Y58" s="1">
+        <v>31816</v>
+      </c>
+      <c r="Z58" s="1">
+        <v>48744</v>
+      </c>
+      <c r="AA58" s="1">
+        <v>67150</v>
+      </c>
+      <c r="AB58" s="1"/>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>82</v>
+      </c>
+      <c r="W59" s="1">
+        <v>17563</v>
+      </c>
+      <c r="X59" s="1">
+        <v>12171</v>
+      </c>
+      <c r="Y59" s="1">
+        <v>17017</v>
+      </c>
+      <c r="Z59" s="1">
+        <v>23643</v>
+      </c>
+      <c r="AA59" s="1">
+        <v>21121</v>
+      </c>
+      <c r="AB59" s="1"/>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>83</v>
+      </c>
+      <c r="W60" s="1">
+        <v>43549</v>
+      </c>
+      <c r="X60" s="1">
+        <v>62060</v>
+      </c>
+      <c r="Y60" s="1">
+        <v>93404</v>
+      </c>
+      <c r="Z60" s="1">
+        <v>138245</v>
+      </c>
+      <c r="AA60" s="1">
+        <v>146043</v>
+      </c>
+      <c r="AB60" s="1"/>
+    </row>
+    <row r="61" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="W61" s="5">
+        <f>SUM(W54:W59)</f>
+        <v>119099</v>
+      </c>
+      <c r="X61" s="5">
+        <f>SUM(X54:X59)</f>
+        <v>163188</v>
+      </c>
+      <c r="Y61" s="5">
+        <f>SUM(Y54:Y59)</f>
+        <v>227791</v>
+      </c>
+      <c r="Z61" s="5">
+        <f>SUM(Z54:Z59)</f>
+        <v>282304</v>
+      </c>
+      <c r="AA61" s="5">
+        <f>SUM(AA54:AA59)</f>
+        <v>316632</v>
+      </c>
+      <c r="AB61" s="1"/>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y62" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3263,5 +4262,704 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{91B03804-6AC4-4060-8306-A64176EF9A30}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE45FBC5-94D3-4631-B6C6-3844514F6EB8}">
+  <dimension ref="A1:S15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="1">
+        <v>52901</v>
+      </c>
+      <c r="C2" s="1">
+        <v>53157</v>
+      </c>
+      <c r="D2" s="1">
+        <v>49942</v>
+      </c>
+      <c r="E2" s="1">
+        <f>Q2-D2-C2-B2</f>
+        <v>66075</v>
+      </c>
+      <c r="F2" s="1">
+        <v>51129</v>
+      </c>
+      <c r="G2" s="1">
+        <v>50855</v>
+      </c>
+      <c r="H2" s="1">
+        <v>53489</v>
+      </c>
+      <c r="I2" s="1">
+        <f>R2-H2-G2-F2</f>
+        <v>64531</v>
+      </c>
+      <c r="J2" s="1">
+        <v>51096</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="M2" s="1">
+        <v>108354</v>
+      </c>
+      <c r="N2" s="1">
+        <v>122987</v>
+      </c>
+      <c r="O2" s="1">
+        <v>141247</v>
+      </c>
+      <c r="P2" s="1">
+        <v>197346</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>222075</v>
+      </c>
+      <c r="R2" s="1">
+        <v>220004</v>
+      </c>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3920</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4198</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4269</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E9" si="0">Q3-D3-C3-B3</f>
+        <v>4688</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4591</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4721</v>
+      </c>
+      <c r="H3" s="1">
+        <v>4694</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I8" si="1">R3-H3-G3-F3</f>
+        <v>4957</v>
+      </c>
+      <c r="J3" s="1">
+        <v>4895</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="M3" s="1">
+        <v>5798</v>
+      </c>
+      <c r="N3" s="1">
+        <v>17224</v>
+      </c>
+      <c r="O3" s="1">
+        <v>17192</v>
+      </c>
+      <c r="P3" s="1">
+        <v>16227</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>17075</v>
+      </c>
+      <c r="R3" s="1">
+        <v>18963</v>
+      </c>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="1">
+        <v>23709</v>
+      </c>
+      <c r="C4" s="1">
+        <v>25085</v>
+      </c>
+      <c r="D4" s="1">
+        <v>24252</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>30320</v>
+      </c>
+      <c r="F4" s="1">
+        <v>25335</v>
+      </c>
+      <c r="G4" s="1">
+        <v>27376</v>
+      </c>
+      <c r="H4" s="1">
+        <v>28666</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="1"/>
+        <v>36339</v>
+      </c>
+      <c r="J4" s="1">
+        <v>29820</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="M4" s="1">
+        <v>31881</v>
+      </c>
+      <c r="N4" s="1">
+        <v>42745</v>
+      </c>
+      <c r="O4" s="1">
+        <v>53762</v>
+      </c>
+      <c r="P4" s="1">
+        <v>80461</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>103366</v>
+      </c>
+      <c r="R4" s="1">
+        <v>117716</v>
+      </c>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7580</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7917</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8148</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>8123</v>
+      </c>
+      <c r="F5" s="1">
+        <v>8410</v>
+      </c>
+      <c r="G5" s="1">
+        <v>8716</v>
+      </c>
+      <c r="H5" s="1">
+        <v>8903</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="1"/>
+        <v>9189</v>
+      </c>
+      <c r="J5" s="1">
+        <v>9657</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="M5" s="1">
+        <v>9721</v>
+      </c>
+      <c r="N5" s="1">
+        <v>14168</v>
+      </c>
+      <c r="O5" s="1">
+        <v>19210</v>
+      </c>
+      <c r="P5" s="1">
+        <v>25207</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>31768</v>
+      </c>
+      <c r="R5" s="1">
+        <v>35218</v>
+      </c>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="1">
+        <v>6381</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7451</v>
+      </c>
+      <c r="D6" s="1">
+        <v>7512</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>9816</v>
+      </c>
+      <c r="F6" s="1">
+        <v>7877</v>
+      </c>
+      <c r="G6" s="1">
+        <v>8757</v>
+      </c>
+      <c r="H6" s="1">
+        <v>9548</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="1"/>
+        <v>11557</v>
+      </c>
+      <c r="J6" s="1">
+        <v>9509</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>19773</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>31160</v>
+      </c>
+      <c r="R6" s="1">
+        <v>37739</v>
+      </c>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="1">
+        <v>13503</v>
+      </c>
+      <c r="C7" s="1">
+        <v>14809</v>
+      </c>
+      <c r="D7" s="1">
+        <v>16110</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>17780</v>
+      </c>
+      <c r="F7" s="1">
+        <v>18441</v>
+      </c>
+      <c r="G7" s="1">
+        <v>19739</v>
+      </c>
+      <c r="H7" s="1">
+        <v>20538</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="1"/>
+        <v>21378</v>
+      </c>
+      <c r="J7" s="1">
+        <v>21354</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="M7" s="1">
+        <v>17459</v>
+      </c>
+      <c r="N7" s="1">
+        <v>25655</v>
+      </c>
+      <c r="O7" s="1">
+        <v>35026</v>
+      </c>
+      <c r="P7" s="1">
+        <v>45370</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>62202</v>
+      </c>
+      <c r="R7" s="1">
+        <v>80096</v>
+      </c>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="1">
+        <v>524</v>
+      </c>
+      <c r="C8" s="1">
+        <v>463</v>
+      </c>
+      <c r="D8" s="1">
+        <v>479</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>710</v>
+      </c>
+      <c r="F8" s="1">
+        <v>661</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1070</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1263</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="1"/>
+        <v>1253</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1027</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="M8" s="1">
+        <v>4653</v>
+      </c>
+      <c r="N8" s="1">
+        <v>10108</v>
+      </c>
+      <c r="O8" s="1">
+        <v>14085</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1680</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>2176</v>
+      </c>
+      <c r="R8" s="1">
+        <v>4247</v>
+      </c>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <f>SUM(B2:B8)</f>
+        <v>108518</v>
+      </c>
+      <c r="C9" s="1">
+        <f>SUM(C2:C8)</f>
+        <v>113080</v>
+      </c>
+      <c r="D9" s="1">
+        <f>SUM(D2:D8)</f>
+        <v>110712</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>137512</v>
+      </c>
+      <c r="F9" s="1">
+        <f>SUM(F2:F8)</f>
+        <v>116444</v>
+      </c>
+      <c r="G9" s="1">
+        <f>SUM(G2:G8)</f>
+        <v>121234</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SUM(H2:H8)</f>
+        <v>127101</v>
+      </c>
+      <c r="I9" s="1">
+        <f>SUM(I2:I8)</f>
+        <v>149204</v>
+      </c>
+      <c r="J9" s="1">
+        <f>SUM(J2:J8)</f>
+        <v>127358</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="M9" s="1">
+        <f>SUM(M2:M8)</f>
+        <v>177866</v>
+      </c>
+      <c r="N9" s="1">
+        <f>SUM(N2:N8)</f>
+        <v>232887</v>
+      </c>
+      <c r="O9" s="1">
+        <f>SUM(O2:O8)</f>
+        <v>280522</v>
+      </c>
+      <c r="P9" s="1">
+        <f>SUM(P2:P8)</f>
+        <v>386064</v>
+      </c>
+      <c r="Q9" s="1">
+        <f>SUM(Q2:Q8)</f>
+        <v>469822</v>
+      </c>
+      <c r="R9" s="1">
+        <f>SUM(R2:R8)</f>
+        <v>513983</v>
+      </c>
+      <c r="S9" s="1">
+        <f>SUM(S2:S8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="7">
+        <f>F2/B2-1</f>
+        <v>-3.3496531256497986E-2</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" ref="G12:J12" si="2">G2/C2-1</f>
+        <v>-4.3305679402524611E-2</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="2"/>
+        <v>7.102238596772259E-2</v>
+      </c>
+      <c r="I12" s="7">
+        <f t="shared" si="2"/>
+        <v>-2.3367385546727237E-2</v>
+      </c>
+      <c r="J12" s="7">
+        <f t="shared" si="2"/>
+        <v>-6.4542627471686487E-4</v>
+      </c>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7">
+        <f t="shared" ref="N12:P12" si="3">N2/M2-1</f>
+        <v>0.13504808313490968</v>
+      </c>
+      <c r="O12" s="7">
+        <f t="shared" si="3"/>
+        <v>0.14847097660728359</v>
+      </c>
+      <c r="P12" s="7">
+        <f t="shared" si="3"/>
+        <v>0.39716949740525465</v>
+      </c>
+      <c r="Q12" s="7">
+        <f>Q2/P2-1</f>
+        <v>0.12530783497005249</v>
+      </c>
+      <c r="R12" s="7">
+        <f>R2/Q2-1</f>
+        <v>-9.3256782618484912E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="7">
+        <f>F6/B6-1</f>
+        <v>0.23444601159692846</v>
+      </c>
+      <c r="G13" s="7">
+        <f>G6/C6-1</f>
+        <v>0.17527848610924712</v>
+      </c>
+      <c r="H13" s="7">
+        <f>H6/D6-1</f>
+        <v>0.27103301384451539</v>
+      </c>
+      <c r="I13" s="7">
+        <f>I6/E6-1</f>
+        <v>0.17736348818255898</v>
+      </c>
+      <c r="J13" s="7">
+        <f>J6/F6-1</f>
+        <v>0.20718547670432907</v>
+      </c>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7">
+        <f>Q6/P6-1</f>
+        <v>0.57588630961412024</v>
+      </c>
+      <c r="R13" s="7">
+        <f>R6/Q6-1</f>
+        <v>0.21113607188703476</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="7">
+        <f>F7/B7-1</f>
+        <v>0.36569651188624741</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" ref="G14:J14" si="4">G7/C7-1</f>
+        <v>0.33290566547369838</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="4"/>
+        <v>0.27486033519553077</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="4"/>
+        <v>0.20236220472440936</v>
+      </c>
+      <c r="J14" s="7">
+        <f t="shared" si="4"/>
+        <v>0.157963234097934</v>
+      </c>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7">
+        <f t="shared" ref="N14:P14" si="5">N7/M7-1</f>
+        <v>0.46944269431238905</v>
+      </c>
+      <c r="O14" s="7">
+        <f t="shared" si="5"/>
+        <v>0.36526992788930035</v>
+      </c>
+      <c r="P14" s="7">
+        <f t="shared" si="5"/>
+        <v>0.29532347399074976</v>
+      </c>
+      <c r="Q14" s="7">
+        <f>Q7/P7-1</f>
+        <v>0.37099404893101173</v>
+      </c>
+      <c r="R14" s="7">
+        <f>R7/Q7-1</f>
+        <v>0.28767563743931057</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="7">
+        <f>F4/B4-1</f>
+        <v>6.8581551309629285E-2</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" ref="G15:J15" si="6">G4/C4-1</f>
+        <v>9.1329479768786026E-2</v>
+      </c>
+      <c r="H15" s="7">
+        <f t="shared" si="6"/>
+        <v>0.18200560778492503</v>
+      </c>
+      <c r="I15" s="7">
+        <f t="shared" si="6"/>
+        <v>0.19851583113456472</v>
+      </c>
+      <c r="J15" s="7">
+        <f t="shared" si="6"/>
+        <v>0.177027827116637</v>
+      </c>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7">
+        <f t="shared" ref="N15:P15" si="7">N4/M4-1</f>
+        <v>0.34076722812960702</v>
+      </c>
+      <c r="O15" s="7">
+        <f t="shared" si="7"/>
+        <v>0.25773774710492448</v>
+      </c>
+      <c r="P15" s="7">
+        <f t="shared" si="7"/>
+        <v>0.49661470927420859</v>
+      </c>
+      <c r="Q15" s="7">
+        <f>Q4/P4-1</f>
+        <v>0.28467207715539211</v>
+      </c>
+      <c r="R15" s="7">
+        <f>R4/Q4-1</f>
+        <v>0.13882708047133496</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{0F37BD00-8BC5-4A2E-BAAF-684A290590FF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/E-Com/AMZN.xlsx
+++ b/E-Com/AMZN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\E-Com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD012DF9-933C-41A0-85D5-CBC013E10987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C695C07-0CBB-457F-B4C7-C244030157A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="117">
   <si>
     <t>Price</t>
   </si>
@@ -326,13 +326,76 @@
   </si>
   <si>
     <t>Online y/y</t>
+  </si>
+  <si>
+    <t>Net Inc</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>SBC</t>
+  </si>
+  <si>
+    <t>Non Opex Exp</t>
+  </si>
+  <si>
+    <t>Deff Income Tax</t>
+  </si>
+  <si>
+    <t>Aex &amp; Other</t>
+  </si>
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Proceeds</t>
+  </si>
+  <si>
+    <t>Aquisitions</t>
+  </si>
+  <si>
+    <t>Sales MS</t>
+  </si>
+  <si>
+    <t>Purch MS</t>
+  </si>
+  <si>
+    <t>Stock repurchase</t>
+  </si>
+  <si>
+    <t>Repay STD</t>
+  </si>
+  <si>
+    <t>Proceeds STD</t>
+  </si>
+  <si>
+    <t>Proceeds LTD</t>
+  </si>
+  <si>
+    <t>Repay LTD</t>
+  </si>
+  <si>
+    <t>Finance Obl.</t>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t>Net Change CCC</t>
+  </si>
+  <si>
+    <t>Cash EOP</t>
+  </si>
+  <si>
+    <t>Finance Leases</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,6 +421,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -401,8 +472,8 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -687,7 +758,7 @@
   <dimension ref="B2:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B11"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>128.78</v>
+        <v>142.03</v>
       </c>
       <c r="M2" s="9">
         <v>45119</v>
@@ -712,7 +783,8 @@
         <v>1</v>
       </c>
       <c r="L3" s="1">
-        <v>10171</v>
+        <f>Model!T27</f>
+        <v>10285</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
@@ -724,7 +796,7 @@
       </c>
       <c r="L4" s="1">
         <f>L2*L3</f>
-        <v>1309821.3800000001</v>
+        <v>1460778.55</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
@@ -734,6 +806,10 @@
       <c r="K5" t="s">
         <v>3</v>
       </c>
+      <c r="L5" s="1">
+        <f>SUM(Model!T45:T46)</f>
+        <v>63970</v>
+      </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -742,6 +818,10 @@
       <c r="K6" t="s">
         <v>4</v>
       </c>
+      <c r="L6" s="1">
+        <f>SUM(Model!T54:T55)</f>
+        <v>133716</v>
+      </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -749,6 +829,10 @@
       </c>
       <c r="K7" t="s">
         <v>5</v>
+      </c>
+      <c r="L7" s="1">
+        <f>L5-L6</f>
+        <v>-69746</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
@@ -784,13 +868,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18DAFE1B-0872-4079-929A-2D64CB797B54}">
-  <dimension ref="A1:AC62"/>
+  <dimension ref="A1:AE90"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="J60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V31" sqref="V31"/>
+      <selection pane="bottomRight" activeCell="W85" sqref="W85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,7 +882,7 @@
     <col min="1" max="1" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -856,35 +940,39 @@
       <c r="T1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="X1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -898,7 +986,7 @@
         <v>42638</v>
       </c>
       <c r="F3" s="1">
-        <f>X3-E3-D3-C3</f>
+        <f>Z3-E3-D3-C3</f>
         <v>53630</v>
       </c>
       <c r="G3" s="1">
@@ -911,7 +999,7 @@
         <v>59373</v>
       </c>
       <c r="J3" s="1">
-        <f>Y3-I3-H3-G3</f>
+        <f>AA3-I3-H3-G3</f>
         <v>75346</v>
       </c>
       <c r="K3" s="1">
@@ -924,7 +1012,7 @@
         <v>65557</v>
       </c>
       <c r="N3" s="1">
-        <f>Z3-M3-L3-K3</f>
+        <f>AB3-M3-L3-K3</f>
         <v>82390</v>
       </c>
       <c r="O3" s="1">
@@ -937,32 +1025,35 @@
         <v>78843</v>
       </c>
       <c r="R3" s="1">
-        <f>AA3-SUM(O3:Q3)</f>
+        <f>AC3-SUM(O3:Q3)</f>
         <v>93363</v>
       </c>
       <c r="S3" s="1">
         <v>76881</v>
       </c>
-      <c r="V3" s="1">
+      <c r="T3" s="1">
+        <v>82546</v>
+      </c>
+      <c r="X3" s="1">
         <v>106110</v>
       </c>
-      <c r="W3" s="1">
+      <c r="Y3" s="1">
         <v>141366</v>
       </c>
-      <c r="X3" s="1">
+      <c r="Z3" s="1">
         <v>170733</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="AA3" s="1">
         <v>236282</v>
       </c>
-      <c r="Z3" s="1">
+      <c r="AB3" s="1">
         <v>279833</v>
       </c>
-      <c r="AA3" s="1">
+      <c r="AC3" s="1">
         <v>315880</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -976,7 +1067,7 @@
         <v>18348</v>
       </c>
       <c r="F4" s="1">
-        <f>X4-E4-D4-C4</f>
+        <f>Z4-E4-D4-C4</f>
         <v>23813</v>
       </c>
       <c r="G4" s="1">
@@ -989,7 +1080,7 @@
         <v>25171</v>
       </c>
       <c r="J4" s="1">
-        <f>Y4-I4-H4-G4</f>
+        <f>AA4-I4-H4-G4</f>
         <v>37467</v>
       </c>
       <c r="K4" s="1">
@@ -1002,7 +1093,7 @@
         <v>29145</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" ref="N4:N5" si="0">Z4-M4-L4-K4</f>
+        <f t="shared" ref="N4:N5" si="0">AB4-M4-L4-K4</f>
         <v>37272</v>
       </c>
       <c r="O4" s="1">
@@ -1015,32 +1106,35 @@
         <v>27720</v>
       </c>
       <c r="R4" s="1">
-        <f>AA4-SUM(O4:Q4)</f>
+        <f>AC4-SUM(O4:Q4)</f>
         <v>34463</v>
       </c>
       <c r="S4" s="1">
         <v>29123</v>
       </c>
-      <c r="V4" s="1">
+      <c r="T4" s="1">
+        <v>29697</v>
+      </c>
+      <c r="X4" s="1">
         <v>54297</v>
       </c>
-      <c r="W4" s="1">
+      <c r="Y4" s="1">
         <v>65866</v>
       </c>
-      <c r="X4" s="1">
+      <c r="Z4" s="1">
         <v>74723</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="AA4" s="1">
         <v>104412</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="AB4" s="1">
         <v>127787</v>
       </c>
-      <c r="AA4" s="1">
+      <c r="AC4" s="1">
         <v>118007</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -1054,7 +1148,7 @@
         <v>8995</v>
       </c>
       <c r="F5" s="1">
-        <f>X5-E5-D5-C5</f>
+        <f>Z5-E5-D5-C5</f>
         <v>9954</v>
       </c>
       <c r="G5" s="1">
@@ -1067,7 +1161,7 @@
         <v>11601</v>
       </c>
       <c r="J5" s="1">
-        <f>Y5-I5-H5-G5</f>
+        <f>AA5-I5-H5-G5</f>
         <v>12742</v>
       </c>
       <c r="K5" s="1">
@@ -1093,35 +1187,38 @@
         <v>20538</v>
       </c>
       <c r="R5" s="1">
-        <f>AA5-SUM(O5:Q5)</f>
+        <f>AC5-SUM(O5:Q5)</f>
         <v>21378</v>
       </c>
       <c r="S5" s="1">
         <v>21354</v>
       </c>
-      <c r="V5" s="1">
+      <c r="T5" s="1">
+        <v>22140</v>
+      </c>
+      <c r="X5" s="1">
         <v>17459</v>
       </c>
-      <c r="W5" s="1">
+      <c r="Y5" s="1">
         <v>25655</v>
       </c>
-      <c r="X5" s="1">
+      <c r="Z5" s="1">
         <v>35026</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="AA5" s="1">
         <v>45370</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="AB5" s="1">
         <v>62202</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AC5" s="1">
         <v>80096</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1135,7 +1232,7 @@
         <v>39726</v>
       </c>
       <c r="F7" s="1">
-        <f>X7-E7-D7-C7</f>
+        <f>Z7-E7-D7-C7</f>
         <v>50543</v>
       </c>
       <c r="G7" s="1">
@@ -1148,7 +1245,7 @@
         <v>52774</v>
       </c>
       <c r="J7" s="1">
-        <f>Y7-I7-H7-G7</f>
+        <f>AA7-I7-H7-G7</f>
         <v>71056</v>
       </c>
       <c r="K7" s="1">
@@ -1161,7 +1258,7 @@
         <v>54876</v>
       </c>
       <c r="N7" s="1">
-        <f>Z7-M7-L7-K7</f>
+        <f>AB7-M7-L7-K7</f>
         <v>71416</v>
       </c>
       <c r="O7" s="1">
@@ -1174,32 +1271,35 @@
         <v>59340</v>
       </c>
       <c r="R7" s="1">
-        <f>AA7-Q7-P7-O7</f>
+        <f>AC7-Q7-P7-O7</f>
         <v>70531</v>
       </c>
       <c r="S7" s="1">
         <v>56981</v>
       </c>
-      <c r="V7" s="1">
+      <c r="T7" s="1">
+        <v>59032</v>
+      </c>
+      <c r="X7" s="1">
         <v>118573</v>
       </c>
-      <c r="W7" s="1">
+      <c r="Y7" s="1">
         <v>141915</v>
       </c>
-      <c r="X7" s="1">
+      <c r="Z7" s="1">
         <v>160408</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="AA7" s="1">
         <v>215915</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="AB7" s="1">
         <v>241787</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AC7" s="1">
         <v>242901</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1213,7 +1313,7 @@
         <v>30255</v>
       </c>
       <c r="F8" s="1">
-        <f>X8-E8-D8-C8</f>
+        <f>Z8-E8-D8-C8</f>
         <v>36894</v>
       </c>
       <c r="G8" s="1">
@@ -1226,7 +1326,7 @@
         <v>43371</v>
       </c>
       <c r="J8" s="1">
-        <f>Y8-I8-H8-G8</f>
+        <f>AA8-I8-H8-G8</f>
         <v>54499</v>
       </c>
       <c r="K8" s="1">
@@ -1239,7 +1339,7 @@
         <v>55936</v>
       </c>
       <c r="N8" s="1">
-        <f>Z8-M8-L8-K8</f>
+        <f>AB8-M8-L8-K8</f>
         <v>65996</v>
       </c>
       <c r="O8" s="1">
@@ -1252,32 +1352,35 @@
         <v>67761</v>
       </c>
       <c r="R8" s="1">
-        <f>AA8-Q8-P8-O8</f>
+        <f>AC8-Q8-P8-O8</f>
         <v>78673</v>
       </c>
       <c r="S8" s="1">
         <v>70377</v>
       </c>
-      <c r="V8" s="1">
+      <c r="T8" s="1">
+        <v>75351</v>
+      </c>
+      <c r="X8" s="1">
         <v>59293</v>
       </c>
-      <c r="W8" s="1">
+      <c r="Y8" s="1">
         <v>90972</v>
       </c>
-      <c r="X8" s="1">
+      <c r="Z8" s="1">
         <v>120114</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="AA8" s="1">
         <v>170149</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="AB8" s="1">
         <v>228035</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="AC8" s="1">
         <v>271082</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
@@ -1299,7 +1402,7 @@
         <v>87437</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" ref="G9:S9" si="1">G7+G8</f>
+        <f t="shared" ref="G9:T9" si="1">G7+G8</f>
         <v>75452</v>
       </c>
       <c r="H9" s="5">
@@ -1350,32 +1453,36 @@
         <f t="shared" si="1"/>
         <v>127358</v>
       </c>
-      <c r="V9" s="5">
-        <f t="shared" ref="V9:AA9" si="2">V7+V8</f>
+      <c r="T9" s="5">
+        <f t="shared" si="1"/>
+        <v>134383</v>
+      </c>
+      <c r="X9" s="5">
+        <f t="shared" ref="X9:AC9" si="2">X7+X8</f>
         <v>177866</v>
       </c>
-      <c r="W9" s="5">
+      <c r="Y9" s="5">
         <f t="shared" si="2"/>
         <v>232887</v>
       </c>
-      <c r="X9" s="5">
+      <c r="Z9" s="5">
         <f t="shared" si="2"/>
         <v>280522</v>
       </c>
-      <c r="Y9" s="5">
+      <c r="AA9" s="5">
         <f t="shared" si="2"/>
         <v>386064</v>
       </c>
-      <c r="Z9" s="5">
+      <c r="AB9" s="5">
         <f t="shared" si="2"/>
         <v>469822</v>
       </c>
-      <c r="AA9" s="5">
+      <c r="AC9" s="5">
         <f t="shared" si="2"/>
         <v>513983</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -1389,7 +1496,7 @@
         <v>41302</v>
       </c>
       <c r="F10" s="1">
-        <f>X10-E10-D10-C10</f>
+        <f t="shared" ref="F10:F15" si="3">Z10-E10-D10-C10</f>
         <v>53977</v>
       </c>
       <c r="G10" s="1">
@@ -1402,7 +1509,7 @@
         <v>57106</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" ref="J10:J15" si="3">Y10-I10-H10-G10</f>
+        <f t="shared" ref="J10:J15" si="4">AA10-I10-H10-G10</f>
         <v>79284</v>
       </c>
       <c r="K10" s="1">
@@ -1415,7 +1522,7 @@
         <v>62930</v>
       </c>
       <c r="N10" s="1">
-        <f t="shared" ref="N10:N15" si="4">Z10-M10-L10-K10</f>
+        <f t="shared" ref="N10:N15" si="5">AB10-M10-L10-K10</f>
         <v>82835</v>
       </c>
       <c r="O10" s="1">
@@ -1428,32 +1535,35 @@
         <v>70268</v>
       </c>
       <c r="R10" s="1">
-        <f>AA10-SUM(O10:Q10)</f>
+        <f>AC10-SUM(O10:Q10)</f>
         <v>85640</v>
       </c>
       <c r="S10" s="1">
         <v>67791</v>
       </c>
-      <c r="V10" s="1">
+      <c r="T10" s="1">
+        <v>69373</v>
+      </c>
+      <c r="X10" s="1">
         <v>111934</v>
       </c>
-      <c r="W10" s="1">
+      <c r="Y10" s="1">
         <v>139156</v>
       </c>
-      <c r="X10" s="1">
+      <c r="Z10" s="1">
         <v>165536</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="AA10" s="1">
         <v>233307</v>
       </c>
-      <c r="Z10" s="1">
+      <c r="AB10" s="1">
         <v>272344</v>
       </c>
-      <c r="AA10" s="1">
+      <c r="AC10" s="1">
         <v>288831</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -1467,7 +1577,7 @@
         <v>10167</v>
       </c>
       <c r="F11" s="1">
-        <f>X11-E11-D11-C11</f>
+        <f t="shared" si="3"/>
         <v>12193</v>
       </c>
       <c r="G11" s="1">
@@ -1480,7 +1590,7 @@
         <v>14705</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18475</v>
       </c>
       <c r="K11" s="1">
@@ -1493,7 +1603,7 @@
         <v>18498</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22445</v>
       </c>
       <c r="O11" s="1">
@@ -1506,32 +1616,35 @@
         <v>20583</v>
       </c>
       <c r="R11" s="1">
-        <f t="shared" ref="R11:R15" si="5">AA11-SUM(O11:Q11)</f>
+        <f t="shared" ref="R11:R15" si="6">AC11-SUM(O11:Q11)</f>
         <v>23103</v>
       </c>
       <c r="S11" s="1">
         <v>20905</v>
       </c>
-      <c r="V11" s="1">
+      <c r="T11" s="1">
+        <v>21305</v>
+      </c>
+      <c r="X11" s="1">
         <v>25249</v>
       </c>
-      <c r="W11" s="1">
+      <c r="Y11" s="1">
         <v>34027</v>
       </c>
-      <c r="X11" s="1">
+      <c r="Z11" s="1">
         <v>40232</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="AA11" s="1">
         <v>58517</v>
       </c>
-      <c r="Z11" s="1">
+      <c r="AB11" s="1">
         <v>75111</v>
       </c>
-      <c r="AA11" s="1">
+      <c r="AC11" s="1">
         <v>84299</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -1545,7 +1658,7 @@
         <v>9200</v>
       </c>
       <c r="F12" s="1">
-        <f>X12-E12-D12-C12</f>
+        <f t="shared" si="3"/>
         <v>9739</v>
       </c>
       <c r="G12" s="1">
@@ -1558,7 +1671,7 @@
         <v>10976</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12051</v>
       </c>
       <c r="K12" s="1">
@@ -1571,7 +1684,7 @@
         <v>14380</v>
       </c>
       <c r="N12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15313</v>
       </c>
       <c r="O12" s="1">
@@ -1584,32 +1697,35 @@
         <v>19485</v>
       </c>
       <c r="R12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20814</v>
       </c>
       <c r="S12" s="1">
         <v>20450</v>
       </c>
-      <c r="V12" s="1">
+      <c r="T12" s="1">
+        <v>21931</v>
+      </c>
+      <c r="X12" s="1">
         <v>22620</v>
       </c>
-      <c r="W12" s="1">
+      <c r="Y12" s="1">
         <v>28837</v>
       </c>
-      <c r="X12" s="1">
+      <c r="Z12" s="1">
         <v>35931</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="AA12" s="1">
         <v>42740</v>
       </c>
-      <c r="Z12" s="1">
+      <c r="AB12" s="1">
         <v>56052</v>
       </c>
-      <c r="AA12" s="1">
+      <c r="AC12" s="1">
         <v>73213</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -1623,7 +1739,7 @@
         <v>4752</v>
       </c>
       <c r="F13" s="1">
-        <f>X13-E13-D13-C13</f>
+        <f t="shared" si="3"/>
         <v>6171</v>
       </c>
       <c r="G13" s="1">
@@ -1636,7 +1752,7 @@
         <v>5434</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7401</v>
       </c>
       <c r="K13" s="1">
@@ -1649,7 +1765,7 @@
         <v>8010</v>
       </c>
       <c r="N13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10810</v>
       </c>
       <c r="O13" s="1">
@@ -1662,32 +1778,35 @@
         <v>11014</v>
       </c>
       <c r="R13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12818</v>
       </c>
       <c r="S13" s="1">
         <v>10172</v>
       </c>
-      <c r="V13" s="1">
+      <c r="T13" s="1">
+        <v>10745</v>
+      </c>
+      <c r="X13" s="1">
         <v>10069</v>
       </c>
-      <c r="W13" s="1">
+      <c r="Y13" s="1">
         <v>13814</v>
       </c>
-      <c r="X13" s="1">
+      <c r="Z13" s="1">
         <v>18878</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="AA13" s="1">
         <v>22008</v>
       </c>
-      <c r="Z13" s="1">
+      <c r="AB13" s="1">
         <v>32551</v>
       </c>
-      <c r="AA13" s="1">
+      <c r="AC13" s="1">
         <v>42238</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1701,7 +1820,7 @@
         <v>1348</v>
       </c>
       <c r="F14" s="1">
-        <f>X14-E14-D14-C14</f>
+        <f t="shared" si="3"/>
         <v>1412</v>
       </c>
       <c r="G14" s="1">
@@ -1714,7 +1833,7 @@
         <v>1668</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1968</v>
       </c>
       <c r="K14" s="1">
@@ -1727,7 +1846,7 @@
         <v>2153</v>
       </c>
       <c r="N14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2525</v>
       </c>
       <c r="O14" s="1">
@@ -1740,32 +1859,35 @@
         <v>3061</v>
       </c>
       <c r="R14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3333</v>
       </c>
       <c r="S14" s="1">
         <v>3043</v>
       </c>
-      <c r="V14" s="1">
+      <c r="T14" s="1">
+        <v>3202</v>
+      </c>
+      <c r="X14" s="1">
         <v>3674</v>
       </c>
-      <c r="W14" s="1">
+      <c r="Y14" s="1">
         <v>4336</v>
       </c>
-      <c r="X14" s="1">
+      <c r="Z14" s="1">
         <v>5203</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="AA14" s="1">
         <v>6668</v>
       </c>
-      <c r="Z14" s="1">
+      <c r="AB14" s="1">
         <v>8823</v>
       </c>
-      <c r="AA14" s="1">
+      <c r="AC14" s="1">
         <v>11891</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -1779,7 +1901,7 @@
         <v>55</v>
       </c>
       <c r="F15" s="1">
-        <f>X15-E15-D15-C15</f>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
       <c r="G15" s="1">
@@ -1792,7 +1914,7 @@
         <v>62</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-497</v>
       </c>
       <c r="K15" s="1">
@@ -1805,7 +1927,7 @@
         <v>-11</v>
       </c>
       <c r="N15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="O15" s="1">
@@ -1818,32 +1940,35 @@
         <v>165</v>
       </c>
       <c r="R15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>759</v>
       </c>
       <c r="S15" s="1">
         <v>223</v>
       </c>
-      <c r="V15" s="1">
+      <c r="T15" s="1">
+        <v>146</v>
+      </c>
+      <c r="X15" s="1">
         <v>214</v>
       </c>
-      <c r="W15" s="1">
+      <c r="Y15" s="1">
         <v>296</v>
       </c>
-      <c r="X15" s="1">
+      <c r="Z15" s="1">
         <v>201</v>
       </c>
-      <c r="Y15" s="1">
+      <c r="AA15" s="1">
         <v>-75</v>
       </c>
-      <c r="Z15" s="1">
+      <c r="AB15" s="1">
         <v>62</v>
       </c>
-      <c r="AA15" s="1">
+      <c r="AC15" s="1">
         <v>1263</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -1864,83 +1989,87 @@
         <v>3880</v>
       </c>
       <c r="G16" s="5">
-        <f t="shared" ref="G16:S16" si="6">G9-SUM(G10:G15)</f>
+        <f t="shared" ref="G16:T16" si="7">G9-SUM(G10:G15)</f>
         <v>3989</v>
       </c>
       <c r="H16" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5843</v>
       </c>
       <c r="I16" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6194</v>
       </c>
       <c r="J16" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6873</v>
       </c>
       <c r="K16" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8865</v>
       </c>
       <c r="L16" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7702</v>
       </c>
       <c r="M16" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4852</v>
       </c>
       <c r="N16" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3460</v>
       </c>
       <c r="O16" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3669</v>
       </c>
       <c r="P16" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3317</v>
       </c>
       <c r="Q16" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2525</v>
       </c>
       <c r="R16" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2737</v>
       </c>
       <c r="S16" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4774</v>
       </c>
-      <c r="V16" s="5">
-        <f t="shared" ref="V16:AA16" si="7">V9-SUM(V10:V15)</f>
+      <c r="T16" s="5">
+        <f t="shared" si="7"/>
+        <v>7681</v>
+      </c>
+      <c r="X16" s="5">
+        <f t="shared" ref="X16:AC16" si="8">X9-SUM(X10:X15)</f>
         <v>4106</v>
       </c>
-      <c r="W16" s="5">
-        <f t="shared" si="7"/>
+      <c r="Y16" s="5">
+        <f t="shared" si="8"/>
         <v>12421</v>
       </c>
-      <c r="X16" s="5">
-        <f t="shared" si="7"/>
+      <c r="Z16" s="5">
+        <f t="shared" si="8"/>
         <v>14541</v>
       </c>
-      <c r="Y16" s="5">
-        <f t="shared" si="7"/>
+      <c r="AA16" s="5">
+        <f t="shared" si="8"/>
         <v>22899</v>
       </c>
-      <c r="Z16" s="5">
-        <f t="shared" si="7"/>
+      <c r="AB16" s="5">
+        <f t="shared" si="8"/>
         <v>24879</v>
       </c>
-      <c r="AA16" s="5">
-        <f t="shared" si="7"/>
+      <c r="AC16" s="5">
+        <f t="shared" si="8"/>
         <v>12248</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -1954,7 +2083,7 @@
         <v>224</v>
       </c>
       <c r="F17" s="1">
-        <f>X17-E17-D17-C17</f>
+        <f>Z17-E17-D17-C17</f>
         <v>210</v>
       </c>
       <c r="G17" s="1">
@@ -1967,7 +2096,7 @@
         <v>118</v>
       </c>
       <c r="J17" s="1">
-        <f>Y17-I17-H17-G17</f>
+        <f>AA17-I17-H17-G17</f>
         <v>100</v>
       </c>
       <c r="K17" s="1">
@@ -1980,7 +2109,7 @@
         <v>119</v>
       </c>
       <c r="N17" s="1">
-        <f>Z17-M17-L17-K17</f>
+        <f>AB17-M17-L17-K17</f>
         <v>118</v>
       </c>
       <c r="O17" s="1">
@@ -1993,32 +2122,35 @@
         <v>277</v>
       </c>
       <c r="R17" s="1">
-        <f>AA17-SUM(O17:Q17)</f>
+        <f>AC17-SUM(O17:Q17)</f>
         <v>445</v>
       </c>
       <c r="S17" s="1">
         <v>611</v>
       </c>
-      <c r="V17" s="1">
+      <c r="T17" s="1">
+        <v>661</v>
+      </c>
+      <c r="X17" s="1">
         <v>202</v>
       </c>
-      <c r="W17" s="1">
+      <c r="Y17" s="1">
         <v>440</v>
       </c>
-      <c r="X17" s="1">
+      <c r="Z17" s="1">
         <v>832</v>
       </c>
-      <c r="Y17" s="1">
+      <c r="AA17" s="1">
         <v>555</v>
       </c>
-      <c r="Z17" s="1">
+      <c r="AB17" s="1">
         <v>448</v>
       </c>
-      <c r="AA17" s="1">
+      <c r="AC17" s="1">
         <v>989</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -2032,7 +2164,7 @@
         <v>-396</v>
       </c>
       <c r="F18" s="1">
-        <f>X18-E18-D18-C18</f>
+        <f>Z18-E18-D18-C18</f>
         <v>-455</v>
       </c>
       <c r="G18" s="1">
@@ -2045,7 +2177,7 @@
         <v>-428</v>
       </c>
       <c r="J18" s="1">
-        <f>Y18-I18-H18-G18</f>
+        <f>AA18-I18-H18-G18</f>
         <v>-414</v>
       </c>
       <c r="K18" s="1">
@@ -2058,7 +2190,7 @@
         <v>-493</v>
       </c>
       <c r="N18" s="1">
-        <f>Z18-M18-L18-K18</f>
+        <f>AB18-M18-L18-K18</f>
         <v>-482</v>
       </c>
       <c r="O18" s="1">
@@ -2071,33 +2203,36 @@
         <v>-617</v>
       </c>
       <c r="R18" s="1">
-        <f t="shared" ref="R18:R19" si="8">AA18-SUM(O18:Q18)</f>
+        <f t="shared" ref="R18:R19" si="9">AC18-SUM(O18:Q18)</f>
         <v>-694</v>
       </c>
       <c r="S18" s="1">
         <v>-823</v>
       </c>
-      <c r="V18" s="1">
+      <c r="T18" s="1">
+        <v>-840</v>
+      </c>
+      <c r="X18" s="1">
         <v>-848</v>
       </c>
-      <c r="W18" s="1">
+      <c r="Y18" s="1">
         <v>-1417</v>
       </c>
-      <c r="X18" s="1">
+      <c r="Z18" s="1">
         <v>-1600</v>
       </c>
-      <c r="Y18" s="1">
+      <c r="AA18" s="1">
         <v>-1647</v>
       </c>
-      <c r="Z18" s="1">
+      <c r="AB18" s="1">
         <v>-1809</v>
       </c>
-      <c r="AA18" s="1">
+      <c r="AC18" s="1">
         <f>-2367</f>
         <v>-2367</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -2111,7 +2246,7 @@
         <v>-353</v>
       </c>
       <c r="F19" s="1">
-        <f>X19-E19-D19-C19</f>
+        <f>Z19-E19-D19-C19</f>
         <v>419</v>
       </c>
       <c r="G19" s="1">
@@ -2124,7 +2259,7 @@
         <v>925</v>
       </c>
       <c r="J19" s="1">
-        <f>Y19-I19-H19-G19</f>
+        <f>AA19-I19-H19-G19</f>
         <v>1206</v>
       </c>
       <c r="K19" s="1">
@@ -2137,7 +2272,7 @@
         <v>-163</v>
       </c>
       <c r="N19" s="1">
-        <f>Z19-M19-L19-K19</f>
+        <f>AB19-M19-L19-K19</f>
         <v>11838</v>
       </c>
       <c r="O19" s="1">
@@ -2150,32 +2285,35 @@
         <v>759</v>
       </c>
       <c r="R19" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-3450</v>
       </c>
       <c r="S19" s="1">
         <v>-443</v>
       </c>
-      <c r="V19" s="1">
+      <c r="T19" s="1">
+        <v>61</v>
+      </c>
+      <c r="X19" s="1">
         <v>346</v>
       </c>
-      <c r="W19" s="1">
+      <c r="Y19" s="1">
         <v>-183</v>
       </c>
-      <c r="X19" s="1">
+      <c r="Z19" s="1">
         <v>203</v>
       </c>
-      <c r="Y19" s="1">
+      <c r="AA19" s="1">
         <v>2371</v>
       </c>
-      <c r="Z19" s="1">
+      <c r="AB19" s="1">
         <v>14633</v>
       </c>
-      <c r="AA19" s="8">
+      <c r="AC19" s="8">
         <v>-16806</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -2196,83 +2334,87 @@
         <v>4054</v>
       </c>
       <c r="G20" s="5">
-        <f t="shared" ref="G20:S20" si="9">G16+G17+G18+G19</f>
+        <f t="shared" ref="G20:T20" si="10">G16+G17+G18+G19</f>
         <v>3383</v>
       </c>
       <c r="H20" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6221</v>
       </c>
       <c r="I20" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6809</v>
       </c>
       <c r="J20" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7765</v>
       </c>
       <c r="K20" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10268</v>
       </c>
       <c r="L20" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8634</v>
       </c>
       <c r="M20" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4315</v>
       </c>
       <c r="N20" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>14934</v>
       </c>
       <c r="O20" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-5265</v>
       </c>
       <c r="P20" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-2653</v>
       </c>
       <c r="Q20" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2944</v>
       </c>
       <c r="R20" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-962</v>
       </c>
       <c r="S20" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4119</v>
       </c>
-      <c r="V20" s="5">
-        <f t="shared" ref="V20:AA20" si="10">V16+V17+V18+V19</f>
+      <c r="T20" s="5">
+        <f t="shared" si="10"/>
+        <v>7563</v>
+      </c>
+      <c r="X20" s="5">
+        <f t="shared" ref="X20:AC20" si="11">X16+X17+X18+X19</f>
         <v>3806</v>
       </c>
-      <c r="W20" s="5">
-        <f t="shared" si="10"/>
+      <c r="Y20" s="5">
+        <f t="shared" si="11"/>
         <v>11261</v>
       </c>
-      <c r="X20" s="5">
-        <f t="shared" si="10"/>
+      <c r="Z20" s="5">
+        <f t="shared" si="11"/>
         <v>13976</v>
       </c>
-      <c r="Y20" s="5">
-        <f t="shared" si="10"/>
+      <c r="AA20" s="5">
+        <f t="shared" si="11"/>
         <v>24178</v>
       </c>
-      <c r="Z20" s="5">
-        <f t="shared" si="10"/>
+      <c r="AB20" s="5">
+        <f t="shared" si="11"/>
         <v>38151</v>
       </c>
-      <c r="AA20" s="5">
-        <f t="shared" si="10"/>
+      <c r="AC20" s="5">
+        <f t="shared" si="11"/>
         <v>-5936</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -2289,7 +2431,7 @@
         <v>-498</v>
       </c>
       <c r="F21" s="1">
-        <f>X21-E21-D21-C21</f>
+        <f>Z21-E21-D21-C21</f>
         <v>-786</v>
       </c>
       <c r="G21" s="1">
@@ -2305,7 +2447,7 @@
         <v>-478</v>
       </c>
       <c r="J21" s="1">
-        <f>U21-I21-H21-G21</f>
+        <f>W21-I21-H21-G21</f>
         <v>2304</v>
       </c>
       <c r="K21" s="1">
@@ -2319,7 +2461,7 @@
         <v>-1155</v>
       </c>
       <c r="N21" s="1">
-        <f>Z21-M21-L21-K21</f>
+        <f>AB21-M21-L21-K21</f>
         <v>-603</v>
       </c>
       <c r="O21" s="1">
@@ -2334,38 +2476,42 @@
         <v>-72</v>
       </c>
       <c r="R21" s="1">
-        <f>AA21-SUM(O21:Q21)</f>
+        <f>AC21-SUM(O21:Q21)</f>
         <v>1239</v>
       </c>
       <c r="S21" s="1">
         <f>-948+1</f>
         <v>-947</v>
       </c>
-      <c r="V21" s="1">
+      <c r="T21" s="1">
+        <f>-804-9</f>
+        <v>-813</v>
+      </c>
+      <c r="X21" s="1">
         <f>-769-4</f>
         <v>-773</v>
       </c>
-      <c r="W21" s="1">
+      <c r="Y21" s="1">
         <f>-1197+9</f>
         <v>-1188</v>
       </c>
-      <c r="X21" s="1">
+      <c r="Z21" s="1">
         <f>-2374-14</f>
         <v>-2388</v>
       </c>
-      <c r="Y21" s="1">
+      <c r="AA21" s="1">
         <v>-2863</v>
       </c>
-      <c r="Z21" s="1">
+      <c r="AB21" s="1">
         <f>-4791+4</f>
         <v>-4787</v>
       </c>
-      <c r="AA21" s="1">
+      <c r="AC21" s="1">
         <f>3217-3</f>
         <v>3214</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>48</v>
       </c>
@@ -2386,317 +2532,330 @@
         <v>3268</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" ref="G22:S22" si="11">G20+G21</f>
+        <f t="shared" ref="G22:T22" si="12">G20+G21</f>
         <v>2535</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5243</v>
       </c>
       <c r="I22" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6331</v>
       </c>
       <c r="J22" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10069</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8107</v>
       </c>
       <c r="L22" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7766</v>
       </c>
       <c r="M22" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3160</v>
       </c>
       <c r="N22" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>14331</v>
       </c>
       <c r="O22" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-3843</v>
       </c>
       <c r="P22" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-2028</v>
       </c>
       <c r="Q22" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2872</v>
       </c>
       <c r="R22" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>277</v>
       </c>
       <c r="S22" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3172</v>
       </c>
-      <c r="V22" s="5">
-        <f t="shared" ref="V22:AA22" si="12">V20+V21</f>
+      <c r="T22" s="5">
+        <f t="shared" si="12"/>
+        <v>6750</v>
+      </c>
+      <c r="X22" s="5">
+        <f t="shared" ref="X22:AC22" si="13">X20+X21</f>
         <v>3033</v>
       </c>
-      <c r="W22" s="5">
-        <f t="shared" si="12"/>
+      <c r="Y22" s="5">
+        <f t="shared" si="13"/>
         <v>10073</v>
       </c>
-      <c r="X22" s="5">
-        <f t="shared" si="12"/>
+      <c r="Z22" s="5">
+        <f t="shared" si="13"/>
         <v>11588</v>
       </c>
-      <c r="Y22" s="5">
-        <f t="shared" si="12"/>
+      <c r="AA22" s="5">
+        <f t="shared" si="13"/>
         <v>21315</v>
       </c>
-      <c r="Z22" s="5">
-        <f t="shared" si="12"/>
+      <c r="AB22" s="5">
+        <f t="shared" si="13"/>
         <v>33364</v>
       </c>
-      <c r="AA22" s="5">
-        <f t="shared" si="12"/>
+      <c r="AC22" s="5">
+        <f t="shared" si="13"/>
         <v>-2722</v>
       </c>
     </row>
-    <row r="23" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="10">
         <v>2287</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="10">
         <v>1564</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="10">
         <v>1282</v>
       </c>
-      <c r="F23" s="1">
-        <f>X23-E23-D23-C23</f>
+      <c r="F23" s="10">
+        <f>Z23-E23-D23-C23</f>
         <v>1900</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="10">
         <v>1312</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="10">
         <v>2141</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="10">
         <v>2252</v>
       </c>
-      <c r="J23" s="1">
-        <f>Y23-I23-H23-G23</f>
+      <c r="J23" s="10">
+        <f>AA23-I23-H23-G23</f>
         <v>2946</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23" s="10">
         <v>3450</v>
       </c>
-      <c r="L23" s="11">
+      <c r="L23" s="10">
         <v>3147</v>
       </c>
-      <c r="M23" s="11">
+      <c r="M23" s="10">
         <v>880</v>
       </c>
-      <c r="N23" s="1">
-        <f>Z23-M23-L23-K23</f>
+      <c r="N23" s="10">
+        <f>AB23-M23-L23-K23</f>
         <v>-206</v>
       </c>
-      <c r="O23" s="11">
+      <c r="O23" s="10">
         <v>-1568</v>
       </c>
-      <c r="P23" s="11">
+      <c r="P23" s="10">
         <v>-627</v>
       </c>
-      <c r="Q23" s="11">
+      <c r="Q23" s="10">
         <v>-412</v>
       </c>
-      <c r="R23" s="1">
-        <f>AA23-SUM(O23:Q23)</f>
+      <c r="R23" s="10">
+        <f>AC23-SUM(O23:Q23)</f>
         <v>-240</v>
       </c>
-      <c r="S23" s="11">
+      <c r="S23" s="10">
         <v>898</v>
       </c>
-      <c r="V23" s="10">
+      <c r="T23" s="11">
+        <v>3211</v>
+      </c>
+      <c r="X23">
         <v>2837</v>
       </c>
-      <c r="W23" s="11">
+      <c r="Y23" s="1">
         <v>7267</v>
       </c>
-      <c r="X23" s="11">
+      <c r="Z23" s="1">
         <v>7033</v>
       </c>
-      <c r="Y23" s="11">
+      <c r="AA23" s="1">
         <v>8651</v>
       </c>
-      <c r="Z23" s="11">
+      <c r="AB23" s="1">
         <v>7271</v>
       </c>
-      <c r="AA23" s="11">
+      <c r="AC23" s="1">
         <v>-2847</v>
       </c>
     </row>
-    <row r="24" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="10">
         <v>-90</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="10">
         <v>-601</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="10">
         <v>-386</v>
       </c>
-      <c r="F24" s="1">
-        <f>X24-E24-D24-C24</f>
+      <c r="F24" s="10">
+        <f>Z24-E24-D24-C24</f>
         <v>-616</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="10">
         <v>-398</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="10">
         <v>345</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="10">
         <v>407</v>
       </c>
-      <c r="J24" s="1">
-        <f>Y24-I24-H24-G24</f>
+      <c r="J24" s="10">
+        <f>AA24-I24-H24-G24</f>
         <v>363</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K24" s="10">
         <v>1252</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L24" s="10">
         <v>362</v>
       </c>
-      <c r="M24" s="11">
+      <c r="M24" s="10">
         <v>-911</v>
       </c>
-      <c r="N24" s="1">
-        <f t="shared" ref="N24:N25" si="13">Z24-M24-L24-K24</f>
+      <c r="N24" s="10">
+        <f t="shared" ref="N24:N25" si="14">AB24-M24-L24-K24</f>
         <v>-1627</v>
       </c>
-      <c r="O24" s="11">
+      <c r="O24" s="10">
         <v>-1281</v>
       </c>
-      <c r="P24" s="11">
+      <c r="P24" s="10">
         <v>-1771</v>
       </c>
-      <c r="Q24" s="11">
+      <c r="Q24" s="10">
         <v>-2466</v>
       </c>
-      <c r="R24" s="1">
-        <f>AA24-SUM(O24:Q24)</f>
+      <c r="R24" s="10">
+        <f>AC24-SUM(O24:Q24)</f>
         <v>-2228</v>
       </c>
-      <c r="S24" s="11">
+      <c r="S24" s="10">
         <v>-1247</v>
       </c>
-      <c r="V24" s="10">
+      <c r="T24" s="11">
+        <v>-895</v>
+      </c>
+      <c r="X24">
         <v>-3062</v>
       </c>
-      <c r="W24" s="11">
+      <c r="Y24" s="1">
         <v>-2142</v>
       </c>
-      <c r="X24" s="11">
+      <c r="Z24" s="1">
         <v>-1693</v>
       </c>
-      <c r="Y24" s="11">
+      <c r="AA24" s="1">
         <v>717</v>
       </c>
-      <c r="Z24" s="11">
+      <c r="AB24" s="1">
         <v>-924</v>
       </c>
-      <c r="AA24" s="11">
+      <c r="AC24" s="1">
         <v>-7746</v>
       </c>
     </row>
-    <row r="25" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="10">
         <v>2223</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="10">
         <v>2121</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="10">
         <v>2261</v>
       </c>
-      <c r="F25" s="1">
-        <f>X25-E25-D25-C25</f>
+      <c r="F25" s="10">
+        <f>Z25-E25-D25-C25</f>
         <v>2596</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="10">
         <v>3075</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="10">
         <v>3357</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="10">
         <v>3535</v>
       </c>
-      <c r="J25" s="1">
-        <f>Y25-I25-H25-G25</f>
+      <c r="J25" s="10">
+        <f>AA25-I25-H25-G25</f>
         <v>3564</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K25" s="10">
         <v>4163</v>
       </c>
-      <c r="L25" s="11">
+      <c r="L25" s="10">
         <v>4193</v>
       </c>
-      <c r="M25" s="11">
+      <c r="M25" s="10">
         <v>4883</v>
       </c>
-      <c r="N25" s="1">
-        <f t="shared" si="13"/>
+      <c r="N25" s="10">
+        <f t="shared" si="14"/>
         <v>5293</v>
       </c>
-      <c r="O25" s="11">
+      <c r="O25" s="10">
         <v>6518</v>
       </c>
-      <c r="P25" s="11">
+      <c r="P25" s="10">
         <v>5715</v>
       </c>
-      <c r="Q25" s="11">
+      <c r="Q25" s="10">
         <v>5403</v>
       </c>
-      <c r="R25" s="1">
-        <f>AA25-SUM(O25:Q25)</f>
+      <c r="R25" s="10">
+        <f>AC25-SUM(O25:Q25)</f>
         <v>5205</v>
       </c>
-      <c r="S25" s="11">
+      <c r="S25" s="10">
         <v>5123</v>
       </c>
-      <c r="V25" s="10">
+      <c r="T25" s="11">
+        <v>5365</v>
+      </c>
+      <c r="X25">
         <v>4331</v>
       </c>
-      <c r="W25" s="11">
+      <c r="Y25" s="1">
         <v>7296</v>
       </c>
-      <c r="X25" s="11">
+      <c r="Z25" s="1">
         <v>9201</v>
       </c>
-      <c r="Y25" s="11">
+      <c r="AA25" s="1">
         <v>13531</v>
       </c>
-      <c r="Z25" s="11">
+      <c r="AB25" s="1">
         <v>18532</v>
       </c>
-      <c r="AA25" s="11">
+      <c r="AC25" s="1">
         <v>22841</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -2717,83 +2876,87 @@
         <v>6.6020202020202019</v>
       </c>
       <c r="G26" s="3">
-        <f t="shared" ref="G26:Q26" si="14">G22/G27</f>
+        <f t="shared" ref="G26:Q26" si="15">G22/G27</f>
         <v>5.0903614457831328</v>
       </c>
       <c r="H26" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.486000000000001</v>
       </c>
       <c r="I26" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>12.636726546906187</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>20.097804391217565</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>16.085317460317459</v>
       </c>
       <c r="L26" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.76868256953380187</v>
       </c>
       <c r="M26" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.31188314251875249</v>
       </c>
       <c r="N26" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.4144295302013423</v>
       </c>
       <c r="O26" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.37783895388850652</v>
       </c>
       <c r="P26" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.19931203931203931</v>
       </c>
       <c r="Q26" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.28181728976547932</v>
       </c>
       <c r="R26" s="3">
-        <f>AA26-SUM(O26:Q26)</f>
+        <f>AC26-SUM(O26:Q26)</f>
         <v>2.8182854480311437E-2</v>
       </c>
       <c r="S26" s="3">
         <f>S22/S27</f>
         <v>0.30946341463414634</v>
       </c>
-      <c r="V26" s="3">
-        <f t="shared" ref="V26:AA26" si="15">V22/V27</f>
+      <c r="T26" s="3">
+        <f>T22/T27</f>
+        <v>0.65629557608167233</v>
+      </c>
+      <c r="X26" s="3">
+        <f t="shared" ref="X26:AC26" si="16">X22/X27</f>
         <v>6.3187499999999996</v>
       </c>
-      <c r="W26" s="3">
-        <f t="shared" si="15"/>
+      <c r="Y26" s="3">
+        <f t="shared" si="16"/>
         <v>20.683778234086244</v>
       </c>
-      <c r="X26" s="3">
-        <f t="shared" si="15"/>
+      <c r="Z26" s="3">
+        <f t="shared" si="16"/>
         <v>23.457489878542511</v>
       </c>
-      <c r="Y26" s="3">
-        <f t="shared" si="15"/>
+      <c r="AA26" s="3">
+        <f t="shared" si="16"/>
         <v>42.544910179640716</v>
       </c>
-      <c r="Z26" s="3">
-        <f t="shared" si="15"/>
+      <c r="AB26" s="3">
+        <f t="shared" si="16"/>
         <v>3.2978155579717305</v>
       </c>
-      <c r="AA26" s="3">
-        <f t="shared" si="15"/>
+      <c r="AC26" s="3">
+        <f t="shared" si="16"/>
         <v>-0.2671508489547551</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -2849,137 +3012,144 @@
       <c r="S27" s="1">
         <v>10250</v>
       </c>
-      <c r="V27" s="1">
+      <c r="T27" s="1">
+        <v>10285</v>
+      </c>
+      <c r="X27" s="1">
         <v>480</v>
       </c>
-      <c r="W27" s="1">
+      <c r="Y27" s="1">
         <v>487</v>
       </c>
-      <c r="X27" s="1">
+      <c r="Z27" s="1">
         <v>494</v>
       </c>
-      <c r="Y27" s="1">
+      <c r="AA27" s="1">
         <v>501</v>
       </c>
-      <c r="Z27" s="1">
+      <c r="AB27" s="1">
         <v>10117</v>
       </c>
-      <c r="AA27" s="1">
+      <c r="AC27" s="1">
         <v>10189</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>50</v>
       </c>
       <c r="G29" s="6">
-        <f t="shared" ref="G29:H29" si="16">G9/C9-1</f>
+        <f t="shared" ref="G29:H29" si="17">G9/C9-1</f>
         <v>0.26385259631490787</v>
       </c>
       <c r="H29" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.40230900258658764</v>
       </c>
       <c r="I29" s="6">
-        <f t="shared" ref="I29" si="17">I9/E9-1</f>
+        <f t="shared" ref="I29" si="18">I9/E9-1</f>
         <v>0.37387290836084075</v>
       </c>
       <c r="J29" s="6">
-        <f t="shared" ref="J29" si="18">J9/F9-1</f>
+        <f t="shared" ref="J29" si="19">J9/F9-1</f>
         <v>0.43594816839553041</v>
       </c>
       <c r="K29" s="6">
-        <f t="shared" ref="K29" si="19">K9/G9-1</f>
+        <f t="shared" ref="K29" si="20">K9/G9-1</f>
         <v>0.43823888034777081</v>
       </c>
       <c r="L29" s="6">
-        <f t="shared" ref="L29:M29" si="20">L9/H9-1</f>
+        <f t="shared" ref="L29:M29" si="21">L9/H9-1</f>
         <v>0.27181932697498645</v>
       </c>
       <c r="M29" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.15255083467679031</v>
       </c>
       <c r="N29" s="6">
-        <f t="shared" ref="N29:S29" si="21">N9/J9-1</f>
+        <f t="shared" ref="N29:T29" si="22">N9/J9-1</f>
         <v>9.4436701047349692E-2</v>
       </c>
       <c r="O29" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>7.3038574245747334E-2</v>
       </c>
       <c r="P29" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>7.2108241952600016E-2</v>
       </c>
       <c r="Q29" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.14699671515720314</v>
       </c>
       <c r="R29" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>8.5814921549791867E-2</v>
       </c>
       <c r="S29" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>9.3727456975026602E-2</v>
       </c>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7">
-        <f>W9/V9-1</f>
+      <c r="T29" s="6">
+        <f t="shared" si="22"/>
+        <v>0.10845967302901816</v>
+      </c>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7">
+        <f>Y9/X9-1</f>
         <v>0.3093396152159491</v>
       </c>
-      <c r="X29" s="7">
-        <f t="shared" ref="W29:Y29" si="22">X9/W9-1</f>
+      <c r="Z29" s="7">
+        <f t="shared" ref="Z29:AA29" si="23">Z9/Y9-1</f>
         <v>0.20454125820676983</v>
       </c>
-      <c r="Y29" s="7">
-        <f t="shared" si="22"/>
+      <c r="AA29" s="7">
+        <f t="shared" si="23"/>
         <v>0.37623430604373276</v>
       </c>
-      <c r="Z29" s="7">
-        <f>Z9/Y9-1</f>
+      <c r="AB29" s="7">
+        <f>AB9/AA9-1</f>
         <v>0.21695366571345676</v>
       </c>
-      <c r="AA29" s="7">
-        <f>AA9/Z9-1</f>
+      <c r="AC29" s="7">
+        <f>AC9/AB9-1</f>
         <v>9.399517263985091E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>91</v>
       </c>
       <c r="G30" s="6">
-        <f t="shared" ref="G30" si="23">G5/C5-1</f>
+        <f t="shared" ref="G30" si="24">G5/C5-1</f>
         <v>0.32783264033264037</v>
       </c>
       <c r="H30" s="6">
-        <f t="shared" ref="H30" si="24">H5/D5-1</f>
+        <f t="shared" ref="H30" si="25">H5/D5-1</f>
         <v>0.28958358191146649</v>
       </c>
       <c r="I30" s="6">
-        <f t="shared" ref="I30" si="25">I5/E5-1</f>
+        <f t="shared" ref="I30" si="26">I5/E5-1</f>
         <v>0.28971650917176217</v>
       </c>
       <c r="J30" s="6">
-        <f t="shared" ref="J30" si="26">J5/F5-1</f>
+        <f t="shared" ref="J30" si="27">J5/F5-1</f>
         <v>0.28008840667068524</v>
       </c>
       <c r="K30" s="6">
-        <f t="shared" ref="K30:N30" si="27">K5/G5-1</f>
+        <f t="shared" ref="K30:N30" si="28">K5/G5-1</f>
         <v>0.32136216850963883</v>
       </c>
       <c r="L30" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.37018874907475952</v>
       </c>
       <c r="M30" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.3886733902249806</v>
       </c>
       <c r="N30" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.39538533982106427</v>
       </c>
       <c r="O30" s="6">
@@ -2987,160 +3157,169 @@
         <v>0.36569651188624741</v>
       </c>
       <c r="P30" s="6">
-        <f t="shared" ref="K30:R30" si="28">P5/L5-1</f>
+        <f t="shared" ref="P30:R30" si="29">P5/L5-1</f>
         <v>0.33290566547369838</v>
       </c>
       <c r="Q30" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.27486033519553077</v>
       </c>
       <c r="R30" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.20236220472440936</v>
       </c>
       <c r="S30" s="6">
         <f>S5/O5-1</f>
         <v>0.157963234097934</v>
       </c>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7">
-        <f>W5/V5-1</f>
+      <c r="T30" s="6">
+        <f>T5/P5-1</f>
+        <v>0.12163736764780375</v>
+      </c>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7">
+        <f>Y5/X5-1</f>
         <v>0.46944269431238905</v>
       </c>
-      <c r="X30" s="7">
-        <f t="shared" ref="X30:AA30" si="29">X5/W5-1</f>
+      <c r="Z30" s="7">
+        <f t="shared" ref="Z30:AC30" si="30">Z5/Y5-1</f>
         <v>0.36526992788930035</v>
       </c>
-      <c r="Y30" s="7">
-        <f t="shared" si="29"/>
+      <c r="AA30" s="7">
+        <f t="shared" si="30"/>
         <v>0.29532347399074976</v>
       </c>
-      <c r="Z30" s="7">
-        <f t="shared" si="29"/>
+      <c r="AB30" s="7">
+        <f t="shared" si="30"/>
         <v>0.37099404893101173</v>
       </c>
-      <c r="AA30" s="7">
-        <f t="shared" si="29"/>
+      <c r="AC30" s="7">
+        <f t="shared" si="30"/>
         <v>0.28767563743931057</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>65</v>
       </c>
       <c r="C31" s="7">
-        <f t="shared" ref="C31:I31" si="30">C22/C9</f>
+        <f t="shared" ref="C31:I31" si="31">C22/C9</f>
         <v>5.9648241206030149E-2</v>
       </c>
       <c r="D31" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>4.1401173427544007E-2</v>
       </c>
       <c r="E31" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>3.0493991226189964E-2</v>
       </c>
       <c r="F31" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>3.7375481775449755E-2</v>
       </c>
       <c r="G31" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>3.3597518952446587E-2</v>
       </c>
       <c r="H31" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>5.896841821126507E-2</v>
       </c>
       <c r="I31" s="7">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>6.5848458058141351E-2</v>
       </c>
       <c r="J31" s="7">
-        <f t="shared" ref="J31:S31" si="31">J22/J9</f>
+        <f t="shared" ref="J31:T31" si="32">J22/J9</f>
         <v>8.0195930070487031E-2</v>
       </c>
       <c r="K31" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>7.470650030409702E-2</v>
       </c>
       <c r="L31" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>6.8677042801556426E-2</v>
       </c>
       <c r="M31" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2.8516767137133161E-2</v>
       </c>
       <c r="N31" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.10429220155444939</v>
       </c>
       <c r="O31" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-3.3002988561025043E-2</v>
       </c>
       <c r="P31" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-1.6727980599501788E-2</v>
       </c>
       <c r="Q31" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2.2596203019645794E-2</v>
       </c>
       <c r="R31" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.8565185919948526E-3</v>
       </c>
       <c r="S31" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>2.4906170008951147E-2</v>
       </c>
-      <c r="T31" s="7"/>
+      <c r="T31" s="7">
+        <f>T22/T9</f>
+        <v>5.0229567728060844E-2</v>
+      </c>
       <c r="U31" s="7"/>
-      <c r="V31" s="7">
-        <f t="shared" ref="V31:AA31" si="32">V22/V9</f>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7">
+        <f t="shared" ref="X31:AC31" si="33">X22/X9</f>
         <v>1.7052162864178651E-2</v>
       </c>
-      <c r="W31" s="7">
-        <f t="shared" si="32"/>
+      <c r="Y31" s="7">
+        <f t="shared" si="33"/>
         <v>4.3252736305590261E-2</v>
       </c>
-      <c r="X31" s="7">
-        <f t="shared" si="32"/>
+      <c r="Z31" s="7">
+        <f t="shared" si="33"/>
         <v>4.1308703060722513E-2</v>
       </c>
-      <c r="Y31" s="7">
-        <f t="shared" si="32"/>
+      <c r="AA31" s="7">
+        <f t="shared" si="33"/>
         <v>5.5211053089643171E-2</v>
       </c>
-      <c r="Z31" s="7">
-        <f t="shared" si="32"/>
+      <c r="AB31" s="7">
+        <f t="shared" si="33"/>
         <v>7.1014128755145567E-2</v>
       </c>
-      <c r="AA31" s="7">
-        <f t="shared" si="32"/>
+      <c r="AC31" s="7">
+        <f t="shared" si="33"/>
         <v>-5.2958950004183018E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>51</v>
       </c>
       <c r="G32" s="6">
-        <f t="shared" ref="G32:J32" si="33">-(G22/C22-1)</f>
+        <f t="shared" ref="G32:J32" si="34">-(G22/C22-1)</f>
         <v>0.2881213142375737</v>
       </c>
       <c r="H32" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-0.9973333333333334</v>
       </c>
       <c r="I32" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-1.9667291471415185</v>
       </c>
       <c r="J32" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-2.0810893512851898</v>
       </c>
       <c r="K32" s="6">
@@ -3152,19 +3331,19 @@
         <v>-0.48121304596604997</v>
       </c>
       <c r="M32" s="6">
-        <f t="shared" ref="M32" si="34">-(M22/I22-1)</f>
+        <f t="shared" ref="M32" si="35">-(M22/I22-1)</f>
         <v>0.50086874111514768</v>
       </c>
       <c r="N32" s="6">
-        <f t="shared" ref="N32" si="35">-(N22/J22-1)</f>
+        <f t="shared" ref="N32" si="36">-(N22/J22-1)</f>
         <v>-0.42327937233091673</v>
       </c>
       <c r="O32" s="6">
-        <f t="shared" ref="O32:P32" si="36">-(O22/K22-1)</f>
+        <f t="shared" ref="O32:P32" si="37">-(O22/K22-1)</f>
         <v>1.4740347847539164</v>
       </c>
       <c r="P32" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1.2611382951326293</v>
       </c>
       <c r="Q32" s="6">
@@ -3179,49 +3358,53 @@
         <f>-(S22/O22-1)</f>
         <v>1.8253968253968254</v>
       </c>
-      <c r="W32" s="7">
-        <f>W22/V22-1</f>
-        <v>2.3211341905703922</v>
-      </c>
-      <c r="X32" s="7">
-        <f>X22/W22-1</f>
-        <v>0.1504020649260398</v>
+      <c r="T32" s="6">
+        <f>-(T22/P22-1)</f>
+        <v>4.3284023668639051</v>
       </c>
       <c r="Y32" s="7">
         <f>Y22/X22-1</f>
-        <v>0.83940283051432507</v>
+        <v>2.3211341905703922</v>
       </c>
       <c r="Z32" s="7">
         <f>Z22/Y22-1</f>
-        <v>0.56528266479005396</v>
+        <v>0.1504020649260398</v>
       </c>
       <c r="AA32" s="7">
         <f>AA22/Z22-1</f>
+        <v>0.83940283051432507</v>
+      </c>
+      <c r="AB32" s="7">
+        <f>AB22/AA22-1</f>
+        <v>0.56528266479005396</v>
+      </c>
+      <c r="AC32" s="7">
+        <f>AC22/AB22-1</f>
         <v>-1.0815849418534949</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>52</v>
       </c>
       <c r="G33" s="6">
-        <f t="shared" ref="G33:K33" si="37">-G21/G20</f>
+        <f t="shared" ref="G33:K33" si="38">-G21/G20</f>
         <v>0.25066509015666566</v>
       </c>
       <c r="H33" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.1572094518566147</v>
       </c>
       <c r="I33" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>7.0201204288441774E-2</v>
       </c>
       <c r="J33" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>-0.29671603348358017</v>
       </c>
       <c r="K33" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.21045968056096612</v>
       </c>
       <c r="L33" s="6">
@@ -3241,7 +3424,7 @@
         <v>0.27008547008547007</v>
       </c>
       <c r="P33" s="6">
-        <f t="shared" ref="P33" si="38">-P21/P20</f>
+        <f t="shared" ref="P33" si="39">-P21/P20</f>
         <v>0.23558235959291368</v>
       </c>
       <c r="Q33" s="6">
@@ -3256,28 +3439,32 @@
         <f>-S21/S20</f>
         <v>0.22991017237193492</v>
       </c>
-      <c r="W33" s="6">
-        <f>-W21/W20</f>
-        <v>0.10549684752686263</v>
-      </c>
-      <c r="X33" s="6">
-        <f>-X21/X20</f>
-        <v>0.1708643388666285</v>
+      <c r="T33" s="6">
+        <f>-T21/T20</f>
+        <v>0.1074970249900833</v>
       </c>
       <c r="Y33" s="6">
         <f>-Y21/Y20</f>
-        <v>0.1184134337000579</v>
+        <v>0.10549684752686263</v>
       </c>
       <c r="Z33" s="6">
         <f>-Z21/Z20</f>
-        <v>0.12547508584309716</v>
+        <v>0.1708643388666285</v>
       </c>
       <c r="AA33" s="6">
         <f>-AA21/AA20</f>
+        <v>0.1184134337000579</v>
+      </c>
+      <c r="AB33" s="6">
+        <f>-AB21/AB20</f>
+        <v>0.12547508584309716</v>
+      </c>
+      <c r="AC33" s="6">
+        <f>-AC21/AC20</f>
         <v>0.5414420485175202</v>
       </c>
     </row>
-    <row r="34" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>54</v>
       </c>
@@ -3285,36 +3472,36 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>58</v>
       </c>
       <c r="C36" s="7">
-        <f t="shared" ref="C36:S36" si="39">C3/SUM(C$3:C$5)</f>
+        <f t="shared" ref="C36:T36" si="40">C3/SUM(C$3:C$5)</f>
         <v>0.59986599664991624</v>
       </c>
       <c r="D36" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.60963030723613654</v>
       </c>
       <c r="E36" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.6092796616224404</v>
       </c>
       <c r="F36" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.61363662368273508</v>
       </c>
       <c r="G36" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.61134231034299957</v>
       </c>
       <c r="H36" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.62349289184811951</v>
       </c>
       <c r="I36" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.61753601331322483</v>
       </c>
       <c r="J36" s="7">
@@ -3322,91 +3509,96 @@
         <v>0.60010354028115165</v>
       </c>
       <c r="K36" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.59302411326598337</v>
       </c>
       <c r="L36" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.59736469755925004</v>
       </c>
       <c r="M36" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.5916056022813414</v>
       </c>
       <c r="N36" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.59945286011553967</v>
       </c>
       <c r="O36" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.59465494143107411</v>
       </c>
       <c r="P36" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.61393668442846061</v>
       </c>
       <c r="Q36" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.62031770009677345</v>
       </c>
       <c r="R36" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.62574059676684268</v>
       </c>
       <c r="S36" s="7">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.60366054743321973</v>
       </c>
-      <c r="T36" s="7"/>
+      <c r="T36" s="7">
+        <f t="shared" si="40"/>
+        <v>0.61425924410081634</v>
+      </c>
       <c r="U36" s="7"/>
       <c r="V36" s="7"/>
-      <c r="W36" s="7">
-        <f t="shared" ref="W36:AA38" si="40">W3/SUM(W$3:W$5)</f>
+      <c r="W36" s="7"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="7">
+        <f t="shared" ref="Y36:AC38" si="41">Y3/SUM(Y$3:Y$5)</f>
         <v>0.6070154194952917</v>
       </c>
-      <c r="X36" s="7">
-        <f t="shared" si="40"/>
+      <c r="Z36" s="7">
+        <f t="shared" si="41"/>
         <v>0.60871285857916013</v>
       </c>
-      <c r="Y36" s="7">
-        <f t="shared" si="40"/>
+      <c r="AA36" s="7">
+        <f t="shared" si="41"/>
         <v>0.61202805752414102</v>
       </c>
-      <c r="Z36" s="7">
-        <f t="shared" si="40"/>
+      <c r="AB36" s="7">
+        <f t="shared" si="41"/>
         <v>0.59561493501794294</v>
       </c>
-      <c r="AA36" s="7">
-        <f t="shared" si="40"/>
+      <c r="AC36" s="7">
+        <f t="shared" si="41"/>
         <v>0.61457285552245888</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>59</v>
       </c>
       <c r="C37" s="7">
-        <f t="shared" ref="C37:S37" si="41">C4/SUM(C$3:C$5)</f>
+        <f t="shared" ref="C37:T37" si="42">C4/SUM(C$3:C$5)</f>
         <v>0.27122278056951421</v>
       </c>
       <c r="D37" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.25818560343196012</v>
       </c>
       <c r="E37" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.26218545033651991</v>
       </c>
       <c r="F37" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.2724693067267755</v>
       </c>
       <c r="G37" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.25322059057413987</v>
       </c>
       <c r="H37" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.25494871333453301</v>
       </c>
       <c r="I37" s="7">
@@ -3414,847 +3606,1412 @@
         <v>0.26180248582869625</v>
       </c>
       <c r="J37" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.2984110549161722</v>
       </c>
       <c r="K37" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.28251050807462574</v>
       </c>
       <c r="L37" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.27167492041032898</v>
       </c>
       <c r="M37" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.26301303107966645</v>
       </c>
       <c r="N37" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.27118348103199896</v>
       </c>
       <c r="O37" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.24697708769880802</v>
       </c>
       <c r="P37" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.223245954105284</v>
       </c>
       <c r="Q37" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.21809427148488211</v>
       </c>
       <c r="R37" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.23097906222353287</v>
       </c>
       <c r="S37" s="7">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0.22867036228583992</v>
       </c>
-      <c r="T37" s="7"/>
+      <c r="T37" s="7">
+        <f t="shared" si="42"/>
+        <v>0.22098777375114412</v>
+      </c>
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
-      <c r="W37" s="7">
-        <f t="shared" si="40"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7">
+        <f t="shared" si="41"/>
         <v>0.28282385878129734</v>
       </c>
-      <c r="X37" s="7">
-        <f t="shared" si="40"/>
+      <c r="Z37" s="7">
+        <f t="shared" si="41"/>
         <v>0.26640925264366339</v>
       </c>
-      <c r="Y37" s="7">
-        <f t="shared" si="40"/>
+      <c r="AA37" s="7">
+        <f t="shared" si="41"/>
         <v>0.27045256744995649</v>
       </c>
-      <c r="Z37" s="7">
-        <f t="shared" si="40"/>
+      <c r="AB37" s="7">
+        <f t="shared" si="41"/>
         <v>0.27199024311334929</v>
       </c>
-      <c r="AA37" s="7">
-        <f t="shared" si="40"/>
+      <c r="AC37" s="7">
+        <f t="shared" si="41"/>
         <v>0.22959319666214642</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>60</v>
       </c>
       <c r="C38" s="7">
-        <f t="shared" ref="C38:S38" si="42">C5/SUM(C$3:C$5)</f>
+        <f t="shared" ref="C38:T38" si="43">C5/SUM(C$3:C$5)</f>
         <v>0.12891122278056952</v>
       </c>
       <c r="D38" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.13218408933190334</v>
       </c>
       <c r="E38" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.12853488804103971</v>
       </c>
       <c r="F38" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.11389406959048938</v>
       </c>
       <c r="G38" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.13543709908286064</v>
       </c>
       <c r="H38" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.1215583948173475</v>
       </c>
       <c r="I38" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.12066150085807895</v>
       </c>
       <c r="J38" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.10148540480267612</v>
       </c>
       <c r="K38" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.1244653786593909</v>
       </c>
       <c r="L38" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.13096038203042093</v>
       </c>
       <c r="M38" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.14538136663899218</v>
       </c>
       <c r="N38" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.1293636588524614</v>
       </c>
       <c r="O38" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.15836797087011784</v>
       </c>
       <c r="P38" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.16281736146625533</v>
       </c>
       <c r="Q38" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.16158802841834446</v>
       </c>
       <c r="R38" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.14328034100962442</v>
       </c>
       <c r="S38" s="7">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.16766909028094035</v>
       </c>
-      <c r="T38" s="7"/>
+      <c r="T38" s="7">
+        <f t="shared" si="43"/>
+        <v>0.16475298214803955</v>
+      </c>
       <c r="U38" s="7"/>
       <c r="V38" s="7"/>
-      <c r="W38" s="7">
-        <f t="shared" si="40"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7">
+        <f t="shared" si="41"/>
         <v>0.11016072172341093</v>
       </c>
-      <c r="X38" s="7">
-        <f t="shared" si="40"/>
+      <c r="Z38" s="7">
+        <f t="shared" si="41"/>
         <v>0.12487788877717643</v>
       </c>
-      <c r="Y38" s="7">
-        <f t="shared" si="40"/>
+      <c r="AA38" s="7">
+        <f t="shared" si="41"/>
         <v>0.11751937502590244</v>
       </c>
-      <c r="Z38" s="7">
-        <f t="shared" si="40"/>
+      <c r="AB38" s="7">
+        <f t="shared" si="41"/>
         <v>0.13239482186870771</v>
       </c>
-      <c r="AA38" s="7">
-        <f t="shared" si="40"/>
+      <c r="AC38" s="7">
+        <f t="shared" si="41"/>
         <v>0.15583394781539467</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>66</v>
       </c>
       <c r="C39" s="7">
-        <f t="shared" ref="C39:S39" si="43">C23/C3</f>
+        <f t="shared" ref="C39:T39" si="44">C23/C3</f>
         <v>6.3861275550094937E-2</v>
       </c>
       <c r="D39" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>4.0462577290249137E-2</v>
       </c>
       <c r="E39" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.0067076316900417E-2</v>
       </c>
       <c r="F39" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.5427932127540557E-2</v>
       </c>
       <c r="G39" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>2.8443211134476554E-2</v>
       </c>
       <c r="H39" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.8621112634389207E-2</v>
       </c>
       <c r="I39" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.7929698684587274E-2</v>
       </c>
       <c r="J39" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>3.9099620417805854E-2</v>
       </c>
       <c r="K39" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>5.3624720218851035E-2</v>
       </c>
       <c r="L39" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>4.6587712805329383E-2</v>
       </c>
       <c r="M39" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>1.3423433043000747E-2</v>
       </c>
       <c r="N39" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>-2.5003034348828742E-3</v>
       </c>
       <c r="O39" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>-2.2644561261625555E-2</v>
       </c>
       <c r="P39" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>-8.4240225715437322E-3</v>
       </c>
       <c r="Q39" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>-5.2255748766536023E-3</v>
       </c>
       <c r="R39" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>-2.5706114842068057E-3</v>
       </c>
       <c r="S39" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>1.1680389172877564E-2</v>
       </c>
-      <c r="T39" s="7"/>
+      <c r="T39" s="7">
+        <f t="shared" si="44"/>
+        <v>3.8899522690378698E-2</v>
+      </c>
       <c r="U39" s="7"/>
       <c r="V39" s="7"/>
-      <c r="W39" s="7">
-        <f t="shared" ref="W39:Y41" si="44">W23/W3</f>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7">
+        <f t="shared" ref="Y39:AA41" si="45">Y23/Y3</f>
         <v>5.1405571353790869E-2</v>
       </c>
-      <c r="X39" s="7">
-        <f t="shared" si="44"/>
+      <c r="Z39" s="7">
+        <f t="shared" si="45"/>
         <v>4.1192973824626757E-2</v>
-      </c>
-      <c r="Y39" s="7">
-        <f t="shared" si="44"/>
-        <v>3.6613030192735797E-2</v>
-      </c>
-      <c r="Z39" s="7">
-        <f t="shared" ref="Z39:AA39" si="45">Z23/Z3</f>
-        <v>2.5983354357777676E-2</v>
       </c>
       <c r="AA39" s="7">
         <f t="shared" si="45"/>
+        <v>3.6613030192735797E-2</v>
+      </c>
+      <c r="AB39" s="7">
+        <f t="shared" ref="AB39:AC39" si="46">AB23/AB3</f>
+        <v>2.5983354357777676E-2</v>
+      </c>
+      <c r="AC39" s="7">
+        <f t="shared" si="46"/>
         <v>-9.0129162973280989E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>67</v>
       </c>
       <c r="C40" s="7">
-        <f t="shared" ref="C40:S40" si="46">C24/C4</f>
+        <f t="shared" ref="C40:T40" si="47">C24/C4</f>
         <v>-5.558300395256917E-3</v>
       </c>
       <c r="D40" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-3.6713500305436776E-2</v>
       </c>
       <c r="E40" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-2.10377152823196E-2</v>
       </c>
       <c r="F40" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-2.5868223239407045E-2</v>
       </c>
       <c r="G40" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-2.0831152517533758E-2</v>
       </c>
       <c r="H40" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1.5219692959237693E-2</v>
       </c>
       <c r="I40" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1.6169401295141234E-2</v>
       </c>
       <c r="J40" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>9.6885259027944589E-3</v>
       </c>
       <c r="K40" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>4.084961988971908E-2</v>
       </c>
       <c r="L40" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1.178347059015006E-2</v>
       </c>
       <c r="M40" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-3.1257505575570423E-2</v>
       </c>
       <c r="N40" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-4.3652071259927025E-2</v>
       </c>
       <c r="O40" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-4.4542577975590247E-2</v>
       </c>
       <c r="P40" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-6.5435063735451687E-2</v>
       </c>
       <c r="Q40" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-8.8961038961038963E-2</v>
       </c>
       <c r="R40" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-6.4649043902155937E-2</v>
       </c>
       <c r="S40" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-4.2818390962469526E-2</v>
       </c>
-      <c r="T40" s="7"/>
+      <c r="T40" s="7">
+        <f t="shared" si="47"/>
+        <v>-3.0137724349260868E-2</v>
+      </c>
       <c r="U40" s="7"/>
       <c r="V40" s="7"/>
-      <c r="W40" s="7">
-        <f t="shared" si="44"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7">
+        <f t="shared" si="45"/>
         <v>-3.2520572070567515E-2</v>
       </c>
-      <c r="X40" s="7">
-        <f t="shared" si="44"/>
+      <c r="Z40" s="7">
+        <f t="shared" si="45"/>
         <v>-2.2657013235549965E-2</v>
       </c>
-      <c r="Y40" s="7">
-        <f t="shared" si="44"/>
+      <c r="AA40" s="7">
+        <f t="shared" si="45"/>
         <v>6.8670267785312031E-3</v>
       </c>
-      <c r="Z40" s="7">
-        <f t="shared" ref="Z40:AA40" si="47">Z24/Z4</f>
+      <c r="AB40" s="7">
+        <f t="shared" ref="AB40:AC40" si="48">AB24/AB4</f>
         <v>-7.2307824739605746E-3</v>
       </c>
-      <c r="AA40" s="7">
-        <f t="shared" si="47"/>
+      <c r="AC40" s="7">
+        <f t="shared" si="48"/>
         <v>-6.5640173887989692E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>68</v>
       </c>
       <c r="C41" s="7">
-        <f t="shared" ref="C41:S41" si="48">C25/C5</f>
+        <f t="shared" ref="C41:T41" si="49">C25/C5</f>
         <v>0.28885135135135137</v>
       </c>
       <c r="D41" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.25307242572485383</v>
       </c>
       <c r="E41" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.25136186770428015</v>
       </c>
       <c r="F41" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.26079967852119751</v>
       </c>
       <c r="G41" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.30091006947842253</v>
       </c>
       <c r="H41" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.31060325684678014</v>
       </c>
       <c r="I41" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.30471511076631325</v>
       </c>
       <c r="J41" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.27970491288651705</v>
       </c>
       <c r="K41" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.30830185884618233</v>
       </c>
       <c r="L41" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.28313863191302585</v>
       </c>
       <c r="M41" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.3031036623215394</v>
       </c>
       <c r="N41" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.29769403824521934</v>
       </c>
       <c r="O41" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.35345154818068436</v>
       </c>
       <c r="P41" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.28952834490095747</v>
       </c>
       <c r="Q41" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.26307332749050538</v>
       </c>
       <c r="R41" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.24347460005613247</v>
       </c>
       <c r="S41" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.23990821391776718</v>
       </c>
-      <c r="T41" s="7"/>
+      <c r="T41" s="7">
+        <f t="shared" si="49"/>
+        <v>0.2423215898825655</v>
+      </c>
       <c r="U41" s="7"/>
       <c r="V41" s="7"/>
-      <c r="W41" s="7">
-        <f t="shared" si="44"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7">
+        <f t="shared" si="45"/>
         <v>0.28438900799064509</v>
       </c>
-      <c r="X41" s="7">
-        <f t="shared" si="44"/>
+      <c r="Z41" s="7">
+        <f t="shared" si="45"/>
         <v>0.26269057271740992</v>
       </c>
-      <c r="Y41" s="7">
-        <f t="shared" si="44"/>
+      <c r="AA41" s="7">
+        <f t="shared" si="45"/>
         <v>0.29823672029975756</v>
       </c>
-      <c r="Z41" s="7">
-        <f>Z25/Z5</f>
+      <c r="AB41" s="7">
+        <f>AB25/AB5</f>
         <v>0.29793254236198191</v>
       </c>
-      <c r="AA41" s="7">
-        <f>AA25/AA5</f>
+      <c r="AC41" s="7">
+        <f>AC25/AC5</f>
         <v>0.28517029564522572</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>5</v>
       </c>
-      <c r="W44" s="1">
-        <f>W45+W46-W54-W58-W59</f>
-        <v>-38000</v>
-      </c>
-      <c r="X44" s="1">
-        <f>X45+X46-X54-X58-X59</f>
-        <v>-27747</v>
+      <c r="J44" s="1">
+        <f>J45+J46-J58</f>
+        <v>52580</v>
+      </c>
+      <c r="N44" s="1">
+        <f t="shared" ref="N44" si="50">N45+N46-N58</f>
+        <v>47305</v>
+      </c>
+      <c r="R44" s="1">
+        <f t="shared" ref="R44" si="51">R45+R46-R58</f>
+        <v>2876</v>
+      </c>
+      <c r="T44" s="1">
+        <f>T45+T46-T58</f>
+        <v>878</v>
       </c>
       <c r="Y44" s="1">
-        <f>Y45+Y46-Y54-Y58-Y59</f>
-        <v>-36976</v>
+        <f t="shared" ref="Y44:AB44" si="52">Y45+Y46-Y58</f>
+        <v>17755</v>
       </c>
       <c r="Z44" s="1">
-        <f>Z45+Z46-Z54-Z58-Z59</f>
-        <v>-55002</v>
+        <f t="shared" si="52"/>
+        <v>31607</v>
       </c>
       <c r="AA44" s="1">
-        <f>AA45+AA46-AA54-AA58-AA59</f>
-        <v>-97845</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="52"/>
+        <v>52580</v>
+      </c>
+      <c r="AB44" s="1">
+        <f t="shared" si="52"/>
+        <v>47305</v>
+      </c>
+      <c r="AC44" s="1">
+        <f>AC45+AC46-AC58</f>
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>3</v>
       </c>
-      <c r="W45" s="1">
+      <c r="J45" s="1">
+        <v>42122</v>
+      </c>
+      <c r="N45" s="1">
+        <v>36220</v>
+      </c>
+      <c r="R45" s="1">
+        <v>53888</v>
+      </c>
+      <c r="T45" s="1">
+        <v>49529</v>
+      </c>
+      <c r="Y45" s="1">
         <v>31750</v>
       </c>
-      <c r="X45" s="1">
+      <c r="Z45" s="1">
         <v>36092</v>
       </c>
-      <c r="Y45" s="1">
+      <c r="AA45" s="1">
         <v>42122</v>
       </c>
-      <c r="Z45" s="1">
+      <c r="AB45" s="1">
         <v>36220</v>
       </c>
-      <c r="AA45" s="1">
+      <c r="AC45" s="1">
         <v>53888</v>
       </c>
-      <c r="AB45" s="1"/>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD45" s="1"/>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>70</v>
       </c>
-      <c r="W46" s="1">
+      <c r="J46" s="1">
+        <v>42274</v>
+      </c>
+      <c r="N46" s="1">
+        <v>59829</v>
+      </c>
+      <c r="R46" s="1">
+        <v>16138</v>
+      </c>
+      <c r="T46" s="1">
+        <v>14441</v>
+      </c>
+      <c r="Y46" s="1">
         <v>9500</v>
       </c>
-      <c r="X46" s="1">
+      <c r="Z46" s="1">
         <v>18929</v>
       </c>
-      <c r="Y46" s="1">
+      <c r="AA46" s="1">
         <v>42274</v>
       </c>
-      <c r="Z46" s="1">
+      <c r="AB46" s="1">
         <v>59829</v>
       </c>
-      <c r="AA46" s="1">
+      <c r="AC46" s="1">
         <v>16138</v>
       </c>
-      <c r="AB46" s="1"/>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD46" s="1"/>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>71</v>
       </c>
-      <c r="W47" s="1">
+      <c r="J47" s="1">
+        <v>23795</v>
+      </c>
+      <c r="N47" s="1">
+        <v>32640</v>
+      </c>
+      <c r="R47" s="1">
+        <v>34405</v>
+      </c>
+      <c r="T47" s="1">
+        <v>36587</v>
+      </c>
+      <c r="Y47" s="1">
         <v>17174</v>
       </c>
-      <c r="X47" s="1">
+      <c r="Z47" s="1">
         <v>20497</v>
       </c>
-      <c r="Y47" s="1">
+      <c r="AA47" s="1">
         <v>23795</v>
       </c>
-      <c r="Z47" s="1">
+      <c r="AB47" s="1">
         <v>32640</v>
       </c>
-      <c r="AA47" s="1">
+      <c r="AC47" s="1">
         <v>34405</v>
       </c>
-      <c r="AB47" s="1"/>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD47" s="1"/>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>72</v>
       </c>
-      <c r="W48" s="1">
+      <c r="J48" s="1">
+        <v>24542</v>
+      </c>
+      <c r="N48" s="1">
+        <v>32891</v>
+      </c>
+      <c r="R48" s="1">
+        <v>42360</v>
+      </c>
+      <c r="T48" s="1">
+        <v>39925</v>
+      </c>
+      <c r="Y48" s="1">
         <v>16677</v>
       </c>
-      <c r="X48" s="1">
+      <c r="Z48" s="1">
         <v>20816</v>
       </c>
-      <c r="Y48" s="1">
+      <c r="AA48" s="1">
         <v>24542</v>
       </c>
-      <c r="Z48" s="1">
+      <c r="AB48" s="1">
         <v>32891</v>
       </c>
-      <c r="AA48" s="1">
+      <c r="AC48" s="1">
         <v>42360</v>
       </c>
-      <c r="AB48" s="1"/>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD48" s="1"/>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>73</v>
       </c>
-      <c r="W49" s="1">
+      <c r="J49" s="1">
+        <v>113114</v>
+      </c>
+      <c r="N49" s="1">
+        <v>160281</v>
+      </c>
+      <c r="R49" s="1">
+        <v>186715</v>
+      </c>
+      <c r="T49" s="1">
+        <v>193784</v>
+      </c>
+      <c r="Y49" s="1">
         <v>61797</v>
       </c>
-      <c r="X49" s="1">
+      <c r="Z49" s="1">
         <v>72705</v>
       </c>
-      <c r="Y49" s="1">
+      <c r="AA49" s="1">
         <v>113114</v>
       </c>
-      <c r="Z49" s="1">
+      <c r="AB49" s="1">
         <v>160281</v>
       </c>
-      <c r="AA49" s="1">
+      <c r="AC49" s="1">
         <v>186715</v>
       </c>
-      <c r="AB49" s="1"/>
-    </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD49" s="1"/>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>74</v>
       </c>
-      <c r="W50" s="1">
+      <c r="J50" s="1">
+        <v>37553</v>
+      </c>
+      <c r="N50" s="1">
+        <v>56082</v>
+      </c>
+      <c r="R50" s="1">
+        <v>66123</v>
+      </c>
+      <c r="T50" s="1">
+        <v>70332</v>
+      </c>
+      <c r="Y50" s="1">
         <v>0</v>
       </c>
-      <c r="X50" s="1">
+      <c r="Z50" s="1">
         <v>25141</v>
       </c>
-      <c r="Y50" s="1">
+      <c r="AA50" s="1">
         <v>37553</v>
       </c>
-      <c r="Z50" s="1">
+      <c r="AB50" s="1">
         <v>56082</v>
       </c>
-      <c r="AA50" s="1">
+      <c r="AC50" s="1">
         <v>66123</v>
       </c>
-      <c r="AB50" s="1"/>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD50" s="1"/>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>75</v>
       </c>
-      <c r="W51" s="1">
+      <c r="J51" s="1">
+        <v>15017</v>
+      </c>
+      <c r="N51" s="1">
+        <v>15371</v>
+      </c>
+      <c r="R51" s="1">
+        <v>20288</v>
+      </c>
+      <c r="T51" s="1">
+        <v>22785</v>
+      </c>
+      <c r="Y51" s="1">
         <v>14548</v>
       </c>
-      <c r="X51" s="1">
+      <c r="Z51" s="1">
         <v>14754</v>
       </c>
-      <c r="Y51" s="1">
+      <c r="AA51" s="1">
         <v>15017</v>
       </c>
-      <c r="Z51" s="1">
+      <c r="AB51" s="1">
         <v>15371</v>
       </c>
-      <c r="AA51" s="1">
+      <c r="AC51" s="1">
         <v>20288</v>
       </c>
-      <c r="AB51" s="1"/>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD51" s="1"/>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>41</v>
       </c>
-      <c r="W52" s="1">
+      <c r="J52" s="1">
+        <v>22778</v>
+      </c>
+      <c r="N52" s="1">
+        <v>27235</v>
+      </c>
+      <c r="R52" s="1">
+        <v>42758</v>
+      </c>
+      <c r="T52" s="1">
+        <v>50224</v>
+      </c>
+      <c r="Y52" s="1">
         <v>11202</v>
       </c>
-      <c r="X52" s="1">
+      <c r="Z52" s="1">
         <v>16314</v>
       </c>
-      <c r="Y52" s="1">
+      <c r="AA52" s="1">
         <v>22778</v>
       </c>
-      <c r="Z52" s="1">
+      <c r="AB52" s="1">
         <v>27235</v>
       </c>
-      <c r="AA52" s="1">
+      <c r="AC52" s="1">
         <v>42758</v>
       </c>
-      <c r="AB52" s="1"/>
-    </row>
-    <row r="53" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD52" s="1"/>
+    </row>
+    <row r="53" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="W53" s="5">
-        <f>SUM(W45:W52)</f>
-        <v>162648</v>
-      </c>
-      <c r="X53" s="5">
-        <f>SUM(X45:X52)</f>
-        <v>225248</v>
+      <c r="J53" s="5">
+        <f>SUM(J45:J52)</f>
+        <v>321195</v>
+      </c>
+      <c r="N53" s="5">
+        <f>SUM(N45:N52)</f>
+        <v>420549</v>
+      </c>
+      <c r="R53" s="5">
+        <f>SUM(R45:R52)</f>
+        <v>462675</v>
+      </c>
+      <c r="T53" s="5">
+        <f>SUM(T45:T52)</f>
+        <v>477607</v>
       </c>
       <c r="Y53" s="5">
         <f>SUM(Y45:Y52)</f>
-        <v>321195</v>
+        <v>162648</v>
       </c>
       <c r="Z53" s="5">
         <f>SUM(Z45:Z52)</f>
-        <v>420549</v>
+        <v>225248</v>
       </c>
       <c r="AA53" s="5">
         <f>SUM(AA45:AA52)</f>
+        <v>321195</v>
+      </c>
+      <c r="AB53" s="5">
+        <f>SUM(AB45:AB52)</f>
+        <v>420549</v>
+      </c>
+      <c r="AC53" s="5">
+        <f>SUM(AC45:AC52)</f>
         <v>462675</v>
       </c>
-      <c r="AB53" s="5"/>
-    </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD53" s="5"/>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>77</v>
       </c>
-      <c r="W54" s="1">
+      <c r="J54" s="1">
+        <v>72539</v>
+      </c>
+      <c r="N54" s="1">
+        <v>78664</v>
+      </c>
+      <c r="R54" s="1">
+        <v>79600</v>
+      </c>
+      <c r="T54" s="1">
+        <v>69481</v>
+      </c>
+      <c r="Y54" s="1">
         <v>38192</v>
       </c>
-      <c r="X54" s="1">
+      <c r="Z54" s="1">
         <v>47183</v>
       </c>
-      <c r="Y54" s="1">
+      <c r="AA54" s="1">
         <v>72539</v>
       </c>
-      <c r="Z54" s="1">
+      <c r="AB54" s="1">
         <v>78664</v>
       </c>
-      <c r="AA54" s="1">
+      <c r="AC54" s="1">
         <v>79600</v>
       </c>
-      <c r="AB54" s="1"/>
-    </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD54" s="1"/>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>78</v>
       </c>
-      <c r="W55" s="1">
+      <c r="J55" s="1">
+        <v>44138</v>
+      </c>
+      <c r="N55" s="1">
+        <v>51775</v>
+      </c>
+      <c r="R55" s="1">
+        <v>62566</v>
+      </c>
+      <c r="T55" s="1">
+        <v>64235</v>
+      </c>
+      <c r="Y55" s="1">
         <v>23663</v>
       </c>
-      <c r="X55" s="1">
+      <c r="Z55" s="1">
         <v>32439</v>
       </c>
-      <c r="Y55" s="1">
+      <c r="AA55" s="1">
         <v>44138</v>
       </c>
-      <c r="Z55" s="1">
+      <c r="AB55" s="1">
         <v>51775</v>
       </c>
-      <c r="AA55" s="1">
+      <c r="AC55" s="1">
         <v>62566</v>
       </c>
-      <c r="AB55" s="1"/>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD55" s="1"/>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>79</v>
       </c>
-      <c r="W56" s="1">
+      <c r="J56" s="1">
+        <v>9708</v>
+      </c>
+      <c r="N56" s="1">
+        <v>11827</v>
+      </c>
+      <c r="R56" s="1">
+        <v>13227</v>
+      </c>
+      <c r="T56" s="1">
+        <v>14522</v>
+      </c>
+      <c r="Y56" s="1">
         <v>6536</v>
       </c>
-      <c r="X56" s="1">
+      <c r="Z56" s="1">
         <v>8190</v>
       </c>
-      <c r="Y56" s="1">
+      <c r="AA56" s="1">
         <v>9708</v>
       </c>
-      <c r="Z56" s="1">
+      <c r="AB56" s="1">
         <v>11827</v>
       </c>
-      <c r="AA56" s="1">
+      <c r="AC56" s="1">
         <v>13227</v>
       </c>
-      <c r="AB56" s="1"/>
-    </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD56" s="1"/>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>80</v>
       </c>
-      <c r="W57" s="1">
+      <c r="J57" s="1">
+        <v>52573</v>
+      </c>
+      <c r="N57" s="1">
+        <v>67651</v>
+      </c>
+      <c r="R57" s="1">
+        <v>72968</v>
+      </c>
+      <c r="T57" s="1">
+        <v>75822</v>
+      </c>
+      <c r="Y57" s="1">
         <v>9650</v>
       </c>
-      <c r="X57" s="1">
+      <c r="Z57" s="1">
         <v>39791</v>
       </c>
-      <c r="Y57" s="1">
+      <c r="AA57" s="1">
         <v>52573</v>
       </c>
-      <c r="Z57" s="1">
+      <c r="AB57" s="1">
         <v>67651</v>
       </c>
-      <c r="AA57" s="1">
+      <c r="AC57" s="1">
         <v>72968</v>
       </c>
-      <c r="AB57" s="1"/>
-    </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD57" s="1"/>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>81</v>
       </c>
-      <c r="W58" s="1">
+      <c r="J58" s="1">
+        <v>31816</v>
+      </c>
+      <c r="N58" s="1">
+        <v>48744</v>
+      </c>
+      <c r="R58" s="1">
+        <v>67150</v>
+      </c>
+      <c r="T58" s="1">
+        <v>63092</v>
+      </c>
+      <c r="Y58" s="1">
         <v>23495</v>
       </c>
-      <c r="X58" s="1">
+      <c r="Z58" s="1">
         <v>23414</v>
       </c>
-      <c r="Y58" s="1">
+      <c r="AA58" s="1">
         <v>31816</v>
       </c>
-      <c r="Z58" s="1">
+      <c r="AB58" s="1">
         <v>48744</v>
       </c>
-      <c r="AA58" s="1">
+      <c r="AC58" s="1">
         <v>67150</v>
       </c>
-      <c r="AB58" s="1"/>
-    </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD58" s="1"/>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>82</v>
       </c>
-      <c r="W59" s="1">
+      <c r="J59" s="1">
+        <v>17017</v>
+      </c>
+      <c r="N59" s="1">
+        <v>23643</v>
+      </c>
+      <c r="R59" s="1">
+        <v>21121</v>
+      </c>
+      <c r="T59" s="1">
+        <v>21853</v>
+      </c>
+      <c r="Y59" s="1">
         <v>17563</v>
       </c>
-      <c r="X59" s="1">
+      <c r="Z59" s="1">
         <v>12171</v>
       </c>
-      <c r="Y59" s="1">
+      <c r="AA59" s="1">
         <v>17017</v>
       </c>
-      <c r="Z59" s="1">
+      <c r="AB59" s="1">
         <v>23643</v>
       </c>
-      <c r="AA59" s="1">
+      <c r="AC59" s="1">
         <v>21121</v>
       </c>
-      <c r="AB59" s="1"/>
-    </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD59" s="1"/>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>83</v>
       </c>
-      <c r="W60" s="1">
+      <c r="J60" s="1">
+        <v>93404</v>
+      </c>
+      <c r="N60" s="1">
+        <v>138245</v>
+      </c>
+      <c r="R60" s="1">
+        <v>146043</v>
+      </c>
+      <c r="T60" s="1">
+        <v>168602</v>
+      </c>
+      <c r="Y60" s="1">
         <v>43549</v>
       </c>
-      <c r="X60" s="1">
+      <c r="Z60" s="1">
         <v>62060</v>
       </c>
-      <c r="Y60" s="1">
+      <c r="AA60" s="1">
         <v>93404</v>
       </c>
-      <c r="Z60" s="1">
+      <c r="AB60" s="1">
         <v>138245</v>
       </c>
-      <c r="AA60" s="1">
+      <c r="AC60" s="1">
         <v>146043</v>
       </c>
-      <c r="AB60" s="1"/>
-    </row>
-    <row r="61" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD60" s="1"/>
+    </row>
+    <row r="61" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="W61" s="5">
-        <f>SUM(W54:W59)</f>
-        <v>119099</v>
-      </c>
-      <c r="X61" s="5">
-        <f>SUM(X54:X59)</f>
-        <v>163188</v>
+      <c r="J61" s="5">
+        <f>SUM(J54:J59)</f>
+        <v>227791</v>
+      </c>
+      <c r="N61" s="5">
+        <f>SUM(N54:N59)</f>
+        <v>282304</v>
+      </c>
+      <c r="R61" s="5">
+        <f>SUM(R54:R59)</f>
+        <v>316632</v>
+      </c>
+      <c r="T61" s="5">
+        <f>SUM(T54:T59)</f>
+        <v>309005</v>
       </c>
       <c r="Y61" s="5">
         <f>SUM(Y54:Y59)</f>
-        <v>227791</v>
+        <v>119099</v>
       </c>
       <c r="Z61" s="5">
         <f>SUM(Z54:Z59)</f>
-        <v>282304</v>
+        <v>163188</v>
       </c>
       <c r="AA61" s="5">
         <f>SUM(AA54:AA59)</f>
+        <v>227791</v>
+      </c>
+      <c r="AB61" s="5">
+        <f>SUM(AB54:AB59)</f>
+        <v>282304</v>
+      </c>
+      <c r="AC61" s="5">
+        <f>SUM(AC54:AC59)</f>
         <v>316632</v>
       </c>
-      <c r="AB61" s="1"/>
-    </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y62" s="1"/>
+      <c r="AD61" s="1"/>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AA62" s="1"/>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC63" s="7"/>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC64" s="7"/>
+    </row>
+    <row r="65" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P65" s="5">
+        <v>36599</v>
+      </c>
+      <c r="Q65" s="5">
+        <f>P90</f>
+        <v>37700</v>
+      </c>
+      <c r="R65" s="5">
+        <f>Q90</f>
+        <v>0</v>
+      </c>
+      <c r="S65" s="5">
+        <f>R90</f>
+        <v>0</v>
+      </c>
+      <c r="T65" s="5">
+        <f>S90</f>
+        <v>49734</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>96</v>
+      </c>
+      <c r="P66" s="1">
+        <v>-2028</v>
+      </c>
+      <c r="T66" s="1">
+        <v>6750</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>97</v>
+      </c>
+      <c r="P67" s="1">
+        <v>9716</v>
+      </c>
+      <c r="T67" s="1">
+        <v>11589</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>98</v>
+      </c>
+      <c r="P68" s="1">
+        <v>5209</v>
+      </c>
+      <c r="T68" s="1">
+        <v>7127</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>99</v>
+      </c>
+      <c r="P69" s="1">
+        <v>6104</v>
+      </c>
+      <c r="T69" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>100</v>
+      </c>
+      <c r="P70" s="1">
+        <v>-1955</v>
+      </c>
+      <c r="T70" s="1">
+        <v>-2744</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+      <c r="P71" s="1">
+        <v>-3890</v>
+      </c>
+      <c r="T71" s="1">
+        <v>-2373</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="P72" s="1">
+        <v>-6799</v>
+      </c>
+      <c r="T72" s="1">
+        <v>-5167</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>77</v>
+      </c>
+      <c r="P73" s="1">
+        <v>3699</v>
+      </c>
+      <c r="T73" s="1">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>101</v>
+      </c>
+      <c r="P74" s="1">
+        <v>-1412</v>
+      </c>
+      <c r="T74" s="1">
+        <v>-1938</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>79</v>
+      </c>
+      <c r="P75" s="1">
+        <v>321</v>
+      </c>
+      <c r="T75" s="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>102</v>
+      </c>
+      <c r="P76" s="1">
+        <v>-15724</v>
+      </c>
+      <c r="T76" s="1">
+        <v>-11455</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>103</v>
+      </c>
+      <c r="P77" s="1">
+        <v>1626</v>
+      </c>
+      <c r="T77" s="1">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>104</v>
+      </c>
+      <c r="P78" s="1">
+        <v>-259</v>
+      </c>
+      <c r="T78" s="1">
+        <v>-316</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>105</v>
+      </c>
+      <c r="P79" s="1">
+        <v>2608</v>
+      </c>
+      <c r="T79" s="1">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>106</v>
+      </c>
+      <c r="P80" s="1">
+        <v>-329</v>
+      </c>
+      <c r="T80" s="1">
+        <v>-496</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>107</v>
+      </c>
+      <c r="P81" s="1">
+        <v>-3334</v>
+      </c>
+      <c r="T81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>109</v>
+      </c>
+      <c r="P82" s="1">
+        <v>4865</v>
+      </c>
+      <c r="T82" s="1">
+        <v>4399</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>108</v>
+      </c>
+      <c r="P83" s="1">
+        <v>-7610</v>
+      </c>
+      <c r="T83" s="1">
+        <v>-7641</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>110</v>
+      </c>
+      <c r="P84" s="1">
+        <v>12824</v>
+      </c>
+      <c r="T84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>111</v>
+      </c>
+      <c r="P85" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T85" s="1">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>116</v>
+      </c>
+      <c r="P86" s="1">
+        <v>-2059</v>
+      </c>
+      <c r="T86" s="1">
+        <v>-77</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>112</v>
+      </c>
+      <c r="P87" s="1">
+        <v>-59</v>
+      </c>
+      <c r="T87" s="1">
+        <v>-1220</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>113</v>
+      </c>
+      <c r="P88" s="1">
+        <v>-412</v>
+      </c>
+      <c r="T88" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>114</v>
+      </c>
+      <c r="P89" s="10">
+        <f>SUM(P66:P88)</f>
+        <v>1101</v>
+      </c>
+      <c r="T89" s="10">
+        <f>SUM(T66:T88)</f>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="P90" s="5">
+        <f>P65+P89</f>
+        <v>37700</v>
+      </c>
+      <c r="S90" s="5">
+        <v>49734</v>
+      </c>
+      <c r="T90" s="5">
+        <f>T65+T89</f>
+        <v>50067</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4268,13 +5025,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE45FBC5-94D3-4631-B6C6-3844514F6EB8}">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomRight" activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4282,7 +5039,7 @@
     <col min="1" max="1" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -4316,29 +5073,30 @@
       <c r="K1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="L1" s="4"/>
+      <c r="N1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -4352,7 +5110,7 @@
         <v>49942</v>
       </c>
       <c r="E2" s="1">
-        <f>Q2-D2-C2-B2</f>
+        <f>R2-D2-C2-B2</f>
         <v>66075</v>
       </c>
       <c r="F2" s="1">
@@ -4365,34 +5123,37 @@
         <v>53489</v>
       </c>
       <c r="I2" s="1">
-        <f>R2-H2-G2-F2</f>
+        <f>S2-H2-G2-F2</f>
         <v>64531</v>
       </c>
       <c r="J2" s="1">
         <v>51096</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="M2" s="1">
+      <c r="K2" s="1">
+        <v>52966</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="N2" s="1">
         <v>108354</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <v>122987</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P2" s="1">
         <v>141247</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Q2" s="1">
         <v>197346</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="R2" s="1">
         <v>222075</v>
       </c>
-      <c r="R2" s="1">
+      <c r="S2" s="1">
         <v>220004</v>
       </c>
-      <c r="S2" s="1"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>87</v>
       </c>
@@ -4406,7 +5167,7 @@
         <v>4269</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E9" si="0">Q3-D3-C3-B3</f>
+        <f t="shared" ref="E3:E9" si="0">R3-D3-C3-B3</f>
         <v>4688</v>
       </c>
       <c r="F3" s="1">
@@ -4419,34 +5180,37 @@
         <v>4694</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I8" si="1">R3-H3-G3-F3</f>
+        <f t="shared" ref="I3:I8" si="1">S3-H3-G3-F3</f>
         <v>4957</v>
       </c>
       <c r="J3" s="1">
         <v>4895</v>
       </c>
-      <c r="K3" s="1"/>
-      <c r="M3" s="1">
+      <c r="K3" s="1">
+        <v>5024</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="N3" s="1">
         <v>5798</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <v>17224</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P3" s="1">
         <v>17192</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
         <v>16227</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="R3" s="1">
         <v>17075</v>
       </c>
-      <c r="R3" s="1">
+      <c r="S3" s="1">
         <v>18963</v>
       </c>
-      <c r="S3" s="1"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>88</v>
       </c>
@@ -4479,28 +5243,31 @@
       <c r="J4" s="1">
         <v>29820</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="M4" s="1">
+      <c r="K4" s="1">
+        <v>32332</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="N4" s="1">
         <v>31881</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <v>42745</v>
       </c>
-      <c r="O4" s="1">
+      <c r="P4" s="1">
         <v>53762</v>
       </c>
-      <c r="P4" s="1">
+      <c r="Q4" s="1">
         <v>80461</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="R4" s="1">
         <v>103366</v>
       </c>
-      <c r="R4" s="1">
+      <c r="S4" s="1">
         <v>117716</v>
       </c>
-      <c r="S4" s="1"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>89</v>
       </c>
@@ -4533,28 +5300,31 @@
       <c r="J5" s="1">
         <v>9657</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="M5" s="1">
+      <c r="K5" s="1">
+        <v>9894</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="N5" s="1">
         <v>9721</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <v>14168</v>
       </c>
-      <c r="O5" s="1">
+      <c r="P5" s="1">
         <v>19210</v>
       </c>
-      <c r="P5" s="1">
+      <c r="Q5" s="1">
         <v>25207</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="R5" s="1">
         <v>31768</v>
       </c>
-      <c r="R5" s="1">
+      <c r="S5" s="1">
         <v>35218</v>
       </c>
-      <c r="S5" s="1"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>90</v>
       </c>
@@ -4587,26 +5357,29 @@
       <c r="J6" s="1">
         <v>9509</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="M6" s="1">
+      <c r="K6" s="1">
+        <v>10683</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="N6" s="1">
         <v>0</v>
       </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1">
+      <c r="O6" s="1"/>
+      <c r="P6" s="1">
         <v>0</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <v>19773</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="R6" s="1">
         <v>31160</v>
       </c>
-      <c r="R6" s="1">
+      <c r="S6" s="1">
         <v>37739</v>
       </c>
-      <c r="S6" s="1"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -4639,28 +5412,31 @@
       <c r="J7" s="1">
         <v>21354</v>
       </c>
-      <c r="K7" s="1"/>
-      <c r="M7" s="1">
+      <c r="K7" s="1">
+        <v>22140</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="N7" s="1">
         <v>17459</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>25655</v>
       </c>
-      <c r="O7" s="1">
+      <c r="P7" s="1">
         <v>35026</v>
       </c>
-      <c r="P7" s="1">
+      <c r="Q7" s="1">
         <v>45370</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="R7" s="1">
         <v>62202</v>
       </c>
-      <c r="R7" s="1">
+      <c r="S7" s="1">
         <v>80096</v>
       </c>
-      <c r="S7" s="1"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -4693,28 +5469,31 @@
       <c r="J8" s="1">
         <v>1027</v>
       </c>
-      <c r="K8" s="1"/>
-      <c r="M8" s="1">
+      <c r="K8" s="1">
+        <v>1344</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="N8" s="1">
         <v>4653</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <v>10108</v>
       </c>
-      <c r="O8" s="1">
+      <c r="P8" s="1">
         <v>14085</v>
       </c>
-      <c r="P8" s="1">
+      <c r="Q8" s="1">
         <v>1680</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="R8" s="1">
         <v>2176</v>
       </c>
-      <c r="R8" s="1">
+      <c r="S8" s="1">
         <v>4247</v>
       </c>
-      <c r="S8" s="1"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <f>SUM(B2:B8)</f>
         <v>108518</v>
@@ -4751,37 +5530,41 @@
         <f>SUM(J2:J8)</f>
         <v>127358</v>
       </c>
-      <c r="K9" s="1"/>
-      <c r="M9" s="1">
-        <f>SUM(M2:M8)</f>
+      <c r="K9" s="1">
+        <f>SUM(K2:K8)</f>
+        <v>134383</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="N9" s="1">
+        <f t="shared" ref="N9:T9" si="2">SUM(N2:N8)</f>
         <v>177866</v>
       </c>
-      <c r="N9" s="1">
-        <f>SUM(N2:N8)</f>
+      <c r="O9" s="1">
+        <f t="shared" si="2"/>
         <v>232887</v>
       </c>
-      <c r="O9" s="1">
-        <f>SUM(O2:O8)</f>
+      <c r="P9" s="1">
+        <f t="shared" si="2"/>
         <v>280522</v>
       </c>
-      <c r="P9" s="1">
-        <f>SUM(P2:P8)</f>
+      <c r="Q9" s="1">
+        <f t="shared" si="2"/>
         <v>386064</v>
       </c>
-      <c r="Q9" s="1">
-        <f>SUM(Q2:Q8)</f>
+      <c r="R9" s="1">
+        <f t="shared" si="2"/>
         <v>469822</v>
       </c>
-      <c r="R9" s="1">
-        <f>SUM(R2:R8)</f>
+      <c r="S9" s="1">
+        <f t="shared" si="2"/>
         <v>513983</v>
       </c>
-      <c r="S9" s="1">
-        <f>SUM(S2:S8)</f>
+      <c r="T9" s="1">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -4790,44 +5573,48 @@
         <v>-3.3496531256497986E-2</v>
       </c>
       <c r="G12" s="7">
-        <f t="shared" ref="G12:J12" si="2">G2/C2-1</f>
+        <f t="shared" ref="G12:K12" si="3">G2/C2-1</f>
         <v>-4.3305679402524611E-2</v>
       </c>
       <c r="H12" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.102238596772259E-2</v>
       </c>
       <c r="I12" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.3367385546727237E-2</v>
       </c>
       <c r="J12" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-6.4542627471686487E-4</v>
       </c>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7">
-        <f t="shared" ref="N12:P12" si="3">N2/M2-1</f>
+      <c r="K12" s="7">
+        <f t="shared" si="3"/>
+        <v>4.1510175990561393E-2</v>
+      </c>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7">
+        <f t="shared" ref="O12:Q12" si="4">O2/N2-1</f>
         <v>0.13504808313490968</v>
       </c>
-      <c r="O12" s="7">
-        <f t="shared" si="3"/>
+      <c r="P12" s="7">
+        <f t="shared" si="4"/>
         <v>0.14847097660728359</v>
       </c>
-      <c r="P12" s="7">
-        <f t="shared" si="3"/>
+      <c r="Q12" s="7">
+        <f t="shared" si="4"/>
         <v>0.39716949740525465</v>
-      </c>
-      <c r="Q12" s="7">
-        <f>Q2/P2-1</f>
-        <v>0.12530783497005249</v>
       </c>
       <c r="R12" s="7">
         <f>R2/Q2-1</f>
+        <v>0.12530783497005249</v>
+      </c>
+      <c r="S12" s="7">
+        <f>S2/R2-1</f>
         <v>-9.3256782618484912E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -4851,20 +5638,24 @@
         <f>J6/F6-1</f>
         <v>0.20718547670432907</v>
       </c>
-      <c r="M13" s="7"/>
+      <c r="K13" s="7">
+        <f>K6/G6-1</f>
+        <v>0.21993833504624871</v>
+      </c>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
-      <c r="Q13" s="7">
-        <f>Q6/P6-1</f>
-        <v>0.57588630961412024</v>
-      </c>
+      <c r="Q13" s="7"/>
       <c r="R13" s="7">
         <f>R6/Q6-1</f>
+        <v>0.57588630961412024</v>
+      </c>
+      <c r="S13" s="7">
+        <f>S6/R6-1</f>
         <v>0.21113607188703476</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>93</v>
       </c>
@@ -4873,44 +5664,48 @@
         <v>0.36569651188624741</v>
       </c>
       <c r="G14" s="7">
-        <f t="shared" ref="G14:J14" si="4">G7/C7-1</f>
+        <f t="shared" ref="G14:K14" si="5">G7/C7-1</f>
         <v>0.33290566547369838</v>
       </c>
       <c r="H14" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.27486033519553077</v>
       </c>
       <c r="I14" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.20236220472440936</v>
       </c>
       <c r="J14" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.157963234097934</v>
       </c>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7">
-        <f t="shared" ref="N14:P14" si="5">N7/M7-1</f>
+      <c r="K14" s="7">
+        <f t="shared" si="5"/>
+        <v>0.12163736764780375</v>
+      </c>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7">
+        <f t="shared" ref="O14:Q14" si="6">O7/N7-1</f>
         <v>0.46944269431238905</v>
       </c>
-      <c r="O14" s="7">
-        <f t="shared" si="5"/>
+      <c r="P14" s="7">
+        <f t="shared" si="6"/>
         <v>0.36526992788930035</v>
       </c>
-      <c r="P14" s="7">
-        <f t="shared" si="5"/>
+      <c r="Q14" s="7">
+        <f t="shared" si="6"/>
         <v>0.29532347399074976</v>
-      </c>
-      <c r="Q14" s="7">
-        <f>Q7/P7-1</f>
-        <v>0.37099404893101173</v>
       </c>
       <c r="R14" s="7">
         <f>R7/Q7-1</f>
+        <v>0.37099404893101173</v>
+      </c>
+      <c r="S14" s="7">
+        <f>S7/R7-1</f>
         <v>0.28767563743931057</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>94</v>
       </c>
@@ -4919,40 +5714,44 @@
         <v>6.8581551309629285E-2</v>
       </c>
       <c r="G15" s="7">
-        <f t="shared" ref="G15:J15" si="6">G4/C4-1</f>
+        <f t="shared" ref="G15:K15" si="7">G4/C4-1</f>
         <v>9.1329479768786026E-2</v>
       </c>
       <c r="H15" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.18200560778492503</v>
       </c>
       <c r="I15" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.19851583113456472</v>
       </c>
       <c r="J15" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.177027827116637</v>
       </c>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7">
-        <f t="shared" ref="N15:P15" si="7">N4/M4-1</f>
+      <c r="K15" s="7">
+        <f t="shared" si="7"/>
+        <v>0.18103448275862077</v>
+      </c>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7">
+        <f t="shared" ref="O15:Q15" si="8">O4/N4-1</f>
         <v>0.34076722812960702</v>
       </c>
-      <c r="O15" s="7">
-        <f t="shared" si="7"/>
+      <c r="P15" s="7">
+        <f t="shared" si="8"/>
         <v>0.25773774710492448</v>
       </c>
-      <c r="P15" s="7">
-        <f t="shared" si="7"/>
+      <c r="Q15" s="7">
+        <f t="shared" si="8"/>
         <v>0.49661470927420859</v>
-      </c>
-      <c r="Q15" s="7">
-        <f>Q4/P4-1</f>
-        <v>0.28467207715539211</v>
       </c>
       <c r="R15" s="7">
         <f>R4/Q4-1</f>
+        <v>0.28467207715539211</v>
+      </c>
+      <c r="S15" s="7">
+        <f>S4/R4-1</f>
         <v>0.13882708047133496</v>
       </c>
     </row>

--- a/E-Com/AMZN.xlsx
+++ b/E-Com/AMZN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\E-Com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C695C07-0CBB-457F-B4C7-C244030157A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71282F8-6F60-493E-87BC-26D31864E9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -758,7 +758,7 @@
   <dimension ref="B2:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="1">
-        <f>Model!T27</f>
+        <f>Model!T28</f>
         <v>10285</v>
       </c>
     </row>
@@ -807,7 +807,7 @@
         <v>3</v>
       </c>
       <c r="L5" s="1">
-        <f>SUM(Model!T45:T46)</f>
+        <f>SUM(Model!T46:T47)</f>
         <v>63970</v>
       </c>
     </row>
@@ -819,7 +819,7 @@
         <v>4</v>
       </c>
       <c r="L6" s="1">
-        <f>SUM(Model!T54:T55)</f>
+        <f>SUM(Model!T55:T56)</f>
         <v>133716</v>
       </c>
     </row>
@@ -868,2887 +868,2788 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18DAFE1B-0872-4079-929A-2D64CB797B54}">
-  <dimension ref="A1:AE90"/>
+  <dimension ref="A1:AE91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J60" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W85" sqref="W85"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="C2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="X1" s="4" t="s">
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="X2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AD2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE2" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="1">
         <v>35812</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D4" s="1">
         <v>38653</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E4" s="1">
         <v>42638</v>
-      </c>
-      <c r="F3" s="1">
-        <f>Z3-E3-D3-C3</f>
-        <v>53630</v>
-      </c>
-      <c r="G3" s="1">
-        <v>46127</v>
-      </c>
-      <c r="H3" s="1">
-        <v>55436</v>
-      </c>
-      <c r="I3" s="1">
-        <v>59373</v>
-      </c>
-      <c r="J3" s="1">
-        <f>AA3-I3-H3-G3</f>
-        <v>75346</v>
-      </c>
-      <c r="K3" s="1">
-        <v>64336</v>
-      </c>
-      <c r="L3" s="1">
-        <v>67550</v>
-      </c>
-      <c r="M3" s="1">
-        <v>65557</v>
-      </c>
-      <c r="N3" s="1">
-        <f>AB3-M3-L3-K3</f>
-        <v>82390</v>
-      </c>
-      <c r="O3" s="1">
-        <v>69244</v>
-      </c>
-      <c r="P3" s="1">
-        <v>74430</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>78843</v>
-      </c>
-      <c r="R3" s="1">
-        <f>AC3-SUM(O3:Q3)</f>
-        <v>93363</v>
-      </c>
-      <c r="S3" s="1">
-        <v>76881</v>
-      </c>
-      <c r="T3" s="1">
-        <v>82546</v>
-      </c>
-      <c r="X3" s="1">
-        <v>106110</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>141366</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>170733</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>236282</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>279833</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>315880</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="1">
-        <v>16192</v>
-      </c>
-      <c r="D4" s="1">
-        <v>16370</v>
-      </c>
-      <c r="E4" s="1">
-        <v>18348</v>
       </c>
       <c r="F4" s="1">
         <f>Z4-E4-D4-C4</f>
-        <v>23813</v>
+        <v>53630</v>
       </c>
       <c r="G4" s="1">
-        <v>19106</v>
+        <v>46127</v>
       </c>
       <c r="H4" s="1">
-        <v>22668</v>
+        <v>55436</v>
       </c>
       <c r="I4" s="1">
-        <v>25171</v>
+        <v>59373</v>
       </c>
       <c r="J4" s="1">
         <f>AA4-I4-H4-G4</f>
-        <v>37467</v>
+        <v>75346</v>
       </c>
       <c r="K4" s="1">
-        <v>30649</v>
+        <v>64336</v>
       </c>
       <c r="L4" s="1">
-        <v>30721</v>
+        <v>67550</v>
       </c>
       <c r="M4" s="1">
-        <v>29145</v>
+        <v>65557</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" ref="N4:N5" si="0">AB4-M4-L4-K4</f>
-        <v>37272</v>
+        <f>AB4-M4-L4-K4</f>
+        <v>82390</v>
       </c>
       <c r="O4" s="1">
-        <v>28759</v>
+        <v>69244</v>
       </c>
       <c r="P4" s="1">
-        <v>27065</v>
+        <v>74430</v>
       </c>
       <c r="Q4" s="1">
-        <v>27720</v>
+        <v>78843</v>
       </c>
       <c r="R4" s="1">
         <f>AC4-SUM(O4:Q4)</f>
-        <v>34463</v>
+        <v>93363</v>
       </c>
       <c r="S4" s="1">
-        <v>29123</v>
+        <v>76881</v>
       </c>
       <c r="T4" s="1">
-        <v>29697</v>
+        <v>82546</v>
       </c>
       <c r="X4" s="1">
-        <v>54297</v>
+        <v>106110</v>
       </c>
       <c r="Y4" s="1">
-        <v>65866</v>
+        <v>141366</v>
       </c>
       <c r="Z4" s="1">
-        <v>74723</v>
+        <v>170733</v>
       </c>
       <c r="AA4" s="1">
-        <v>104412</v>
+        <v>236282</v>
       </c>
       <c r="AB4" s="1">
-        <v>127787</v>
+        <v>279833</v>
       </c>
       <c r="AC4" s="1">
-        <v>118007</v>
+        <v>315880</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>57</v>
+      <c r="B5" t="s">
+        <v>56</v>
       </c>
       <c r="C5" s="1">
-        <v>7696</v>
+        <v>16192</v>
       </c>
       <c r="D5" s="1">
-        <v>8381</v>
+        <v>16370</v>
       </c>
       <c r="E5" s="1">
-        <v>8995</v>
+        <v>18348</v>
       </c>
       <c r="F5" s="1">
         <f>Z5-E5-D5-C5</f>
-        <v>9954</v>
+        <v>23813</v>
       </c>
       <c r="G5" s="1">
-        <v>10219</v>
+        <v>19106</v>
       </c>
       <c r="H5" s="1">
-        <v>10808</v>
+        <v>22668</v>
       </c>
       <c r="I5" s="1">
-        <v>11601</v>
+        <v>25171</v>
       </c>
       <c r="J5" s="1">
         <f>AA5-I5-H5-G5</f>
+        <v>37467</v>
+      </c>
+      <c r="K5" s="1">
+        <v>30649</v>
+      </c>
+      <c r="L5" s="1">
+        <v>30721</v>
+      </c>
+      <c r="M5" s="1">
+        <v>29145</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" ref="N5:N6" si="0">AB5-M5-L5-K5</f>
+        <v>37272</v>
+      </c>
+      <c r="O5" s="1">
+        <v>28759</v>
+      </c>
+      <c r="P5" s="1">
+        <v>27065</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>27720</v>
+      </c>
+      <c r="R5" s="1">
+        <f>AC5-SUM(O5:Q5)</f>
+        <v>34463</v>
+      </c>
+      <c r="S5" s="1">
+        <v>29123</v>
+      </c>
+      <c r="T5" s="1">
+        <v>29697</v>
+      </c>
+      <c r="X5" s="1">
+        <v>54297</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>65866</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>74723</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>104412</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>127787</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>118007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7696</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8381</v>
+      </c>
+      <c r="E6" s="1">
+        <v>8995</v>
+      </c>
+      <c r="F6" s="1">
+        <f>Z6-E6-D6-C6</f>
+        <v>9954</v>
+      </c>
+      <c r="G6" s="1">
+        <v>10219</v>
+      </c>
+      <c r="H6" s="1">
+        <v>10808</v>
+      </c>
+      <c r="I6" s="1">
+        <v>11601</v>
+      </c>
+      <c r="J6" s="1">
+        <f>AA6-I6-H6-G6</f>
         <v>12742</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K6" s="1">
         <v>13503</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L6" s="1">
         <v>14809</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M6" s="1">
         <v>16110</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N6" s="1">
         <f t="shared" si="0"/>
         <v>17780</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O6" s="1">
         <v>18441</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P6" s="1">
         <v>19739</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q6" s="1">
         <v>20538</v>
       </c>
-      <c r="R5" s="1">
-        <f>AC5-SUM(O5:Q5)</f>
+      <c r="R6" s="1">
+        <f>AC6-SUM(O6:Q6)</f>
         <v>21378</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S6" s="1">
         <v>21354</v>
       </c>
-      <c r="T5" s="1">
+      <c r="T6" s="1">
         <v>22140</v>
       </c>
-      <c r="X5" s="1">
+      <c r="X6" s="1">
         <v>17459</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="Y6" s="1">
         <v>25655</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="Z6" s="1">
         <v>35026</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AA6" s="1">
         <v>45370</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AB6" s="1">
         <v>62202</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AC6" s="1">
         <v>80096</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-    </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
         <v>34283</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D8" s="1">
         <v>35856</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E8" s="1">
         <v>39726</v>
-      </c>
-      <c r="F7" s="1">
-        <f>Z7-E7-D7-C7</f>
-        <v>50543</v>
-      </c>
-      <c r="G7" s="1">
-        <v>41841</v>
-      </c>
-      <c r="H7" s="1">
-        <v>50244</v>
-      </c>
-      <c r="I7" s="1">
-        <v>52774</v>
-      </c>
-      <c r="J7" s="1">
-        <f>AA7-I7-H7-G7</f>
-        <v>71056</v>
-      </c>
-      <c r="K7" s="1">
-        <v>57491</v>
-      </c>
-      <c r="L7" s="1">
-        <v>58004</v>
-      </c>
-      <c r="M7" s="1">
-        <v>54876</v>
-      </c>
-      <c r="N7" s="1">
-        <f>AB7-M7-L7-K7</f>
-        <v>71416</v>
-      </c>
-      <c r="O7" s="1">
-        <v>56455</v>
-      </c>
-      <c r="P7" s="1">
-        <v>56575</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>59340</v>
-      </c>
-      <c r="R7" s="1">
-        <f>AC7-Q7-P7-O7</f>
-        <v>70531</v>
-      </c>
-      <c r="S7" s="1">
-        <v>56981</v>
-      </c>
-      <c r="T7" s="1">
-        <v>59032</v>
-      </c>
-      <c r="X7" s="1">
-        <v>118573</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>141915</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>160408</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>215915</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>241787</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>242901</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="1">
-        <v>25417</v>
-      </c>
-      <c r="D8" s="1">
-        <v>27548</v>
-      </c>
-      <c r="E8" s="1">
-        <v>30255</v>
       </c>
       <c r="F8" s="1">
         <f>Z8-E8-D8-C8</f>
-        <v>36894</v>
+        <v>50543</v>
       </c>
       <c r="G8" s="1">
-        <v>33611</v>
+        <v>41841</v>
       </c>
       <c r="H8" s="1">
-        <v>38668</v>
+        <v>50244</v>
       </c>
       <c r="I8" s="1">
-        <v>43371</v>
+        <v>52774</v>
       </c>
       <c r="J8" s="1">
         <f>AA8-I8-H8-G8</f>
-        <v>54499</v>
+        <v>71056</v>
       </c>
       <c r="K8" s="1">
-        <v>51027</v>
+        <v>57491</v>
       </c>
       <c r="L8" s="1">
-        <v>55076</v>
+        <v>58004</v>
       </c>
       <c r="M8" s="1">
-        <v>55936</v>
+        <v>54876</v>
       </c>
       <c r="N8" s="1">
         <f>AB8-M8-L8-K8</f>
-        <v>65996</v>
+        <v>71416</v>
       </c>
       <c r="O8" s="1">
-        <v>59989</v>
+        <v>56455</v>
       </c>
       <c r="P8" s="1">
-        <v>64659</v>
+        <v>56575</v>
       </c>
       <c r="Q8" s="1">
-        <v>67761</v>
+        <v>59340</v>
       </c>
       <c r="R8" s="1">
         <f>AC8-Q8-P8-O8</f>
+        <v>70531</v>
+      </c>
+      <c r="S8" s="1">
+        <v>56981</v>
+      </c>
+      <c r="T8" s="1">
+        <v>59032</v>
+      </c>
+      <c r="X8" s="1">
+        <v>118573</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>141915</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>160408</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>215915</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>241787</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>242901</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1">
+        <v>25417</v>
+      </c>
+      <c r="D9" s="1">
+        <v>27548</v>
+      </c>
+      <c r="E9" s="1">
+        <v>30255</v>
+      </c>
+      <c r="F9" s="1">
+        <f>Z9-E9-D9-C9</f>
+        <v>36894</v>
+      </c>
+      <c r="G9" s="1">
+        <v>33611</v>
+      </c>
+      <c r="H9" s="1">
+        <v>38668</v>
+      </c>
+      <c r="I9" s="1">
+        <v>43371</v>
+      </c>
+      <c r="J9" s="1">
+        <f>AA9-I9-H9-G9</f>
+        <v>54499</v>
+      </c>
+      <c r="K9" s="1">
+        <v>51027</v>
+      </c>
+      <c r="L9" s="1">
+        <v>55076</v>
+      </c>
+      <c r="M9" s="1">
+        <v>55936</v>
+      </c>
+      <c r="N9" s="1">
+        <f>AB9-M9-L9-K9</f>
+        <v>65996</v>
+      </c>
+      <c r="O9" s="1">
+        <v>59989</v>
+      </c>
+      <c r="P9" s="1">
+        <v>64659</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>67761</v>
+      </c>
+      <c r="R9" s="1">
+        <f>AC9-Q9-P9-O9</f>
         <v>78673</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S9" s="1">
         <v>70377</v>
       </c>
-      <c r="T8" s="1">
+      <c r="T9" s="1">
         <v>75351</v>
       </c>
-      <c r="X8" s="1">
+      <c r="X9" s="1">
         <v>59293</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="Y9" s="1">
         <v>90972</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="Z9" s="1">
         <v>120114</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="AA9" s="1">
         <v>170149</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AB9" s="1">
         <v>228035</v>
       </c>
-      <c r="AC8" s="1">
+      <c r="AC9" s="1">
         <v>271082</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5">
-        <f>C7+C8</f>
+      <c r="C10" s="5">
+        <f>C8+C9</f>
         <v>59700</v>
       </c>
-      <c r="D9" s="5">
-        <f>D7+D8</f>
+      <c r="D10" s="5">
+        <f>D8+D9</f>
         <v>63404</v>
       </c>
-      <c r="E9" s="5">
-        <f>E7+E8</f>
+      <c r="E10" s="5">
+        <f>E8+E9</f>
         <v>69981</v>
       </c>
-      <c r="F9" s="5">
-        <f>F7+F8</f>
+      <c r="F10" s="5">
+        <f>F8+F9</f>
         <v>87437</v>
       </c>
-      <c r="G9" s="5">
-        <f t="shared" ref="G9:T9" si="1">G7+G8</f>
+      <c r="G10" s="5">
+        <f t="shared" ref="G10:T10" si="1">G8+G9</f>
         <v>75452</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H10" s="5">
         <f t="shared" si="1"/>
         <v>88912</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I10" s="5">
         <f t="shared" si="1"/>
         <v>96145</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J10" s="5">
         <f t="shared" si="1"/>
         <v>125555</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K10" s="5">
         <f t="shared" si="1"/>
         <v>108518</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L10" s="5">
         <f t="shared" si="1"/>
         <v>113080</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M10" s="5">
         <f t="shared" si="1"/>
         <v>110812</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N10" s="5">
         <f t="shared" si="1"/>
         <v>137412</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O10" s="5">
         <f t="shared" si="1"/>
         <v>116444</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P10" s="5">
         <f t="shared" si="1"/>
         <v>121234</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q10" s="5">
         <f t="shared" si="1"/>
         <v>127101</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R10" s="5">
         <f t="shared" si="1"/>
         <v>149204</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S10" s="5">
         <f t="shared" si="1"/>
         <v>127358</v>
       </c>
-      <c r="T9" s="5">
+      <c r="T10" s="5">
         <f t="shared" si="1"/>
         <v>134383</v>
       </c>
-      <c r="X9" s="5">
-        <f t="shared" ref="X9:AC9" si="2">X7+X8</f>
+      <c r="X10" s="5">
+        <f t="shared" ref="X10:AC10" si="2">X8+X9</f>
         <v>177866</v>
       </c>
-      <c r="Y9" s="5">
+      <c r="Y10" s="5">
         <f t="shared" si="2"/>
         <v>232887</v>
       </c>
-      <c r="Z9" s="5">
+      <c r="Z10" s="5">
         <f t="shared" si="2"/>
         <v>280522</v>
       </c>
-      <c r="AA9" s="5">
+      <c r="AA10" s="5">
         <f t="shared" si="2"/>
         <v>386064</v>
       </c>
-      <c r="AB9" s="5">
+      <c r="AB10" s="5">
         <f t="shared" si="2"/>
         <v>469822</v>
       </c>
-      <c r="AC9" s="5">
+      <c r="AC10" s="5">
         <f t="shared" si="2"/>
         <v>513983</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="1">
         <v>33920</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D11" s="1">
         <v>36337</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E11" s="1">
         <v>41302</v>
       </c>
-      <c r="F10" s="1">
-        <f t="shared" ref="F10:F15" si="3">Z10-E10-D10-C10</f>
+      <c r="F11" s="1">
+        <f t="shared" ref="F11:F16" si="3">Z11-E11-D11-C11</f>
         <v>53977</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G11" s="1">
         <v>44257</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H11" s="1">
         <v>52660</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I11" s="1">
         <v>57106</v>
       </c>
-      <c r="J10" s="1">
-        <f t="shared" ref="J10:J15" si="4">AA10-I10-H10-G10</f>
+      <c r="J11" s="1">
+        <f t="shared" ref="J11:J16" si="4">AA11-I11-H11-G11</f>
         <v>79284</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K11" s="1">
         <v>62403</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L11" s="1">
         <v>64176</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M11" s="1">
         <v>62930</v>
       </c>
-      <c r="N10" s="1">
-        <f t="shared" ref="N10:N15" si="5">AB10-M10-L10-K10</f>
+      <c r="N11" s="1">
+        <f t="shared" ref="N11:N16" si="5">AB11-M11-L11-K11</f>
         <v>82835</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O11" s="1">
         <v>66499</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P11" s="1">
         <v>66424</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q11" s="1">
         <v>70268</v>
       </c>
-      <c r="R10" s="1">
-        <f>AC10-SUM(O10:Q10)</f>
+      <c r="R11" s="1">
+        <f>AC11-SUM(O11:Q11)</f>
         <v>85640</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S11" s="1">
         <v>67791</v>
       </c>
-      <c r="T10" s="1">
+      <c r="T11" s="1">
         <v>69373</v>
       </c>
-      <c r="X10" s="1">
+      <c r="X11" s="1">
         <v>111934</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="Y11" s="1">
         <v>139156</v>
       </c>
-      <c r="Z10" s="1">
+      <c r="Z11" s="1">
         <v>165536</v>
       </c>
-      <c r="AA10" s="1">
+      <c r="AA11" s="1">
         <v>233307</v>
       </c>
-      <c r="AB10" s="1">
+      <c r="AB11" s="1">
         <v>272344</v>
       </c>
-      <c r="AC10" s="1">
+      <c r="AC11" s="1">
         <v>288831</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C12" s="1">
         <v>8601</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D12" s="1">
         <v>9271</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E12" s="1">
         <v>10167</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F12" s="1">
         <f t="shared" si="3"/>
         <v>12193</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G12" s="1">
         <v>11531</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H12" s="1">
         <v>13806</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I12" s="1">
         <v>14705</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J12" s="1">
         <f t="shared" si="4"/>
         <v>18475</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K12" s="1">
         <v>16530</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L12" s="1">
         <v>17638</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M12" s="1">
         <v>18498</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N12" s="1">
         <f t="shared" si="5"/>
         <v>22445</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O12" s="1">
         <v>20271</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P12" s="1">
         <v>20342</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q12" s="1">
         <v>20583</v>
       </c>
-      <c r="R11" s="1">
-        <f t="shared" ref="R11:R15" si="6">AC11-SUM(O11:Q11)</f>
+      <c r="R12" s="1">
+        <f t="shared" ref="R12:R16" si="6">AC12-SUM(O12:Q12)</f>
         <v>23103</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S12" s="1">
         <v>20905</v>
       </c>
-      <c r="T11" s="1">
+      <c r="T12" s="1">
         <v>21305</v>
       </c>
-      <c r="X11" s="1">
+      <c r="X12" s="1">
         <v>25249</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="Y12" s="1">
         <v>34027</v>
       </c>
-      <c r="Z11" s="1">
+      <c r="Z12" s="1">
         <v>40232</v>
       </c>
-      <c r="AA11" s="1">
+      <c r="AA12" s="1">
         <v>58517</v>
       </c>
-      <c r="AB11" s="1">
+      <c r="AB12" s="1">
         <v>75111</v>
       </c>
-      <c r="AC11" s="1">
+      <c r="AC12" s="1">
         <v>84299</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C13" s="1">
         <v>7927</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D13" s="1">
         <v>9065</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E13" s="1">
         <v>9200</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F13" s="1">
         <f t="shared" si="3"/>
         <v>9739</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G13" s="1">
         <v>9325</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H13" s="1">
         <v>10388</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I13" s="1">
         <v>10976</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J13" s="1">
         <f t="shared" si="4"/>
         <v>12051</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K13" s="1">
         <v>12488</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L13" s="1">
         <v>13871</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M13" s="1">
         <v>14380</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N13" s="1">
         <f t="shared" si="5"/>
         <v>15313</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O13" s="1">
         <v>14842</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P13" s="1">
         <v>18072</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q13" s="1">
         <v>19485</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R13" s="1">
         <f t="shared" si="6"/>
         <v>20814</v>
       </c>
-      <c r="S12" s="1">
+      <c r="S13" s="1">
         <v>20450</v>
       </c>
-      <c r="T12" s="1">
+      <c r="T13" s="1">
         <v>21931</v>
       </c>
-      <c r="X12" s="1">
+      <c r="X13" s="1">
         <v>22620</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="Y13" s="1">
         <v>28837</v>
       </c>
-      <c r="Z12" s="1">
+      <c r="Z13" s="1">
         <v>35931</v>
       </c>
-      <c r="AA12" s="1">
+      <c r="AA13" s="1">
         <v>42740</v>
       </c>
-      <c r="AB12" s="1">
+      <c r="AB13" s="1">
         <v>56052</v>
       </c>
-      <c r="AC12" s="1">
+      <c r="AC13" s="1">
         <v>73213</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C14" s="1">
         <v>3664</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D14" s="1">
         <v>4291</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E14" s="1">
         <v>4752</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F14" s="1">
         <f t="shared" si="3"/>
         <v>6171</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G14" s="1">
         <v>4828</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H14" s="1">
         <v>4345</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I14" s="1">
         <v>5434</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J14" s="1">
         <f t="shared" si="4"/>
         <v>7401</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K14" s="1">
         <v>6207</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L14" s="1">
         <v>7524</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M14" s="1">
         <v>8010</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N14" s="1">
         <f t="shared" si="5"/>
         <v>10810</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O14" s="1">
         <v>8320</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P14" s="1">
         <v>10086</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q14" s="1">
         <v>11014</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R14" s="1">
         <f t="shared" si="6"/>
         <v>12818</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S14" s="1">
         <v>10172</v>
       </c>
-      <c r="T13" s="1">
+      <c r="T14" s="1">
         <v>10745</v>
       </c>
-      <c r="X13" s="1">
+      <c r="X14" s="1">
         <v>10069</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="Y14" s="1">
         <v>13814</v>
       </c>
-      <c r="Z13" s="1">
+      <c r="Z14" s="1">
         <v>18878</v>
       </c>
-      <c r="AA13" s="1">
+      <c r="AA14" s="1">
         <v>22008</v>
       </c>
-      <c r="AB13" s="1">
+      <c r="AB14" s="1">
         <v>32551</v>
       </c>
-      <c r="AC13" s="1">
+      <c r="AC14" s="1">
         <v>42238</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C15" s="1">
         <v>1173</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D15" s="1">
         <v>1270</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E15" s="1">
         <v>1348</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F15" s="1">
         <f t="shared" si="3"/>
         <v>1412</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G15" s="1">
         <v>1452</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H15" s="1">
         <v>1580</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I15" s="1">
         <v>1668</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J15" s="1">
         <f t="shared" si="4"/>
         <v>1968</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K15" s="1">
         <v>1987</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L15" s="1">
         <v>2158</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M15" s="1">
         <v>2153</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N15" s="1">
         <f t="shared" si="5"/>
         <v>2525</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O15" s="1">
         <v>2594</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P15" s="1">
         <v>2903</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q15" s="1">
         <v>3061</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R15" s="1">
         <f t="shared" si="6"/>
         <v>3333</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S15" s="1">
         <v>3043</v>
       </c>
-      <c r="T14" s="1">
+      <c r="T15" s="1">
         <v>3202</v>
       </c>
-      <c r="X14" s="1">
+      <c r="X15" s="1">
         <v>3674</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="Y15" s="1">
         <v>4336</v>
       </c>
-      <c r="Z14" s="1">
+      <c r="Z15" s="1">
         <v>5203</v>
       </c>
-      <c r="AA14" s="1">
+      <c r="AA15" s="1">
         <v>6668</v>
       </c>
-      <c r="AB14" s="1">
+      <c r="AB15" s="1">
         <v>8823</v>
       </c>
-      <c r="AC14" s="1">
+      <c r="AC15" s="1">
         <v>11891</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C16" s="1">
         <v>-5</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D16" s="1">
         <v>86</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E16" s="1">
         <v>55</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F16" s="1">
         <f t="shared" si="3"/>
         <v>65</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G16" s="1">
         <v>70</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H16" s="1">
         <v>290</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I16" s="1">
         <v>62</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J16" s="1">
         <f t="shared" si="4"/>
         <v>-497</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K16" s="1">
         <v>38</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L16" s="1">
         <v>11</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M16" s="1">
         <v>-11</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N16" s="1">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O16" s="1">
         <v>249</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P16" s="1">
         <v>90</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q16" s="1">
         <v>165</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R16" s="1">
         <f t="shared" si="6"/>
         <v>759</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S16" s="1">
         <v>223</v>
       </c>
-      <c r="T15" s="1">
+      <c r="T16" s="1">
         <v>146</v>
       </c>
-      <c r="X15" s="1">
+      <c r="X16" s="1">
         <v>214</v>
       </c>
-      <c r="Y15" s="1">
+      <c r="Y16" s="1">
         <v>296</v>
       </c>
-      <c r="Z15" s="1">
+      <c r="Z16" s="1">
         <v>201</v>
       </c>
-      <c r="AA15" s="1">
+      <c r="AA16" s="1">
         <v>-75</v>
       </c>
-      <c r="AB15" s="1">
+      <c r="AB16" s="1">
         <v>62</v>
       </c>
-      <c r="AC15" s="1">
+      <c r="AC16" s="1">
         <v>1263</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="5">
-        <f>C9-SUM(C10:C15)</f>
+      <c r="C17" s="5">
+        <f>C10-SUM(C11:C16)</f>
         <v>4420</v>
       </c>
-      <c r="D16" s="5">
-        <f>D9-SUM(D10:D15)</f>
+      <c r="D17" s="5">
+        <f>D10-SUM(D11:D16)</f>
         <v>3084</v>
       </c>
-      <c r="E16" s="5">
-        <f>E9-SUM(E10:E15)</f>
+      <c r="E17" s="5">
+        <f>E10-SUM(E11:E16)</f>
         <v>3157</v>
       </c>
-      <c r="F16" s="5">
-        <f>F9-SUM(F10:F15)</f>
+      <c r="F17" s="5">
+        <f>F10-SUM(F11:F16)</f>
         <v>3880</v>
       </c>
-      <c r="G16" s="5">
-        <f t="shared" ref="G16:T16" si="7">G9-SUM(G10:G15)</f>
+      <c r="G17" s="5">
+        <f t="shared" ref="G17:T17" si="7">G10-SUM(G11:G16)</f>
         <v>3989</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H17" s="5">
         <f t="shared" si="7"/>
         <v>5843</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I17" s="5">
         <f t="shared" si="7"/>
         <v>6194</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J17" s="5">
         <f t="shared" si="7"/>
         <v>6873</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K17" s="5">
         <f t="shared" si="7"/>
         <v>8865</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L17" s="5">
         <f t="shared" si="7"/>
         <v>7702</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M17" s="5">
         <f t="shared" si="7"/>
         <v>4852</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N17" s="5">
         <f t="shared" si="7"/>
         <v>3460</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O17" s="5">
         <f t="shared" si="7"/>
         <v>3669</v>
       </c>
-      <c r="P16" s="5">
+      <c r="P17" s="5">
         <f t="shared" si="7"/>
         <v>3317</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="Q17" s="5">
         <f t="shared" si="7"/>
         <v>2525</v>
       </c>
-      <c r="R16" s="5">
+      <c r="R17" s="5">
         <f t="shared" si="7"/>
         <v>2737</v>
       </c>
-      <c r="S16" s="5">
+      <c r="S17" s="5">
         <f t="shared" si="7"/>
         <v>4774</v>
       </c>
-      <c r="T16" s="5">
+      <c r="T17" s="5">
         <f t="shared" si="7"/>
         <v>7681</v>
       </c>
-      <c r="X16" s="5">
-        <f t="shared" ref="X16:AC16" si="8">X9-SUM(X10:X15)</f>
+      <c r="X17" s="5">
+        <f t="shared" ref="X17:AC17" si="8">X10-SUM(X11:X16)</f>
         <v>4106</v>
       </c>
-      <c r="Y16" s="5">
+      <c r="Y17" s="5">
         <f t="shared" si="8"/>
         <v>12421</v>
       </c>
-      <c r="Z16" s="5">
+      <c r="Z17" s="5">
         <f t="shared" si="8"/>
         <v>14541</v>
       </c>
-      <c r="AA16" s="5">
+      <c r="AA17" s="5">
         <f t="shared" si="8"/>
         <v>22899</v>
       </c>
-      <c r="AB16" s="5">
+      <c r="AB17" s="5">
         <f t="shared" si="8"/>
         <v>24879</v>
       </c>
-      <c r="AC16" s="5">
+      <c r="AC17" s="5">
         <f t="shared" si="8"/>
         <v>12248</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C18" s="1">
         <v>183</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D18" s="1">
         <v>215</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E18" s="1">
         <v>224</v>
-      </c>
-      <c r="F17" s="1">
-        <f>Z17-E17-D17-C17</f>
-        <v>210</v>
-      </c>
-      <c r="G17" s="1">
-        <v>202</v>
-      </c>
-      <c r="H17" s="1">
-        <v>135</v>
-      </c>
-      <c r="I17" s="1">
-        <v>118</v>
-      </c>
-      <c r="J17" s="1">
-        <f>AA17-I17-H17-G17</f>
-        <v>100</v>
-      </c>
-      <c r="K17" s="1">
-        <v>105</v>
-      </c>
-      <c r="L17" s="1">
-        <v>106</v>
-      </c>
-      <c r="M17" s="1">
-        <v>119</v>
-      </c>
-      <c r="N17" s="1">
-        <f>AB17-M17-L17-K17</f>
-        <v>118</v>
-      </c>
-      <c r="O17" s="1">
-        <v>108</v>
-      </c>
-      <c r="P17" s="1">
-        <v>159</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>277</v>
-      </c>
-      <c r="R17" s="1">
-        <f>AC17-SUM(O17:Q17)</f>
-        <v>445</v>
-      </c>
-      <c r="S17" s="1">
-        <v>611</v>
-      </c>
-      <c r="T17" s="1">
-        <v>661</v>
-      </c>
-      <c r="X17" s="1">
-        <v>202</v>
-      </c>
-      <c r="Y17" s="1">
-        <v>440</v>
-      </c>
-      <c r="Z17" s="1">
-        <v>832</v>
-      </c>
-      <c r="AA17" s="1">
-        <v>555</v>
-      </c>
-      <c r="AB17" s="1">
-        <v>448</v>
-      </c>
-      <c r="AC17" s="1">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="1">
-        <v>-366</v>
-      </c>
-      <c r="D18" s="1">
-        <v>-383</v>
-      </c>
-      <c r="E18" s="1">
-        <v>-396</v>
       </c>
       <c r="F18" s="1">
         <f>Z18-E18-D18-C18</f>
-        <v>-455</v>
+        <v>210</v>
       </c>
       <c r="G18" s="1">
-        <v>-402</v>
+        <v>202</v>
       </c>
       <c r="H18" s="1">
-        <v>-403</v>
+        <v>135</v>
       </c>
       <c r="I18" s="1">
-        <v>-428</v>
+        <v>118</v>
       </c>
       <c r="J18" s="1">
         <f>AA18-I18-H18-G18</f>
-        <v>-414</v>
+        <v>100</v>
       </c>
       <c r="K18" s="1">
-        <v>-399</v>
+        <v>105</v>
       </c>
       <c r="L18" s="1">
-        <v>-435</v>
+        <v>106</v>
       </c>
       <c r="M18" s="1">
-        <v>-493</v>
+        <v>119</v>
       </c>
       <c r="N18" s="1">
         <f>AB18-M18-L18-K18</f>
+        <v>118</v>
+      </c>
+      <c r="O18" s="1">
+        <v>108</v>
+      </c>
+      <c r="P18" s="1">
+        <v>159</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>277</v>
+      </c>
+      <c r="R18" s="1">
+        <f>AC18-SUM(O18:Q18)</f>
+        <v>445</v>
+      </c>
+      <c r="S18" s="1">
+        <v>611</v>
+      </c>
+      <c r="T18" s="1">
+        <v>661</v>
+      </c>
+      <c r="X18" s="1">
+        <v>202</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>440</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>832</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>555</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>448</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="1">
+        <v>-366</v>
+      </c>
+      <c r="D19" s="1">
+        <v>-383</v>
+      </c>
+      <c r="E19" s="1">
+        <v>-396</v>
+      </c>
+      <c r="F19" s="1">
+        <f>Z19-E19-D19-C19</f>
+        <v>-455</v>
+      </c>
+      <c r="G19" s="1">
+        <v>-402</v>
+      </c>
+      <c r="H19" s="1">
+        <v>-403</v>
+      </c>
+      <c r="I19" s="1">
+        <v>-428</v>
+      </c>
+      <c r="J19" s="1">
+        <f>AA19-I19-H19-G19</f>
+        <v>-414</v>
+      </c>
+      <c r="K19" s="1">
+        <v>-399</v>
+      </c>
+      <c r="L19" s="1">
+        <v>-435</v>
+      </c>
+      <c r="M19" s="1">
+        <v>-493</v>
+      </c>
+      <c r="N19" s="1">
+        <f>AB19-M19-L19-K19</f>
         <v>-482</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O19" s="1">
         <v>-472</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P19" s="1">
         <v>-584</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q19" s="1">
         <v>-617</v>
       </c>
-      <c r="R18" s="1">
-        <f t="shared" ref="R18:R19" si="9">AC18-SUM(O18:Q18)</f>
+      <c r="R19" s="1">
+        <f t="shared" ref="R19:R20" si="9">AC19-SUM(O19:Q19)</f>
         <v>-694</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S19" s="1">
         <v>-823</v>
       </c>
-      <c r="T18" s="1">
+      <c r="T19" s="1">
         <v>-840</v>
       </c>
-      <c r="X18" s="1">
+      <c r="X19" s="1">
         <v>-848</v>
       </c>
-      <c r="Y18" s="1">
+      <c r="Y19" s="1">
         <v>-1417</v>
       </c>
-      <c r="Z18" s="1">
+      <c r="Z19" s="1">
         <v>-1600</v>
       </c>
-      <c r="AA18" s="1">
+      <c r="AA19" s="1">
         <v>-1647</v>
       </c>
-      <c r="AB18" s="1">
+      <c r="AB19" s="1">
         <v>-1809</v>
       </c>
-      <c r="AC18" s="1">
+      <c r="AC19" s="1">
         <f>-2367</f>
         <v>-2367</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C20" s="1">
         <v>164</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D20" s="1">
         <v>-27</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E20" s="1">
         <v>-353</v>
       </c>
-      <c r="F19" s="1">
-        <f>Z19-E19-D19-C19</f>
+      <c r="F20" s="1">
+        <f>Z20-E20-D20-C20</f>
         <v>419</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G20" s="1">
         <v>-406</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H20" s="1">
         <v>646</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I20" s="1">
         <v>925</v>
       </c>
-      <c r="J19" s="1">
-        <f>AA19-I19-H19-G19</f>
+      <c r="J20" s="1">
+        <f>AA20-I20-H20-G20</f>
         <v>1206</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K20" s="1">
         <v>1697</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L20" s="1">
         <v>1261</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M20" s="1">
         <v>-163</v>
       </c>
-      <c r="N19" s="1">
-        <f>AB19-M19-L19-K19</f>
+      <c r="N20" s="1">
+        <f>AB20-M20-L20-K20</f>
         <v>11838</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O20" s="1">
         <v>-8570</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P20" s="1">
         <v>-5545</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q20" s="1">
         <v>759</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R20" s="1">
         <f t="shared" si="9"/>
         <v>-3450</v>
       </c>
-      <c r="S19" s="1">
+      <c r="S20" s="1">
         <v>-443</v>
       </c>
-      <c r="T19" s="1">
+      <c r="T20" s="1">
         <v>61</v>
       </c>
-      <c r="X19" s="1">
+      <c r="X20" s="1">
         <v>346</v>
       </c>
-      <c r="Y19" s="1">
+      <c r="Y20" s="1">
         <v>-183</v>
       </c>
-      <c r="Z19" s="1">
+      <c r="Z20" s="1">
         <v>203</v>
       </c>
-      <c r="AA19" s="1">
+      <c r="AA20" s="1">
         <v>2371</v>
       </c>
-      <c r="AB19" s="1">
+      <c r="AB20" s="1">
         <v>14633</v>
       </c>
-      <c r="AC19" s="8">
+      <c r="AC20" s="8">
         <v>-16806</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="5">
-        <f>C16+C17+C18+C19</f>
+      <c r="C21" s="5">
+        <f>C17+C18+C19+C20</f>
         <v>4401</v>
       </c>
-      <c r="D20" s="5">
-        <f>D16+D17+D18+D19</f>
+      <c r="D21" s="5">
+        <f>D17+D18+D19+D20</f>
         <v>2889</v>
       </c>
-      <c r="E20" s="5">
-        <f>E16+E17+E18+E19</f>
+      <c r="E21" s="5">
+        <f>E17+E18+E19+E20</f>
         <v>2632</v>
       </c>
-      <c r="F20" s="5">
-        <f>F16+F17+F18+F19</f>
+      <c r="F21" s="5">
+        <f>F17+F18+F19+F20</f>
         <v>4054</v>
       </c>
-      <c r="G20" s="5">
-        <f t="shared" ref="G20:T20" si="10">G16+G17+G18+G19</f>
+      <c r="G21" s="5">
+        <f t="shared" ref="G21:T21" si="10">G17+G18+G19+G20</f>
         <v>3383</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H21" s="5">
         <f t="shared" si="10"/>
         <v>6221</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I21" s="5">
         <f t="shared" si="10"/>
         <v>6809</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J21" s="5">
         <f t="shared" si="10"/>
         <v>7765</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K21" s="5">
         <f t="shared" si="10"/>
         <v>10268</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L21" s="5">
         <f t="shared" si="10"/>
         <v>8634</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M21" s="5">
         <f t="shared" si="10"/>
         <v>4315</v>
       </c>
-      <c r="N20" s="5">
+      <c r="N21" s="5">
         <f t="shared" si="10"/>
         <v>14934</v>
       </c>
-      <c r="O20" s="5">
+      <c r="O21" s="5">
         <f t="shared" si="10"/>
         <v>-5265</v>
       </c>
-      <c r="P20" s="5">
+      <c r="P21" s="5">
         <f t="shared" si="10"/>
         <v>-2653</v>
       </c>
-      <c r="Q20" s="5">
+      <c r="Q21" s="5">
         <f t="shared" si="10"/>
         <v>2944</v>
       </c>
-      <c r="R20" s="5">
+      <c r="R21" s="5">
         <f t="shared" si="10"/>
         <v>-962</v>
       </c>
-      <c r="S20" s="5">
+      <c r="S21" s="5">
         <f t="shared" si="10"/>
         <v>4119</v>
       </c>
-      <c r="T20" s="5">
+      <c r="T21" s="5">
         <f t="shared" si="10"/>
         <v>7563</v>
       </c>
-      <c r="X20" s="5">
-        <f t="shared" ref="X20:AC20" si="11">X16+X17+X18+X19</f>
+      <c r="X21" s="5">
+        <f t="shared" ref="X21:AC21" si="11">X17+X18+X19+X20</f>
         <v>3806</v>
       </c>
-      <c r="Y20" s="5">
+      <c r="Y21" s="5">
         <f t="shared" si="11"/>
         <v>11261</v>
       </c>
-      <c r="Z20" s="5">
+      <c r="Z21" s="5">
         <f t="shared" si="11"/>
         <v>13976</v>
       </c>
-      <c r="AA20" s="5">
+      <c r="AA21" s="5">
         <f t="shared" si="11"/>
         <v>24178</v>
       </c>
-      <c r="AB20" s="5">
+      <c r="AB21" s="5">
         <f t="shared" si="11"/>
         <v>38151</v>
       </c>
-      <c r="AC20" s="5">
+      <c r="AC21" s="5">
         <f t="shared" si="11"/>
         <v>-5936</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C22" s="1">
         <f>-836-4</f>
         <v>-840</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D22" s="1">
         <f>-257-7</f>
         <v>-264</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E22" s="1">
         <f>-494-4</f>
         <v>-498</v>
       </c>
-      <c r="F21" s="1">
-        <f>Z21-E21-D21-C21</f>
+      <c r="F22" s="1">
+        <f>Z22-E22-D22-C22</f>
         <v>-786</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G22" s="1">
         <f>-744-104</f>
         <v>-848</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H22" s="1">
         <f>-984+6</f>
         <v>-978</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I22" s="1">
         <f>-569+91</f>
         <v>-478</v>
       </c>
-      <c r="J21" s="1">
-        <f>W21-I21-H21-G21</f>
+      <c r="J22" s="1">
+        <f>W22-I22-H22-G22</f>
         <v>2304</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K22" s="1">
         <f>-2156-5</f>
         <v>-2161</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L22" s="1">
         <v>-868</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M22" s="1">
         <v>-1155</v>
       </c>
-      <c r="N21" s="1">
-        <f>AB21-M21-L21-K21</f>
+      <c r="N22" s="1">
+        <f>AB22-M22-L22-K22</f>
         <v>-603</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O22" s="1">
         <v>1422</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P22" s="1">
         <f>637-12</f>
         <v>625</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q22" s="1">
         <f>-69-3</f>
         <v>-72</v>
       </c>
-      <c r="R21" s="1">
-        <f>AC21-SUM(O21:Q21)</f>
+      <c r="R22" s="1">
+        <f>AC22-SUM(O22:Q22)</f>
         <v>1239</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S22" s="1">
         <f>-948+1</f>
         <v>-947</v>
       </c>
-      <c r="T21" s="1">
+      <c r="T22" s="1">
         <f>-804-9</f>
         <v>-813</v>
       </c>
-      <c r="X21" s="1">
+      <c r="X22" s="1">
         <f>-769-4</f>
         <v>-773</v>
       </c>
-      <c r="Y21" s="1">
+      <c r="Y22" s="1">
         <f>-1197+9</f>
         <v>-1188</v>
       </c>
-      <c r="Z21" s="1">
+      <c r="Z22" s="1">
         <f>-2374-14</f>
         <v>-2388</v>
       </c>
-      <c r="AA21" s="1">
+      <c r="AA22" s="1">
         <v>-2863</v>
       </c>
-      <c r="AB21" s="1">
+      <c r="AB22" s="1">
         <f>-4791+4</f>
         <v>-4787</v>
       </c>
-      <c r="AC21" s="1">
+      <c r="AC22" s="1">
         <f>3217-3</f>
         <v>3214</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="23" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="5">
-        <f>C20+C21</f>
+      <c r="C23" s="5">
+        <f>C21+C22</f>
         <v>3561</v>
       </c>
-      <c r="D22" s="5">
-        <f>D20+D21</f>
+      <c r="D23" s="5">
+        <f>D21+D22</f>
         <v>2625</v>
       </c>
-      <c r="E22" s="5">
-        <f>E20+E21</f>
+      <c r="E23" s="5">
+        <f>E21+E22</f>
         <v>2134</v>
       </c>
-      <c r="F22" s="5">
-        <f>F20+F21</f>
+      <c r="F23" s="5">
+        <f>F21+F22</f>
         <v>3268</v>
       </c>
-      <c r="G22" s="5">
-        <f t="shared" ref="G22:T22" si="12">G20+G21</f>
+      <c r="G23" s="5">
+        <f t="shared" ref="G23:T23" si="12">G21+G22</f>
         <v>2535</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H23" s="5">
         <f t="shared" si="12"/>
         <v>5243</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I23" s="5">
         <f t="shared" si="12"/>
         <v>6331</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J23" s="5">
         <f t="shared" si="12"/>
         <v>10069</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K23" s="5">
         <f t="shared" si="12"/>
         <v>8107</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L23" s="5">
         <f t="shared" si="12"/>
         <v>7766</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M23" s="5">
         <f t="shared" si="12"/>
         <v>3160</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N23" s="5">
         <f t="shared" si="12"/>
         <v>14331</v>
       </c>
-      <c r="O22" s="5">
+      <c r="O23" s="5">
         <f t="shared" si="12"/>
         <v>-3843</v>
       </c>
-      <c r="P22" s="5">
+      <c r="P23" s="5">
         <f t="shared" si="12"/>
         <v>-2028</v>
       </c>
-      <c r="Q22" s="5">
+      <c r="Q23" s="5">
         <f t="shared" si="12"/>
         <v>2872</v>
       </c>
-      <c r="R22" s="5">
+      <c r="R23" s="5">
         <f t="shared" si="12"/>
         <v>277</v>
       </c>
-      <c r="S22" s="5">
+      <c r="S23" s="5">
         <f t="shared" si="12"/>
         <v>3172</v>
       </c>
-      <c r="T22" s="5">
+      <c r="T23" s="5">
         <f t="shared" si="12"/>
         <v>6750</v>
       </c>
-      <c r="X22" s="5">
-        <f t="shared" ref="X22:AC22" si="13">X20+X21</f>
+      <c r="X23" s="5">
+        <f t="shared" ref="X23:AC23" si="13">X21+X22</f>
         <v>3033</v>
       </c>
-      <c r="Y22" s="5">
+      <c r="Y23" s="5">
         <f t="shared" si="13"/>
         <v>10073</v>
       </c>
-      <c r="Z22" s="5">
+      <c r="Z23" s="5">
         <f t="shared" si="13"/>
         <v>11588</v>
       </c>
-      <c r="AA22" s="5">
+      <c r="AA23" s="5">
         <f t="shared" si="13"/>
         <v>21315</v>
       </c>
-      <c r="AB22" s="5">
+      <c r="AB23" s="5">
         <f t="shared" si="13"/>
         <v>33364</v>
       </c>
-      <c r="AC22" s="5">
+      <c r="AC23" s="5">
         <f t="shared" si="13"/>
         <v>-2722</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+    <row r="24" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B24" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C24" s="10">
         <v>2287</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D24" s="10">
         <v>1564</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E24" s="10">
         <v>1282</v>
-      </c>
-      <c r="F23" s="10">
-        <f>Z23-E23-D23-C23</f>
-        <v>1900</v>
-      </c>
-      <c r="G23" s="10">
-        <v>1312</v>
-      </c>
-      <c r="H23" s="10">
-        <v>2141</v>
-      </c>
-      <c r="I23" s="10">
-        <v>2252</v>
-      </c>
-      <c r="J23" s="10">
-        <f>AA23-I23-H23-G23</f>
-        <v>2946</v>
-      </c>
-      <c r="K23" s="10">
-        <v>3450</v>
-      </c>
-      <c r="L23" s="10">
-        <v>3147</v>
-      </c>
-      <c r="M23" s="10">
-        <v>880</v>
-      </c>
-      <c r="N23" s="10">
-        <f>AB23-M23-L23-K23</f>
-        <v>-206</v>
-      </c>
-      <c r="O23" s="10">
-        <v>-1568</v>
-      </c>
-      <c r="P23" s="10">
-        <v>-627</v>
-      </c>
-      <c r="Q23" s="10">
-        <v>-412</v>
-      </c>
-      <c r="R23" s="10">
-        <f>AC23-SUM(O23:Q23)</f>
-        <v>-240</v>
-      </c>
-      <c r="S23" s="10">
-        <v>898</v>
-      </c>
-      <c r="T23" s="11">
-        <v>3211</v>
-      </c>
-      <c r="X23">
-        <v>2837</v>
-      </c>
-      <c r="Y23" s="1">
-        <v>7267</v>
-      </c>
-      <c r="Z23" s="1">
-        <v>7033</v>
-      </c>
-      <c r="AA23" s="1">
-        <v>8651</v>
-      </c>
-      <c r="AB23" s="1">
-        <v>7271</v>
-      </c>
-      <c r="AC23" s="1">
-        <v>-2847</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="10">
-        <v>-90</v>
-      </c>
-      <c r="D24" s="10">
-        <v>-601</v>
-      </c>
-      <c r="E24" s="10">
-        <v>-386</v>
       </c>
       <c r="F24" s="10">
         <f>Z24-E24-D24-C24</f>
-        <v>-616</v>
+        <v>1900</v>
       </c>
       <c r="G24" s="10">
-        <v>-398</v>
+        <v>1312</v>
       </c>
       <c r="H24" s="10">
-        <v>345</v>
+        <v>2141</v>
       </c>
       <c r="I24" s="10">
-        <v>407</v>
+        <v>2252</v>
       </c>
       <c r="J24" s="10">
         <f>AA24-I24-H24-G24</f>
-        <v>363</v>
+        <v>2946</v>
       </c>
       <c r="K24" s="10">
-        <v>1252</v>
+        <v>3450</v>
       </c>
       <c r="L24" s="10">
-        <v>362</v>
+        <v>3147</v>
       </c>
       <c r="M24" s="10">
-        <v>-911</v>
+        <v>880</v>
       </c>
       <c r="N24" s="10">
-        <f t="shared" ref="N24:N25" si="14">AB24-M24-L24-K24</f>
-        <v>-1627</v>
+        <f>AB24-M24-L24-K24</f>
+        <v>-206</v>
       </c>
       <c r="O24" s="10">
-        <v>-1281</v>
+        <v>-1568</v>
       </c>
       <c r="P24" s="10">
-        <v>-1771</v>
+        <v>-627</v>
       </c>
       <c r="Q24" s="10">
-        <v>-2466</v>
+        <v>-412</v>
       </c>
       <c r="R24" s="10">
         <f>AC24-SUM(O24:Q24)</f>
-        <v>-2228</v>
+        <v>-240</v>
       </c>
       <c r="S24" s="10">
-        <v>-1247</v>
+        <v>898</v>
       </c>
       <c r="T24" s="11">
-        <v>-895</v>
+        <v>3211</v>
       </c>
       <c r="X24">
-        <v>-3062</v>
+        <v>2837</v>
       </c>
       <c r="Y24" s="1">
-        <v>-2142</v>
+        <v>7267</v>
       </c>
       <c r="Z24" s="1">
-        <v>-1693</v>
+        <v>7033</v>
       </c>
       <c r="AA24" s="1">
-        <v>717</v>
+        <v>8651</v>
       </c>
       <c r="AB24" s="1">
-        <v>-924</v>
+        <v>7271</v>
       </c>
       <c r="AC24" s="1">
-        <v>-7746</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>64</v>
+        <v>-2847</v>
+      </c>
+    </row>
+    <row r="25" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B25" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="C25" s="10">
-        <v>2223</v>
+        <v>-90</v>
       </c>
       <c r="D25" s="10">
-        <v>2121</v>
+        <v>-601</v>
       </c>
       <c r="E25" s="10">
-        <v>2261</v>
+        <v>-386</v>
       </c>
       <c r="F25" s="10">
         <f>Z25-E25-D25-C25</f>
-        <v>2596</v>
+        <v>-616</v>
       </c>
       <c r="G25" s="10">
-        <v>3075</v>
+        <v>-398</v>
       </c>
       <c r="H25" s="10">
-        <v>3357</v>
+        <v>345</v>
       </c>
       <c r="I25" s="10">
-        <v>3535</v>
+        <v>407</v>
       </c>
       <c r="J25" s="10">
         <f>AA25-I25-H25-G25</f>
+        <v>363</v>
+      </c>
+      <c r="K25" s="10">
+        <v>1252</v>
+      </c>
+      <c r="L25" s="10">
+        <v>362</v>
+      </c>
+      <c r="M25" s="10">
+        <v>-911</v>
+      </c>
+      <c r="N25" s="10">
+        <f t="shared" ref="N25:N26" si="14">AB25-M25-L25-K25</f>
+        <v>-1627</v>
+      </c>
+      <c r="O25" s="10">
+        <v>-1281</v>
+      </c>
+      <c r="P25" s="10">
+        <v>-1771</v>
+      </c>
+      <c r="Q25" s="10">
+        <v>-2466</v>
+      </c>
+      <c r="R25" s="10">
+        <f>AC25-SUM(O25:Q25)</f>
+        <v>-2228</v>
+      </c>
+      <c r="S25" s="10">
+        <v>-1247</v>
+      </c>
+      <c r="T25" s="11">
+        <v>-895</v>
+      </c>
+      <c r="X25">
+        <v>-3062</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>-2142</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>-1693</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>717</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>-924</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>-7746</v>
+      </c>
+    </row>
+    <row r="26" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B26" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="10">
+        <v>2223</v>
+      </c>
+      <c r="D26" s="10">
+        <v>2121</v>
+      </c>
+      <c r="E26" s="10">
+        <v>2261</v>
+      </c>
+      <c r="F26" s="10">
+        <f>Z26-E26-D26-C26</f>
+        <v>2596</v>
+      </c>
+      <c r="G26" s="10">
+        <v>3075</v>
+      </c>
+      <c r="H26" s="10">
+        <v>3357</v>
+      </c>
+      <c r="I26" s="10">
+        <v>3535</v>
+      </c>
+      <c r="J26" s="10">
+        <f>AA26-I26-H26-G26</f>
         <v>3564</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K26" s="10">
         <v>4163</v>
       </c>
-      <c r="L25" s="10">
+      <c r="L26" s="10">
         <v>4193</v>
       </c>
-      <c r="M25" s="10">
+      <c r="M26" s="10">
         <v>4883</v>
       </c>
-      <c r="N25" s="10">
+      <c r="N26" s="10">
         <f t="shared" si="14"/>
         <v>5293</v>
       </c>
-      <c r="O25" s="10">
+      <c r="O26" s="10">
         <v>6518</v>
       </c>
-      <c r="P25" s="10">
+      <c r="P26" s="10">
         <v>5715</v>
       </c>
-      <c r="Q25" s="10">
+      <c r="Q26" s="10">
         <v>5403</v>
       </c>
-      <c r="R25" s="10">
-        <f>AC25-SUM(O25:Q25)</f>
+      <c r="R26" s="10">
+        <f>AC26-SUM(O26:Q26)</f>
         <v>5205</v>
       </c>
-      <c r="S25" s="10">
+      <c r="S26" s="10">
         <v>5123</v>
       </c>
-      <c r="T25" s="11">
+      <c r="T26" s="11">
         <v>5365</v>
       </c>
-      <c r="X25">
+      <c r="X26">
         <v>4331</v>
       </c>
-      <c r="Y25" s="1">
+      <c r="Y26" s="1">
         <v>7296</v>
       </c>
-      <c r="Z25" s="1">
+      <c r="Z26" s="1">
         <v>9201</v>
       </c>
-      <c r="AA25" s="1">
+      <c r="AA26" s="1">
         <v>13531</v>
       </c>
-      <c r="AB25" s="1">
+      <c r="AB26" s="1">
         <v>18532</v>
       </c>
-      <c r="AC25" s="1">
+      <c r="AC26" s="1">
         <v>22841</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="3">
-        <f>C22/C27</f>
+      <c r="C27" s="3">
+        <f>C23/C28</f>
         <v>7.2525458248472505</v>
       </c>
-      <c r="D26" s="3">
-        <f>D22/D27</f>
+      <c r="D27" s="3">
+        <f>D23/D28</f>
         <v>5.3245436105476678</v>
       </c>
-      <c r="E26" s="3">
-        <f>E22/E27</f>
+      <c r="E27" s="3">
+        <f>E23/E28</f>
         <v>4.3111111111111109</v>
       </c>
-      <c r="F26" s="3">
-        <f>F22/F27</f>
+      <c r="F27" s="3">
+        <f>F23/F28</f>
         <v>6.6020202020202019</v>
       </c>
-      <c r="G26" s="3">
-        <f t="shared" ref="G26:Q26" si="15">G22/G27</f>
+      <c r="G27" s="3">
+        <f t="shared" ref="G27:Q27" si="15">G23/G28</f>
         <v>5.0903614457831328</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H27" s="3">
         <f t="shared" si="15"/>
         <v>10.486000000000001</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I27" s="3">
         <f t="shared" si="15"/>
         <v>12.636726546906187</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J27" s="3">
         <f t="shared" si="15"/>
         <v>20.097804391217565</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K27" s="3">
         <f t="shared" si="15"/>
         <v>16.085317460317459</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L27" s="3">
         <f t="shared" si="15"/>
         <v>0.76868256953380187</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M27" s="3">
         <f t="shared" si="15"/>
         <v>0.31188314251875249</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N27" s="3">
         <f t="shared" si="15"/>
         <v>1.4144295302013423</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O27" s="3">
         <f t="shared" si="15"/>
         <v>-0.37783895388850652</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P27" s="3">
         <f t="shared" si="15"/>
         <v>-0.19931203931203931</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="Q27" s="3">
         <f t="shared" si="15"/>
         <v>0.28181728976547932</v>
       </c>
-      <c r="R26" s="3">
-        <f>AC26-SUM(O26:Q26)</f>
+      <c r="R27" s="3">
+        <f>AC27-SUM(O27:Q27)</f>
         <v>2.8182854480311437E-2</v>
       </c>
-      <c r="S26" s="3">
-        <f>S22/S27</f>
+      <c r="S27" s="3">
+        <f>S23/S28</f>
         <v>0.30946341463414634</v>
       </c>
-      <c r="T26" s="3">
-        <f>T22/T27</f>
+      <c r="T27" s="3">
+        <f>T23/T28</f>
         <v>0.65629557608167233</v>
       </c>
-      <c r="X26" s="3">
-        <f t="shared" ref="X26:AC26" si="16">X22/X27</f>
+      <c r="X27" s="3">
+        <f t="shared" ref="X27:AC27" si="16">X23/X28</f>
         <v>6.3187499999999996</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Y27" s="3">
         <f t="shared" si="16"/>
         <v>20.683778234086244</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="Z27" s="3">
         <f t="shared" si="16"/>
         <v>23.457489878542511</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AA27" s="3">
         <f t="shared" si="16"/>
         <v>42.544910179640716</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AB27" s="3">
         <f t="shared" si="16"/>
         <v>3.2978155579717305</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AC27" s="3">
         <f t="shared" si="16"/>
         <v>-0.2671508489547551</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="28" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C28" s="1">
         <v>491</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D28" s="1">
         <v>493</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E28" s="1">
         <v>495</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F28" s="1">
         <v>495</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G28" s="1">
         <v>498</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H28" s="1">
         <v>500</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I28" s="1">
         <v>501</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J28" s="1">
         <v>501</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K28" s="1">
         <v>504</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L28" s="1">
         <v>10103</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M28" s="1">
         <v>10132</v>
       </c>
-      <c r="N27" s="1">
-        <f>M27</f>
+      <c r="N28" s="1">
+        <f>M28</f>
         <v>10132</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O28" s="1">
         <v>10171</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P28" s="1">
         <v>10175</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q28" s="1">
         <v>10191</v>
       </c>
-      <c r="R27" s="1">
+      <c r="R28" s="1">
         <v>10189</v>
       </c>
-      <c r="S27" s="1">
+      <c r="S28" s="1">
         <v>10250</v>
       </c>
-      <c r="T27" s="1">
+      <c r="T28" s="1">
         <v>10285</v>
       </c>
-      <c r="X27" s="1">
+      <c r="X28" s="1">
         <v>480</v>
       </c>
-      <c r="Y27" s="1">
+      <c r="Y28" s="1">
         <v>487</v>
       </c>
-      <c r="Z27" s="1">
+      <c r="Z28" s="1">
         <v>494</v>
       </c>
-      <c r="AA27" s="1">
+      <c r="AA28" s="1">
         <v>501</v>
       </c>
-      <c r="AB27" s="1">
+      <c r="AB28" s="1">
         <v>10117</v>
       </c>
-      <c r="AC27" s="1">
+      <c r="AC28" s="1">
         <v>10189</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="30" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>50</v>
       </c>
-      <c r="G29" s="6">
-        <f t="shared" ref="G29:H29" si="17">G9/C9-1</f>
+      <c r="G30" s="6">
+        <f t="shared" ref="G30:H30" si="17">G10/C10-1</f>
         <v>0.26385259631490787</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H30" s="6">
         <f t="shared" si="17"/>
         <v>0.40230900258658764</v>
       </c>
-      <c r="I29" s="6">
-        <f t="shared" ref="I29" si="18">I9/E9-1</f>
+      <c r="I30" s="6">
+        <f t="shared" ref="I30" si="18">I10/E10-1</f>
         <v>0.37387290836084075</v>
       </c>
-      <c r="J29" s="6">
-        <f t="shared" ref="J29" si="19">J9/F9-1</f>
+      <c r="J30" s="6">
+        <f t="shared" ref="J30" si="19">J10/F10-1</f>
         <v>0.43594816839553041</v>
       </c>
-      <c r="K29" s="6">
-        <f t="shared" ref="K29" si="20">K9/G9-1</f>
+      <c r="K30" s="6">
+        <f t="shared" ref="K30" si="20">K10/G10-1</f>
         <v>0.43823888034777081</v>
       </c>
-      <c r="L29" s="6">
-        <f t="shared" ref="L29:M29" si="21">L9/H9-1</f>
+      <c r="L30" s="6">
+        <f t="shared" ref="L30:M30" si="21">L10/H10-1</f>
         <v>0.27181932697498645</v>
       </c>
-      <c r="M29" s="6">
+      <c r="M30" s="6">
         <f t="shared" si="21"/>
         <v>0.15255083467679031</v>
       </c>
-      <c r="N29" s="6">
-        <f t="shared" ref="N29:T29" si="22">N9/J9-1</f>
+      <c r="N30" s="6">
+        <f t="shared" ref="N30:T30" si="22">N10/J10-1</f>
         <v>9.4436701047349692E-2</v>
       </c>
-      <c r="O29" s="6">
+      <c r="O30" s="6">
         <f t="shared" si="22"/>
         <v>7.3038574245747334E-2</v>
       </c>
-      <c r="P29" s="6">
+      <c r="P30" s="6">
         <f t="shared" si="22"/>
         <v>7.2108241952600016E-2</v>
       </c>
-      <c r="Q29" s="6">
+      <c r="Q30" s="6">
         <f t="shared" si="22"/>
         <v>0.14699671515720314</v>
       </c>
-      <c r="R29" s="6">
+      <c r="R30" s="6">
         <f t="shared" si="22"/>
         <v>8.5814921549791867E-2</v>
       </c>
-      <c r="S29" s="6">
+      <c r="S30" s="6">
         <f t="shared" si="22"/>
         <v>9.3727456975026602E-2</v>
       </c>
-      <c r="T29" s="6">
+      <c r="T30" s="6">
         <f t="shared" si="22"/>
         <v>0.10845967302901816</v>
       </c>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="7">
-        <f>Y9/X9-1</f>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7">
+        <f>Y10/X10-1</f>
         <v>0.3093396152159491</v>
       </c>
-      <c r="Z29" s="7">
-        <f t="shared" ref="Z29:AA29" si="23">Z9/Y9-1</f>
+      <c r="Z30" s="7">
+        <f t="shared" ref="Z30:AA30" si="23">Z10/Y10-1</f>
         <v>0.20454125820676983</v>
       </c>
-      <c r="AA29" s="7">
+      <c r="AA30" s="7">
         <f t="shared" si="23"/>
         <v>0.37623430604373276</v>
       </c>
-      <c r="AB29" s="7">
-        <f>AB9/AA9-1</f>
+      <c r="AB30" s="7">
+        <f>AB10/AA10-1</f>
         <v>0.21695366571345676</v>
       </c>
-      <c r="AC29" s="7">
-        <f>AC9/AB9-1</f>
+      <c r="AC30" s="7">
+        <f>AC10/AB10-1</f>
         <v>9.399517263985091E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="31" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>91</v>
       </c>
-      <c r="G30" s="6">
-        <f t="shared" ref="G30" si="24">G5/C5-1</f>
+      <c r="G31" s="6">
+        <f t="shared" ref="G31" si="24">G6/C6-1</f>
         <v>0.32783264033264037</v>
       </c>
-      <c r="H30" s="6">
-        <f t="shared" ref="H30" si="25">H5/D5-1</f>
+      <c r="H31" s="6">
+        <f t="shared" ref="H31" si="25">H6/D6-1</f>
         <v>0.28958358191146649</v>
       </c>
-      <c r="I30" s="6">
-        <f t="shared" ref="I30" si="26">I5/E5-1</f>
+      <c r="I31" s="6">
+        <f t="shared" ref="I31" si="26">I6/E6-1</f>
         <v>0.28971650917176217</v>
       </c>
-      <c r="J30" s="6">
-        <f t="shared" ref="J30" si="27">J5/F5-1</f>
+      <c r="J31" s="6">
+        <f t="shared" ref="J31" si="27">J6/F6-1</f>
         <v>0.28008840667068524</v>
       </c>
-      <c r="K30" s="6">
-        <f t="shared" ref="K30:N30" si="28">K5/G5-1</f>
+      <c r="K31" s="6">
+        <f t="shared" ref="K31:N31" si="28">K6/G6-1</f>
         <v>0.32136216850963883</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L31" s="6">
         <f t="shared" si="28"/>
         <v>0.37018874907475952</v>
       </c>
-      <c r="M30" s="6">
+      <c r="M31" s="6">
         <f t="shared" si="28"/>
         <v>0.3886733902249806</v>
       </c>
-      <c r="N30" s="6">
+      <c r="N31" s="6">
         <f t="shared" si="28"/>
         <v>0.39538533982106427</v>
       </c>
-      <c r="O30" s="6">
-        <f>O5/K5-1</f>
+      <c r="O31" s="6">
+        <f>O6/K6-1</f>
         <v>0.36569651188624741</v>
       </c>
-      <c r="P30" s="6">
-        <f t="shared" ref="P30:R30" si="29">P5/L5-1</f>
+      <c r="P31" s="6">
+        <f t="shared" ref="P31:R31" si="29">P6/L6-1</f>
         <v>0.33290566547369838</v>
       </c>
-      <c r="Q30" s="6">
+      <c r="Q31" s="6">
         <f t="shared" si="29"/>
         <v>0.27486033519553077</v>
       </c>
-      <c r="R30" s="6">
+      <c r="R31" s="6">
         <f t="shared" si="29"/>
         <v>0.20236220472440936</v>
       </c>
-      <c r="S30" s="6">
-        <f>S5/O5-1</f>
+      <c r="S31" s="6">
+        <f>S6/O6-1</f>
         <v>0.157963234097934</v>
       </c>
-      <c r="T30" s="6">
-        <f>T5/P5-1</f>
+      <c r="T31" s="6">
+        <f>T6/P6-1</f>
         <v>0.12163736764780375</v>
       </c>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7">
-        <f>Y5/X5-1</f>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7">
+        <f>Y6/X6-1</f>
         <v>0.46944269431238905</v>
       </c>
-      <c r="Z30" s="7">
-        <f t="shared" ref="Z30:AC30" si="30">Z5/Y5-1</f>
+      <c r="Z31" s="7">
+        <f t="shared" ref="Z31:AC31" si="30">Z6/Y6-1</f>
         <v>0.36526992788930035</v>
       </c>
-      <c r="AA30" s="7">
+      <c r="AA31" s="7">
         <f t="shared" si="30"/>
         <v>0.29532347399074976</v>
       </c>
-      <c r="AB30" s="7">
+      <c r="AB31" s="7">
         <f t="shared" si="30"/>
         <v>0.37099404893101173</v>
       </c>
-      <c r="AC30" s="7">
+      <c r="AC31" s="7">
         <f t="shared" si="30"/>
         <v>0.28767563743931057</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="32" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="7">
-        <f t="shared" ref="C31:I31" si="31">C22/C9</f>
+      <c r="C32" s="7">
+        <f t="shared" ref="C32:I32" si="31">C23/C10</f>
         <v>5.9648241206030149E-2</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D32" s="7">
         <f t="shared" si="31"/>
         <v>4.1401173427544007E-2</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E32" s="7">
         <f t="shared" si="31"/>
         <v>3.0493991226189964E-2</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F32" s="7">
         <f t="shared" si="31"/>
         <v>3.7375481775449755E-2</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G32" s="7">
         <f t="shared" si="31"/>
         <v>3.3597518952446587E-2</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H32" s="7">
         <f t="shared" si="31"/>
         <v>5.896841821126507E-2</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I32" s="7">
         <f t="shared" si="31"/>
         <v>6.5848458058141351E-2</v>
       </c>
-      <c r="J31" s="7">
-        <f t="shared" ref="J31:T31" si="32">J22/J9</f>
+      <c r="J32" s="7">
+        <f t="shared" ref="J32:S32" si="32">J23/J10</f>
         <v>8.0195930070487031E-2</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K32" s="7">
         <f t="shared" si="32"/>
         <v>7.470650030409702E-2</v>
       </c>
-      <c r="L31" s="7">
+      <c r="L32" s="7">
         <f t="shared" si="32"/>
         <v>6.8677042801556426E-2</v>
       </c>
-      <c r="M31" s="7">
+      <c r="M32" s="7">
         <f t="shared" si="32"/>
         <v>2.8516767137133161E-2</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N32" s="7">
         <f t="shared" si="32"/>
         <v>0.10429220155444939</v>
       </c>
-      <c r="O31" s="7">
+      <c r="O32" s="7">
         <f t="shared" si="32"/>
         <v>-3.3002988561025043E-2</v>
       </c>
-      <c r="P31" s="7">
+      <c r="P32" s="7">
         <f t="shared" si="32"/>
         <v>-1.6727980599501788E-2</v>
       </c>
-      <c r="Q31" s="7">
+      <c r="Q32" s="7">
         <f t="shared" si="32"/>
         <v>2.2596203019645794E-2</v>
       </c>
-      <c r="R31" s="7">
+      <c r="R32" s="7">
         <f t="shared" si="32"/>
         <v>1.8565185919948526E-3</v>
       </c>
-      <c r="S31" s="7">
+      <c r="S32" s="7">
         <f t="shared" si="32"/>
         <v>2.4906170008951147E-2</v>
       </c>
-      <c r="T31" s="7">
-        <f>T22/T9</f>
+      <c r="T32" s="7">
+        <f>T23/T10</f>
         <v>5.0229567728060844E-2</v>
       </c>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="7"/>
-      <c r="X31" s="7">
-        <f t="shared" ref="X31:AC31" si="33">X22/X9</f>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7">
+        <f t="shared" ref="X32:AC32" si="33">X23/X10</f>
         <v>1.7052162864178651E-2</v>
       </c>
-      <c r="Y31" s="7">
+      <c r="Y32" s="7">
         <f t="shared" si="33"/>
         <v>4.3252736305590261E-2</v>
       </c>
-      <c r="Z31" s="7">
+      <c r="Z32" s="7">
         <f t="shared" si="33"/>
         <v>4.1308703060722513E-2</v>
       </c>
-      <c r="AA31" s="7">
+      <c r="AA32" s="7">
         <f t="shared" si="33"/>
         <v>5.5211053089643171E-2</v>
       </c>
-      <c r="AB31" s="7">
+      <c r="AB32" s="7">
         <f t="shared" si="33"/>
         <v>7.1014128755145567E-2</v>
       </c>
-      <c r="AC31" s="7">
+      <c r="AC32" s="7">
         <f t="shared" si="33"/>
         <v>-5.2958950004183018E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>51</v>
       </c>
-      <c r="G32" s="6">
-        <f t="shared" ref="G32:J32" si="34">-(G22/C22-1)</f>
+      <c r="G33" s="6">
+        <f t="shared" ref="G33:J33" si="34">-(G23/C23-1)</f>
         <v>0.2881213142375737</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H33" s="6">
         <f t="shared" si="34"/>
         <v>-0.9973333333333334</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I33" s="6">
         <f t="shared" si="34"/>
         <v>-1.9667291471415185</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J33" s="6">
         <f t="shared" si="34"/>
         <v>-2.0810893512851898</v>
       </c>
-      <c r="K32" s="6">
-        <f>K22/G22-1</f>
+      <c r="K33" s="6">
+        <f>K23/G23-1</f>
         <v>2.1980276134122287</v>
       </c>
-      <c r="L32" s="6">
-        <f>-(L22/H22-1)</f>
+      <c r="L33" s="6">
+        <f>-(L23/H23-1)</f>
         <v>-0.48121304596604997</v>
       </c>
-      <c r="M32" s="6">
-        <f t="shared" ref="M32" si="35">-(M22/I22-1)</f>
+      <c r="M33" s="6">
+        <f t="shared" ref="M33" si="35">-(M23/I23-1)</f>
         <v>0.50086874111514768</v>
       </c>
-      <c r="N32" s="6">
-        <f t="shared" ref="N32" si="36">-(N22/J22-1)</f>
+      <c r="N33" s="6">
+        <f t="shared" ref="N33" si="36">-(N23/J23-1)</f>
         <v>-0.42327937233091673</v>
       </c>
-      <c r="O32" s="6">
-        <f t="shared" ref="O32:P32" si="37">-(O22/K22-1)</f>
+      <c r="O33" s="6">
+        <f t="shared" ref="O33:P33" si="37">-(O23/K23-1)</f>
         <v>1.4740347847539164</v>
       </c>
-      <c r="P32" s="6">
+      <c r="P33" s="6">
         <f t="shared" si="37"/>
         <v>1.2611382951326293</v>
       </c>
-      <c r="Q32" s="6">
-        <f>-(Q22/M22-1)</f>
+      <c r="Q33" s="6">
+        <f>-(Q23/M23-1)</f>
         <v>9.1139240506329156E-2</v>
       </c>
-      <c r="R32" s="6">
-        <f>-(R22/N22-1)</f>
+      <c r="R33" s="6">
+        <f>-(R23/N23-1)</f>
         <v>0.9806712720675459</v>
       </c>
-      <c r="S32" s="6">
-        <f>-(S22/O22-1)</f>
+      <c r="S33" s="6">
+        <f>-(S23/O23-1)</f>
         <v>1.8253968253968254</v>
       </c>
-      <c r="T32" s="6">
-        <f>-(T22/P22-1)</f>
+      <c r="T33" s="6">
+        <f>-(T23/P23-1)</f>
         <v>4.3284023668639051</v>
       </c>
-      <c r="Y32" s="7">
-        <f>Y22/X22-1</f>
+      <c r="Y33" s="7">
+        <f>Y23/X23-1</f>
         <v>2.3211341905703922</v>
       </c>
-      <c r="Z32" s="7">
-        <f>Z22/Y22-1</f>
+      <c r="Z33" s="7">
+        <f>Z23/Y23-1</f>
         <v>0.1504020649260398</v>
       </c>
-      <c r="AA32" s="7">
-        <f>AA22/Z22-1</f>
+      <c r="AA33" s="7">
+        <f>AA23/Z23-1</f>
         <v>0.83940283051432507</v>
       </c>
-      <c r="AB32" s="7">
-        <f>AB22/AA22-1</f>
+      <c r="AB33" s="7">
+        <f>AB23/AA23-1</f>
         <v>0.56528266479005396</v>
       </c>
-      <c r="AC32" s="7">
-        <f>AC22/AB22-1</f>
+      <c r="AC33" s="7">
+        <f>AC23/AB23-1</f>
         <v>-1.0815849418534949</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>52</v>
       </c>
-      <c r="G33" s="6">
-        <f t="shared" ref="G33:K33" si="38">-G21/G20</f>
+      <c r="G34" s="6">
+        <f t="shared" ref="G34:K34" si="38">-G22/G21</f>
         <v>0.25066509015666566</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H34" s="6">
         <f t="shared" si="38"/>
         <v>0.1572094518566147</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I34" s="6">
         <f t="shared" si="38"/>
         <v>7.0201204288441774E-2</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J34" s="6">
         <f t="shared" si="38"/>
         <v>-0.29671603348358017</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K34" s="6">
         <f t="shared" si="38"/>
         <v>0.21045968056096612</v>
       </c>
-      <c r="L33" s="6">
-        <f>-L21/L20</f>
+      <c r="L34" s="6">
+        <f>-L22/L21</f>
         <v>0.1005327773917072</v>
       </c>
-      <c r="M33" s="6">
-        <f>-M21/M20</f>
+      <c r="M34" s="6">
+        <f>-M22/M21</f>
         <v>0.26767091541135574</v>
       </c>
-      <c r="N33" s="6">
-        <f>-N21/N20</f>
+      <c r="N34" s="6">
+        <f>-N22/N21</f>
         <v>4.0377661711530732E-2</v>
       </c>
-      <c r="O33" s="6">
-        <f>-O21/O20</f>
+      <c r="O34" s="6">
+        <f>-O22/O21</f>
         <v>0.27008547008547007</v>
       </c>
-      <c r="P33" s="6">
-        <f t="shared" ref="P33" si="39">-P21/P20</f>
+      <c r="P34" s="6">
+        <f t="shared" ref="P34" si="39">-P22/P21</f>
         <v>0.23558235959291368</v>
       </c>
-      <c r="Q33" s="6">
-        <f>-Q21/Q20</f>
+      <c r="Q34" s="6">
+        <f>-Q22/Q21</f>
         <v>2.4456521739130436E-2</v>
       </c>
-      <c r="R33" s="6">
-        <f>-R21/R20</f>
+      <c r="R34" s="6">
+        <f>-R22/R21</f>
         <v>1.287941787941788</v>
       </c>
-      <c r="S33" s="6">
-        <f>-S21/S20</f>
+      <c r="S34" s="6">
+        <f>-S22/S21</f>
         <v>0.22991017237193492</v>
       </c>
-      <c r="T33" s="6">
-        <f>-T21/T20</f>
+      <c r="T34" s="6">
+        <f>-T22/T21</f>
         <v>0.1074970249900833</v>
       </c>
-      <c r="Y33" s="6">
-        <f>-Y21/Y20</f>
+      <c r="Y34" s="6">
+        <f>-Y22/Y21</f>
         <v>0.10549684752686263</v>
       </c>
-      <c r="Z33" s="6">
-        <f>-Z21/Z20</f>
+      <c r="Z34" s="6">
+        <f>-Z22/Z21</f>
         <v>0.1708643388666285</v>
       </c>
-      <c r="AA33" s="6">
-        <f>-AA21/AA20</f>
+      <c r="AA34" s="6">
+        <f>-AA22/AA21</f>
         <v>0.1184134337000579</v>
       </c>
-      <c r="AB33" s="6">
-        <f>-AB21/AB20</f>
+      <c r="AB34" s="6">
+        <f>-AB22/AB21</f>
         <v>0.12547508584309716</v>
       </c>
-      <c r="AC33" s="6">
-        <f>-AC21/AC20</f>
+      <c r="AC34" s="6">
+        <f>-AC22/AC21</f>
         <v>0.5414420485175202</v>
       </c>
     </row>
-    <row r="34" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+    <row r="35" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="7">
-        <f t="shared" ref="C36:T36" si="40">C3/SUM(C$3:C$5)</f>
+      <c r="C37" s="7">
+        <f t="shared" ref="C37:T37" si="40">C4/SUM(C$4:C$6)</f>
         <v>0.59986599664991624</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D37" s="7">
         <f t="shared" si="40"/>
         <v>0.60963030723613654</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E37" s="7">
         <f t="shared" si="40"/>
         <v>0.6092796616224404</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F37" s="7">
         <f t="shared" si="40"/>
         <v>0.61363662368273508</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G37" s="7">
         <f t="shared" si="40"/>
         <v>0.61134231034299957</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H37" s="7">
         <f t="shared" si="40"/>
         <v>0.62349289184811951</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I37" s="7">
         <f t="shared" si="40"/>
         <v>0.61753601331322483</v>
       </c>
-      <c r="J36" s="7">
-        <f>J3/SUM(J$3:J$5)</f>
+      <c r="J37" s="7">
+        <f>J4/SUM(J$4:J$6)</f>
         <v>0.60010354028115165</v>
       </c>
-      <c r="K36" s="7">
+      <c r="K37" s="7">
         <f t="shared" si="40"/>
         <v>0.59302411326598337</v>
       </c>
-      <c r="L36" s="7">
+      <c r="L37" s="7">
         <f t="shared" si="40"/>
         <v>0.59736469755925004</v>
       </c>
-      <c r="M36" s="7">
+      <c r="M37" s="7">
         <f t="shared" si="40"/>
         <v>0.5916056022813414</v>
       </c>
-      <c r="N36" s="7">
+      <c r="N37" s="7">
         <f t="shared" si="40"/>
         <v>0.59945286011553967</v>
       </c>
-      <c r="O36" s="7">
+      <c r="O37" s="7">
         <f t="shared" si="40"/>
         <v>0.59465494143107411</v>
       </c>
-      <c r="P36" s="7">
+      <c r="P37" s="7">
         <f t="shared" si="40"/>
         <v>0.61393668442846061</v>
       </c>
-      <c r="Q36" s="7">
+      <c r="Q37" s="7">
         <f t="shared" si="40"/>
         <v>0.62031770009677345</v>
       </c>
-      <c r="R36" s="7">
+      <c r="R37" s="7">
         <f t="shared" si="40"/>
         <v>0.62574059676684268</v>
       </c>
-      <c r="S36" s="7">
+      <c r="S37" s="7">
         <f t="shared" si="40"/>
         <v>0.60366054743321973</v>
       </c>
-      <c r="T36" s="7">
+      <c r="T37" s="7">
         <f t="shared" si="40"/>
         <v>0.61425924410081634</v>
-      </c>
-      <c r="U36" s="7"/>
-      <c r="V36" s="7"/>
-      <c r="W36" s="7"/>
-      <c r="X36" s="7"/>
-      <c r="Y36" s="7">
-        <f t="shared" ref="Y36:AC38" si="41">Y3/SUM(Y$3:Y$5)</f>
-        <v>0.6070154194952917</v>
-      </c>
-      <c r="Z36" s="7">
-        <f t="shared" si="41"/>
-        <v>0.60871285857916013</v>
-      </c>
-      <c r="AA36" s="7">
-        <f t="shared" si="41"/>
-        <v>0.61202805752414102</v>
-      </c>
-      <c r="AB36" s="7">
-        <f t="shared" si="41"/>
-        <v>0.59561493501794294</v>
-      </c>
-      <c r="AC36" s="7">
-        <f t="shared" si="41"/>
-        <v>0.61457285552245888</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="7">
-        <f t="shared" ref="C37:T37" si="42">C4/SUM(C$3:C$5)</f>
-        <v>0.27122278056951421</v>
-      </c>
-      <c r="D37" s="7">
-        <f t="shared" si="42"/>
-        <v>0.25818560343196012</v>
-      </c>
-      <c r="E37" s="7">
-        <f t="shared" si="42"/>
-        <v>0.26218545033651991</v>
-      </c>
-      <c r="F37" s="7">
-        <f t="shared" si="42"/>
-        <v>0.2724693067267755</v>
-      </c>
-      <c r="G37" s="7">
-        <f t="shared" si="42"/>
-        <v>0.25322059057413987</v>
-      </c>
-      <c r="H37" s="7">
-        <f t="shared" si="42"/>
-        <v>0.25494871333453301</v>
-      </c>
-      <c r="I37" s="7">
-        <f>I4/SUM(I$3:I$5)</f>
-        <v>0.26180248582869625</v>
-      </c>
-      <c r="J37" s="7">
-        <f t="shared" si="42"/>
-        <v>0.2984110549161722</v>
-      </c>
-      <c r="K37" s="7">
-        <f t="shared" si="42"/>
-        <v>0.28251050807462574</v>
-      </c>
-      <c r="L37" s="7">
-        <f t="shared" si="42"/>
-        <v>0.27167492041032898</v>
-      </c>
-      <c r="M37" s="7">
-        <f t="shared" si="42"/>
-        <v>0.26301303107966645</v>
-      </c>
-      <c r="N37" s="7">
-        <f t="shared" si="42"/>
-        <v>0.27118348103199896</v>
-      </c>
-      <c r="O37" s="7">
-        <f t="shared" si="42"/>
-        <v>0.24697708769880802</v>
-      </c>
-      <c r="P37" s="7">
-        <f t="shared" si="42"/>
-        <v>0.223245954105284</v>
-      </c>
-      <c r="Q37" s="7">
-        <f t="shared" si="42"/>
-        <v>0.21809427148488211</v>
-      </c>
-      <c r="R37" s="7">
-        <f t="shared" si="42"/>
-        <v>0.23097906222353287</v>
-      </c>
-      <c r="S37" s="7">
-        <f t="shared" si="42"/>
-        <v>0.22867036228583992</v>
-      </c>
-      <c r="T37" s="7">
-        <f t="shared" si="42"/>
-        <v>0.22098777375114412</v>
       </c>
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
       <c r="W37" s="7"/>
       <c r="X37" s="7"/>
       <c r="Y37" s="7">
-        <f t="shared" si="41"/>
-        <v>0.28282385878129734</v>
+        <f t="shared" ref="Y37:AC39" si="41">Y4/SUM(Y$4:Y$6)</f>
+        <v>0.6070154194952917</v>
       </c>
       <c r="Z37" s="7">
         <f t="shared" si="41"/>
-        <v>0.26640925264366339</v>
+        <v>0.60871285857916013</v>
       </c>
       <c r="AA37" s="7">
         <f t="shared" si="41"/>
-        <v>0.27045256744995649</v>
+        <v>0.61202805752414102</v>
       </c>
       <c r="AB37" s="7">
         <f t="shared" si="41"/>
-        <v>0.27199024311334929</v>
+        <v>0.59561493501794294</v>
       </c>
       <c r="AC37" s="7">
         <f t="shared" si="41"/>
-        <v>0.22959319666214642</v>
-      </c>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>60</v>
+        <v>0.61457285552245888</v>
+      </c>
+    </row>
+    <row r="38" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>59</v>
       </c>
       <c r="C38" s="7">
-        <f t="shared" ref="C38:T38" si="43">C5/SUM(C$3:C$5)</f>
-        <v>0.12891122278056952</v>
+        <f t="shared" ref="C38:T38" si="42">C5/SUM(C$4:C$6)</f>
+        <v>0.27122278056951421</v>
       </c>
       <c r="D38" s="7">
-        <f t="shared" si="43"/>
-        <v>0.13218408933190334</v>
+        <f t="shared" si="42"/>
+        <v>0.25818560343196012</v>
       </c>
       <c r="E38" s="7">
-        <f t="shared" si="43"/>
-        <v>0.12853488804103971</v>
+        <f t="shared" si="42"/>
+        <v>0.26218545033651991</v>
       </c>
       <c r="F38" s="7">
-        <f t="shared" si="43"/>
-        <v>0.11389406959048938</v>
+        <f t="shared" si="42"/>
+        <v>0.2724693067267755</v>
       </c>
       <c r="G38" s="7">
-        <f t="shared" si="43"/>
-        <v>0.13543709908286064</v>
+        <f t="shared" si="42"/>
+        <v>0.25322059057413987</v>
       </c>
       <c r="H38" s="7">
-        <f t="shared" si="43"/>
-        <v>0.1215583948173475</v>
+        <f t="shared" si="42"/>
+        <v>0.25494871333453301</v>
       </c>
       <c r="I38" s="7">
-        <f t="shared" si="43"/>
-        <v>0.12066150085807895</v>
+        <f>I5/SUM(I$4:I$6)</f>
+        <v>0.26180248582869625</v>
       </c>
       <c r="J38" s="7">
-        <f t="shared" si="43"/>
-        <v>0.10148540480267612</v>
+        <f t="shared" si="42"/>
+        <v>0.2984110549161722</v>
       </c>
       <c r="K38" s="7">
-        <f t="shared" si="43"/>
-        <v>0.1244653786593909</v>
+        <f t="shared" si="42"/>
+        <v>0.28251050807462574</v>
       </c>
       <c r="L38" s="7">
-        <f t="shared" si="43"/>
-        <v>0.13096038203042093</v>
+        <f t="shared" si="42"/>
+        <v>0.27167492041032898</v>
       </c>
       <c r="M38" s="7">
-        <f t="shared" si="43"/>
-        <v>0.14538136663899218</v>
+        <f t="shared" si="42"/>
+        <v>0.26301303107966645</v>
       </c>
       <c r="N38" s="7">
-        <f t="shared" si="43"/>
-        <v>0.1293636588524614</v>
+        <f t="shared" si="42"/>
+        <v>0.27118348103199896</v>
       </c>
       <c r="O38" s="7">
-        <f t="shared" si="43"/>
-        <v>0.15836797087011784</v>
+        <f t="shared" si="42"/>
+        <v>0.24697708769880802</v>
       </c>
       <c r="P38" s="7">
-        <f t="shared" si="43"/>
-        <v>0.16281736146625533</v>
+        <f t="shared" si="42"/>
+        <v>0.223245954105284</v>
       </c>
       <c r="Q38" s="7">
-        <f t="shared" si="43"/>
-        <v>0.16158802841834446</v>
+        <f t="shared" si="42"/>
+        <v>0.21809427148488211</v>
       </c>
       <c r="R38" s="7">
-        <f t="shared" si="43"/>
-        <v>0.14328034100962442</v>
+        <f t="shared" si="42"/>
+        <v>0.23097906222353287</v>
       </c>
       <c r="S38" s="7">
-        <f t="shared" si="43"/>
-        <v>0.16766909028094035</v>
+        <f t="shared" si="42"/>
+        <v>0.22867036228583992</v>
       </c>
       <c r="T38" s="7">
-        <f t="shared" si="43"/>
-        <v>0.16475298214803955</v>
+        <f t="shared" si="42"/>
+        <v>0.22098777375114412</v>
       </c>
       <c r="U38" s="7"/>
       <c r="V38" s="7"/>
@@ -3756,302 +3657,302 @@
       <c r="X38" s="7"/>
       <c r="Y38" s="7">
         <f t="shared" si="41"/>
-        <v>0.11016072172341093</v>
+        <v>0.28282385878129734</v>
       </c>
       <c r="Z38" s="7">
         <f t="shared" si="41"/>
-        <v>0.12487788877717643</v>
+        <v>0.26640925264366339</v>
       </c>
       <c r="AA38" s="7">
         <f t="shared" si="41"/>
-        <v>0.11751937502590244</v>
+        <v>0.27045256744995649</v>
       </c>
       <c r="AB38" s="7">
         <f t="shared" si="41"/>
-        <v>0.13239482186870771</v>
+        <v>0.27199024311334929</v>
       </c>
       <c r="AC38" s="7">
         <f t="shared" si="41"/>
-        <v>0.15583394781539467</v>
-      </c>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>66</v>
+        <v>0.22959319666214642</v>
+      </c>
+    </row>
+    <row r="39" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>60</v>
       </c>
       <c r="C39" s="7">
-        <f t="shared" ref="C39:T39" si="44">C23/C3</f>
-        <v>6.3861275550094937E-2</v>
+        <f t="shared" ref="C39:T39" si="43">C6/SUM(C$4:C$6)</f>
+        <v>0.12891122278056952</v>
       </c>
       <c r="D39" s="7">
-        <f t="shared" si="44"/>
-        <v>4.0462577290249137E-2</v>
+        <f t="shared" si="43"/>
+        <v>0.13218408933190334</v>
       </c>
       <c r="E39" s="7">
-        <f t="shared" si="44"/>
-        <v>3.0067076316900417E-2</v>
+        <f t="shared" si="43"/>
+        <v>0.12853488804103971</v>
       </c>
       <c r="F39" s="7">
-        <f t="shared" si="44"/>
-        <v>3.5427932127540557E-2</v>
+        <f t="shared" si="43"/>
+        <v>0.11389406959048938</v>
       </c>
       <c r="G39" s="7">
-        <f t="shared" si="44"/>
-        <v>2.8443211134476554E-2</v>
+        <f t="shared" si="43"/>
+        <v>0.13543709908286064</v>
       </c>
       <c r="H39" s="7">
-        <f t="shared" si="44"/>
-        <v>3.8621112634389207E-2</v>
+        <f t="shared" si="43"/>
+        <v>0.1215583948173475</v>
       </c>
       <c r="I39" s="7">
-        <f t="shared" si="44"/>
-        <v>3.7929698684587274E-2</v>
+        <f t="shared" si="43"/>
+        <v>0.12066150085807895</v>
       </c>
       <c r="J39" s="7">
-        <f t="shared" si="44"/>
-        <v>3.9099620417805854E-2</v>
+        <f t="shared" si="43"/>
+        <v>0.10148540480267612</v>
       </c>
       <c r="K39" s="7">
-        <f t="shared" si="44"/>
-        <v>5.3624720218851035E-2</v>
+        <f t="shared" si="43"/>
+        <v>0.1244653786593909</v>
       </c>
       <c r="L39" s="7">
-        <f t="shared" si="44"/>
-        <v>4.6587712805329383E-2</v>
+        <f t="shared" si="43"/>
+        <v>0.13096038203042093</v>
       </c>
       <c r="M39" s="7">
-        <f t="shared" si="44"/>
-        <v>1.3423433043000747E-2</v>
+        <f t="shared" si="43"/>
+        <v>0.14538136663899218</v>
       </c>
       <c r="N39" s="7">
-        <f t="shared" si="44"/>
-        <v>-2.5003034348828742E-3</v>
+        <f t="shared" si="43"/>
+        <v>0.1293636588524614</v>
       </c>
       <c r="O39" s="7">
-        <f t="shared" si="44"/>
-        <v>-2.2644561261625555E-2</v>
+        <f t="shared" si="43"/>
+        <v>0.15836797087011784</v>
       </c>
       <c r="P39" s="7">
-        <f t="shared" si="44"/>
-        <v>-8.4240225715437322E-3</v>
+        <f t="shared" si="43"/>
+        <v>0.16281736146625533</v>
       </c>
       <c r="Q39" s="7">
-        <f t="shared" si="44"/>
-        <v>-5.2255748766536023E-3</v>
+        <f t="shared" si="43"/>
+        <v>0.16158802841834446</v>
       </c>
       <c r="R39" s="7">
-        <f t="shared" si="44"/>
-        <v>-2.5706114842068057E-3</v>
+        <f t="shared" si="43"/>
+        <v>0.14328034100962442</v>
       </c>
       <c r="S39" s="7">
-        <f t="shared" si="44"/>
-        <v>1.1680389172877564E-2</v>
+        <f t="shared" si="43"/>
+        <v>0.16766909028094035</v>
       </c>
       <c r="T39" s="7">
-        <f t="shared" si="44"/>
-        <v>3.8899522690378698E-2</v>
+        <f t="shared" si="43"/>
+        <v>0.16475298214803955</v>
       </c>
       <c r="U39" s="7"/>
       <c r="V39" s="7"/>
       <c r="W39" s="7"/>
       <c r="X39" s="7"/>
       <c r="Y39" s="7">
-        <f t="shared" ref="Y39:AA41" si="45">Y23/Y3</f>
-        <v>5.1405571353790869E-2</v>
+        <f t="shared" si="41"/>
+        <v>0.11016072172341093</v>
       </c>
       <c r="Z39" s="7">
-        <f t="shared" si="45"/>
-        <v>4.1192973824626757E-2</v>
+        <f t="shared" si="41"/>
+        <v>0.12487788877717643</v>
       </c>
       <c r="AA39" s="7">
-        <f t="shared" si="45"/>
-        <v>3.6613030192735797E-2</v>
+        <f t="shared" si="41"/>
+        <v>0.11751937502590244</v>
       </c>
       <c r="AB39" s="7">
-        <f t="shared" ref="AB39:AC39" si="46">AB23/AB3</f>
-        <v>2.5983354357777676E-2</v>
+        <f t="shared" si="41"/>
+        <v>0.13239482186870771</v>
       </c>
       <c r="AC39" s="7">
-        <f t="shared" si="46"/>
-        <v>-9.0129162973280989E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>67</v>
+        <f t="shared" si="41"/>
+        <v>0.15583394781539467</v>
+      </c>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>66</v>
       </c>
       <c r="C40" s="7">
-        <f t="shared" ref="C40:T40" si="47">C24/C4</f>
-        <v>-5.558300395256917E-3</v>
+        <f t="shared" ref="C40:T40" si="44">C24/C4</f>
+        <v>6.3861275550094937E-2</v>
       </c>
       <c r="D40" s="7">
-        <f t="shared" si="47"/>
-        <v>-3.6713500305436776E-2</v>
+        <f t="shared" si="44"/>
+        <v>4.0462577290249137E-2</v>
       </c>
       <c r="E40" s="7">
-        <f t="shared" si="47"/>
-        <v>-2.10377152823196E-2</v>
+        <f t="shared" si="44"/>
+        <v>3.0067076316900417E-2</v>
       </c>
       <c r="F40" s="7">
-        <f t="shared" si="47"/>
-        <v>-2.5868223239407045E-2</v>
+        <f t="shared" si="44"/>
+        <v>3.5427932127540557E-2</v>
       </c>
       <c r="G40" s="7">
-        <f t="shared" si="47"/>
-        <v>-2.0831152517533758E-2</v>
+        <f t="shared" si="44"/>
+        <v>2.8443211134476554E-2</v>
       </c>
       <c r="H40" s="7">
-        <f t="shared" si="47"/>
-        <v>1.5219692959237693E-2</v>
+        <f t="shared" si="44"/>
+        <v>3.8621112634389207E-2</v>
       </c>
       <c r="I40" s="7">
-        <f t="shared" si="47"/>
-        <v>1.6169401295141234E-2</v>
+        <f t="shared" si="44"/>
+        <v>3.7929698684587274E-2</v>
       </c>
       <c r="J40" s="7">
-        <f t="shared" si="47"/>
-        <v>9.6885259027944589E-3</v>
+        <f t="shared" si="44"/>
+        <v>3.9099620417805854E-2</v>
       </c>
       <c r="K40" s="7">
-        <f t="shared" si="47"/>
-        <v>4.084961988971908E-2</v>
+        <f t="shared" si="44"/>
+        <v>5.3624720218851035E-2</v>
       </c>
       <c r="L40" s="7">
-        <f t="shared" si="47"/>
-        <v>1.178347059015006E-2</v>
+        <f t="shared" si="44"/>
+        <v>4.6587712805329383E-2</v>
       </c>
       <c r="M40" s="7">
-        <f t="shared" si="47"/>
-        <v>-3.1257505575570423E-2</v>
+        <f t="shared" si="44"/>
+        <v>1.3423433043000747E-2</v>
       </c>
       <c r="N40" s="7">
-        <f t="shared" si="47"/>
-        <v>-4.3652071259927025E-2</v>
+        <f t="shared" si="44"/>
+        <v>-2.5003034348828742E-3</v>
       </c>
       <c r="O40" s="7">
-        <f t="shared" si="47"/>
-        <v>-4.4542577975590247E-2</v>
+        <f t="shared" si="44"/>
+        <v>-2.2644561261625555E-2</v>
       </c>
       <c r="P40" s="7">
-        <f t="shared" si="47"/>
-        <v>-6.5435063735451687E-2</v>
+        <f t="shared" si="44"/>
+        <v>-8.4240225715437322E-3</v>
       </c>
       <c r="Q40" s="7">
-        <f t="shared" si="47"/>
-        <v>-8.8961038961038963E-2</v>
+        <f t="shared" si="44"/>
+        <v>-5.2255748766536023E-3</v>
       </c>
       <c r="R40" s="7">
-        <f t="shared" si="47"/>
-        <v>-6.4649043902155937E-2</v>
+        <f t="shared" si="44"/>
+        <v>-2.5706114842068057E-3</v>
       </c>
       <c r="S40" s="7">
-        <f t="shared" si="47"/>
-        <v>-4.2818390962469526E-2</v>
+        <f t="shared" si="44"/>
+        <v>1.1680389172877564E-2</v>
       </c>
       <c r="T40" s="7">
-        <f t="shared" si="47"/>
-        <v>-3.0137724349260868E-2</v>
+        <f t="shared" si="44"/>
+        <v>3.8899522690378698E-2</v>
       </c>
       <c r="U40" s="7"/>
       <c r="V40" s="7"/>
       <c r="W40" s="7"/>
       <c r="X40" s="7"/>
       <c r="Y40" s="7">
-        <f t="shared" si="45"/>
-        <v>-3.2520572070567515E-2</v>
+        <f t="shared" ref="Y40:AA42" si="45">Y24/Y4</f>
+        <v>5.1405571353790869E-2</v>
       </c>
       <c r="Z40" s="7">
         <f t="shared" si="45"/>
-        <v>-2.2657013235549965E-2</v>
+        <v>4.1192973824626757E-2</v>
       </c>
       <c r="AA40" s="7">
         <f t="shared" si="45"/>
-        <v>6.8670267785312031E-3</v>
+        <v>3.6613030192735797E-2</v>
       </c>
       <c r="AB40" s="7">
-        <f t="shared" ref="AB40:AC40" si="48">AB24/AB4</f>
-        <v>-7.2307824739605746E-3</v>
+        <f t="shared" ref="AB40:AC40" si="46">AB24/AB4</f>
+        <v>2.5983354357777676E-2</v>
       </c>
       <c r="AC40" s="7">
-        <f t="shared" si="48"/>
-        <v>-6.5640173887989692E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>68</v>
+        <f t="shared" si="46"/>
+        <v>-9.0129162973280989E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>67</v>
       </c>
       <c r="C41" s="7">
-        <f t="shared" ref="C41:T41" si="49">C25/C5</f>
-        <v>0.28885135135135137</v>
+        <f t="shared" ref="C41:T41" si="47">C25/C5</f>
+        <v>-5.558300395256917E-3</v>
       </c>
       <c r="D41" s="7">
-        <f t="shared" si="49"/>
-        <v>0.25307242572485383</v>
+        <f t="shared" si="47"/>
+        <v>-3.6713500305436776E-2</v>
       </c>
       <c r="E41" s="7">
-        <f t="shared" si="49"/>
-        <v>0.25136186770428015</v>
+        <f t="shared" si="47"/>
+        <v>-2.10377152823196E-2</v>
       </c>
       <c r="F41" s="7">
-        <f t="shared" si="49"/>
-        <v>0.26079967852119751</v>
+        <f t="shared" si="47"/>
+        <v>-2.5868223239407045E-2</v>
       </c>
       <c r="G41" s="7">
-        <f t="shared" si="49"/>
-        <v>0.30091006947842253</v>
+        <f t="shared" si="47"/>
+        <v>-2.0831152517533758E-2</v>
       </c>
       <c r="H41" s="7">
-        <f t="shared" si="49"/>
-        <v>0.31060325684678014</v>
+        <f t="shared" si="47"/>
+        <v>1.5219692959237693E-2</v>
       </c>
       <c r="I41" s="7">
-        <f t="shared" si="49"/>
-        <v>0.30471511076631325</v>
+        <f t="shared" si="47"/>
+        <v>1.6169401295141234E-2</v>
       </c>
       <c r="J41" s="7">
-        <f t="shared" si="49"/>
-        <v>0.27970491288651705</v>
+        <f t="shared" si="47"/>
+        <v>9.6885259027944589E-3</v>
       </c>
       <c r="K41" s="7">
-        <f t="shared" si="49"/>
-        <v>0.30830185884618233</v>
+        <f t="shared" si="47"/>
+        <v>4.084961988971908E-2</v>
       </c>
       <c r="L41" s="7">
-        <f t="shared" si="49"/>
-        <v>0.28313863191302585</v>
+        <f t="shared" si="47"/>
+        <v>1.178347059015006E-2</v>
       </c>
       <c r="M41" s="7">
-        <f t="shared" si="49"/>
-        <v>0.3031036623215394</v>
+        <f t="shared" si="47"/>
+        <v>-3.1257505575570423E-2</v>
       </c>
       <c r="N41" s="7">
-        <f t="shared" si="49"/>
-        <v>0.29769403824521934</v>
+        <f t="shared" si="47"/>
+        <v>-4.3652071259927025E-2</v>
       </c>
       <c r="O41" s="7">
-        <f t="shared" si="49"/>
-        <v>0.35345154818068436</v>
+        <f t="shared" si="47"/>
+        <v>-4.4542577975590247E-2</v>
       </c>
       <c r="P41" s="7">
-        <f t="shared" si="49"/>
-        <v>0.28952834490095747</v>
+        <f t="shared" si="47"/>
+        <v>-6.5435063735451687E-2</v>
       </c>
       <c r="Q41" s="7">
-        <f t="shared" si="49"/>
-        <v>0.26307332749050538</v>
+        <f t="shared" si="47"/>
+        <v>-8.8961038961038963E-2</v>
       </c>
       <c r="R41" s="7">
-        <f t="shared" si="49"/>
-        <v>0.24347460005613247</v>
+        <f t="shared" si="47"/>
+        <v>-6.4649043902155937E-2</v>
       </c>
       <c r="S41" s="7">
-        <f t="shared" si="49"/>
-        <v>0.23990821391776718</v>
+        <f t="shared" si="47"/>
+        <v>-4.2818390962469526E-2</v>
       </c>
       <c r="T41" s="7">
-        <f t="shared" si="49"/>
-        <v>0.2423215898825655</v>
+        <f t="shared" si="47"/>
+        <v>-3.0137724349260868E-2</v>
       </c>
       <c r="U41" s="7"/>
       <c r="V41" s="7"/>
@@ -4059,957 +3960,1058 @@
       <c r="X41" s="7"/>
       <c r="Y41" s="7">
         <f t="shared" si="45"/>
-        <v>0.28438900799064509</v>
+        <v>-3.2520572070567515E-2</v>
       </c>
       <c r="Z41" s="7">
         <f t="shared" si="45"/>
-        <v>0.26269057271740992</v>
+        <v>-2.2657013235549965E-2</v>
       </c>
       <c r="AA41" s="7">
         <f t="shared" si="45"/>
+        <v>6.8670267785312031E-3</v>
+      </c>
+      <c r="AB41" s="7">
+        <f t="shared" ref="AB41:AC41" si="48">AB25/AB5</f>
+        <v>-7.2307824739605746E-3</v>
+      </c>
+      <c r="AC41" s="7">
+        <f t="shared" si="48"/>
+        <v>-6.5640173887989692E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="7">
+        <f t="shared" ref="C42:T42" si="49">C26/C6</f>
+        <v>0.28885135135135137</v>
+      </c>
+      <c r="D42" s="7">
+        <f t="shared" si="49"/>
+        <v>0.25307242572485383</v>
+      </c>
+      <c r="E42" s="7">
+        <f t="shared" si="49"/>
+        <v>0.25136186770428015</v>
+      </c>
+      <c r="F42" s="7">
+        <f t="shared" si="49"/>
+        <v>0.26079967852119751</v>
+      </c>
+      <c r="G42" s="7">
+        <f t="shared" si="49"/>
+        <v>0.30091006947842253</v>
+      </c>
+      <c r="H42" s="7">
+        <f t="shared" si="49"/>
+        <v>0.31060325684678014</v>
+      </c>
+      <c r="I42" s="7">
+        <f t="shared" si="49"/>
+        <v>0.30471511076631325</v>
+      </c>
+      <c r="J42" s="7">
+        <f t="shared" si="49"/>
+        <v>0.27970491288651705</v>
+      </c>
+      <c r="K42" s="7">
+        <f t="shared" si="49"/>
+        <v>0.30830185884618233</v>
+      </c>
+      <c r="L42" s="7">
+        <f t="shared" si="49"/>
+        <v>0.28313863191302585</v>
+      </c>
+      <c r="M42" s="7">
+        <f t="shared" si="49"/>
+        <v>0.3031036623215394</v>
+      </c>
+      <c r="N42" s="7">
+        <f t="shared" si="49"/>
+        <v>0.29769403824521934</v>
+      </c>
+      <c r="O42" s="7">
+        <f t="shared" si="49"/>
+        <v>0.35345154818068436</v>
+      </c>
+      <c r="P42" s="7">
+        <f t="shared" si="49"/>
+        <v>0.28952834490095747</v>
+      </c>
+      <c r="Q42" s="7">
+        <f t="shared" si="49"/>
+        <v>0.26307332749050538</v>
+      </c>
+      <c r="R42" s="7">
+        <f t="shared" si="49"/>
+        <v>0.24347460005613247</v>
+      </c>
+      <c r="S42" s="7">
+        <f t="shared" si="49"/>
+        <v>0.23990821391776718</v>
+      </c>
+      <c r="T42" s="7">
+        <f t="shared" si="49"/>
+        <v>0.2423215898825655</v>
+      </c>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7">
+        <f t="shared" si="45"/>
+        <v>0.28438900799064509</v>
+      </c>
+      <c r="Z42" s="7">
+        <f t="shared" si="45"/>
+        <v>0.26269057271740992</v>
+      </c>
+      <c r="AA42" s="7">
+        <f t="shared" si="45"/>
         <v>0.29823672029975756</v>
       </c>
-      <c r="AB41" s="7">
-        <f>AB25/AB5</f>
+      <c r="AB42" s="7">
+        <f>AB26/AB6</f>
         <v>0.29793254236198191</v>
       </c>
-      <c r="AC41" s="7">
-        <f>AC25/AC5</f>
+      <c r="AC42" s="7">
+        <f>AC26/AC6</f>
         <v>0.28517029564522572</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>5</v>
       </c>
-      <c r="J44" s="1">
-        <f>J45+J46-J58</f>
+      <c r="J45" s="1">
+        <f>J46+J47-J59</f>
         <v>52580</v>
       </c>
-      <c r="N44" s="1">
-        <f t="shared" ref="N44" si="50">N45+N46-N58</f>
+      <c r="N45" s="1">
+        <f t="shared" ref="N45" si="50">N46+N47-N59</f>
         <v>47305</v>
       </c>
-      <c r="R44" s="1">
-        <f t="shared" ref="R44" si="51">R45+R46-R58</f>
+      <c r="R45" s="1">
+        <f t="shared" ref="R45" si="51">R46+R47-R59</f>
         <v>2876</v>
       </c>
-      <c r="T44" s="1">
-        <f>T45+T46-T58</f>
+      <c r="T45" s="1">
+        <f>T46+T47-T59</f>
         <v>878</v>
       </c>
-      <c r="Y44" s="1">
-        <f t="shared" ref="Y44:AB44" si="52">Y45+Y46-Y58</f>
+      <c r="Y45" s="1">
+        <f t="shared" ref="Y45:AB45" si="52">Y46+Y47-Y59</f>
         <v>17755</v>
       </c>
-      <c r="Z44" s="1">
+      <c r="Z45" s="1">
         <f t="shared" si="52"/>
         <v>31607</v>
       </c>
-      <c r="AA44" s="1">
+      <c r="AA45" s="1">
         <f t="shared" si="52"/>
         <v>52580</v>
       </c>
-      <c r="AB44" s="1">
+      <c r="AB45" s="1">
         <f t="shared" si="52"/>
         <v>47305</v>
       </c>
-      <c r="AC44" s="1">
-        <f>AC45+AC46-AC58</f>
+      <c r="AC45" s="1">
+        <f>AC46+AC47-AC59</f>
         <v>2876</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>3</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J46" s="1">
         <v>42122</v>
       </c>
-      <c r="N45" s="1">
+      <c r="N46" s="1">
         <v>36220</v>
       </c>
-      <c r="R45" s="1">
+      <c r="R46" s="1">
         <v>53888</v>
       </c>
-      <c r="T45" s="1">
+      <c r="T46" s="1">
         <v>49529</v>
       </c>
-      <c r="Y45" s="1">
+      <c r="Y46" s="1">
         <v>31750</v>
       </c>
-      <c r="Z45" s="1">
+      <c r="Z46" s="1">
         <v>36092</v>
       </c>
-      <c r="AA45" s="1">
+      <c r="AA46" s="1">
         <v>42122</v>
       </c>
-      <c r="AB45" s="1">
+      <c r="AB46" s="1">
         <v>36220</v>
       </c>
-      <c r="AC45" s="1">
+      <c r="AC46" s="1">
         <v>53888</v>
       </c>
-      <c r="AD45" s="1"/>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="AD46" s="1"/>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>70</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J47" s="1">
         <v>42274</v>
       </c>
-      <c r="N46" s="1">
+      <c r="N47" s="1">
         <v>59829</v>
       </c>
-      <c r="R46" s="1">
+      <c r="R47" s="1">
         <v>16138</v>
       </c>
-      <c r="T46" s="1">
+      <c r="T47" s="1">
         <v>14441</v>
       </c>
-      <c r="Y46" s="1">
+      <c r="Y47" s="1">
         <v>9500</v>
       </c>
-      <c r="Z46" s="1">
+      <c r="Z47" s="1">
         <v>18929</v>
       </c>
-      <c r="AA46" s="1">
+      <c r="AA47" s="1">
         <v>42274</v>
       </c>
-      <c r="AB46" s="1">
+      <c r="AB47" s="1">
         <v>59829</v>
       </c>
-      <c r="AC46" s="1">
+      <c r="AC47" s="1">
         <v>16138</v>
       </c>
-      <c r="AD46" s="1"/>
-    </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="AD47" s="1"/>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>71</v>
       </c>
-      <c r="J47" s="1">
+      <c r="J48" s="1">
         <v>23795</v>
       </c>
-      <c r="N47" s="1">
+      <c r="N48" s="1">
         <v>32640</v>
       </c>
-      <c r="R47" s="1">
+      <c r="R48" s="1">
         <v>34405</v>
       </c>
-      <c r="T47" s="1">
+      <c r="T48" s="1">
         <v>36587</v>
       </c>
-      <c r="Y47" s="1">
+      <c r="Y48" s="1">
         <v>17174</v>
       </c>
-      <c r="Z47" s="1">
+      <c r="Z48" s="1">
         <v>20497</v>
       </c>
-      <c r="AA47" s="1">
+      <c r="AA48" s="1">
         <v>23795</v>
       </c>
-      <c r="AB47" s="1">
+      <c r="AB48" s="1">
         <v>32640</v>
       </c>
-      <c r="AC47" s="1">
+      <c r="AC48" s="1">
         <v>34405</v>
       </c>
-      <c r="AD47" s="1"/>
-    </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="AD48" s="1"/>
+    </row>
+    <row r="49" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>72</v>
       </c>
-      <c r="J48" s="1">
+      <c r="J49" s="1">
         <v>24542</v>
       </c>
-      <c r="N48" s="1">
+      <c r="N49" s="1">
         <v>32891</v>
       </c>
-      <c r="R48" s="1">
+      <c r="R49" s="1">
         <v>42360</v>
       </c>
-      <c r="T48" s="1">
+      <c r="T49" s="1">
         <v>39925</v>
       </c>
-      <c r="Y48" s="1">
+      <c r="Y49" s="1">
         <v>16677</v>
       </c>
-      <c r="Z48" s="1">
+      <c r="Z49" s="1">
         <v>20816</v>
       </c>
-      <c r="AA48" s="1">
+      <c r="AA49" s="1">
         <v>24542</v>
       </c>
-      <c r="AB48" s="1">
+      <c r="AB49" s="1">
         <v>32891</v>
       </c>
-      <c r="AC48" s="1">
+      <c r="AC49" s="1">
         <v>42360</v>
       </c>
-      <c r="AD48" s="1"/>
-    </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="AD49" s="1"/>
+    </row>
+    <row r="50" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>73</v>
       </c>
-      <c r="J49" s="1">
+      <c r="J50" s="1">
         <v>113114</v>
       </c>
-      <c r="N49" s="1">
+      <c r="N50" s="1">
         <v>160281</v>
       </c>
-      <c r="R49" s="1">
+      <c r="R50" s="1">
         <v>186715</v>
       </c>
-      <c r="T49" s="1">
+      <c r="T50" s="1">
         <v>193784</v>
       </c>
-      <c r="Y49" s="1">
+      <c r="Y50" s="1">
         <v>61797</v>
       </c>
-      <c r="Z49" s="1">
+      <c r="Z50" s="1">
         <v>72705</v>
       </c>
-      <c r="AA49" s="1">
+      <c r="AA50" s="1">
         <v>113114</v>
       </c>
-      <c r="AB49" s="1">
+      <c r="AB50" s="1">
         <v>160281</v>
       </c>
-      <c r="AC49" s="1">
+      <c r="AC50" s="1">
         <v>186715</v>
       </c>
-      <c r="AD49" s="1"/>
-    </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="AD50" s="1"/>
+    </row>
+    <row r="51" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>74</v>
       </c>
-      <c r="J50" s="1">
+      <c r="J51" s="1">
         <v>37553</v>
       </c>
-      <c r="N50" s="1">
+      <c r="N51" s="1">
         <v>56082</v>
       </c>
-      <c r="R50" s="1">
+      <c r="R51" s="1">
         <v>66123</v>
       </c>
-      <c r="T50" s="1">
+      <c r="T51" s="1">
         <v>70332</v>
       </c>
-      <c r="Y50" s="1">
+      <c r="Y51" s="1">
         <v>0</v>
       </c>
-      <c r="Z50" s="1">
+      <c r="Z51" s="1">
         <v>25141</v>
       </c>
-      <c r="AA50" s="1">
+      <c r="AA51" s="1">
         <v>37553</v>
       </c>
-      <c r="AB50" s="1">
+      <c r="AB51" s="1">
         <v>56082</v>
       </c>
-      <c r="AC50" s="1">
+      <c r="AC51" s="1">
         <v>66123</v>
       </c>
-      <c r="AD50" s="1"/>
-    </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="AD51" s="1"/>
+    </row>
+    <row r="52" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>75</v>
       </c>
-      <c r="J51" s="1">
+      <c r="J52" s="1">
         <v>15017</v>
       </c>
-      <c r="N51" s="1">
+      <c r="N52" s="1">
         <v>15371</v>
       </c>
-      <c r="R51" s="1">
+      <c r="R52" s="1">
         <v>20288</v>
       </c>
-      <c r="T51" s="1">
+      <c r="T52" s="1">
         <v>22785</v>
       </c>
-      <c r="Y51" s="1">
+      <c r="Y52" s="1">
         <v>14548</v>
       </c>
-      <c r="Z51" s="1">
+      <c r="Z52" s="1">
         <v>14754</v>
       </c>
-      <c r="AA51" s="1">
+      <c r="AA52" s="1">
         <v>15017</v>
       </c>
-      <c r="AB51" s="1">
+      <c r="AB52" s="1">
         <v>15371</v>
       </c>
-      <c r="AC51" s="1">
+      <c r="AC52" s="1">
         <v>20288</v>
       </c>
-      <c r="AD51" s="1"/>
-    </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="AD52" s="1"/>
+    </row>
+    <row r="53" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>41</v>
       </c>
-      <c r="J52" s="1">
+      <c r="J53" s="1">
         <v>22778</v>
       </c>
-      <c r="N52" s="1">
+      <c r="N53" s="1">
         <v>27235</v>
       </c>
-      <c r="R52" s="1">
+      <c r="R53" s="1">
         <v>42758</v>
       </c>
-      <c r="T52" s="1">
+      <c r="T53" s="1">
         <v>50224</v>
       </c>
-      <c r="Y52" s="1">
+      <c r="Y53" s="1">
         <v>11202</v>
       </c>
-      <c r="Z52" s="1">
+      <c r="Z53" s="1">
         <v>16314</v>
       </c>
-      <c r="AA52" s="1">
+      <c r="AA53" s="1">
         <v>22778</v>
       </c>
-      <c r="AB52" s="1">
+      <c r="AB53" s="1">
         <v>27235</v>
       </c>
-      <c r="AC52" s="1">
+      <c r="AC53" s="1">
         <v>42758</v>
       </c>
-      <c r="AD52" s="1"/>
-    </row>
-    <row r="53" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+      <c r="AD53" s="1"/>
+    </row>
+    <row r="54" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J53" s="5">
-        <f>SUM(J45:J52)</f>
+      <c r="J54" s="5">
+        <f>SUM(J46:J53)</f>
         <v>321195</v>
       </c>
-      <c r="N53" s="5">
-        <f>SUM(N45:N52)</f>
+      <c r="N54" s="5">
+        <f>SUM(N46:N53)</f>
         <v>420549</v>
       </c>
-      <c r="R53" s="5">
-        <f>SUM(R45:R52)</f>
+      <c r="R54" s="5">
+        <f>SUM(R46:R53)</f>
         <v>462675</v>
       </c>
-      <c r="T53" s="5">
-        <f>SUM(T45:T52)</f>
+      <c r="T54" s="5">
+        <f>SUM(T46:T53)</f>
         <v>477607</v>
       </c>
-      <c r="Y53" s="5">
-        <f>SUM(Y45:Y52)</f>
+      <c r="Y54" s="5">
+        <f>SUM(Y46:Y53)</f>
         <v>162648</v>
       </c>
-      <c r="Z53" s="5">
-        <f>SUM(Z45:Z52)</f>
+      <c r="Z54" s="5">
+        <f>SUM(Z46:Z53)</f>
         <v>225248</v>
       </c>
-      <c r="AA53" s="5">
-        <f>SUM(AA45:AA52)</f>
+      <c r="AA54" s="5">
+        <f>SUM(AA46:AA53)</f>
         <v>321195</v>
       </c>
-      <c r="AB53" s="5">
-        <f>SUM(AB45:AB52)</f>
+      <c r="AB54" s="5">
+        <f>SUM(AB46:AB53)</f>
         <v>420549</v>
       </c>
-      <c r="AC53" s="5">
-        <f>SUM(AC45:AC52)</f>
+      <c r="AC54" s="5">
+        <f>SUM(AC46:AC53)</f>
         <v>462675</v>
       </c>
-      <c r="AD53" s="5"/>
-    </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="AD54" s="5"/>
+    </row>
+    <row r="55" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>77</v>
       </c>
-      <c r="J54" s="1">
+      <c r="J55" s="1">
         <v>72539</v>
       </c>
-      <c r="N54" s="1">
+      <c r="N55" s="1">
         <v>78664</v>
       </c>
-      <c r="R54" s="1">
+      <c r="R55" s="1">
         <v>79600</v>
       </c>
-      <c r="T54" s="1">
+      <c r="T55" s="1">
         <v>69481</v>
       </c>
-      <c r="Y54" s="1">
+      <c r="Y55" s="1">
         <v>38192</v>
       </c>
-      <c r="Z54" s="1">
+      <c r="Z55" s="1">
         <v>47183</v>
       </c>
-      <c r="AA54" s="1">
+      <c r="AA55" s="1">
         <v>72539</v>
       </c>
-      <c r="AB54" s="1">
+      <c r="AB55" s="1">
         <v>78664</v>
       </c>
-      <c r="AC54" s="1">
+      <c r="AC55" s="1">
         <v>79600</v>
       </c>
-      <c r="AD54" s="1"/>
-    </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="AD55" s="1"/>
+    </row>
+    <row r="56" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>78</v>
       </c>
-      <c r="J55" s="1">
+      <c r="J56" s="1">
         <v>44138</v>
       </c>
-      <c r="N55" s="1">
+      <c r="N56" s="1">
         <v>51775</v>
       </c>
-      <c r="R55" s="1">
+      <c r="R56" s="1">
         <v>62566</v>
       </c>
-      <c r="T55" s="1">
+      <c r="T56" s="1">
         <v>64235</v>
       </c>
-      <c r="Y55" s="1">
+      <c r="Y56" s="1">
         <v>23663</v>
       </c>
-      <c r="Z55" s="1">
+      <c r="Z56" s="1">
         <v>32439</v>
       </c>
-      <c r="AA55" s="1">
+      <c r="AA56" s="1">
         <v>44138</v>
       </c>
-      <c r="AB55" s="1">
+      <c r="AB56" s="1">
         <v>51775</v>
       </c>
-      <c r="AC55" s="1">
+      <c r="AC56" s="1">
         <v>62566</v>
       </c>
-      <c r="AD55" s="1"/>
-    </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="AD56" s="1"/>
+    </row>
+    <row r="57" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>79</v>
       </c>
-      <c r="J56" s="1">
+      <c r="J57" s="1">
         <v>9708</v>
       </c>
-      <c r="N56" s="1">
+      <c r="N57" s="1">
         <v>11827</v>
       </c>
-      <c r="R56" s="1">
+      <c r="R57" s="1">
         <v>13227</v>
       </c>
-      <c r="T56" s="1">
+      <c r="T57" s="1">
         <v>14522</v>
       </c>
-      <c r="Y56" s="1">
+      <c r="Y57" s="1">
         <v>6536</v>
       </c>
-      <c r="Z56" s="1">
+      <c r="Z57" s="1">
         <v>8190</v>
       </c>
-      <c r="AA56" s="1">
+      <c r="AA57" s="1">
         <v>9708</v>
       </c>
-      <c r="AB56" s="1">
+      <c r="AB57" s="1">
         <v>11827</v>
       </c>
-      <c r="AC56" s="1">
+      <c r="AC57" s="1">
         <v>13227</v>
       </c>
-      <c r="AD56" s="1"/>
-    </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="AD57" s="1"/>
+    </row>
+    <row r="58" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>80</v>
       </c>
-      <c r="J57" s="1">
+      <c r="J58" s="1">
         <v>52573</v>
       </c>
-      <c r="N57" s="1">
+      <c r="N58" s="1">
         <v>67651</v>
       </c>
-      <c r="R57" s="1">
+      <c r="R58" s="1">
         <v>72968</v>
       </c>
-      <c r="T57" s="1">
+      <c r="T58" s="1">
         <v>75822</v>
       </c>
-      <c r="Y57" s="1">
+      <c r="Y58" s="1">
         <v>9650</v>
       </c>
-      <c r="Z57" s="1">
+      <c r="Z58" s="1">
         <v>39791</v>
       </c>
-      <c r="AA57" s="1">
+      <c r="AA58" s="1">
         <v>52573</v>
       </c>
-      <c r="AB57" s="1">
+      <c r="AB58" s="1">
         <v>67651</v>
       </c>
-      <c r="AC57" s="1">
+      <c r="AC58" s="1">
         <v>72968</v>
       </c>
-      <c r="AD57" s="1"/>
-    </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="AD58" s="1"/>
+    </row>
+    <row r="59" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
         <v>81</v>
       </c>
-      <c r="J58" s="1">
+      <c r="J59" s="1">
         <v>31816</v>
       </c>
-      <c r="N58" s="1">
+      <c r="N59" s="1">
         <v>48744</v>
       </c>
-      <c r="R58" s="1">
+      <c r="R59" s="1">
         <v>67150</v>
       </c>
-      <c r="T58" s="1">
+      <c r="T59" s="1">
         <v>63092</v>
       </c>
-      <c r="Y58" s="1">
+      <c r="Y59" s="1">
         <v>23495</v>
       </c>
-      <c r="Z58" s="1">
+      <c r="Z59" s="1">
         <v>23414</v>
       </c>
-      <c r="AA58" s="1">
+      <c r="AA59" s="1">
         <v>31816</v>
       </c>
-      <c r="AB58" s="1">
+      <c r="AB59" s="1">
         <v>48744</v>
       </c>
-      <c r="AC58" s="1">
+      <c r="AC59" s="1">
         <v>67150</v>
       </c>
-      <c r="AD58" s="1"/>
-    </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="AD59" s="1"/>
+    </row>
+    <row r="60" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>82</v>
       </c>
-      <c r="J59" s="1">
+      <c r="J60" s="1">
         <v>17017</v>
       </c>
-      <c r="N59" s="1">
+      <c r="N60" s="1">
         <v>23643</v>
       </c>
-      <c r="R59" s="1">
+      <c r="R60" s="1">
         <v>21121</v>
       </c>
-      <c r="T59" s="1">
+      <c r="T60" s="1">
         <v>21853</v>
       </c>
-      <c r="Y59" s="1">
+      <c r="Y60" s="1">
         <v>17563</v>
       </c>
-      <c r="Z59" s="1">
+      <c r="Z60" s="1">
         <v>12171</v>
       </c>
-      <c r="AA59" s="1">
+      <c r="AA60" s="1">
         <v>17017</v>
       </c>
-      <c r="AB59" s="1">
+      <c r="AB60" s="1">
         <v>23643</v>
       </c>
-      <c r="AC59" s="1">
+      <c r="AC60" s="1">
         <v>21121</v>
       </c>
-      <c r="AD59" s="1"/>
-    </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="AD60" s="1"/>
+    </row>
+    <row r="61" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
         <v>83</v>
       </c>
-      <c r="J60" s="1">
+      <c r="J61" s="1">
         <v>93404</v>
       </c>
-      <c r="N60" s="1">
+      <c r="N61" s="1">
         <v>138245</v>
       </c>
-      <c r="R60" s="1">
+      <c r="R61" s="1">
         <v>146043</v>
       </c>
-      <c r="T60" s="1">
+      <c r="T61" s="1">
         <v>168602</v>
       </c>
-      <c r="Y60" s="1">
+      <c r="Y61" s="1">
         <v>43549</v>
       </c>
-      <c r="Z60" s="1">
+      <c r="Z61" s="1">
         <v>62060</v>
       </c>
-      <c r="AA60" s="1">
+      <c r="AA61" s="1">
         <v>93404</v>
       </c>
-      <c r="AB60" s="1">
+      <c r="AB61" s="1">
         <v>138245</v>
       </c>
-      <c r="AC60" s="1">
+      <c r="AC61" s="1">
         <v>146043</v>
       </c>
-      <c r="AD60" s="1"/>
-    </row>
-    <row r="61" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+      <c r="AD61" s="1"/>
+    </row>
+    <row r="62" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="J61" s="5">
-        <f>SUM(J54:J59)</f>
+      <c r="J62" s="5">
+        <f>SUM(J55:J60)</f>
         <v>227791</v>
       </c>
-      <c r="N61" s="5">
-        <f>SUM(N54:N59)</f>
+      <c r="N62" s="5">
+        <f>SUM(N55:N60)</f>
         <v>282304</v>
       </c>
-      <c r="R61" s="5">
-        <f>SUM(R54:R59)</f>
+      <c r="R62" s="5">
+        <f>SUM(R55:R60)</f>
         <v>316632</v>
       </c>
-      <c r="T61" s="5">
-        <f>SUM(T54:T59)</f>
+      <c r="T62" s="5">
+        <f>SUM(T55:T60)</f>
         <v>309005</v>
       </c>
-      <c r="Y61" s="5">
-        <f>SUM(Y54:Y59)</f>
+      <c r="Y62" s="5">
+        <f>SUM(Y55:Y60)</f>
         <v>119099</v>
       </c>
-      <c r="Z61" s="5">
-        <f>SUM(Z54:Z59)</f>
+      <c r="Z62" s="5">
+        <f>SUM(Z55:Z60)</f>
         <v>163188</v>
       </c>
-      <c r="AA61" s="5">
-        <f>SUM(AA54:AA59)</f>
+      <c r="AA62" s="5">
+        <f>SUM(AA55:AA60)</f>
         <v>227791</v>
       </c>
-      <c r="AB61" s="5">
-        <f>SUM(AB54:AB59)</f>
+      <c r="AB62" s="5">
+        <f>SUM(AB55:AB60)</f>
         <v>282304</v>
       </c>
-      <c r="AC61" s="5">
-        <f>SUM(AC54:AC59)</f>
+      <c r="AC62" s="5">
+        <f>SUM(AC55:AC60)</f>
         <v>316632</v>
       </c>
-      <c r="AD61" s="1"/>
-    </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="AA62" s="1"/>
-    </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="AC63" s="7"/>
-    </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD62" s="1"/>
+    </row>
+    <row r="63" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AA63" s="1"/>
+    </row>
+    <row r="64" spans="2:30" x14ac:dyDescent="0.25">
       <c r="AC64" s="7"/>
     </row>
-    <row r="65" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
+    <row r="65" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AC65" s="7"/>
+    </row>
+    <row r="66" spans="2:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="P65" s="5">
+      <c r="P66" s="5">
         <v>36599</v>
       </c>
-      <c r="Q65" s="5">
-        <f>P90</f>
+      <c r="Q66" s="5">
+        <f>P91</f>
         <v>37700</v>
       </c>
-      <c r="R65" s="5">
-        <f>Q90</f>
+      <c r="R66" s="5">
+        <f>Q91</f>
         <v>0</v>
       </c>
-      <c r="S65" s="5">
-        <f>R90</f>
+      <c r="S66" s="5">
+        <f>R91</f>
         <v>0</v>
       </c>
-      <c r="T65" s="5">
-        <f>S90</f>
+      <c r="T66" s="5">
+        <f>S91</f>
         <v>49734</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
         <v>96</v>
       </c>
-      <c r="P66" s="1">
+      <c r="P67" s="1">
         <v>-2028</v>
       </c>
-      <c r="T66" s="1">
+      <c r="T67" s="1">
         <v>6750</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="68" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
         <v>97</v>
       </c>
-      <c r="P67" s="1">
+      <c r="P68" s="1">
         <v>9716</v>
       </c>
-      <c r="T67" s="1">
+      <c r="T68" s="1">
         <v>11589</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="69" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
         <v>98</v>
       </c>
-      <c r="P68" s="1">
+      <c r="P69" s="1">
         <v>5209</v>
       </c>
-      <c r="T68" s="1">
+      <c r="T69" s="1">
         <v>7127</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="70" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
         <v>99</v>
       </c>
-      <c r="P69" s="1">
+      <c r="P70" s="1">
         <v>6104</v>
       </c>
-      <c r="T69" s="1">
+      <c r="T70" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="71" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
         <v>100</v>
       </c>
-      <c r="P70" s="1">
+      <c r="P71" s="1">
         <v>-1955</v>
       </c>
-      <c r="T70" s="1">
+      <c r="T71" s="1">
         <v>-2744</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="72" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
         <v>71</v>
       </c>
-      <c r="P71" s="1">
+      <c r="P72" s="1">
         <v>-3890</v>
       </c>
-      <c r="T71" s="1">
+      <c r="T72" s="1">
         <v>-2373</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
         <v>72</v>
       </c>
-      <c r="P72" s="1">
+      <c r="P73" s="1">
         <v>-6799</v>
       </c>
-      <c r="T72" s="1">
+      <c r="T73" s="1">
         <v>-5167</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="74" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
         <v>77</v>
       </c>
-      <c r="P73" s="1">
+      <c r="P74" s="1">
         <v>3699</v>
       </c>
-      <c r="T73" s="1">
+      <c r="T74" s="1">
         <v>3029</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="75" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
         <v>101</v>
       </c>
-      <c r="P74" s="1">
+      <c r="P75" s="1">
         <v>-1412</v>
       </c>
-      <c r="T74" s="1">
+      <c r="T75" s="1">
         <v>-1938</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="76" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
         <v>79</v>
       </c>
-      <c r="P75" s="1">
+      <c r="P76" s="1">
         <v>321</v>
       </c>
-      <c r="T75" s="1">
+      <c r="T76" s="1">
         <v>156</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
         <v>102</v>
       </c>
-      <c r="P76" s="1">
+      <c r="P77" s="1">
         <v>-15724</v>
       </c>
-      <c r="T76" s="1">
+      <c r="T77" s="1">
         <v>-11455</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="78" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
         <v>103</v>
       </c>
-      <c r="P77" s="1">
+      <c r="P78" s="1">
         <v>1626</v>
       </c>
-      <c r="T77" s="1">
+      <c r="T78" s="1">
         <v>1043</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="79" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
         <v>104</v>
       </c>
-      <c r="P78" s="1">
+      <c r="P79" s="1">
         <v>-259</v>
       </c>
-      <c r="T78" s="1">
+      <c r="T79" s="1">
         <v>-316</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
         <v>105</v>
       </c>
-      <c r="P79" s="1">
+      <c r="P80" s="1">
         <v>2608</v>
       </c>
-      <c r="T79" s="1">
+      <c r="T80" s="1">
         <v>1551</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="81" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
         <v>106</v>
       </c>
-      <c r="P80" s="1">
+      <c r="P81" s="1">
         <v>-329</v>
       </c>
-      <c r="T80" s="1">
+      <c r="T81" s="1">
         <v>-496</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="82" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
         <v>107</v>
       </c>
-      <c r="P81" s="1">
+      <c r="P82" s="1">
         <v>-3334</v>
       </c>
-      <c r="T81" s="1">
+      <c r="T82" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="83" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
         <v>109</v>
       </c>
-      <c r="P82" s="1">
+      <c r="P83" s="1">
         <v>4865</v>
       </c>
-      <c r="T82" s="1">
+      <c r="T83" s="1">
         <v>4399</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="84" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
         <v>108</v>
       </c>
-      <c r="P83" s="1">
+      <c r="P84" s="1">
         <v>-7610</v>
       </c>
-      <c r="T83" s="1">
+      <c r="T84" s="1">
         <v>-7641</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="85" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
         <v>110</v>
       </c>
-      <c r="P84" s="1">
+      <c r="P85" s="1">
         <v>12824</v>
       </c>
-      <c r="T84" s="1">
+      <c r="T85" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="86" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
         <v>111</v>
       </c>
-      <c r="P85" s="1">
+      <c r="P86" s="1">
         <v>-1</v>
       </c>
-      <c r="T85" s="1">
+      <c r="T86" s="1">
         <v>-2000</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="87" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
         <v>116</v>
       </c>
-      <c r="P86" s="1">
+      <c r="P87" s="1">
         <v>-2059</v>
       </c>
-      <c r="T86" s="1">
+      <c r="T87" s="1">
         <v>-77</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="88" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
         <v>112</v>
       </c>
-      <c r="P87" s="1">
+      <c r="P88" s="1">
         <v>-59</v>
       </c>
-      <c r="T87" s="1">
+      <c r="T88" s="1">
         <v>-1220</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="89" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
         <v>113</v>
       </c>
-      <c r="P88" s="1">
+      <c r="P89" s="1">
         <v>-412</v>
       </c>
-      <c r="T88" s="1">
+      <c r="T89" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="90" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
         <v>114</v>
       </c>
-      <c r="P89" s="10">
-        <f>SUM(P66:P88)</f>
+      <c r="P90" s="10">
+        <f>SUM(P67:P89)</f>
         <v>1101</v>
       </c>
-      <c r="T89" s="10">
-        <f>SUM(T66:T88)</f>
+      <c r="T90" s="10">
+        <f>SUM(T67:T89)</f>
         <v>333</v>
       </c>
     </row>
-    <row r="90" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
+    <row r="91" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="P90" s="5">
-        <f>P65+P89</f>
+      <c r="P91" s="5">
+        <f>P66+P90</f>
         <v>37700</v>
       </c>
-      <c r="S90" s="5">
+      <c r="S91" s="5">
         <v>49734</v>
       </c>
-      <c r="T90" s="5">
-        <f>T65+T89</f>
+      <c r="T91" s="5">
+        <f>T66+T90</f>
         <v>50067</v>
       </c>
     </row>
@@ -5511,56 +5513,56 @@
         <v>137512</v>
       </c>
       <c r="F9" s="1">
-        <f>SUM(F2:F8)</f>
+        <f t="shared" ref="F9:K9" si="2">SUM(F2:F8)</f>
         <v>116444</v>
       </c>
       <c r="G9" s="1">
-        <f>SUM(G2:G8)</f>
+        <f t="shared" si="2"/>
         <v>121234</v>
       </c>
       <c r="H9" s="1">
-        <f>SUM(H2:H8)</f>
+        <f t="shared" si="2"/>
         <v>127101</v>
       </c>
       <c r="I9" s="1">
-        <f>SUM(I2:I8)</f>
+        <f t="shared" si="2"/>
         <v>149204</v>
       </c>
       <c r="J9" s="1">
-        <f>SUM(J2:J8)</f>
+        <f t="shared" si="2"/>
         <v>127358</v>
       </c>
       <c r="K9" s="1">
-        <f>SUM(K2:K8)</f>
+        <f t="shared" si="2"/>
         <v>134383</v>
       </c>
       <c r="L9" s="1"/>
       <c r="N9" s="1">
-        <f t="shared" ref="N9:T9" si="2">SUM(N2:N8)</f>
+        <f t="shared" ref="N9:T9" si="3">SUM(N2:N8)</f>
         <v>177866</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>232887</v>
       </c>
       <c r="P9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>280522</v>
       </c>
       <c r="Q9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>386064</v>
       </c>
       <c r="R9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>469822</v>
       </c>
       <c r="S9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>513983</v>
       </c>
       <c r="T9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5573,36 +5575,36 @@
         <v>-3.3496531256497986E-2</v>
       </c>
       <c r="G12" s="7">
-        <f t="shared" ref="G12:K12" si="3">G2/C2-1</f>
+        <f t="shared" ref="G12:K12" si="4">G2/C2-1</f>
         <v>-4.3305679402524611E-2</v>
       </c>
       <c r="H12" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.102238596772259E-2</v>
       </c>
       <c r="I12" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.3367385546727237E-2</v>
       </c>
       <c r="J12" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-6.4542627471686487E-4</v>
       </c>
       <c r="K12" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.1510175990561393E-2</v>
       </c>
       <c r="N12" s="7"/>
       <c r="O12" s="7">
-        <f t="shared" ref="O12:Q12" si="4">O2/N2-1</f>
+        <f t="shared" ref="O12:Q12" si="5">O2/N2-1</f>
         <v>0.13504808313490968</v>
       </c>
       <c r="P12" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.14847097660728359</v>
       </c>
       <c r="Q12" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.39716949740525465</v>
       </c>
       <c r="R12" s="7">
@@ -5619,27 +5621,27 @@
         <v>92</v>
       </c>
       <c r="F13" s="7">
-        <f>F6/B6-1</f>
+        <f t="shared" ref="F13:K13" si="6">F6/B6-1</f>
         <v>0.23444601159692846</v>
       </c>
       <c r="G13" s="7">
-        <f>G6/C6-1</f>
+        <f t="shared" si="6"/>
         <v>0.17527848610924712</v>
       </c>
       <c r="H13" s="7">
-        <f>H6/D6-1</f>
+        <f t="shared" si="6"/>
         <v>0.27103301384451539</v>
       </c>
       <c r="I13" s="7">
-        <f>I6/E6-1</f>
+        <f t="shared" si="6"/>
         <v>0.17736348818255898</v>
       </c>
       <c r="J13" s="7">
-        <f>J6/F6-1</f>
+        <f t="shared" si="6"/>
         <v>0.20718547670432907</v>
       </c>
       <c r="K13" s="7">
-        <f>K6/G6-1</f>
+        <f t="shared" si="6"/>
         <v>0.21993833504624871</v>
       </c>
       <c r="N13" s="7"/>
@@ -5664,36 +5666,36 @@
         <v>0.36569651188624741</v>
       </c>
       <c r="G14" s="7">
-        <f t="shared" ref="G14:K14" si="5">G7/C7-1</f>
+        <f t="shared" ref="G14:K14" si="7">G7/C7-1</f>
         <v>0.33290566547369838</v>
       </c>
       <c r="H14" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.27486033519553077</v>
       </c>
       <c r="I14" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.20236220472440936</v>
       </c>
       <c r="J14" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.157963234097934</v>
       </c>
       <c r="K14" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.12163736764780375</v>
       </c>
       <c r="N14" s="7"/>
       <c r="O14" s="7">
-        <f t="shared" ref="O14:Q14" si="6">O7/N7-1</f>
+        <f t="shared" ref="O14:Q14" si="8">O7/N7-1</f>
         <v>0.46944269431238905</v>
       </c>
       <c r="P14" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.36526992788930035</v>
       </c>
       <c r="Q14" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.29532347399074976</v>
       </c>
       <c r="R14" s="7">
@@ -5714,36 +5716,36 @@
         <v>6.8581551309629285E-2</v>
       </c>
       <c r="G15" s="7">
-        <f t="shared" ref="G15:K15" si="7">G4/C4-1</f>
+        <f t="shared" ref="G15:K15" si="9">G4/C4-1</f>
         <v>9.1329479768786026E-2</v>
       </c>
       <c r="H15" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.18200560778492503</v>
       </c>
       <c r="I15" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.19851583113456472</v>
       </c>
       <c r="J15" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.177027827116637</v>
       </c>
       <c r="K15" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.18103448275862077</v>
       </c>
       <c r="N15" s="7"/>
       <c r="O15" s="7">
-        <f t="shared" ref="O15:Q15" si="8">O4/N4-1</f>
+        <f t="shared" ref="O15:Q15" si="10">O4/N4-1</f>
         <v>0.34076722812960702</v>
       </c>
       <c r="P15" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.25773774710492448</v>
       </c>
       <c r="Q15" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.49661470927420859</v>
       </c>
       <c r="R15" s="7">

--- a/E-Com/AMZN.xlsx
+++ b/E-Com/AMZN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\E-Com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71282F8-6F60-493E-87BC-26D31864E9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D8DF3E-9190-4812-95B0-11977BFAA3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="131">
   <si>
     <t>Price</t>
   </si>
@@ -148,9 +148,6 @@
     <t>Total Net Sales</t>
   </si>
   <si>
-    <t>COS</t>
-  </si>
-  <si>
     <t>Fulfillment</t>
   </si>
   <si>
@@ -268,9 +265,6 @@
     <t>Goodwill</t>
   </si>
   <si>
-    <t>Assets</t>
-  </si>
-  <si>
     <t>AP</t>
   </si>
   <si>
@@ -292,9 +286,6 @@
     <t>S/E</t>
   </si>
   <si>
-    <t>Liabilities</t>
-  </si>
-  <si>
     <t>Net Sales</t>
   </si>
   <si>
@@ -389,13 +380,67 @@
   </si>
   <si>
     <t>Finance Leases</t>
+  </si>
+  <si>
+    <t>Current Assets</t>
+  </si>
+  <si>
+    <t>Current Liabilities</t>
+  </si>
+  <si>
+    <t>Total Assets</t>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>AWS NI Dominance</t>
+  </si>
+  <si>
+    <t>PE0</t>
+  </si>
+  <si>
+    <t>PE1</t>
+  </si>
+  <si>
+    <t>PE2</t>
+  </si>
+  <si>
+    <t>EG1</t>
+  </si>
+  <si>
+    <t>EG2</t>
+  </si>
+  <si>
+    <t>PEG1</t>
+  </si>
+  <si>
+    <t>PEG2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,6 +478,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -457,11 +509,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -474,10 +527,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -755,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:S11"/>
+  <dimension ref="B2:S15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,7 +846,7 @@
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K4" t="s">
         <v>2</v>
@@ -801,65 +858,108 @@
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K5" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="1">
-        <f>SUM(Model!T46:T47)</f>
-        <v>63970</v>
+        <f>Model!V47+Model!V48</f>
+        <v>86780</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
         <v>4</v>
       </c>
       <c r="L6" s="1">
-        <f>SUM(Model!T55:T56)</f>
-        <v>133716</v>
+        <f>Model!V62</f>
+        <v>58314</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="1">
         <f>L5-L6</f>
-        <v>-69746</v>
+        <v>28466</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K8" t="s">
         <v>6</v>
       </c>
+      <c r="L8" s="1">
+        <f>L4-L5+L6</f>
+        <v>1432312.55</v>
+      </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>90</v>
+        <v>87</v>
+      </c>
+      <c r="K9" t="s">
+        <v>124</v>
+      </c>
+      <c r="L9" s="13">
+        <f>L2/Model!AG27</f>
+        <v>48.082173670204028</v>
       </c>
       <c r="S9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>57</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="K10" t="s">
+        <v>125</v>
+      </c>
+      <c r="L10" s="13"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>41</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="K11" t="s">
+        <v>126</v>
+      </c>
+      <c r="L11" s="13"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L12" s="14"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>128</v>
+      </c>
+      <c r="L13" s="14"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" s="13"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>130</v>
+      </c>
+      <c r="L15" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -868,13 +968,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18DAFE1B-0872-4079-929A-2D64CB797B54}">
-  <dimension ref="A1:AE91"/>
+  <dimension ref="A1:AH93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="N6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="AF35" sqref="AF35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,12 +983,12 @@
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>31</v>
       </c>
@@ -943,41 +1043,53 @@
       <c r="T2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
+      <c r="U2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="X2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y2" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AC2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AD2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AE2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AF2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AG2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AH2" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="1">
         <v>35812</v>
@@ -989,7 +1101,7 @@
         <v>42638</v>
       </c>
       <c r="F4" s="1">
-        <f>Z4-E4-D4-C4</f>
+        <f>AC4-E4-D4-C4</f>
         <v>53630</v>
       </c>
       <c r="G4" s="1">
@@ -1002,7 +1114,7 @@
         <v>59373</v>
       </c>
       <c r="J4" s="1">
-        <f>AA4-I4-H4-G4</f>
+        <f>AD4-I4-H4-G4</f>
         <v>75346</v>
       </c>
       <c r="K4" s="1">
@@ -1015,7 +1127,7 @@
         <v>65557</v>
       </c>
       <c r="N4" s="1">
-        <f>AB4-M4-L4-K4</f>
+        <f>AE4-M4-L4-K4</f>
         <v>82390</v>
       </c>
       <c r="O4" s="1">
@@ -1028,7 +1140,7 @@
         <v>78843</v>
       </c>
       <c r="R4" s="1">
-        <f>AC4-SUM(O4:Q4)</f>
+        <f>AF4-SUM(O4:Q4)</f>
         <v>93363</v>
       </c>
       <c r="S4" s="1">
@@ -1037,28 +1149,38 @@
       <c r="T4" s="1">
         <v>82546</v>
       </c>
-      <c r="X4" s="1">
+      <c r="U4" s="1">
+        <v>87887</v>
+      </c>
+      <c r="V4" s="1">
+        <f>AG4-U4-T4-S4</f>
+        <v>105514</v>
+      </c>
+      <c r="AA4" s="1">
         <v>106110</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="AB4" s="1">
         <v>141366</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="AC4" s="1">
         <v>170733</v>
       </c>
-      <c r="AA4" s="1">
+      <c r="AD4" s="1">
         <v>236282</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AE4" s="1">
         <v>279833</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AF4" s="1">
         <v>315880</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG4" s="1">
+        <v>352828</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="1">
         <v>16192</v>
@@ -1070,7 +1192,7 @@
         <v>18348</v>
       </c>
       <c r="F5" s="1">
-        <f>Z5-E5-D5-C5</f>
+        <f>AC5-E5-D5-C5</f>
         <v>23813</v>
       </c>
       <c r="G5" s="1">
@@ -1083,7 +1205,7 @@
         <v>25171</v>
       </c>
       <c r="J5" s="1">
-        <f>AA5-I5-H5-G5</f>
+        <f>AD5-I5-H5-G5</f>
         <v>37467</v>
       </c>
       <c r="K5" s="1">
@@ -1096,7 +1218,7 @@
         <v>29145</v>
       </c>
       <c r="N5" s="1">
-        <f t="shared" ref="N5:N6" si="0">AB5-M5-L5-K5</f>
+        <f t="shared" ref="N5:N6" si="0">AE5-M5-L5-K5</f>
         <v>37272</v>
       </c>
       <c r="O5" s="1">
@@ -1109,7 +1231,7 @@
         <v>27720</v>
       </c>
       <c r="R5" s="1">
-        <f>AC5-SUM(O5:Q5)</f>
+        <f>AF5-SUM(O5:Q5)</f>
         <v>34463</v>
       </c>
       <c r="S5" s="1">
@@ -1118,28 +1240,38 @@
       <c r="T5" s="1">
         <v>29697</v>
       </c>
-      <c r="X5" s="1">
+      <c r="U5" s="1">
+        <v>32137</v>
+      </c>
+      <c r="V5" s="1">
+        <f>AG5-U5-T5-S5</f>
+        <v>40243</v>
+      </c>
+      <c r="AA5" s="1">
         <v>54297</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="AB5" s="1">
         <v>65866</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="AC5" s="1">
         <v>74723</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AD5" s="1">
         <v>104412</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AE5" s="1">
         <v>127787</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AF5" s="1">
         <v>118007</v>
       </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG5" s="1">
+        <v>131200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="1">
         <v>7696</v>
@@ -1151,7 +1283,7 @@
         <v>8995</v>
       </c>
       <c r="F6" s="1">
-        <f>Z6-E6-D6-C6</f>
+        <f>AC6-E6-D6-C6</f>
         <v>9954</v>
       </c>
       <c r="G6" s="1">
@@ -1164,7 +1296,7 @@
         <v>11601</v>
       </c>
       <c r="J6" s="1">
-        <f>AA6-I6-H6-G6</f>
+        <f>AD6-I6-H6-G6</f>
         <v>12742</v>
       </c>
       <c r="K6" s="1">
@@ -1190,7 +1322,7 @@
         <v>20538</v>
       </c>
       <c r="R6" s="1">
-        <f>AC6-SUM(O6:Q6)</f>
+        <f>AF6-SUM(O6:Q6)</f>
         <v>21378</v>
       </c>
       <c r="S6" s="1">
@@ -1199,29 +1331,39 @@
       <c r="T6" s="1">
         <v>22140</v>
       </c>
-      <c r="X6" s="1">
+      <c r="U6" s="1">
+        <v>23059</v>
+      </c>
+      <c r="V6" s="1">
+        <f>AG6-U6-T6-S6</f>
+        <v>24204</v>
+      </c>
+      <c r="AA6" s="1">
         <v>17459</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="AB6" s="1">
         <v>25655</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="AC6" s="1">
         <v>35026</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AD6" s="1">
         <v>45370</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AE6" s="1">
         <v>62202</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AF6" s="1">
         <v>80096</v>
       </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG6" s="1">
+        <v>90757</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>33</v>
       </c>
@@ -1235,7 +1377,7 @@
         <v>39726</v>
       </c>
       <c r="F8" s="1">
-        <f>Z8-E8-D8-C8</f>
+        <f>AC8-E8-D8-C8</f>
         <v>50543</v>
       </c>
       <c r="G8" s="1">
@@ -1248,7 +1390,7 @@
         <v>52774</v>
       </c>
       <c r="J8" s="1">
-        <f>AA8-I8-H8-G8</f>
+        <f>AD8-I8-H8-G8</f>
         <v>71056</v>
       </c>
       <c r="K8" s="1">
@@ -1261,7 +1403,7 @@
         <v>54876</v>
       </c>
       <c r="N8" s="1">
-        <f>AB8-M8-L8-K8</f>
+        <f>AE8-M8-L8-K8</f>
         <v>71416</v>
       </c>
       <c r="O8" s="1">
@@ -1274,7 +1416,7 @@
         <v>59340</v>
       </c>
       <c r="R8" s="1">
-        <f>AC8-Q8-P8-O8</f>
+        <f>AF8-Q8-P8-O8</f>
         <v>70531</v>
       </c>
       <c r="S8" s="1">
@@ -1283,26 +1425,36 @@
       <c r="T8" s="1">
         <v>59032</v>
       </c>
-      <c r="X8" s="1">
+      <c r="U8" s="1">
+        <v>63171</v>
+      </c>
+      <c r="V8" s="1">
+        <f>AG8-U8-T8-S8</f>
+        <v>76703</v>
+      </c>
+      <c r="AA8" s="1">
         <v>118573</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="AB8" s="1">
         <v>141915</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="AC8" s="1">
         <v>160408</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="AD8" s="1">
         <v>215915</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AE8" s="1">
         <v>241787</v>
       </c>
-      <c r="AC8" s="1">
+      <c r="AF8" s="1">
         <v>242901</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG8" s="1">
+        <v>255887</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>34</v>
       </c>
@@ -1316,7 +1468,7 @@
         <v>30255</v>
       </c>
       <c r="F9" s="1">
-        <f>Z9-E9-D9-C9</f>
+        <f>AC9-E9-D9-C9</f>
         <v>36894</v>
       </c>
       <c r="G9" s="1">
@@ -1329,7 +1481,7 @@
         <v>43371</v>
       </c>
       <c r="J9" s="1">
-        <f>AA9-I9-H9-G9</f>
+        <f>AD9-I9-H9-G9</f>
         <v>54499</v>
       </c>
       <c r="K9" s="1">
@@ -1342,7 +1494,7 @@
         <v>55936</v>
       </c>
       <c r="N9" s="1">
-        <f>AB9-M9-L9-K9</f>
+        <f>AE9-M9-L9-K9</f>
         <v>65996</v>
       </c>
       <c r="O9" s="1">
@@ -1355,7 +1507,7 @@
         <v>67761</v>
       </c>
       <c r="R9" s="1">
-        <f>AC9-Q9-P9-O9</f>
+        <f>AF9-Q9-P9-O9</f>
         <v>78673</v>
       </c>
       <c r="S9" s="1">
@@ -1364,26 +1516,36 @@
       <c r="T9" s="1">
         <v>75351</v>
       </c>
-      <c r="X9" s="1">
+      <c r="U9" s="1">
+        <v>79912</v>
+      </c>
+      <c r="V9" s="1">
+        <f>AG9-U9-T9-S9</f>
+        <v>93258</v>
+      </c>
+      <c r="AA9" s="1">
         <v>59293</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="AB9" s="1">
         <v>90972</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="AC9" s="1">
         <v>120114</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AD9" s="1">
         <v>170149</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AE9" s="1">
         <v>228035</v>
       </c>
-      <c r="AC9" s="1">
+      <c r="AF9" s="1">
         <v>271082</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG9" s="1">
+        <v>318898</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>35</v>
       </c>
@@ -1404,7 +1566,7 @@
         <v>87437</v>
       </c>
       <c r="G10" s="5">
-        <f t="shared" ref="G10:T10" si="1">G8+G9</f>
+        <f t="shared" ref="G10:S10" si="1">G8+G9</f>
         <v>75452</v>
       </c>
       <c r="H10" s="5">
@@ -1456,37 +1618,57 @@
         <v>127358</v>
       </c>
       <c r="T10" s="5">
-        <f t="shared" si="1"/>
+        <f>T8+T9</f>
         <v>134383</v>
       </c>
+      <c r="U10" s="5">
+        <f t="shared" ref="U10:X10" si="2">U8+U9</f>
+        <v>143083</v>
+      </c>
+      <c r="V10" s="5">
+        <f t="shared" si="2"/>
+        <v>169961</v>
+      </c>
+      <c r="W10" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="X10" s="5">
-        <f t="shared" ref="X10:AC10" si="2">X8+X9</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="5">
+        <f t="shared" ref="AA10:AF10" si="3">AA8+AA9</f>
         <v>177866</v>
       </c>
-      <c r="Y10" s="5">
-        <f t="shared" si="2"/>
+      <c r="AB10" s="5">
+        <f t="shared" si="3"/>
         <v>232887</v>
       </c>
-      <c r="Z10" s="5">
-        <f t="shared" si="2"/>
+      <c r="AC10" s="5">
+        <f t="shared" si="3"/>
         <v>280522</v>
       </c>
-      <c r="AA10" s="5">
-        <f t="shared" si="2"/>
+      <c r="AD10" s="5">
+        <f t="shared" si="3"/>
         <v>386064</v>
       </c>
-      <c r="AB10" s="5">
-        <f t="shared" si="2"/>
+      <c r="AE10" s="5">
+        <f t="shared" si="3"/>
         <v>469822</v>
       </c>
-      <c r="AC10" s="5">
-        <f t="shared" si="2"/>
+      <c r="AF10" s="5">
+        <f t="shared" si="3"/>
         <v>513983</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG10" s="5">
+        <f t="shared" ref="AG10" si="4">AG8+AG9</f>
+        <v>574785</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="C11" s="1">
         <v>33920</v>
@@ -1498,7 +1680,7 @@
         <v>41302</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" ref="F11:F16" si="3">Z11-E11-D11-C11</f>
+        <f t="shared" ref="F11:F16" si="5">AC11-E11-D11-C11</f>
         <v>53977</v>
       </c>
       <c r="G11" s="1">
@@ -1511,7 +1693,7 @@
         <v>57106</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" ref="J11:J16" si="4">AA11-I11-H11-G11</f>
+        <f t="shared" ref="J11:J16" si="6">AD11-I11-H11-G11</f>
         <v>79284</v>
       </c>
       <c r="K11" s="1">
@@ -1524,7 +1706,7 @@
         <v>62930</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" ref="N11:N16" si="5">AB11-M11-L11-K11</f>
+        <f t="shared" ref="N11:N16" si="7">AE11-M11-L11-K11</f>
         <v>82835</v>
       </c>
       <c r="O11" s="1">
@@ -1537,7 +1719,7 @@
         <v>70268</v>
       </c>
       <c r="R11" s="1">
-        <f>AC11-SUM(O11:Q11)</f>
+        <f>AF11-SUM(O11:Q11)</f>
         <v>85640</v>
       </c>
       <c r="S11" s="1">
@@ -1546,28 +1728,38 @@
       <c r="T11" s="1">
         <v>69373</v>
       </c>
-      <c r="X11" s="1">
+      <c r="U11" s="1">
+        <v>75022</v>
+      </c>
+      <c r="V11" s="1">
+        <f t="shared" ref="V11:V16" si="8">AG11-U11-T11-S11</f>
+        <v>92553</v>
+      </c>
+      <c r="AA11" s="1">
         <v>111934</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="AB11" s="1">
         <v>139156</v>
       </c>
-      <c r="Z11" s="1">
+      <c r="AC11" s="1">
         <v>165536</v>
       </c>
-      <c r="AA11" s="1">
+      <c r="AD11" s="1">
         <v>233307</v>
       </c>
-      <c r="AB11" s="1">
+      <c r="AE11" s="1">
         <v>272344</v>
       </c>
-      <c r="AC11" s="1">
+      <c r="AF11" s="1">
         <v>288831</v>
       </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG11" s="1">
+        <v>304739</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1">
         <v>8601</v>
@@ -1579,7 +1771,7 @@
         <v>10167</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12193</v>
       </c>
       <c r="G12" s="1">
@@ -1592,7 +1784,7 @@
         <v>14705</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>18475</v>
       </c>
       <c r="K12" s="1">
@@ -1605,7 +1797,7 @@
         <v>18498</v>
       </c>
       <c r="N12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>22445</v>
       </c>
       <c r="O12" s="1">
@@ -1618,7 +1810,7 @@
         <v>20583</v>
       </c>
       <c r="R12" s="1">
-        <f t="shared" ref="R12:R16" si="6">AC12-SUM(O12:Q12)</f>
+        <f t="shared" ref="R12:R16" si="9">AF12-SUM(O12:Q12)</f>
         <v>23103</v>
       </c>
       <c r="S12" s="1">
@@ -1627,28 +1819,38 @@
       <c r="T12" s="1">
         <v>21305</v>
       </c>
-      <c r="X12" s="1">
+      <c r="U12" s="1">
+        <v>22314</v>
+      </c>
+      <c r="V12" s="1">
+        <f t="shared" si="8"/>
+        <v>26095</v>
+      </c>
+      <c r="AA12" s="1">
         <v>25249</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="AB12" s="1">
         <v>34027</v>
       </c>
-      <c r="Z12" s="1">
+      <c r="AC12" s="1">
         <v>40232</v>
       </c>
-      <c r="AA12" s="1">
+      <c r="AD12" s="1">
         <v>58517</v>
       </c>
-      <c r="AB12" s="1">
+      <c r="AE12" s="1">
         <v>75111</v>
       </c>
-      <c r="AC12" s="1">
+      <c r="AF12" s="1">
         <v>84299</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG12" s="1">
+        <v>90619</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1">
         <v>7927</v>
@@ -1660,7 +1862,7 @@
         <v>9200</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9739</v>
       </c>
       <c r="G13" s="1">
@@ -1673,7 +1875,7 @@
         <v>10976</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12051</v>
       </c>
       <c r="K13" s="1">
@@ -1686,7 +1888,7 @@
         <v>14380</v>
       </c>
       <c r="N13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>15313</v>
       </c>
       <c r="O13" s="1">
@@ -1699,7 +1901,7 @@
         <v>19485</v>
       </c>
       <c r="R13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>20814</v>
       </c>
       <c r="S13" s="1">
@@ -1708,28 +1910,38 @@
       <c r="T13" s="1">
         <v>21931</v>
       </c>
-      <c r="X13" s="1">
+      <c r="U13" s="1">
+        <v>21203</v>
+      </c>
+      <c r="V13" s="1">
+        <f t="shared" si="8"/>
+        <v>22038</v>
+      </c>
+      <c r="AA13" s="1">
         <v>22620</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="AB13" s="1">
         <v>28837</v>
       </c>
-      <c r="Z13" s="1">
+      <c r="AC13" s="1">
         <v>35931</v>
       </c>
-      <c r="AA13" s="1">
+      <c r="AD13" s="1">
         <v>42740</v>
       </c>
-      <c r="AB13" s="1">
+      <c r="AE13" s="1">
         <v>56052</v>
       </c>
-      <c r="AC13" s="1">
+      <c r="AF13" s="1">
         <v>73213</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG13" s="1">
+        <v>85622</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1">
         <v>3664</v>
@@ -1741,7 +1953,7 @@
         <v>4752</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6171</v>
       </c>
       <c r="G14" s="1">
@@ -1754,7 +1966,7 @@
         <v>5434</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7401</v>
       </c>
       <c r="K14" s="1">
@@ -1767,7 +1979,7 @@
         <v>8010</v>
       </c>
       <c r="N14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10810</v>
       </c>
       <c r="O14" s="1">
@@ -1780,7 +1992,7 @@
         <v>11014</v>
       </c>
       <c r="R14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>12818</v>
       </c>
       <c r="S14" s="1">
@@ -1789,28 +2001,38 @@
       <c r="T14" s="1">
         <v>10745</v>
       </c>
-      <c r="X14" s="1">
+      <c r="U14" s="1">
+        <v>10551</v>
+      </c>
+      <c r="V14" s="1">
+        <f t="shared" si="8"/>
+        <v>12902</v>
+      </c>
+      <c r="AA14" s="1">
         <v>10069</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="AB14" s="1">
         <v>13814</v>
       </c>
-      <c r="Z14" s="1">
+      <c r="AC14" s="1">
         <v>18878</v>
       </c>
-      <c r="AA14" s="1">
+      <c r="AD14" s="1">
         <v>22008</v>
       </c>
-      <c r="AB14" s="1">
+      <c r="AE14" s="1">
         <v>32551</v>
       </c>
-      <c r="AC14" s="1">
+      <c r="AF14" s="1">
         <v>42238</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG14" s="1">
+        <v>44370</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1">
         <v>1173</v>
@@ -1822,7 +2044,7 @@
         <v>1348</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1412</v>
       </c>
       <c r="G15" s="1">
@@ -1835,7 +2057,7 @@
         <v>1668</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1968</v>
       </c>
       <c r="K15" s="1">
@@ -1848,7 +2070,7 @@
         <v>2153</v>
       </c>
       <c r="N15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2525</v>
       </c>
       <c r="O15" s="1">
@@ -1861,7 +2083,7 @@
         <v>3061</v>
       </c>
       <c r="R15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3333</v>
       </c>
       <c r="S15" s="1">
@@ -1870,28 +2092,38 @@
       <c r="T15" s="1">
         <v>3202</v>
       </c>
-      <c r="X15" s="1">
+      <c r="U15" s="1">
+        <v>2561</v>
+      </c>
+      <c r="V15" s="1">
+        <f t="shared" si="8"/>
+        <v>3010</v>
+      </c>
+      <c r="AA15" s="1">
         <v>3674</v>
       </c>
-      <c r="Y15" s="1">
+      <c r="AB15" s="1">
         <v>4336</v>
       </c>
-      <c r="Z15" s="1">
+      <c r="AC15" s="1">
         <v>5203</v>
       </c>
-      <c r="AA15" s="1">
+      <c r="AD15" s="1">
         <v>6668</v>
       </c>
-      <c r="AB15" s="1">
+      <c r="AE15" s="1">
         <v>8823</v>
       </c>
-      <c r="AC15" s="1">
+      <c r="AF15" s="1">
         <v>11891</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG15" s="1">
+        <v>11816</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1">
         <v>-5</v>
@@ -1903,7 +2135,7 @@
         <v>55</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="G16" s="1">
@@ -1916,7 +2148,7 @@
         <v>62</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-497</v>
       </c>
       <c r="K16" s="1">
@@ -1929,7 +2161,7 @@
         <v>-11</v>
       </c>
       <c r="N16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="O16" s="1">
@@ -1942,7 +2174,7 @@
         <v>165</v>
       </c>
       <c r="R16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>759</v>
       </c>
       <c r="S16" s="1">
@@ -1951,28 +2183,38 @@
       <c r="T16" s="1">
         <v>146</v>
       </c>
-      <c r="X16" s="1">
+      <c r="U16" s="1">
+        <v>244</v>
+      </c>
+      <c r="V16" s="1">
+        <f t="shared" si="8"/>
+        <v>154</v>
+      </c>
+      <c r="AA16" s="1">
         <v>214</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="AB16" s="1">
         <v>296</v>
       </c>
-      <c r="Z16" s="1">
+      <c r="AC16" s="1">
         <v>201</v>
       </c>
-      <c r="AA16" s="1">
+      <c r="AD16" s="1">
         <v>-75</v>
       </c>
-      <c r="AB16" s="1">
+      <c r="AE16" s="1">
         <v>62</v>
       </c>
-      <c r="AC16" s="1">
+      <c r="AF16" s="1">
         <v>1263</v>
       </c>
-    </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AG16" s="1">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="5">
         <f>C10-SUM(C11:C16)</f>
@@ -1991,89 +2233,109 @@
         <v>3880</v>
       </c>
       <c r="G17" s="5">
-        <f t="shared" ref="G17:T17" si="7">G10-SUM(G11:G16)</f>
+        <f t="shared" ref="G17:X17" si="10">G10-SUM(G11:G16)</f>
         <v>3989</v>
       </c>
       <c r="H17" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5843</v>
       </c>
       <c r="I17" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6194</v>
       </c>
       <c r="J17" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6873</v>
       </c>
       <c r="K17" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8865</v>
       </c>
       <c r="L17" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7702</v>
       </c>
       <c r="M17" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4852</v>
       </c>
       <c r="N17" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3460</v>
       </c>
       <c r="O17" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3669</v>
       </c>
       <c r="P17" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3317</v>
       </c>
       <c r="Q17" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2525</v>
       </c>
       <c r="R17" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2737</v>
       </c>
       <c r="S17" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4774</v>
       </c>
       <c r="T17" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7681</v>
       </c>
+      <c r="U17" s="5">
+        <f>U10-SUM(U11:U16)</f>
+        <v>11188</v>
+      </c>
+      <c r="V17" s="5">
+        <f t="shared" si="10"/>
+        <v>13209</v>
+      </c>
+      <c r="W17" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="X17" s="5">
-        <f t="shared" ref="X17:AC17" si="8">X10-SUM(X11:X16)</f>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="5">
+        <f t="shared" ref="AA17:AF17" si="11">AA10-SUM(AA11:AA16)</f>
         <v>4106</v>
       </c>
-      <c r="Y17" s="5">
-        <f t="shared" si="8"/>
+      <c r="AB17" s="5">
+        <f t="shared" si="11"/>
         <v>12421</v>
       </c>
-      <c r="Z17" s="5">
-        <f t="shared" si="8"/>
+      <c r="AC17" s="5">
+        <f t="shared" si="11"/>
         <v>14541</v>
       </c>
-      <c r="AA17" s="5">
-        <f t="shared" si="8"/>
+      <c r="AD17" s="5">
+        <f t="shared" si="11"/>
         <v>22899</v>
       </c>
-      <c r="AB17" s="5">
-        <f t="shared" si="8"/>
+      <c r="AE17" s="5">
+        <f t="shared" si="11"/>
         <v>24879</v>
       </c>
-      <c r="AC17" s="5">
-        <f t="shared" si="8"/>
+      <c r="AF17" s="5">
+        <f t="shared" si="11"/>
         <v>12248</v>
       </c>
-    </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AG17" s="5">
+        <f t="shared" ref="AG17" si="12">AG10-SUM(AG11:AG16)</f>
+        <v>36852</v>
+      </c>
+    </row>
+    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="1">
         <v>183</v>
@@ -2085,7 +2347,7 @@
         <v>224</v>
       </c>
       <c r="F18" s="1">
-        <f>Z18-E18-D18-C18</f>
+        <f>AC18-E18-D18-C18</f>
         <v>210</v>
       </c>
       <c r="G18" s="1">
@@ -2098,7 +2360,7 @@
         <v>118</v>
       </c>
       <c r="J18" s="1">
-        <f>AA18-I18-H18-G18</f>
+        <f>AD18-I18-H18-G18</f>
         <v>100</v>
       </c>
       <c r="K18" s="1">
@@ -2111,7 +2373,7 @@
         <v>119</v>
       </c>
       <c r="N18" s="1">
-        <f>AB18-M18-L18-K18</f>
+        <f>AE18-M18-L18-K18</f>
         <v>118</v>
       </c>
       <c r="O18" s="1">
@@ -2124,7 +2386,7 @@
         <v>277</v>
       </c>
       <c r="R18" s="1">
-        <f>AC18-SUM(O18:Q18)</f>
+        <f>AF18-SUM(O18:Q18)</f>
         <v>445</v>
       </c>
       <c r="S18" s="1">
@@ -2133,28 +2395,38 @@
       <c r="T18" s="1">
         <v>661</v>
       </c>
-      <c r="X18" s="1">
+      <c r="U18" s="1">
+        <v>776</v>
+      </c>
+      <c r="V18" s="1">
+        <f t="shared" ref="V18:V20" si="13">AG18-U18-T18-S18</f>
+        <v>901</v>
+      </c>
+      <c r="AA18" s="1">
         <v>202</v>
       </c>
-      <c r="Y18" s="1">
+      <c r="AB18" s="1">
         <v>440</v>
       </c>
-      <c r="Z18" s="1">
+      <c r="AC18" s="1">
         <v>832</v>
       </c>
-      <c r="AA18" s="1">
+      <c r="AD18" s="1">
         <v>555</v>
       </c>
-      <c r="AB18" s="1">
+      <c r="AE18" s="1">
         <v>448</v>
       </c>
-      <c r="AC18" s="1">
+      <c r="AF18" s="1">
         <v>989</v>
       </c>
-    </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AG18" s="1">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="1">
         <v>-366</v>
@@ -2166,7 +2438,7 @@
         <v>-396</v>
       </c>
       <c r="F19" s="1">
-        <f>Z19-E19-D19-C19</f>
+        <f>AC19-E19-D19-C19</f>
         <v>-455</v>
       </c>
       <c r="G19" s="1">
@@ -2179,7 +2451,7 @@
         <v>-428</v>
       </c>
       <c r="J19" s="1">
-        <f>AA19-I19-H19-G19</f>
+        <f>AD19-I19-H19-G19</f>
         <v>-414</v>
       </c>
       <c r="K19" s="1">
@@ -2192,7 +2464,7 @@
         <v>-493</v>
       </c>
       <c r="N19" s="1">
-        <f>AB19-M19-L19-K19</f>
+        <f>AE19-M19-L19-K19</f>
         <v>-482</v>
       </c>
       <c r="O19" s="1">
@@ -2205,7 +2477,7 @@
         <v>-617</v>
       </c>
       <c r="R19" s="1">
-        <f t="shared" ref="R19:R20" si="9">AC19-SUM(O19:Q19)</f>
+        <f t="shared" ref="R19:R20" si="14">AF19-SUM(O19:Q19)</f>
         <v>-694</v>
       </c>
       <c r="S19" s="1">
@@ -2214,29 +2486,39 @@
       <c r="T19" s="1">
         <v>-840</v>
       </c>
-      <c r="X19" s="1">
+      <c r="U19" s="1">
+        <v>-806</v>
+      </c>
+      <c r="V19" s="1">
+        <f t="shared" si="13"/>
+        <v>-713</v>
+      </c>
+      <c r="AA19" s="1">
         <v>-848</v>
       </c>
-      <c r="Y19" s="1">
+      <c r="AB19" s="1">
         <v>-1417</v>
       </c>
-      <c r="Z19" s="1">
+      <c r="AC19" s="1">
         <v>-1600</v>
       </c>
-      <c r="AA19" s="1">
+      <c r="AD19" s="1">
         <v>-1647</v>
       </c>
-      <c r="AB19" s="1">
+      <c r="AE19" s="1">
         <v>-1809</v>
       </c>
-      <c r="AC19" s="1">
+      <c r="AF19" s="1">
         <f>-2367</f>
         <v>-2367</v>
       </c>
-    </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AG19" s="1">
+        <v>-3182</v>
+      </c>
+    </row>
+    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="1">
         <v>164</v>
@@ -2248,7 +2530,7 @@
         <v>-353</v>
       </c>
       <c r="F20" s="1">
-        <f>Z20-E20-D20-C20</f>
+        <f>AC20-E20-D20-C20</f>
         <v>419</v>
       </c>
       <c r="G20" s="1">
@@ -2261,7 +2543,7 @@
         <v>925</v>
       </c>
       <c r="J20" s="1">
-        <f>AA20-I20-H20-G20</f>
+        <f>AD20-I20-H20-G20</f>
         <v>1206</v>
       </c>
       <c r="K20" s="1">
@@ -2274,7 +2556,7 @@
         <v>-163</v>
       </c>
       <c r="N20" s="1">
-        <f>AB20-M20-L20-K20</f>
+        <f>AE20-M20-L20-K20</f>
         <v>11838</v>
       </c>
       <c r="O20" s="1">
@@ -2287,7 +2569,7 @@
         <v>759</v>
       </c>
       <c r="R20" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>-3450</v>
       </c>
       <c r="S20" s="1">
@@ -2296,28 +2578,38 @@
       <c r="T20" s="1">
         <v>61</v>
       </c>
-      <c r="X20" s="1">
+      <c r="U20" s="1">
+        <v>1031</v>
+      </c>
+      <c r="V20" s="1">
+        <f t="shared" si="13"/>
+        <v>289</v>
+      </c>
+      <c r="AA20" s="1">
         <v>346</v>
       </c>
-      <c r="Y20" s="1">
+      <c r="AB20" s="1">
         <v>-183</v>
       </c>
-      <c r="Z20" s="1">
+      <c r="AC20" s="1">
         <v>203</v>
       </c>
-      <c r="AA20" s="1">
+      <c r="AD20" s="1">
         <v>2371</v>
       </c>
-      <c r="AB20" s="1">
+      <c r="AE20" s="1">
         <v>14633</v>
       </c>
-      <c r="AC20" s="8">
+      <c r="AF20" s="8">
         <v>-16806</v>
       </c>
-    </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AG20" s="12">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="5">
         <f>C17+C18+C19+C20</f>
@@ -2336,89 +2628,109 @@
         <v>4054</v>
       </c>
       <c r="G21" s="5">
-        <f t="shared" ref="G21:T21" si="10">G17+G18+G19+G20</f>
+        <f t="shared" ref="G21:X21" si="15">G17+G18+G19+G20</f>
         <v>3383</v>
       </c>
       <c r="H21" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>6221</v>
       </c>
       <c r="I21" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>6809</v>
       </c>
       <c r="J21" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>7765</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>10268</v>
       </c>
       <c r="L21" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>8634</v>
       </c>
       <c r="M21" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>4315</v>
       </c>
       <c r="N21" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>14934</v>
       </c>
       <c r="O21" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>-5265</v>
       </c>
       <c r="P21" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>-2653</v>
       </c>
       <c r="Q21" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>2944</v>
       </c>
       <c r="R21" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>-962</v>
       </c>
       <c r="S21" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>4119</v>
       </c>
       <c r="T21" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>7563</v>
       </c>
+      <c r="U21" s="5">
+        <f t="shared" si="15"/>
+        <v>12189</v>
+      </c>
+      <c r="V21" s="5">
+        <f t="shared" si="15"/>
+        <v>13686</v>
+      </c>
+      <c r="W21" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
       <c r="X21" s="5">
-        <f t="shared" ref="X21:AC21" si="11">X17+X18+X19+X20</f>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="5">
+        <f t="shared" ref="AA21:AF21" si="16">AA17+AA18+AA19+AA20</f>
         <v>3806</v>
       </c>
-      <c r="Y21" s="5">
-        <f t="shared" si="11"/>
+      <c r="AB21" s="5">
+        <f t="shared" si="16"/>
         <v>11261</v>
       </c>
-      <c r="Z21" s="5">
-        <f t="shared" si="11"/>
+      <c r="AC21" s="5">
+        <f t="shared" si="16"/>
         <v>13976</v>
       </c>
-      <c r="AA21" s="5">
-        <f t="shared" si="11"/>
+      <c r="AD21" s="5">
+        <f t="shared" si="16"/>
         <v>24178</v>
       </c>
-      <c r="AB21" s="5">
-        <f t="shared" si="11"/>
+      <c r="AE21" s="5">
+        <f t="shared" si="16"/>
         <v>38151</v>
       </c>
-      <c r="AC21" s="5">
-        <f t="shared" si="11"/>
+      <c r="AF21" s="5">
+        <f t="shared" si="16"/>
         <v>-5936</v>
       </c>
-    </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AG21" s="5">
+        <f t="shared" ref="AG21" si="17">AG17+AG18+AG19+AG20</f>
+        <v>37557</v>
+      </c>
+    </row>
+    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" s="1">
         <f>-836-4</f>
@@ -2433,7 +2745,7 @@
         <v>-498</v>
       </c>
       <c r="F22" s="1">
-        <f>Z22-E22-D22-C22</f>
+        <f>AC22-E22-D22-C22</f>
         <v>-786</v>
       </c>
       <c r="G22" s="1">
@@ -2463,7 +2775,7 @@
         <v>-1155</v>
       </c>
       <c r="N22" s="1">
-        <f>AB22-M22-L22-K22</f>
+        <f>AE22-M22-L22-K22</f>
         <v>-603</v>
       </c>
       <c r="O22" s="1">
@@ -2478,7 +2790,7 @@
         <v>-72</v>
       </c>
       <c r="R22" s="1">
-        <f>AC22-SUM(O22:Q22)</f>
+        <f>AF22-SUM(O22:Q22)</f>
         <v>1239</v>
       </c>
       <c r="S22" s="1">
@@ -2489,33 +2801,44 @@
         <f>-804-9</f>
         <v>-813</v>
       </c>
-      <c r="X22" s="1">
+      <c r="U22" s="1">
+        <f>-2306-4</f>
+        <v>-2310</v>
+      </c>
+      <c r="V22" s="1">
+        <f>AG22-U22-T22-S22</f>
+        <v>-3050</v>
+      </c>
+      <c r="AA22" s="1">
         <f>-769-4</f>
         <v>-773</v>
       </c>
-      <c r="Y22" s="1">
+      <c r="AB22" s="1">
         <f>-1197+9</f>
         <v>-1188</v>
       </c>
-      <c r="Z22" s="1">
+      <c r="AC22" s="1">
         <f>-2374-14</f>
         <v>-2388</v>
       </c>
-      <c r="AA22" s="1">
+      <c r="AD22" s="1">
         <v>-2863</v>
       </c>
-      <c r="AB22" s="1">
+      <c r="AE22" s="1">
         <f>-4791+4</f>
         <v>-4787</v>
       </c>
-      <c r="AC22" s="1">
+      <c r="AF22" s="1">
         <f>3217-3</f>
         <v>3214</v>
       </c>
-    </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AG22" s="1">
+        <v>-7120</v>
+      </c>
+    </row>
+    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="5">
         <f>C21+C22</f>
@@ -2534,89 +2857,109 @@
         <v>3268</v>
       </c>
       <c r="G23" s="5">
-        <f t="shared" ref="G23:T23" si="12">G21+G22</f>
+        <f t="shared" ref="G23:X23" si="18">G21+G22</f>
         <v>2535</v>
       </c>
       <c r="H23" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>5243</v>
       </c>
       <c r="I23" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>6331</v>
       </c>
       <c r="J23" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>10069</v>
       </c>
       <c r="K23" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>8107</v>
       </c>
       <c r="L23" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>7766</v>
       </c>
       <c r="M23" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>3160</v>
       </c>
       <c r="N23" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>14331</v>
       </c>
       <c r="O23" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-3843</v>
       </c>
       <c r="P23" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-2028</v>
       </c>
       <c r="Q23" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>2872</v>
       </c>
       <c r="R23" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>277</v>
       </c>
       <c r="S23" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>3172</v>
       </c>
       <c r="T23" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>6750</v>
       </c>
+      <c r="U23" s="5">
+        <f t="shared" si="18"/>
+        <v>9879</v>
+      </c>
+      <c r="V23" s="5">
+        <f t="shared" si="18"/>
+        <v>10636</v>
+      </c>
+      <c r="W23" s="5">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="X23" s="5">
-        <f t="shared" ref="X23:AC23" si="13">X21+X22</f>
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="5">
+        <f t="shared" ref="AA23:AF23" si="19">AA21+AA22</f>
         <v>3033</v>
       </c>
-      <c r="Y23" s="5">
-        <f t="shared" si="13"/>
+      <c r="AB23" s="5">
+        <f t="shared" si="19"/>
         <v>10073</v>
       </c>
-      <c r="Z23" s="5">
-        <f t="shared" si="13"/>
+      <c r="AC23" s="5">
+        <f t="shared" si="19"/>
         <v>11588</v>
       </c>
-      <c r="AA23" s="5">
-        <f t="shared" si="13"/>
+      <c r="AD23" s="5">
+        <f t="shared" si="19"/>
         <v>21315</v>
       </c>
-      <c r="AB23" s="5">
-        <f t="shared" si="13"/>
+      <c r="AE23" s="5">
+        <f t="shared" si="19"/>
         <v>33364</v>
       </c>
-      <c r="AC23" s="5">
-        <f t="shared" si="13"/>
+      <c r="AF23" s="5">
+        <f t="shared" si="19"/>
         <v>-2722</v>
       </c>
-    </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AG23" s="5">
+        <f t="shared" ref="AG23" si="20">AG21+AG22</f>
+        <v>30437</v>
+      </c>
+    </row>
+    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" s="10">
         <v>2287</v>
@@ -2628,7 +2971,7 @@
         <v>1282</v>
       </c>
       <c r="F24" s="10">
-        <f>Z24-E24-D24-C24</f>
+        <f>AC24-E24-D24-C24</f>
         <v>1900</v>
       </c>
       <c r="G24" s="10">
@@ -2641,7 +2984,7 @@
         <v>2252</v>
       </c>
       <c r="J24" s="10">
-        <f>AA24-I24-H24-G24</f>
+        <f>AD24-I24-H24-G24</f>
         <v>2946</v>
       </c>
       <c r="K24" s="10">
@@ -2654,7 +2997,7 @@
         <v>880</v>
       </c>
       <c r="N24" s="10">
-        <f>AB24-M24-L24-K24</f>
+        <f>AE24-M24-L24-K24</f>
         <v>-206</v>
       </c>
       <c r="O24" s="10">
@@ -2667,7 +3010,7 @@
         <v>-412</v>
       </c>
       <c r="R24" s="10">
-        <f>AC24-SUM(O24:Q24)</f>
+        <f>AF24-SUM(O24:Q24)</f>
         <v>-240</v>
       </c>
       <c r="S24" s="10">
@@ -2676,28 +3019,38 @@
       <c r="T24" s="11">
         <v>3211</v>
       </c>
-      <c r="X24">
+      <c r="U24" s="10">
+        <v>4307</v>
+      </c>
+      <c r="V24" s="1">
+        <f>AG24-U24-T24-S24</f>
+        <v>6461</v>
+      </c>
+      <c r="AA24">
         <v>2837</v>
       </c>
-      <c r="Y24" s="1">
+      <c r="AB24" s="1">
         <v>7267</v>
       </c>
-      <c r="Z24" s="1">
+      <c r="AC24" s="1">
         <v>7033</v>
       </c>
-      <c r="AA24" s="1">
+      <c r="AD24" s="1">
         <v>8651</v>
       </c>
-      <c r="AB24" s="1">
+      <c r="AE24" s="1">
         <v>7271</v>
       </c>
-      <c r="AC24" s="1">
+      <c r="AF24" s="1">
         <v>-2847</v>
       </c>
-    </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AG24" s="1">
+        <v>14877</v>
+      </c>
+    </row>
+    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="10">
         <v>-90</v>
@@ -2709,7 +3062,7 @@
         <v>-386</v>
       </c>
       <c r="F25" s="10">
-        <f>Z25-E25-D25-C25</f>
+        <f>AC25-E25-D25-C25</f>
         <v>-616</v>
       </c>
       <c r="G25" s="10">
@@ -2722,7 +3075,7 @@
         <v>407</v>
       </c>
       <c r="J25" s="10">
-        <f>AA25-I25-H25-G25</f>
+        <f>AD25-I25-H25-G25</f>
         <v>363</v>
       </c>
       <c r="K25" s="10">
@@ -2735,7 +3088,7 @@
         <v>-911</v>
       </c>
       <c r="N25" s="10">
-        <f t="shared" ref="N25:N26" si="14">AB25-M25-L25-K25</f>
+        <f t="shared" ref="N25:N26" si="21">AE25-M25-L25-K25</f>
         <v>-1627</v>
       </c>
       <c r="O25" s="10">
@@ -2748,7 +3101,7 @@
         <v>-2466</v>
       </c>
       <c r="R25" s="10">
-        <f>AC25-SUM(O25:Q25)</f>
+        <f>AF25-SUM(O25:Q25)</f>
         <v>-2228</v>
       </c>
       <c r="S25" s="10">
@@ -2757,28 +3110,38 @@
       <c r="T25" s="11">
         <v>-895</v>
       </c>
-      <c r="X25">
+      <c r="U25" s="10">
+        <v>-95</v>
+      </c>
+      <c r="V25" s="1">
+        <f>AG25-U25-T25-S25</f>
+        <v>-419</v>
+      </c>
+      <c r="AA25">
         <v>-3062</v>
       </c>
-      <c r="Y25" s="1">
+      <c r="AB25" s="1">
         <v>-2142</v>
       </c>
-      <c r="Z25" s="1">
+      <c r="AC25" s="1">
         <v>-1693</v>
       </c>
-      <c r="AA25" s="1">
+      <c r="AD25" s="1">
         <v>717</v>
       </c>
-      <c r="AB25" s="1">
+      <c r="AE25" s="1">
         <v>-924</v>
       </c>
-      <c r="AC25" s="1">
+      <c r="AF25" s="1">
         <v>-7746</v>
       </c>
-    </row>
-    <row r="26" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AG25" s="1">
+        <v>-2656</v>
+      </c>
+    </row>
+    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" s="10">
         <v>2223</v>
@@ -2790,7 +3153,7 @@
         <v>2261</v>
       </c>
       <c r="F26" s="10">
-        <f>Z26-E26-D26-C26</f>
+        <f>AC26-E26-D26-C26</f>
         <v>2596</v>
       </c>
       <c r="G26" s="10">
@@ -2803,7 +3166,7 @@
         <v>3535</v>
       </c>
       <c r="J26" s="10">
-        <f>AA26-I26-H26-G26</f>
+        <f>AD26-I26-H26-G26</f>
         <v>3564</v>
       </c>
       <c r="K26" s="10">
@@ -2816,7 +3179,7 @@
         <v>4883</v>
       </c>
       <c r="N26" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>5293</v>
       </c>
       <c r="O26" s="10">
@@ -2829,7 +3192,7 @@
         <v>5403</v>
       </c>
       <c r="R26" s="10">
-        <f>AC26-SUM(O26:Q26)</f>
+        <f>AF26-SUM(O26:Q26)</f>
         <v>5205</v>
       </c>
       <c r="S26" s="10">
@@ -2838,28 +3201,38 @@
       <c r="T26" s="11">
         <v>5365</v>
       </c>
-      <c r="X26">
+      <c r="U26" s="10">
+        <v>6976</v>
+      </c>
+      <c r="V26" s="1">
+        <f>AG26-U26-T26-S26</f>
+        <v>7167</v>
+      </c>
+      <c r="AA26">
         <v>4331</v>
       </c>
-      <c r="Y26" s="1">
+      <c r="AB26" s="1">
         <v>7296</v>
       </c>
-      <c r="Z26" s="1">
+      <c r="AC26" s="1">
         <v>9201</v>
       </c>
-      <c r="AA26" s="1">
+      <c r="AD26" s="1">
         <v>13531</v>
       </c>
-      <c r="AB26" s="1">
+      <c r="AE26" s="1">
         <v>18532</v>
       </c>
-      <c r="AC26" s="1">
+      <c r="AF26" s="1">
         <v>22841</v>
       </c>
-    </row>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AG26" s="1">
+        <v>24631</v>
+      </c>
+    </row>
+    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27" s="3">
         <f>C23/C28</f>
@@ -2878,51 +3251,51 @@
         <v>6.6020202020202019</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" ref="G27:Q27" si="15">G23/G28</f>
+        <f t="shared" ref="G27:Q27" si="22">G23/G28</f>
         <v>5.0903614457831328</v>
       </c>
       <c r="H27" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>10.486000000000001</v>
       </c>
       <c r="I27" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>12.636726546906187</v>
       </c>
       <c r="J27" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>20.097804391217565</v>
       </c>
       <c r="K27" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>16.085317460317459</v>
       </c>
       <c r="L27" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0.76868256953380187</v>
       </c>
       <c r="M27" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0.31188314251875249</v>
       </c>
       <c r="N27" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1.4144295302013423</v>
       </c>
       <c r="O27" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-0.37783895388850652</v>
       </c>
       <c r="P27" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-0.19931203931203931</v>
       </c>
       <c r="Q27" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0.28181728976547932</v>
       </c>
       <c r="R27" s="3">
-        <f>AC27-SUM(O27:Q27)</f>
+        <f>AF27-SUM(O27:Q27)</f>
         <v>2.8182854480311437E-2</v>
       </c>
       <c r="S27" s="3">
@@ -2933,32 +3306,52 @@
         <f>T23/T28</f>
         <v>0.65629557608167233</v>
       </c>
-      <c r="X27" s="3">
-        <f t="shared" ref="X27:AC27" si="16">X23/X28</f>
+      <c r="U27" s="3">
+        <f t="shared" ref="U27:X27" si="23">U23/U28</f>
+        <v>0.9570819608602984</v>
+      </c>
+      <c r="V27" s="3">
+        <f t="shared" si="23"/>
+        <v>1.03222049689441</v>
+      </c>
+      <c r="W27" s="3" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X27" s="3" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA27" s="3">
+        <f t="shared" ref="AA27:AF27" si="24">AA23/AA28</f>
         <v>6.3187499999999996</v>
       </c>
-      <c r="Y27" s="3">
-        <f t="shared" si="16"/>
+      <c r="AB27" s="3">
+        <f t="shared" si="24"/>
         <v>20.683778234086244</v>
       </c>
-      <c r="Z27" s="3">
-        <f t="shared" si="16"/>
+      <c r="AC27" s="3">
+        <f t="shared" si="24"/>
         <v>23.457489878542511</v>
       </c>
-      <c r="AA27" s="3">
-        <f t="shared" si="16"/>
+      <c r="AD27" s="3">
+        <f t="shared" si="24"/>
         <v>42.544910179640716</v>
       </c>
-      <c r="AB27" s="3">
-        <f t="shared" si="16"/>
+      <c r="AE27" s="3">
+        <f t="shared" si="24"/>
         <v>3.2978155579717305</v>
       </c>
-      <c r="AC27" s="3">
-        <f t="shared" si="16"/>
+      <c r="AF27" s="3">
+        <f t="shared" si="24"/>
         <v>-0.2671508489547551</v>
       </c>
-    </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AG27" s="3">
+        <f t="shared" ref="AG27" si="25">AG23/AG28</f>
+        <v>2.9539013975155282</v>
+      </c>
+    </row>
+    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>1</v>
       </c>
@@ -3017,141 +3410,173 @@
       <c r="T28" s="1">
         <v>10285</v>
       </c>
-      <c r="X28" s="1">
+      <c r="U28" s="1">
+        <v>10322</v>
+      </c>
+      <c r="V28" s="1">
+        <f>10304</f>
+        <v>10304</v>
+      </c>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="AA28" s="1">
         <v>480</v>
       </c>
-      <c r="Y28" s="1">
+      <c r="AB28" s="1">
         <v>487</v>
       </c>
-      <c r="Z28" s="1">
+      <c r="AC28" s="1">
         <v>494</v>
       </c>
-      <c r="AA28" s="1">
+      <c r="AD28" s="1">
         <v>501</v>
       </c>
-      <c r="AB28" s="1">
+      <c r="AE28" s="1">
         <v>10117</v>
       </c>
-      <c r="AC28" s="1">
+      <c r="AF28" s="1">
         <v>10189</v>
       </c>
-    </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AG28" s="1">
+        <v>10304</v>
+      </c>
+    </row>
+    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G30" s="6">
-        <f t="shared" ref="G30:H30" si="17">G10/C10-1</f>
+        <f t="shared" ref="G30:H30" si="26">G10/C10-1</f>
         <v>0.26385259631490787</v>
       </c>
       <c r="H30" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>0.40230900258658764</v>
       </c>
       <c r="I30" s="6">
-        <f t="shared" ref="I30" si="18">I10/E10-1</f>
+        <f t="shared" ref="I30" si="27">I10/E10-1</f>
         <v>0.37387290836084075</v>
       </c>
       <c r="J30" s="6">
-        <f t="shared" ref="J30" si="19">J10/F10-1</f>
+        <f t="shared" ref="J30" si="28">J10/F10-1</f>
         <v>0.43594816839553041</v>
       </c>
       <c r="K30" s="6">
-        <f t="shared" ref="K30" si="20">K10/G10-1</f>
+        <f t="shared" ref="K30" si="29">K10/G10-1</f>
         <v>0.43823888034777081</v>
       </c>
       <c r="L30" s="6">
-        <f t="shared" ref="L30:M30" si="21">L10/H10-1</f>
+        <f t="shared" ref="L30:M30" si="30">L10/H10-1</f>
         <v>0.27181932697498645</v>
       </c>
       <c r="M30" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>0.15255083467679031</v>
       </c>
       <c r="N30" s="6">
-        <f t="shared" ref="N30:T30" si="22">N10/J10-1</f>
+        <f t="shared" ref="N30:T30" si="31">N10/J10-1</f>
         <v>9.4436701047349692E-2</v>
       </c>
       <c r="O30" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>7.3038574245747334E-2</v>
       </c>
       <c r="P30" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>7.2108241952600016E-2</v>
       </c>
       <c r="Q30" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>0.14699671515720314</v>
       </c>
       <c r="R30" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>8.5814921549791867E-2</v>
       </c>
       <c r="S30" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>9.3727456975026602E-2</v>
       </c>
       <c r="T30" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>0.10845967302901816</v>
       </c>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7">
-        <f>Y10/X10-1</f>
-        <v>0.3093396152159491</v>
-      </c>
-      <c r="Z30" s="7">
-        <f t="shared" ref="Z30:AA30" si="23">Z10/Y10-1</f>
-        <v>0.20454125820676983</v>
-      </c>
-      <c r="AA30" s="7">
-        <f t="shared" si="23"/>
-        <v>0.37623430604373276</v>
-      </c>
+      <c r="U30" s="6">
+        <f t="shared" ref="U30" si="32">U10/Q10-1</f>
+        <v>0.125742519728405</v>
+      </c>
+      <c r="V30" s="6">
+        <f t="shared" ref="V30" si="33">V10/R10-1</f>
+        <v>0.13911825420230017</v>
+      </c>
+      <c r="W30" s="6">
+        <f t="shared" ref="W30" si="34">W10/S10-1</f>
+        <v>-1</v>
+      </c>
+      <c r="X30" s="6">
+        <f t="shared" ref="X30" si="35">X10/T10-1</f>
+        <v>-1</v>
+      </c>
+      <c r="AA30" s="7"/>
       <c r="AB30" s="7">
         <f>AB10/AA10-1</f>
+        <v>0.3093396152159491</v>
+      </c>
+      <c r="AC30" s="7">
+        <f t="shared" ref="AC30:AD30" si="36">AC10/AB10-1</f>
+        <v>0.20454125820676983</v>
+      </c>
+      <c r="AD30" s="7">
+        <f t="shared" si="36"/>
+        <v>0.37623430604373276</v>
+      </c>
+      <c r="AE30" s="7">
+        <f>AE10/AD10-1</f>
         <v>0.21695366571345676</v>
       </c>
-      <c r="AC30" s="7">
-        <f>AC10/AB10-1</f>
+      <c r="AF30" s="7">
+        <f>AF10/AE10-1</f>
         <v>9.399517263985091E-2</v>
       </c>
-    </row>
-    <row r="31" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AG30" s="7">
+        <f>AG10/AF10-1</f>
+        <v>0.1182957412988368</v>
+      </c>
+    </row>
+    <row r="31" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G31" s="6">
-        <f t="shared" ref="G31" si="24">G6/C6-1</f>
+        <f t="shared" ref="G31" si="37">G6/C6-1</f>
         <v>0.32783264033264037</v>
       </c>
       <c r="H31" s="6">
-        <f t="shared" ref="H31" si="25">H6/D6-1</f>
+        <f t="shared" ref="H31" si="38">H6/D6-1</f>
         <v>0.28958358191146649</v>
       </c>
       <c r="I31" s="6">
-        <f t="shared" ref="I31" si="26">I6/E6-1</f>
+        <f t="shared" ref="I31" si="39">I6/E6-1</f>
         <v>0.28971650917176217</v>
       </c>
       <c r="J31" s="6">
-        <f t="shared" ref="J31" si="27">J6/F6-1</f>
+        <f t="shared" ref="J31" si="40">J6/F6-1</f>
         <v>0.28008840667068524</v>
       </c>
       <c r="K31" s="6">
-        <f t="shared" ref="K31:N31" si="28">K6/G6-1</f>
+        <f t="shared" ref="K31:N31" si="41">K6/G6-1</f>
         <v>0.32136216850963883</v>
       </c>
       <c r="L31" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>0.37018874907475952</v>
       </c>
       <c r="M31" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>0.3886733902249806</v>
       </c>
       <c r="N31" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="41"/>
         <v>0.39538533982106427</v>
       </c>
       <c r="O31" s="6">
@@ -3159,15 +3584,15 @@
         <v>0.36569651188624741</v>
       </c>
       <c r="P31" s="6">
-        <f t="shared" ref="P31:R31" si="29">P6/L6-1</f>
+        <f t="shared" ref="P31:R31" si="42">P6/L6-1</f>
         <v>0.33290566547369838</v>
       </c>
       <c r="Q31" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v>0.27486033519553077</v>
       </c>
       <c r="R31" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="42"/>
         <v>0.20236220472440936</v>
       </c>
       <c r="S31" s="6">
@@ -3178,150 +3603,189 @@
         <f>T6/P6-1</f>
         <v>0.12163736764780375</v>
       </c>
-      <c r="X31" s="7"/>
-      <c r="Y31" s="7">
-        <f>Y6/X6-1</f>
+      <c r="U31" s="6">
+        <f t="shared" ref="U31:X31" si="43">U6/Q6-1</f>
+        <v>0.1227480767358069</v>
+      </c>
+      <c r="V31" s="6">
+        <f t="shared" si="43"/>
+        <v>0.13219197305641317</v>
+      </c>
+      <c r="W31" s="6">
+        <f t="shared" si="43"/>
+        <v>-1</v>
+      </c>
+      <c r="X31" s="6">
+        <f t="shared" si="43"/>
+        <v>-1</v>
+      </c>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7">
+        <f>AB6/AA6-1</f>
         <v>0.46944269431238905</v>
       </c>
-      <c r="Z31" s="7">
-        <f t="shared" ref="Z31:AC31" si="30">Z6/Y6-1</f>
+      <c r="AC31" s="7">
+        <f t="shared" ref="AC31:AG31" si="44">AC6/AB6-1</f>
         <v>0.36526992788930035</v>
       </c>
-      <c r="AA31" s="7">
-        <f t="shared" si="30"/>
+      <c r="AD31" s="7">
+        <f t="shared" si="44"/>
         <v>0.29532347399074976</v>
       </c>
-      <c r="AB31" s="7">
-        <f t="shared" si="30"/>
+      <c r="AE31" s="7">
+        <f t="shared" si="44"/>
         <v>0.37099404893101173</v>
       </c>
-      <c r="AC31" s="7">
-        <f t="shared" si="30"/>
+      <c r="AF31" s="7">
+        <f t="shared" si="44"/>
         <v>0.28767563743931057</v>
       </c>
-    </row>
-    <row r="32" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AG31" s="7">
+        <f t="shared" si="44"/>
+        <v>0.13310277666799841</v>
+      </c>
+    </row>
+    <row r="32" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="7">
-        <f t="shared" ref="C32:I32" si="31">C23/C10</f>
+        <f t="shared" ref="C32:I32" si="45">C23/C10</f>
         <v>5.9648241206030149E-2</v>
       </c>
       <c r="D32" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>4.1401173427544007E-2</v>
       </c>
       <c r="E32" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>3.0493991226189964E-2</v>
       </c>
       <c r="F32" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>3.7375481775449755E-2</v>
       </c>
       <c r="G32" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>3.3597518952446587E-2</v>
       </c>
       <c r="H32" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>5.896841821126507E-2</v>
       </c>
       <c r="I32" s="7">
-        <f t="shared" si="31"/>
+        <f t="shared" si="45"/>
         <v>6.5848458058141351E-2</v>
       </c>
       <c r="J32" s="7">
-        <f t="shared" ref="J32:S32" si="32">J23/J10</f>
+        <f t="shared" ref="J32:S32" si="46">J23/J10</f>
         <v>8.0195930070487031E-2</v>
       </c>
       <c r="K32" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="46"/>
         <v>7.470650030409702E-2</v>
       </c>
       <c r="L32" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="46"/>
         <v>6.8677042801556426E-2</v>
       </c>
       <c r="M32" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="46"/>
         <v>2.8516767137133161E-2</v>
       </c>
       <c r="N32" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="46"/>
         <v>0.10429220155444939</v>
       </c>
       <c r="O32" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="46"/>
         <v>-3.3002988561025043E-2</v>
       </c>
       <c r="P32" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="46"/>
         <v>-1.6727980599501788E-2</v>
       </c>
       <c r="Q32" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="46"/>
         <v>2.2596203019645794E-2</v>
       </c>
       <c r="R32" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="46"/>
         <v>1.8565185919948526E-3</v>
       </c>
       <c r="S32" s="7">
-        <f t="shared" si="32"/>
+        <f t="shared" si="46"/>
         <v>2.4906170008951147E-2</v>
       </c>
       <c r="T32" s="7">
         <f>T23/T10</f>
         <v>5.0229567728060844E-2</v>
       </c>
-      <c r="U32" s="7"/>
-      <c r="V32" s="7"/>
-      <c r="W32" s="7"/>
-      <c r="X32" s="7">
-        <f t="shared" ref="X32:AC32" si="33">X23/X10</f>
+      <c r="U32" s="7">
+        <f t="shared" ref="U32:X32" si="47">U23/U10</f>
+        <v>6.9043841686293975E-2</v>
+      </c>
+      <c r="V32" s="7">
+        <f t="shared" si="47"/>
+        <v>6.2579062255458603E-2</v>
+      </c>
+      <c r="W32" s="7" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X32" s="7" t="e">
+        <f t="shared" si="47"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7">
+        <f t="shared" ref="AA32:AF32" si="48">AA23/AA10</f>
         <v>1.7052162864178651E-2</v>
       </c>
-      <c r="Y32" s="7">
-        <f t="shared" si="33"/>
+      <c r="AB32" s="7">
+        <f t="shared" si="48"/>
         <v>4.3252736305590261E-2</v>
       </c>
-      <c r="Z32" s="7">
-        <f t="shared" si="33"/>
+      <c r="AC32" s="7">
+        <f t="shared" si="48"/>
         <v>4.1308703060722513E-2</v>
       </c>
-      <c r="AA32" s="7">
-        <f t="shared" si="33"/>
+      <c r="AD32" s="7">
+        <f t="shared" si="48"/>
         <v>5.5211053089643171E-2</v>
       </c>
-      <c r="AB32" s="7">
-        <f t="shared" si="33"/>
+      <c r="AE32" s="7">
+        <f t="shared" si="48"/>
         <v>7.1014128755145567E-2</v>
       </c>
-      <c r="AC32" s="7">
-        <f t="shared" si="33"/>
+      <c r="AF32" s="7">
+        <f t="shared" si="48"/>
         <v>-5.2958950004183018E-3</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG32" s="7">
+        <f t="shared" ref="AG32" si="49">AG23/AG10</f>
+        <v>5.2953713127517246E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G33" s="6">
-        <f t="shared" ref="G33:J33" si="34">-(G23/C23-1)</f>
+        <f t="shared" ref="G33:J33" si="50">-(G23/C23-1)</f>
         <v>0.2881213142375737</v>
       </c>
       <c r="H33" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>-0.9973333333333334</v>
       </c>
       <c r="I33" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>-1.9667291471415185</v>
       </c>
       <c r="J33" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="50"/>
         <v>-2.0810893512851898</v>
       </c>
       <c r="K33" s="6">
@@ -3333,19 +3797,19 @@
         <v>-0.48121304596604997</v>
       </c>
       <c r="M33" s="6">
-        <f t="shared" ref="M33" si="35">-(M23/I23-1)</f>
+        <f t="shared" ref="M33" si="51">-(M23/I23-1)</f>
         <v>0.50086874111514768</v>
       </c>
       <c r="N33" s="6">
-        <f t="shared" ref="N33" si="36">-(N23/J23-1)</f>
+        <f t="shared" ref="N33" si="52">-(N23/J23-1)</f>
         <v>-0.42327937233091673</v>
       </c>
       <c r="O33" s="6">
-        <f t="shared" ref="O33:P33" si="37">-(O23/K23-1)</f>
+        <f t="shared" ref="O33:P33" si="53">-(O23/K23-1)</f>
         <v>1.4740347847539164</v>
       </c>
       <c r="P33" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="53"/>
         <v>1.2611382951326293</v>
       </c>
       <c r="Q33" s="6">
@@ -3364,49 +3828,69 @@
         <f>-(T23/P23-1)</f>
         <v>4.3284023668639051</v>
       </c>
-      <c r="Y33" s="7">
-        <f>Y23/X23-1</f>
-        <v>2.3211341905703922</v>
-      </c>
-      <c r="Z33" s="7">
-        <f>Z23/Y23-1</f>
-        <v>0.1504020649260398</v>
-      </c>
-      <c r="AA33" s="7">
-        <f>AA23/Z23-1</f>
-        <v>0.83940283051432507</v>
+      <c r="U33" s="6">
+        <f t="shared" ref="U33:X33" si="54">-(U23/Q23-1)</f>
+        <v>-2.4397632311977717</v>
+      </c>
+      <c r="V33" s="6">
+        <f t="shared" si="54"/>
+        <v>-37.397111913357399</v>
+      </c>
+      <c r="W33" s="6">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="X33" s="6">
+        <f t="shared" si="54"/>
+        <v>1</v>
       </c>
       <c r="AB33" s="7">
         <f>AB23/AA23-1</f>
-        <v>0.56528266479005396</v>
+        <v>2.3211341905703922</v>
       </c>
       <c r="AC33" s="7">
         <f>AC23/AB23-1</f>
+        <v>0.1504020649260398</v>
+      </c>
+      <c r="AD33" s="7">
+        <f>AD23/AC23-1</f>
+        <v>0.83940283051432507</v>
+      </c>
+      <c r="AE33" s="7">
+        <f>AE23/AD23-1</f>
+        <v>0.56528266479005396</v>
+      </c>
+      <c r="AF33" s="7">
+        <f>AF23/AE23-1</f>
         <v>-1.0815849418534949</v>
       </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AG33" s="7">
+        <f>AG23/AF23-1</f>
+        <v>-12.181851579720794</v>
+      </c>
+    </row>
+    <row r="34" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G34" s="6">
-        <f t="shared" ref="G34:K34" si="38">-G22/G21</f>
+        <f t="shared" ref="G34:K34" si="55">-G22/G21</f>
         <v>0.25066509015666566</v>
       </c>
       <c r="H34" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="55"/>
         <v>0.1572094518566147</v>
       </c>
       <c r="I34" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="55"/>
         <v>7.0201204288441774E-2</v>
       </c>
       <c r="J34" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="55"/>
         <v>-0.29671603348358017</v>
       </c>
       <c r="K34" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="55"/>
         <v>0.21045968056096612</v>
       </c>
       <c r="L34" s="6">
@@ -3426,7 +3910,7 @@
         <v>0.27008547008547007</v>
       </c>
       <c r="P34" s="6">
-        <f t="shared" ref="P34" si="39">-P22/P21</f>
+        <f t="shared" ref="P34" si="56">-P22/P21</f>
         <v>0.23558235959291368</v>
       </c>
       <c r="Q34" s="6">
@@ -3445,1534 +3929,2348 @@
         <f>-T22/T21</f>
         <v>0.1074970249900833</v>
       </c>
-      <c r="Y34" s="6">
-        <f>-Y22/Y21</f>
-        <v>0.10549684752686263</v>
-      </c>
-      <c r="Z34" s="6">
-        <f>-Z22/Z21</f>
-        <v>0.1708643388666285</v>
-      </c>
-      <c r="AA34" s="6">
-        <f>-AA22/AA21</f>
-        <v>0.1184134337000579</v>
+      <c r="U34" s="6">
+        <f t="shared" ref="U34:X34" si="57">-U22/U21</f>
+        <v>0.18951513659857247</v>
+      </c>
+      <c r="V34" s="6">
+        <f t="shared" si="57"/>
+        <v>0.2228554727458717</v>
+      </c>
+      <c r="W34" s="6" t="e">
+        <f t="shared" si="57"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X34" s="6" t="e">
+        <f t="shared" si="57"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="AB34" s="6">
         <f>-AB22/AB21</f>
-        <v>0.12547508584309716</v>
+        <v>0.10549684752686263</v>
       </c>
       <c r="AC34" s="6">
         <f>-AC22/AC21</f>
+        <v>0.1708643388666285</v>
+      </c>
+      <c r="AD34" s="6">
+        <f>-AD22/AD21</f>
+        <v>0.1184134337000579</v>
+      </c>
+      <c r="AE34" s="6">
+        <f>-AE22/AE21</f>
+        <v>0.12547508584309716</v>
+      </c>
+      <c r="AF34" s="6">
+        <f>-AF22/AF21</f>
         <v>0.5414420485175202</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="4" t="s">
+      <c r="AG34" s="6">
+        <f>-AG22/AG21</f>
+        <v>0.18957850733551668</v>
+      </c>
+    </row>
+    <row r="35" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="6">
+        <f t="shared" ref="C35:V35" si="58">C26/SUM(C24:C26)</f>
+        <v>0.50294117647058822</v>
+      </c>
+      <c r="D35" s="6">
+        <f t="shared" si="58"/>
+        <v>0.6877431906614786</v>
+      </c>
+      <c r="E35" s="6">
+        <f t="shared" si="58"/>
+        <v>0.71618625277161863</v>
+      </c>
+      <c r="F35" s="6">
+        <f t="shared" si="58"/>
+        <v>0.66907216494845356</v>
+      </c>
+      <c r="G35" s="6">
+        <f t="shared" si="58"/>
+        <v>0.77086989220355984</v>
+      </c>
+      <c r="H35" s="6">
+        <f t="shared" si="58"/>
+        <v>0.57453362998459701</v>
+      </c>
+      <c r="I35" s="6">
+        <f t="shared" si="58"/>
+        <v>0.57071359380045206</v>
+      </c>
+      <c r="J35" s="6">
+        <f t="shared" si="58"/>
+        <v>0.51855085115670008</v>
+      </c>
+      <c r="K35" s="6">
+        <f t="shared" si="58"/>
+        <v>0.46959954878736604</v>
+      </c>
+      <c r="L35" s="6">
+        <f t="shared" si="58"/>
+        <v>0.54440405089587118</v>
+      </c>
+      <c r="M35" s="6">
+        <f t="shared" si="58"/>
+        <v>1.0063891178895301</v>
+      </c>
+      <c r="N35" s="6">
+        <f t="shared" si="58"/>
+        <v>1.5297687861271676</v>
+      </c>
+      <c r="O35" s="6">
+        <f t="shared" si="58"/>
+        <v>1.7765058599073318</v>
+      </c>
+      <c r="P35" s="6">
+        <f t="shared" si="58"/>
+        <v>1.7229424178474526</v>
+      </c>
+      <c r="Q35" s="6">
+        <f t="shared" si="58"/>
+        <v>2.1398019801980199</v>
+      </c>
+      <c r="R35" s="6">
+        <f t="shared" si="58"/>
+        <v>1.9017172086225795</v>
+      </c>
+      <c r="S35" s="6">
+        <f t="shared" si="58"/>
+        <v>1.073104315039799</v>
+      </c>
+      <c r="T35" s="6">
+        <f t="shared" si="58"/>
+        <v>0.69847676083843246</v>
+      </c>
+      <c r="U35" s="6">
+        <f t="shared" si="58"/>
+        <v>0.62352520557740432</v>
+      </c>
+      <c r="V35" s="6">
+        <f t="shared" si="58"/>
+        <v>0.54258460140813081</v>
+      </c>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="AA35" s="6">
+        <f>AA26/SUM(AA24:AA26)</f>
+        <v>1.0547978567949343</v>
+      </c>
+      <c r="AB35" s="6">
+        <f t="shared" ref="AA35:AF35" si="59">AB26/SUM(AB24:AB26)</f>
+        <v>0.58739231945898074</v>
+      </c>
+      <c r="AC35" s="6">
+        <f t="shared" si="59"/>
+        <v>0.63276253352589229</v>
+      </c>
+      <c r="AD35" s="6">
+        <f t="shared" si="59"/>
+        <v>0.59089916590244118</v>
+      </c>
+      <c r="AE35" s="6">
+        <f t="shared" si="59"/>
+        <v>0.74488524458378558</v>
+      </c>
+      <c r="AF35" s="6">
+        <f t="shared" si="59"/>
+        <v>1.8648758981058131</v>
+      </c>
+      <c r="AG35" s="6">
+        <f>AG26/SUM(AG24:AG26)</f>
+        <v>0.668376207532834</v>
+      </c>
+    </row>
+    <row r="36" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="7">
-        <f t="shared" ref="C37:T37" si="40">C4/SUM(C$4:C$6)</f>
+    </row>
+    <row r="38" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="7">
+        <f t="shared" ref="C38:S38" si="60">C4/SUM(C$4:C$6)</f>
         <v>0.59986599664991624</v>
       </c>
-      <c r="D37" s="7">
-        <f t="shared" si="40"/>
+      <c r="D38" s="7">
+        <f t="shared" si="60"/>
         <v>0.60963030723613654</v>
       </c>
-      <c r="E37" s="7">
-        <f t="shared" si="40"/>
+      <c r="E38" s="7">
+        <f t="shared" si="60"/>
         <v>0.6092796616224404</v>
       </c>
-      <c r="F37" s="7">
-        <f t="shared" si="40"/>
+      <c r="F38" s="7">
+        <f t="shared" si="60"/>
         <v>0.61363662368273508</v>
       </c>
-      <c r="G37" s="7">
-        <f t="shared" si="40"/>
+      <c r="G38" s="7">
+        <f t="shared" si="60"/>
         <v>0.61134231034299957</v>
       </c>
-      <c r="H37" s="7">
-        <f t="shared" si="40"/>
+      <c r="H38" s="7">
+        <f t="shared" si="60"/>
         <v>0.62349289184811951</v>
       </c>
-      <c r="I37" s="7">
-        <f t="shared" si="40"/>
+      <c r="I38" s="7">
+        <f t="shared" si="60"/>
         <v>0.61753601331322483</v>
       </c>
-      <c r="J37" s="7">
+      <c r="J38" s="7">
         <f>J4/SUM(J$4:J$6)</f>
         <v>0.60010354028115165</v>
       </c>
-      <c r="K37" s="7">
-        <f t="shared" si="40"/>
+      <c r="K38" s="7">
+        <f t="shared" si="60"/>
         <v>0.59302411326598337</v>
       </c>
-      <c r="L37" s="7">
-        <f t="shared" si="40"/>
+      <c r="L38" s="7">
+        <f t="shared" si="60"/>
         <v>0.59736469755925004</v>
       </c>
-      <c r="M37" s="7">
-        <f t="shared" si="40"/>
+      <c r="M38" s="7">
+        <f t="shared" si="60"/>
         <v>0.5916056022813414</v>
       </c>
-      <c r="N37" s="7">
-        <f t="shared" si="40"/>
+      <c r="N38" s="7">
+        <f t="shared" si="60"/>
         <v>0.59945286011553967</v>
       </c>
-      <c r="O37" s="7">
-        <f t="shared" si="40"/>
+      <c r="O38" s="7">
+        <f t="shared" si="60"/>
         <v>0.59465494143107411</v>
       </c>
-      <c r="P37" s="7">
-        <f t="shared" si="40"/>
+      <c r="P38" s="7">
+        <f t="shared" si="60"/>
         <v>0.61393668442846061</v>
       </c>
-      <c r="Q37" s="7">
-        <f t="shared" si="40"/>
+      <c r="Q38" s="7">
+        <f t="shared" si="60"/>
         <v>0.62031770009677345</v>
       </c>
-      <c r="R37" s="7">
-        <f t="shared" si="40"/>
+      <c r="R38" s="7">
+        <f t="shared" si="60"/>
         <v>0.62574059676684268</v>
       </c>
-      <c r="S37" s="7">
-        <f t="shared" si="40"/>
+      <c r="S38" s="7">
+        <f t="shared" si="60"/>
         <v>0.60366054743321973</v>
       </c>
-      <c r="T37" s="7">
-        <f t="shared" si="40"/>
+      <c r="T38" s="7">
+        <f>T4/SUM(T$4:T$6)</f>
         <v>0.61425924410081634</v>
       </c>
-      <c r="U37" s="7"/>
-      <c r="V37" s="7"/>
-      <c r="W37" s="7"/>
-      <c r="X37" s="7"/>
-      <c r="Y37" s="7">
-        <f t="shared" ref="Y37:AC39" si="41">Y4/SUM(Y$4:Y$6)</f>
+      <c r="U38" s="7">
+        <f t="shared" ref="U38:X38" si="61">U4/SUM(U$4:U$6)</f>
+        <v>0.61423788989607431</v>
+      </c>
+      <c r="V38" s="7">
+        <f t="shared" si="61"/>
+        <v>0.62081301004348055</v>
+      </c>
+      <c r="W38" s="7" t="e">
+        <f t="shared" si="61"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X38" s="7" t="e">
+        <f t="shared" si="61"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="7">
+        <f>AB4/SUM(AB$4:AB$6)</f>
         <v>0.6070154194952917</v>
       </c>
-      <c r="Z37" s="7">
-        <f t="shared" si="41"/>
+      <c r="AC38" s="7">
+        <f>AC4/SUM(AC$4:AC$6)</f>
         <v>0.60871285857916013</v>
       </c>
-      <c r="AA37" s="7">
-        <f t="shared" si="41"/>
+      <c r="AD38" s="7">
+        <f>AD4/SUM(AD$4:AD$6)</f>
         <v>0.61202805752414102</v>
       </c>
-      <c r="AB37" s="7">
-        <f t="shared" si="41"/>
+      <c r="AE38" s="7">
+        <f>AE4/SUM(AE$4:AE$6)</f>
         <v>0.59561493501794294</v>
       </c>
-      <c r="AC37" s="7">
-        <f t="shared" si="41"/>
+      <c r="AF38" s="7">
+        <f>AF4/SUM(AF$4:AF$6)</f>
         <v>0.61457285552245888</v>
       </c>
-    </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="7">
-        <f t="shared" ref="C38:T38" si="42">C5/SUM(C$4:C$6)</f>
+      <c r="AG38" s="7">
+        <f t="shared" ref="AG38" si="62">AG4/SUM(AG$4:AG$6)</f>
+        <v>0.61384343711126765</v>
+      </c>
+    </row>
+    <row r="39" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="7">
+        <f t="shared" ref="C39:T39" si="63">C5/SUM(C$4:C$6)</f>
         <v>0.27122278056951421</v>
       </c>
-      <c r="D38" s="7">
-        <f t="shared" si="42"/>
+      <c r="D39" s="7">
+        <f t="shared" si="63"/>
         <v>0.25818560343196012</v>
       </c>
-      <c r="E38" s="7">
-        <f t="shared" si="42"/>
+      <c r="E39" s="7">
+        <f t="shared" si="63"/>
         <v>0.26218545033651991</v>
       </c>
-      <c r="F38" s="7">
-        <f t="shared" si="42"/>
+      <c r="F39" s="7">
+        <f t="shared" si="63"/>
         <v>0.2724693067267755</v>
       </c>
-      <c r="G38" s="7">
-        <f t="shared" si="42"/>
+      <c r="G39" s="7">
+        <f t="shared" si="63"/>
         <v>0.25322059057413987</v>
       </c>
-      <c r="H38" s="7">
-        <f t="shared" si="42"/>
+      <c r="H39" s="7">
+        <f t="shared" si="63"/>
         <v>0.25494871333453301</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I39" s="7">
         <f>I5/SUM(I$4:I$6)</f>
         <v>0.26180248582869625</v>
       </c>
-      <c r="J38" s="7">
-        <f t="shared" si="42"/>
+      <c r="J39" s="7">
+        <f t="shared" si="63"/>
         <v>0.2984110549161722</v>
       </c>
-      <c r="K38" s="7">
-        <f t="shared" si="42"/>
+      <c r="K39" s="7">
+        <f t="shared" si="63"/>
         <v>0.28251050807462574</v>
       </c>
-      <c r="L38" s="7">
-        <f t="shared" si="42"/>
+      <c r="L39" s="7">
+        <f t="shared" si="63"/>
         <v>0.27167492041032898</v>
       </c>
-      <c r="M38" s="7">
-        <f t="shared" si="42"/>
+      <c r="M39" s="7">
+        <f t="shared" si="63"/>
         <v>0.26301303107966645</v>
       </c>
-      <c r="N38" s="7">
-        <f t="shared" si="42"/>
+      <c r="N39" s="7">
+        <f t="shared" si="63"/>
         <v>0.27118348103199896</v>
       </c>
-      <c r="O38" s="7">
-        <f t="shared" si="42"/>
+      <c r="O39" s="7">
+        <f t="shared" si="63"/>
         <v>0.24697708769880802</v>
       </c>
-      <c r="P38" s="7">
-        <f t="shared" si="42"/>
+      <c r="P39" s="7">
+        <f t="shared" si="63"/>
         <v>0.223245954105284</v>
       </c>
-      <c r="Q38" s="7">
-        <f t="shared" si="42"/>
+      <c r="Q39" s="7">
+        <f t="shared" si="63"/>
         <v>0.21809427148488211</v>
       </c>
-      <c r="R38" s="7">
-        <f t="shared" si="42"/>
+      <c r="R39" s="7">
+        <f t="shared" si="63"/>
         <v>0.23097906222353287</v>
       </c>
-      <c r="S38" s="7">
-        <f t="shared" si="42"/>
+      <c r="S39" s="7">
+        <f t="shared" si="63"/>
         <v>0.22867036228583992</v>
       </c>
-      <c r="T38" s="7">
-        <f t="shared" si="42"/>
+      <c r="T39" s="7">
+        <f t="shared" si="63"/>
         <v>0.22098777375114412</v>
       </c>
-      <c r="U38" s="7"/>
-      <c r="V38" s="7"/>
-      <c r="W38" s="7"/>
-      <c r="X38" s="7"/>
-      <c r="Y38" s="7">
-        <f t="shared" si="41"/>
+      <c r="U39" s="7">
+        <f t="shared" ref="U39:X39" si="64">U5/SUM(U$4:U$6)</f>
+        <v>0.22460390123215196</v>
+      </c>
+      <c r="V39" s="7">
+        <f t="shared" si="64"/>
+        <v>0.23677784903595531</v>
+      </c>
+      <c r="W39" s="7" t="e">
+        <f t="shared" si="64"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X39" s="7" t="e">
+        <f t="shared" si="64"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="7">
+        <f>AB5/SUM(AB$4:AB$6)</f>
         <v>0.28282385878129734</v>
       </c>
-      <c r="Z38" s="7">
-        <f t="shared" si="41"/>
+      <c r="AC39" s="7">
+        <f>AC5/SUM(AC$4:AC$6)</f>
         <v>0.26640925264366339</v>
       </c>
-      <c r="AA38" s="7">
-        <f t="shared" si="41"/>
+      <c r="AD39" s="7">
+        <f>AD5/SUM(AD$4:AD$6)</f>
         <v>0.27045256744995649</v>
       </c>
-      <c r="AB38" s="7">
-        <f t="shared" si="41"/>
+      <c r="AE39" s="7">
+        <f>AE5/SUM(AE$4:AE$6)</f>
         <v>0.27199024311334929</v>
       </c>
-      <c r="AC38" s="7">
-        <f t="shared" si="41"/>
+      <c r="AF39" s="7">
+        <f>AF5/SUM(AF$4:AF$6)</f>
         <v>0.22959319666214642</v>
       </c>
-    </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" s="7">
-        <f t="shared" ref="C39:T39" si="43">C6/SUM(C$4:C$6)</f>
+      <c r="AG39" s="7">
+        <f t="shared" ref="AG39" si="65">AG5/SUM(AG$4:AG$6)</f>
+        <v>0.22825926215889419</v>
+      </c>
+    </row>
+    <row r="40" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="7">
+        <f t="shared" ref="C40:T40" si="66">C6/SUM(C$4:C$6)</f>
         <v>0.12891122278056952</v>
       </c>
-      <c r="D39" s="7">
-        <f t="shared" si="43"/>
+      <c r="D40" s="7">
+        <f t="shared" si="66"/>
         <v>0.13218408933190334</v>
       </c>
-      <c r="E39" s="7">
-        <f t="shared" si="43"/>
+      <c r="E40" s="7">
+        <f t="shared" si="66"/>
         <v>0.12853488804103971</v>
       </c>
-      <c r="F39" s="7">
-        <f t="shared" si="43"/>
+      <c r="F40" s="7">
+        <f t="shared" si="66"/>
         <v>0.11389406959048938</v>
       </c>
-      <c r="G39" s="7">
-        <f t="shared" si="43"/>
+      <c r="G40" s="7">
+        <f t="shared" si="66"/>
         <v>0.13543709908286064</v>
       </c>
-      <c r="H39" s="7">
-        <f t="shared" si="43"/>
+      <c r="H40" s="7">
+        <f t="shared" si="66"/>
         <v>0.1215583948173475</v>
       </c>
-      <c r="I39" s="7">
-        <f t="shared" si="43"/>
+      <c r="I40" s="7">
+        <f t="shared" si="66"/>
         <v>0.12066150085807895</v>
       </c>
-      <c r="J39" s="7">
-        <f t="shared" si="43"/>
+      <c r="J40" s="7">
+        <f t="shared" si="66"/>
         <v>0.10148540480267612</v>
       </c>
-      <c r="K39" s="7">
-        <f t="shared" si="43"/>
+      <c r="K40" s="7">
+        <f t="shared" si="66"/>
         <v>0.1244653786593909</v>
       </c>
-      <c r="L39" s="7">
-        <f t="shared" si="43"/>
+      <c r="L40" s="7">
+        <f t="shared" si="66"/>
         <v>0.13096038203042093</v>
       </c>
-      <c r="M39" s="7">
-        <f t="shared" si="43"/>
+      <c r="M40" s="7">
+        <f t="shared" si="66"/>
         <v>0.14538136663899218</v>
       </c>
-      <c r="N39" s="7">
-        <f t="shared" si="43"/>
+      <c r="N40" s="7">
+        <f t="shared" si="66"/>
         <v>0.1293636588524614</v>
       </c>
-      <c r="O39" s="7">
-        <f t="shared" si="43"/>
+      <c r="O40" s="7">
+        <f t="shared" si="66"/>
         <v>0.15836797087011784</v>
       </c>
-      <c r="P39" s="7">
-        <f t="shared" si="43"/>
+      <c r="P40" s="7">
+        <f t="shared" si="66"/>
         <v>0.16281736146625533</v>
       </c>
-      <c r="Q39" s="7">
-        <f t="shared" si="43"/>
+      <c r="Q40" s="7">
+        <f t="shared" si="66"/>
         <v>0.16158802841834446</v>
       </c>
-      <c r="R39" s="7">
-        <f t="shared" si="43"/>
+      <c r="R40" s="7">
+        <f t="shared" si="66"/>
         <v>0.14328034100962442</v>
       </c>
-      <c r="S39" s="7">
-        <f t="shared" si="43"/>
+      <c r="S40" s="7">
+        <f t="shared" si="66"/>
         <v>0.16766909028094035</v>
       </c>
-      <c r="T39" s="7">
-        <f t="shared" si="43"/>
+      <c r="T40" s="7">
+        <f t="shared" si="66"/>
         <v>0.16475298214803955</v>
       </c>
-      <c r="U39" s="7"/>
-      <c r="V39" s="7"/>
-      <c r="W39" s="7"/>
-      <c r="X39" s="7"/>
-      <c r="Y39" s="7">
-        <f t="shared" si="41"/>
+      <c r="U40" s="7">
+        <f t="shared" ref="U40:X40" si="67">U6/SUM(U$4:U$6)</f>
+        <v>0.16115820887177373</v>
+      </c>
+      <c r="V40" s="7">
+        <f t="shared" si="67"/>
+        <v>0.14240914092056414</v>
+      </c>
+      <c r="W40" s="7" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X40" s="7" t="e">
+        <f t="shared" si="67"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="7"/>
+      <c r="AB40" s="7">
+        <f>AB6/SUM(AB$4:AB$6)</f>
         <v>0.11016072172341093</v>
       </c>
-      <c r="Z39" s="7">
-        <f t="shared" si="41"/>
+      <c r="AC40" s="7">
+        <f>AC6/SUM(AC$4:AC$6)</f>
         <v>0.12487788877717643</v>
       </c>
-      <c r="AA39" s="7">
-        <f t="shared" si="41"/>
+      <c r="AD40" s="7">
+        <f>AD6/SUM(AD$4:AD$6)</f>
         <v>0.11751937502590244</v>
       </c>
-      <c r="AB39" s="7">
-        <f t="shared" si="41"/>
+      <c r="AE40" s="7">
+        <f>AE6/SUM(AE$4:AE$6)</f>
         <v>0.13239482186870771</v>
       </c>
-      <c r="AC39" s="7">
-        <f t="shared" si="41"/>
+      <c r="AF40" s="7">
+        <f>AF6/SUM(AF$4:AF$6)</f>
         <v>0.15583394781539467</v>
       </c>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+      <c r="AG40" s="7">
+        <f t="shared" ref="AG40" si="68">AG6/SUM(AG$4:AG$6)</f>
+        <v>0.15789730072983812</v>
+      </c>
+    </row>
+    <row r="41" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="7">
+        <f t="shared" ref="C41:T41" si="69">C24/C4</f>
+        <v>6.3861275550094937E-2</v>
+      </c>
+      <c r="D41" s="7">
+        <f t="shared" si="69"/>
+        <v>4.0462577290249137E-2</v>
+      </c>
+      <c r="E41" s="7">
+        <f t="shared" si="69"/>
+        <v>3.0067076316900417E-2</v>
+      </c>
+      <c r="F41" s="7">
+        <f t="shared" si="69"/>
+        <v>3.5427932127540557E-2</v>
+      </c>
+      <c r="G41" s="7">
+        <f t="shared" si="69"/>
+        <v>2.8443211134476554E-2</v>
+      </c>
+      <c r="H41" s="7">
+        <f t="shared" si="69"/>
+        <v>3.8621112634389207E-2</v>
+      </c>
+      <c r="I41" s="7">
+        <f t="shared" si="69"/>
+        <v>3.7929698684587274E-2</v>
+      </c>
+      <c r="J41" s="7">
+        <f t="shared" si="69"/>
+        <v>3.9099620417805854E-2</v>
+      </c>
+      <c r="K41" s="7">
+        <f t="shared" si="69"/>
+        <v>5.3624720218851035E-2</v>
+      </c>
+      <c r="L41" s="7">
+        <f t="shared" si="69"/>
+        <v>4.6587712805329383E-2</v>
+      </c>
+      <c r="M41" s="7">
+        <f t="shared" si="69"/>
+        <v>1.3423433043000747E-2</v>
+      </c>
+      <c r="N41" s="7">
+        <f t="shared" si="69"/>
+        <v>-2.5003034348828742E-3</v>
+      </c>
+      <c r="O41" s="7">
+        <f t="shared" si="69"/>
+        <v>-2.2644561261625555E-2</v>
+      </c>
+      <c r="P41" s="7">
+        <f t="shared" si="69"/>
+        <v>-8.4240225715437322E-3</v>
+      </c>
+      <c r="Q41" s="7">
+        <f t="shared" si="69"/>
+        <v>-5.2255748766536023E-3</v>
+      </c>
+      <c r="R41" s="7">
+        <f t="shared" si="69"/>
+        <v>-2.5706114842068057E-3</v>
+      </c>
+      <c r="S41" s="7">
+        <f t="shared" si="69"/>
+        <v>1.1680389172877564E-2</v>
+      </c>
+      <c r="T41" s="7">
+        <f t="shared" si="69"/>
+        <v>3.8899522690378698E-2</v>
+      </c>
+      <c r="U41" s="7">
+        <f t="shared" ref="U41:X41" si="70">U24/U4</f>
+        <v>4.9006110118675117E-2</v>
+      </c>
+      <c r="V41" s="7">
+        <f t="shared" si="70"/>
+        <v>6.1233580377959326E-2</v>
+      </c>
+      <c r="W41" s="7" t="e">
+        <f t="shared" si="70"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X41" s="7" t="e">
+        <f t="shared" si="70"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="7"/>
+      <c r="AB41" s="7">
+        <f>AB24/AB4</f>
+        <v>5.1405571353790869E-2</v>
+      </c>
+      <c r="AC41" s="7">
+        <f>AC24/AC4</f>
+        <v>4.1192973824626757E-2</v>
+      </c>
+      <c r="AD41" s="7">
+        <f>AD24/AD4</f>
+        <v>3.6613030192735797E-2</v>
+      </c>
+      <c r="AE41" s="7">
+        <f t="shared" ref="AE41:AF41" si="71">AE24/AE4</f>
+        <v>2.5983354357777676E-2</v>
+      </c>
+      <c r="AF41" s="7">
+        <f t="shared" si="71"/>
+        <v>-9.0129162973280989E-3</v>
+      </c>
+      <c r="AG41" s="7">
+        <f t="shared" ref="AG41" si="72">AG24/AG4</f>
+        <v>4.2165020916707291E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="7">
-        <f t="shared" ref="C40:T40" si="44">C24/C4</f>
-        <v>6.3861275550094937E-2</v>
-      </c>
-      <c r="D40" s="7">
-        <f t="shared" si="44"/>
-        <v>4.0462577290249137E-2</v>
-      </c>
-      <c r="E40" s="7">
-        <f t="shared" si="44"/>
-        <v>3.0067076316900417E-2</v>
-      </c>
-      <c r="F40" s="7">
-        <f t="shared" si="44"/>
-        <v>3.5427932127540557E-2</v>
-      </c>
-      <c r="G40" s="7">
-        <f t="shared" si="44"/>
-        <v>2.8443211134476554E-2</v>
-      </c>
-      <c r="H40" s="7">
-        <f t="shared" si="44"/>
-        <v>3.8621112634389207E-2</v>
-      </c>
-      <c r="I40" s="7">
-        <f t="shared" si="44"/>
-        <v>3.7929698684587274E-2</v>
-      </c>
-      <c r="J40" s="7">
-        <f t="shared" si="44"/>
-        <v>3.9099620417805854E-2</v>
-      </c>
-      <c r="K40" s="7">
-        <f t="shared" si="44"/>
-        <v>5.3624720218851035E-2</v>
-      </c>
-      <c r="L40" s="7">
-        <f t="shared" si="44"/>
-        <v>4.6587712805329383E-2</v>
-      </c>
-      <c r="M40" s="7">
-        <f t="shared" si="44"/>
-        <v>1.3423433043000747E-2</v>
-      </c>
-      <c r="N40" s="7">
-        <f t="shared" si="44"/>
-        <v>-2.5003034348828742E-3</v>
-      </c>
-      <c r="O40" s="7">
-        <f t="shared" si="44"/>
-        <v>-2.2644561261625555E-2</v>
-      </c>
-      <c r="P40" s="7">
-        <f t="shared" si="44"/>
-        <v>-8.4240225715437322E-3</v>
-      </c>
-      <c r="Q40" s="7">
-        <f t="shared" si="44"/>
-        <v>-5.2255748766536023E-3</v>
-      </c>
-      <c r="R40" s="7">
-        <f t="shared" si="44"/>
-        <v>-2.5706114842068057E-3</v>
-      </c>
-      <c r="S40" s="7">
-        <f t="shared" si="44"/>
-        <v>1.1680389172877564E-2</v>
-      </c>
-      <c r="T40" s="7">
-        <f t="shared" si="44"/>
-        <v>3.8899522690378698E-2</v>
-      </c>
-      <c r="U40" s="7"/>
-      <c r="V40" s="7"/>
-      <c r="W40" s="7"/>
-      <c r="X40" s="7"/>
-      <c r="Y40" s="7">
-        <f t="shared" ref="Y40:AA42" si="45">Y24/Y4</f>
-        <v>5.1405571353790869E-2</v>
-      </c>
-      <c r="Z40" s="7">
-        <f t="shared" si="45"/>
-        <v>4.1192973824626757E-2</v>
-      </c>
-      <c r="AA40" s="7">
-        <f t="shared" si="45"/>
-        <v>3.6613030192735797E-2</v>
-      </c>
-      <c r="AB40" s="7">
-        <f t="shared" ref="AB40:AC40" si="46">AB24/AB4</f>
-        <v>2.5983354357777676E-2</v>
-      </c>
-      <c r="AC40" s="7">
-        <f t="shared" si="46"/>
-        <v>-9.0129162973280989E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+      <c r="C42" s="7">
+        <f t="shared" ref="C42:T42" si="73">C25/C5</f>
+        <v>-5.558300395256917E-3</v>
+      </c>
+      <c r="D42" s="7">
+        <f t="shared" si="73"/>
+        <v>-3.6713500305436776E-2</v>
+      </c>
+      <c r="E42" s="7">
+        <f t="shared" si="73"/>
+        <v>-2.10377152823196E-2</v>
+      </c>
+      <c r="F42" s="7">
+        <f t="shared" si="73"/>
+        <v>-2.5868223239407045E-2</v>
+      </c>
+      <c r="G42" s="7">
+        <f t="shared" si="73"/>
+        <v>-2.0831152517533758E-2</v>
+      </c>
+      <c r="H42" s="7">
+        <f t="shared" si="73"/>
+        <v>1.5219692959237693E-2</v>
+      </c>
+      <c r="I42" s="7">
+        <f t="shared" si="73"/>
+        <v>1.6169401295141234E-2</v>
+      </c>
+      <c r="J42" s="7">
+        <f t="shared" si="73"/>
+        <v>9.6885259027944589E-3</v>
+      </c>
+      <c r="K42" s="7">
+        <f t="shared" si="73"/>
+        <v>4.084961988971908E-2</v>
+      </c>
+      <c r="L42" s="7">
+        <f t="shared" si="73"/>
+        <v>1.178347059015006E-2</v>
+      </c>
+      <c r="M42" s="7">
+        <f t="shared" si="73"/>
+        <v>-3.1257505575570423E-2</v>
+      </c>
+      <c r="N42" s="7">
+        <f t="shared" si="73"/>
+        <v>-4.3652071259927025E-2</v>
+      </c>
+      <c r="O42" s="7">
+        <f t="shared" si="73"/>
+        <v>-4.4542577975590247E-2</v>
+      </c>
+      <c r="P42" s="7">
+        <f t="shared" si="73"/>
+        <v>-6.5435063735451687E-2</v>
+      </c>
+      <c r="Q42" s="7">
+        <f t="shared" si="73"/>
+        <v>-8.8961038961038963E-2</v>
+      </c>
+      <c r="R42" s="7">
+        <f t="shared" si="73"/>
+        <v>-6.4649043902155937E-2</v>
+      </c>
+      <c r="S42" s="7">
+        <f t="shared" si="73"/>
+        <v>-4.2818390962469526E-2</v>
+      </c>
+      <c r="T42" s="7">
+        <f t="shared" si="73"/>
+        <v>-3.0137724349260868E-2</v>
+      </c>
+      <c r="U42" s="7">
+        <f t="shared" ref="U42:X42" si="74">U25/U5</f>
+        <v>-2.9560942216137163E-3</v>
+      </c>
+      <c r="V42" s="7">
+        <f t="shared" si="74"/>
+        <v>-1.0411748627090425E-2</v>
+      </c>
+      <c r="W42" s="7" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X42" s="7" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="7"/>
+      <c r="AB42" s="7">
+        <f>AB25/AB5</f>
+        <v>-3.2520572070567515E-2</v>
+      </c>
+      <c r="AC42" s="7">
+        <f>AC25/AC5</f>
+        <v>-2.2657013235549965E-2</v>
+      </c>
+      <c r="AD42" s="7">
+        <f>AD25/AD5</f>
+        <v>6.8670267785312031E-3</v>
+      </c>
+      <c r="AE42" s="7">
+        <f t="shared" ref="AE42:AF42" si="75">AE25/AE5</f>
+        <v>-7.2307824739605746E-3</v>
+      </c>
+      <c r="AF42" s="7">
+        <f t="shared" si="75"/>
+        <v>-6.5640173887989692E-2</v>
+      </c>
+      <c r="AG42" s="7">
+        <f t="shared" ref="AG42" si="76">AG25/AG5</f>
+        <v>-2.0243902439024391E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="7">
-        <f t="shared" ref="C41:T41" si="47">C25/C5</f>
-        <v>-5.558300395256917E-3</v>
-      </c>
-      <c r="D41" s="7">
-        <f t="shared" si="47"/>
-        <v>-3.6713500305436776E-2</v>
-      </c>
-      <c r="E41" s="7">
-        <f t="shared" si="47"/>
-        <v>-2.10377152823196E-2</v>
-      </c>
-      <c r="F41" s="7">
-        <f t="shared" si="47"/>
-        <v>-2.5868223239407045E-2</v>
-      </c>
-      <c r="G41" s="7">
-        <f t="shared" si="47"/>
-        <v>-2.0831152517533758E-2</v>
-      </c>
-      <c r="H41" s="7">
-        <f t="shared" si="47"/>
-        <v>1.5219692959237693E-2</v>
-      </c>
-      <c r="I41" s="7">
-        <f t="shared" si="47"/>
-        <v>1.6169401295141234E-2</v>
-      </c>
-      <c r="J41" s="7">
-        <f t="shared" si="47"/>
-        <v>9.6885259027944589E-3</v>
-      </c>
-      <c r="K41" s="7">
-        <f t="shared" si="47"/>
-        <v>4.084961988971908E-2</v>
-      </c>
-      <c r="L41" s="7">
-        <f t="shared" si="47"/>
-        <v>1.178347059015006E-2</v>
-      </c>
-      <c r="M41" s="7">
-        <f t="shared" si="47"/>
-        <v>-3.1257505575570423E-2</v>
-      </c>
-      <c r="N41" s="7">
-        <f t="shared" si="47"/>
-        <v>-4.3652071259927025E-2</v>
-      </c>
-      <c r="O41" s="7">
-        <f t="shared" si="47"/>
-        <v>-4.4542577975590247E-2</v>
-      </c>
-      <c r="P41" s="7">
-        <f t="shared" si="47"/>
-        <v>-6.5435063735451687E-2</v>
-      </c>
-      <c r="Q41" s="7">
-        <f t="shared" si="47"/>
-        <v>-8.8961038961038963E-2</v>
-      </c>
-      <c r="R41" s="7">
-        <f t="shared" si="47"/>
-        <v>-6.4649043902155937E-2</v>
-      </c>
-      <c r="S41" s="7">
-        <f t="shared" si="47"/>
-        <v>-4.2818390962469526E-2</v>
-      </c>
-      <c r="T41" s="7">
-        <f t="shared" si="47"/>
-        <v>-3.0137724349260868E-2</v>
-      </c>
-      <c r="U41" s="7"/>
-      <c r="V41" s="7"/>
-      <c r="W41" s="7"/>
-      <c r="X41" s="7"/>
-      <c r="Y41" s="7">
-        <f t="shared" si="45"/>
-        <v>-3.2520572070567515E-2</v>
-      </c>
-      <c r="Z41" s="7">
-        <f t="shared" si="45"/>
-        <v>-2.2657013235549965E-2</v>
-      </c>
-      <c r="AA41" s="7">
-        <f t="shared" si="45"/>
-        <v>6.8670267785312031E-3</v>
-      </c>
-      <c r="AB41" s="7">
-        <f t="shared" ref="AB41:AC41" si="48">AB25/AB5</f>
-        <v>-7.2307824739605746E-3</v>
-      </c>
-      <c r="AC41" s="7">
-        <f t="shared" si="48"/>
-        <v>-6.5640173887989692E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" s="7">
-        <f t="shared" ref="C42:T42" si="49">C26/C6</f>
+      <c r="C43" s="7">
+        <f t="shared" ref="C43:S43" si="77">C26/C6</f>
         <v>0.28885135135135137</v>
       </c>
-      <c r="D42" s="7">
-        <f t="shared" si="49"/>
+      <c r="D43" s="7">
+        <f t="shared" si="77"/>
         <v>0.25307242572485383</v>
       </c>
-      <c r="E42" s="7">
-        <f t="shared" si="49"/>
+      <c r="E43" s="7">
+        <f t="shared" si="77"/>
         <v>0.25136186770428015</v>
       </c>
-      <c r="F42" s="7">
-        <f t="shared" si="49"/>
+      <c r="F43" s="7">
+        <f t="shared" si="77"/>
         <v>0.26079967852119751</v>
       </c>
-      <c r="G42" s="7">
-        <f t="shared" si="49"/>
+      <c r="G43" s="7">
+        <f t="shared" si="77"/>
         <v>0.30091006947842253</v>
       </c>
-      <c r="H42" s="7">
-        <f t="shared" si="49"/>
+      <c r="H43" s="7">
+        <f t="shared" si="77"/>
         <v>0.31060325684678014</v>
       </c>
-      <c r="I42" s="7">
-        <f t="shared" si="49"/>
+      <c r="I43" s="7">
+        <f t="shared" si="77"/>
         <v>0.30471511076631325</v>
       </c>
-      <c r="J42" s="7">
-        <f t="shared" si="49"/>
+      <c r="J43" s="7">
+        <f t="shared" si="77"/>
         <v>0.27970491288651705</v>
       </c>
-      <c r="K42" s="7">
-        <f t="shared" si="49"/>
+      <c r="K43" s="7">
+        <f t="shared" si="77"/>
         <v>0.30830185884618233</v>
       </c>
-      <c r="L42" s="7">
-        <f t="shared" si="49"/>
+      <c r="L43" s="7">
+        <f t="shared" si="77"/>
         <v>0.28313863191302585</v>
       </c>
-      <c r="M42" s="7">
-        <f t="shared" si="49"/>
+      <c r="M43" s="7">
+        <f t="shared" si="77"/>
         <v>0.3031036623215394</v>
       </c>
-      <c r="N42" s="7">
-        <f t="shared" si="49"/>
+      <c r="N43" s="7">
+        <f t="shared" si="77"/>
         <v>0.29769403824521934</v>
       </c>
-      <c r="O42" s="7">
-        <f t="shared" si="49"/>
+      <c r="O43" s="7">
+        <f t="shared" si="77"/>
         <v>0.35345154818068436</v>
       </c>
-      <c r="P42" s="7">
-        <f t="shared" si="49"/>
+      <c r="P43" s="7">
+        <f t="shared" si="77"/>
         <v>0.28952834490095747</v>
       </c>
-      <c r="Q42" s="7">
-        <f t="shared" si="49"/>
+      <c r="Q43" s="7">
+        <f t="shared" si="77"/>
         <v>0.26307332749050538</v>
       </c>
-      <c r="R42" s="7">
-        <f t="shared" si="49"/>
+      <c r="R43" s="7">
+        <f t="shared" si="77"/>
         <v>0.24347460005613247</v>
       </c>
-      <c r="S42" s="7">
-        <f t="shared" si="49"/>
+      <c r="S43" s="7">
+        <f t="shared" si="77"/>
         <v>0.23990821391776718</v>
       </c>
-      <c r="T42" s="7">
-        <f t="shared" si="49"/>
+      <c r="T43" s="7">
+        <f>T26/T6</f>
         <v>0.2423215898825655</v>
       </c>
-      <c r="U42" s="7"/>
-      <c r="V42" s="7"/>
-      <c r="W42" s="7"/>
-      <c r="X42" s="7"/>
-      <c r="Y42" s="7">
-        <f t="shared" si="45"/>
+      <c r="U43" s="7">
+        <f t="shared" ref="U43:X43" si="78">U26/U6</f>
+        <v>0.30252829697731903</v>
+      </c>
+      <c r="V43" s="7">
+        <f t="shared" si="78"/>
+        <v>0.29610808130887456</v>
+      </c>
+      <c r="W43" s="7" t="e">
+        <f t="shared" si="78"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X43" s="7" t="e">
+        <f t="shared" si="78"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="7"/>
+      <c r="AA43" s="7"/>
+      <c r="AB43" s="7">
+        <f>AB26/AB6</f>
         <v>0.28438900799064509</v>
       </c>
-      <c r="Z42" s="7">
-        <f t="shared" si="45"/>
+      <c r="AC43" s="7">
+        <f>AC26/AC6</f>
         <v>0.26269057271740992</v>
       </c>
-      <c r="AA42" s="7">
-        <f t="shared" si="45"/>
+      <c r="AD43" s="7">
+        <f>AD26/AD6</f>
         <v>0.29823672029975756</v>
       </c>
-      <c r="AB42" s="7">
-        <f>AB26/AB6</f>
+      <c r="AE43" s="7">
+        <f>AE26/AE6</f>
         <v>0.29793254236198191</v>
       </c>
-      <c r="AC42" s="7">
-        <f>AC26/AC6</f>
+      <c r="AF43" s="7">
+        <f>AF26/AF6</f>
         <v>0.28517029564522572</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+      <c r="AG43" s="7">
+        <f>AG26/AG6</f>
+        <v>0.27139504390845887</v>
+      </c>
+    </row>
+    <row r="46" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J45" s="1">
-        <f>J46+J47-J59</f>
+      <c r="J46" s="5">
+        <f>J47+J48-J62</f>
         <v>52580</v>
       </c>
-      <c r="N45" s="1">
-        <f t="shared" ref="N45" si="50">N46+N47-N59</f>
+      <c r="N46" s="5">
+        <f>N47+N48-N62</f>
         <v>47305</v>
       </c>
-      <c r="R45" s="1">
-        <f t="shared" ref="R45" si="51">R46+R47-R59</f>
+      <c r="R46" s="5">
+        <f>R47+R48-R62</f>
         <v>2876</v>
       </c>
-      <c r="T45" s="1">
-        <f>T46+T47-T59</f>
+      <c r="S46" s="5">
+        <f>S47+S48-S62</f>
+        <v>0</v>
+      </c>
+      <c r="T46" s="5">
+        <f>T47+T48-T62</f>
         <v>878</v>
       </c>
-      <c r="Y45" s="1">
-        <f t="shared" ref="Y45:AB45" si="52">Y46+Y47-Y59</f>
+      <c r="U46" s="5">
+        <f t="shared" ref="U46:X46" si="79">U47+U48-U62</f>
+        <v>3071</v>
+      </c>
+      <c r="V46" s="5">
+        <f t="shared" si="79"/>
+        <v>28466</v>
+      </c>
+      <c r="W46" s="5">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="X46" s="5">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AB46" s="5">
+        <f>AB47+AB48-AB62</f>
         <v>17755</v>
       </c>
-      <c r="Z45" s="1">
-        <f t="shared" si="52"/>
+      <c r="AC46" s="5">
+        <f>AC47+AC48-AC62</f>
         <v>31607</v>
       </c>
-      <c r="AA45" s="1">
-        <f t="shared" si="52"/>
+      <c r="AD46" s="5">
+        <f>AD47+AD48-AD62</f>
         <v>52580</v>
       </c>
-      <c r="AB45" s="1">
-        <f t="shared" si="52"/>
+      <c r="AE46" s="5">
+        <f>AE47+AE48-AE62</f>
         <v>47305</v>
       </c>
-      <c r="AC45" s="1">
-        <f>AC46+AC47-AC59</f>
+      <c r="AF46" s="5">
+        <f>AF47+AF48-AF62</f>
         <v>2876</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+      <c r="AG46" s="5">
+        <f>AG47+AG48-AG62</f>
+        <v>28466</v>
+      </c>
+    </row>
+    <row r="47" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>3</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J47" s="1">
         <v>42122</v>
       </c>
-      <c r="N46" s="1">
+      <c r="N47" s="1">
         <v>36220</v>
       </c>
-      <c r="R46" s="1">
+      <c r="R47" s="1">
         <v>53888</v>
       </c>
-      <c r="T46" s="1">
+      <c r="S47" s="1"/>
+      <c r="T47" s="1">
         <v>49529</v>
       </c>
-      <c r="Y46" s="1">
+      <c r="U47" s="1">
+        <v>49605</v>
+      </c>
+      <c r="V47" s="1">
+        <v>73387</v>
+      </c>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="AB47" s="1">
         <v>31750</v>
       </c>
-      <c r="Z46" s="1">
+      <c r="AC47" s="1">
         <v>36092</v>
       </c>
-      <c r="AA46" s="1">
+      <c r="AD47" s="1">
         <v>42122</v>
       </c>
-      <c r="AB46" s="1">
+      <c r="AE47" s="1">
         <v>36220</v>
       </c>
-      <c r="AC46" s="1">
+      <c r="AF47" s="1">
         <v>53888</v>
       </c>
-      <c r="AD46" s="1"/>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+      <c r="AG47" s="1">
+        <f>V47</f>
+        <v>73387</v>
+      </c>
+    </row>
+    <row r="48" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>69</v>
+      </c>
+      <c r="J48" s="1">
+        <v>42274</v>
+      </c>
+      <c r="N48" s="1">
+        <v>59829</v>
+      </c>
+      <c r="R48" s="1">
+        <v>16138</v>
+      </c>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1">
+        <v>14441</v>
+      </c>
+      <c r="U48" s="1">
+        <v>14564</v>
+      </c>
+      <c r="V48" s="1">
+        <v>13393</v>
+      </c>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="AB48" s="1">
+        <v>9500</v>
+      </c>
+      <c r="AC48" s="1">
+        <v>18929</v>
+      </c>
+      <c r="AD48" s="1">
+        <v>42274</v>
+      </c>
+      <c r="AE48" s="1">
+        <v>59829</v>
+      </c>
+      <c r="AF48" s="1">
+        <v>16138</v>
+      </c>
+      <c r="AG48" s="1">
+        <f t="shared" ref="AG48:AG50" si="80">V48</f>
+        <v>13393</v>
+      </c>
+    </row>
+    <row r="49" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>70</v>
       </c>
-      <c r="J47" s="1">
-        <v>42274</v>
-      </c>
-      <c r="N47" s="1">
-        <v>59829</v>
-      </c>
-      <c r="R47" s="1">
-        <v>16138</v>
-      </c>
-      <c r="T47" s="1">
-        <v>14441</v>
-      </c>
-      <c r="Y47" s="1">
-        <v>9500</v>
-      </c>
-      <c r="Z47" s="1">
-        <v>18929</v>
-      </c>
-      <c r="AA47" s="1">
-        <v>42274</v>
-      </c>
-      <c r="AB47" s="1">
-        <v>59829</v>
-      </c>
-      <c r="AC47" s="1">
-        <v>16138</v>
-      </c>
-      <c r="AD47" s="1"/>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+      <c r="J49" s="1">
+        <v>23795</v>
+      </c>
+      <c r="N49" s="1">
+        <v>32640</v>
+      </c>
+      <c r="R49" s="1">
+        <v>34405</v>
+      </c>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1">
+        <v>36587</v>
+      </c>
+      <c r="U49" s="1">
+        <v>35406</v>
+      </c>
+      <c r="V49" s="1">
+        <v>33318</v>
+      </c>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="AB49" s="1">
+        <v>17174</v>
+      </c>
+      <c r="AC49" s="1">
+        <v>20497</v>
+      </c>
+      <c r="AD49" s="1">
+        <v>23795</v>
+      </c>
+      <c r="AE49" s="1">
+        <v>32640</v>
+      </c>
+      <c r="AF49" s="1">
+        <v>34405</v>
+      </c>
+      <c r="AG49" s="1">
+        <f t="shared" si="80"/>
+        <v>33318</v>
+      </c>
+    </row>
+    <row r="50" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>71</v>
       </c>
-      <c r="J48" s="1">
-        <v>23795</v>
-      </c>
-      <c r="N48" s="1">
-        <v>32640</v>
-      </c>
-      <c r="R48" s="1">
-        <v>34405</v>
-      </c>
-      <c r="T48" s="1">
-        <v>36587</v>
-      </c>
-      <c r="Y48" s="1">
-        <v>17174</v>
-      </c>
-      <c r="Z48" s="1">
-        <v>20497</v>
-      </c>
-      <c r="AA48" s="1">
-        <v>23795</v>
-      </c>
-      <c r="AB48" s="1">
-        <v>32640</v>
-      </c>
-      <c r="AC48" s="1">
-        <v>34405</v>
-      </c>
-      <c r="AD48" s="1"/>
-    </row>
-    <row r="49" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+      <c r="J50" s="1">
+        <v>24542</v>
+      </c>
+      <c r="N50" s="1">
+        <v>32891</v>
+      </c>
+      <c r="R50" s="1">
+        <v>42360</v>
+      </c>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1">
+        <v>39925</v>
+      </c>
+      <c r="U50" s="1">
+        <v>43420</v>
+      </c>
+      <c r="V50" s="1">
+        <v>52253</v>
+      </c>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="AB50" s="1">
+        <v>16677</v>
+      </c>
+      <c r="AC50" s="1">
+        <v>20816</v>
+      </c>
+      <c r="AD50" s="1">
+        <v>24542</v>
+      </c>
+      <c r="AE50" s="1">
+        <v>32891</v>
+      </c>
+      <c r="AF50" s="1">
+        <v>42360</v>
+      </c>
+      <c r="AG50" s="1">
+        <f t="shared" si="80"/>
+        <v>52253</v>
+      </c>
+    </row>
+    <row r="51" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="5">
+        <f t="shared" ref="C51:S51" si="81">SUM(C47:C50)</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="5">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="E51" s="5">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="5">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="5">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="H51" s="5">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="5">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="5">
+        <f t="shared" si="81"/>
+        <v>132733</v>
+      </c>
+      <c r="K51" s="5">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="L51" s="5">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="5">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="N51" s="5">
+        <f t="shared" si="81"/>
+        <v>161580</v>
+      </c>
+      <c r="O51" s="5">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="P51" s="5">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="5">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="R51" s="5">
+        <f t="shared" si="81"/>
+        <v>146791</v>
+      </c>
+      <c r="S51" s="5">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="T51" s="5">
+        <f>SUM(T47:T50)</f>
+        <v>140482</v>
+      </c>
+      <c r="U51" s="5">
+        <f t="shared" ref="U51:X51" si="82">SUM(U47:U50)</f>
+        <v>142995</v>
+      </c>
+      <c r="V51" s="5">
+        <f t="shared" si="82"/>
+        <v>172351</v>
+      </c>
+      <c r="W51" s="5">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="X51" s="5">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="AB51" s="5">
+        <f t="shared" ref="AB51:AG51" si="83">SUM(AB47:AB50)</f>
+        <v>75101</v>
+      </c>
+      <c r="AC51" s="5">
+        <f t="shared" si="83"/>
+        <v>96334</v>
+      </c>
+      <c r="AD51" s="5">
+        <f t="shared" si="83"/>
+        <v>132733</v>
+      </c>
+      <c r="AE51" s="5">
+        <f t="shared" si="83"/>
+        <v>161580</v>
+      </c>
+      <c r="AF51" s="5">
+        <f t="shared" si="83"/>
+        <v>146791</v>
+      </c>
+      <c r="AG51" s="5">
+        <f t="shared" si="83"/>
+        <v>172351</v>
+      </c>
+    </row>
+    <row r="52" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>72</v>
       </c>
-      <c r="J49" s="1">
-        <v>24542</v>
-      </c>
-      <c r="N49" s="1">
-        <v>32891</v>
-      </c>
-      <c r="R49" s="1">
-        <v>42360</v>
-      </c>
-      <c r="T49" s="1">
-        <v>39925</v>
-      </c>
-      <c r="Y49" s="1">
-        <v>16677</v>
-      </c>
-      <c r="Z49" s="1">
-        <v>20816</v>
-      </c>
-      <c r="AA49" s="1">
-        <v>24542</v>
-      </c>
-      <c r="AB49" s="1">
-        <v>32891</v>
-      </c>
-      <c r="AC49" s="1">
-        <v>42360</v>
-      </c>
-      <c r="AD49" s="1"/>
-    </row>
-    <row r="50" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+      <c r="J52" s="1">
+        <v>113114</v>
+      </c>
+      <c r="N52" s="1">
+        <v>160281</v>
+      </c>
+      <c r="R52" s="1">
+        <v>186715</v>
+      </c>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1">
+        <v>193784</v>
+      </c>
+      <c r="U52" s="1">
+        <v>196468</v>
+      </c>
+      <c r="V52" s="1">
+        <v>204177</v>
+      </c>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="AB52" s="1">
+        <v>61797</v>
+      </c>
+      <c r="AC52" s="1">
+        <v>72705</v>
+      </c>
+      <c r="AD52" s="1">
+        <v>113114</v>
+      </c>
+      <c r="AE52" s="1">
+        <v>160281</v>
+      </c>
+      <c r="AF52" s="1">
+        <v>186715</v>
+      </c>
+      <c r="AG52" s="1">
+        <f t="shared" ref="AG52:AG55" si="84">V52</f>
+        <v>204177</v>
+      </c>
+    </row>
+    <row r="53" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>73</v>
       </c>
-      <c r="J50" s="1">
-        <v>113114</v>
-      </c>
-      <c r="N50" s="1">
-        <v>160281</v>
-      </c>
-      <c r="R50" s="1">
-        <v>186715</v>
-      </c>
-      <c r="T50" s="1">
-        <v>193784</v>
-      </c>
-      <c r="Y50" s="1">
-        <v>61797</v>
-      </c>
-      <c r="Z50" s="1">
-        <v>72705</v>
-      </c>
-      <c r="AA50" s="1">
-        <v>113114</v>
-      </c>
-      <c r="AB50" s="1">
-        <v>160281</v>
-      </c>
-      <c r="AC50" s="1">
-        <v>186715</v>
-      </c>
-      <c r="AD50" s="1"/>
-    </row>
-    <row r="51" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+      <c r="J53" s="1">
+        <v>37553</v>
+      </c>
+      <c r="N53" s="1">
+        <v>56082</v>
+      </c>
+      <c r="R53" s="1">
+        <v>66123</v>
+      </c>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1">
+        <v>70332</v>
+      </c>
+      <c r="U53" s="1">
+        <v>70758</v>
+      </c>
+      <c r="V53" s="1">
+        <v>72513</v>
+      </c>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="AB53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="1">
+        <v>25141</v>
+      </c>
+      <c r="AD53" s="1">
+        <v>37553</v>
+      </c>
+      <c r="AE53" s="1">
+        <v>56082</v>
+      </c>
+      <c r="AF53" s="1">
+        <v>66123</v>
+      </c>
+      <c r="AG53" s="1">
+        <f t="shared" si="84"/>
+        <v>72513</v>
+      </c>
+    </row>
+    <row r="54" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
         <v>74</v>
       </c>
-      <c r="J51" s="1">
-        <v>37553</v>
-      </c>
-      <c r="N51" s="1">
-        <v>56082</v>
-      </c>
-      <c r="R51" s="1">
-        <v>66123</v>
-      </c>
-      <c r="T51" s="1">
-        <v>70332</v>
-      </c>
-      <c r="Y51" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="1">
-        <v>25141</v>
-      </c>
-      <c r="AA51" s="1">
-        <v>37553</v>
-      </c>
-      <c r="AB51" s="1">
-        <v>56082</v>
-      </c>
-      <c r="AC51" s="1">
-        <v>66123</v>
-      </c>
-      <c r="AD51" s="1"/>
-    </row>
-    <row r="52" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+      <c r="J54" s="1">
+        <v>15017</v>
+      </c>
+      <c r="N54" s="1">
+        <v>15371</v>
+      </c>
+      <c r="R54" s="1">
+        <v>20288</v>
+      </c>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1">
+        <v>22785</v>
+      </c>
+      <c r="U54" s="1">
+        <v>22749</v>
+      </c>
+      <c r="V54" s="1">
+        <v>22789</v>
+      </c>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+      <c r="AB54" s="1">
+        <v>14548</v>
+      </c>
+      <c r="AC54" s="1">
+        <v>14754</v>
+      </c>
+      <c r="AD54" s="1">
+        <v>15017</v>
+      </c>
+      <c r="AE54" s="1">
+        <v>15371</v>
+      </c>
+      <c r="AF54" s="1">
+        <v>20288</v>
+      </c>
+      <c r="AG54" s="1">
+        <f t="shared" si="84"/>
+        <v>22789</v>
+      </c>
+    </row>
+    <row r="55" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>40</v>
+      </c>
+      <c r="J55" s="1">
+        <v>22778</v>
+      </c>
+      <c r="N55" s="1">
+        <v>27235</v>
+      </c>
+      <c r="R55" s="1">
+        <v>42758</v>
+      </c>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1">
+        <v>50224</v>
+      </c>
+      <c r="U55" s="1">
+        <v>53913</v>
+      </c>
+      <c r="V55" s="1">
+        <v>56024</v>
+      </c>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="AB55" s="1">
+        <v>11202</v>
+      </c>
+      <c r="AC55" s="1">
+        <v>16314</v>
+      </c>
+      <c r="AD55" s="1">
+        <v>22778</v>
+      </c>
+      <c r="AE55" s="1">
+        <v>27235</v>
+      </c>
+      <c r="AF55" s="1">
+        <v>42758</v>
+      </c>
+      <c r="AG55" s="1">
+        <f t="shared" si="84"/>
+        <v>56024</v>
+      </c>
+    </row>
+    <row r="56" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="5">
+        <f t="shared" ref="C56:S56" si="85">SUM(C51:C55)</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="5">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="E56" s="5">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="F56" s="5">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="5">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="5">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="5">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="5">
+        <f t="shared" si="85"/>
+        <v>321195</v>
+      </c>
+      <c r="K56" s="5">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="L56" s="5">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="5">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="N56" s="5">
+        <f t="shared" si="85"/>
+        <v>420549</v>
+      </c>
+      <c r="O56" s="5">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="P56" s="5">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="5">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="R56" s="5">
+        <f t="shared" si="85"/>
+        <v>462675</v>
+      </c>
+      <c r="S56" s="5">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="T56" s="5">
+        <f>SUM(T51:T55)</f>
+        <v>477607</v>
+      </c>
+      <c r="U56" s="5">
+        <f t="shared" ref="U56:X56" si="86">SUM(U51:U55)</f>
+        <v>486883</v>
+      </c>
+      <c r="V56" s="5">
+        <f t="shared" si="86"/>
+        <v>527854</v>
+      </c>
+      <c r="W56" s="5">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="X56" s="5">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="AB56" s="5">
+        <f>SUM(AB51:AB55)</f>
+        <v>162648</v>
+      </c>
+      <c r="AC56" s="5">
+        <f>SUM(AC51:AC55)</f>
+        <v>225248</v>
+      </c>
+      <c r="AD56" s="5">
+        <f t="shared" ref="AD56:AG56" si="87">SUM(AD51:AD55)</f>
+        <v>321195</v>
+      </c>
+      <c r="AE56" s="5">
+        <f t="shared" si="87"/>
+        <v>420549</v>
+      </c>
+      <c r="AF56" s="5">
+        <f t="shared" si="87"/>
+        <v>462675</v>
+      </c>
+      <c r="AG56" s="5">
+        <f t="shared" si="87"/>
+        <v>527854</v>
+      </c>
+    </row>
+    <row r="57" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>75</v>
       </c>
-      <c r="J52" s="1">
-        <v>15017</v>
-      </c>
-      <c r="N52" s="1">
-        <v>15371</v>
-      </c>
-      <c r="R52" s="1">
-        <v>20288</v>
-      </c>
-      <c r="T52" s="1">
-        <v>22785</v>
-      </c>
-      <c r="Y52" s="1">
-        <v>14548</v>
-      </c>
-      <c r="Z52" s="1">
-        <v>14754</v>
-      </c>
-      <c r="AA52" s="1">
-        <v>15017</v>
-      </c>
-      <c r="AB52" s="1">
-        <v>15371</v>
-      </c>
-      <c r="AC52" s="1">
-        <v>20288</v>
-      </c>
-      <c r="AD52" s="1"/>
-    </row>
-    <row r="53" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>41</v>
-      </c>
-      <c r="J53" s="1">
-        <v>22778</v>
-      </c>
-      <c r="N53" s="1">
-        <v>27235</v>
-      </c>
-      <c r="R53" s="1">
-        <v>42758</v>
-      </c>
-      <c r="T53" s="1">
-        <v>50224</v>
-      </c>
-      <c r="Y53" s="1">
-        <v>11202</v>
-      </c>
-      <c r="Z53" s="1">
-        <v>16314</v>
-      </c>
-      <c r="AA53" s="1">
-        <v>22778</v>
-      </c>
-      <c r="AB53" s="1">
-        <v>27235</v>
-      </c>
-      <c r="AC53" s="1">
-        <v>42758</v>
-      </c>
-      <c r="AD53" s="1"/>
-    </row>
-    <row r="54" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="4" t="s">
+      <c r="J57" s="1">
+        <v>72539</v>
+      </c>
+      <c r="N57" s="1">
+        <v>78664</v>
+      </c>
+      <c r="R57" s="1">
+        <v>79600</v>
+      </c>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1">
+        <v>69481</v>
+      </c>
+      <c r="U57" s="1">
+        <v>72004</v>
+      </c>
+      <c r="V57" s="1">
+        <v>84981</v>
+      </c>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="AB57" s="1">
+        <v>38192</v>
+      </c>
+      <c r="AC57" s="1">
+        <v>47183</v>
+      </c>
+      <c r="AD57" s="1">
+        <v>72539</v>
+      </c>
+      <c r="AE57" s="1">
+        <v>78664</v>
+      </c>
+      <c r="AF57" s="1">
+        <v>79600</v>
+      </c>
+      <c r="AG57" s="1">
+        <f t="shared" ref="AG57:AG59" si="88">V57</f>
+        <v>84981</v>
+      </c>
+    </row>
+    <row r="58" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>76</v>
       </c>
-      <c r="J54" s="5">
-        <f>SUM(J46:J53)</f>
-        <v>321195</v>
-      </c>
-      <c r="N54" s="5">
-        <f>SUM(N46:N53)</f>
-        <v>420549</v>
-      </c>
-      <c r="R54" s="5">
-        <f>SUM(R46:R53)</f>
-        <v>462675</v>
-      </c>
-      <c r="T54" s="5">
-        <f>SUM(T46:T53)</f>
-        <v>477607</v>
-      </c>
-      <c r="Y54" s="5">
-        <f>SUM(Y46:Y53)</f>
-        <v>162648</v>
-      </c>
-      <c r="Z54" s="5">
-        <f>SUM(Z46:Z53)</f>
-        <v>225248</v>
-      </c>
-      <c r="AA54" s="5">
-        <f>SUM(AA46:AA53)</f>
-        <v>321195</v>
-      </c>
-      <c r="AB54" s="5">
-        <f>SUM(AB46:AB53)</f>
-        <v>420549</v>
-      </c>
-      <c r="AC54" s="5">
-        <f>SUM(AC46:AC53)</f>
-        <v>462675</v>
-      </c>
-      <c r="AD54" s="5"/>
-    </row>
-    <row r="55" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+      <c r="J58" s="1">
+        <v>44138</v>
+      </c>
+      <c r="N58" s="1">
+        <v>51775</v>
+      </c>
+      <c r="R58" s="1">
+        <v>62566</v>
+      </c>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1">
+        <v>64235</v>
+      </c>
+      <c r="U58" s="1">
+        <v>58812</v>
+      </c>
+      <c r="V58" s="1">
+        <v>64709</v>
+      </c>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+      <c r="AB58" s="1">
+        <v>23663</v>
+      </c>
+      <c r="AC58" s="1">
+        <v>32439</v>
+      </c>
+      <c r="AD58" s="1">
+        <v>44138</v>
+      </c>
+      <c r="AE58" s="1">
+        <v>51775</v>
+      </c>
+      <c r="AF58" s="1">
+        <v>62566</v>
+      </c>
+      <c r="AG58" s="1">
+        <f t="shared" si="88"/>
+        <v>64709</v>
+      </c>
+    </row>
+    <row r="59" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
         <v>77</v>
       </c>
-      <c r="J55" s="1">
-        <v>72539</v>
-      </c>
-      <c r="N55" s="1">
-        <v>78664</v>
-      </c>
-      <c r="R55" s="1">
-        <v>79600</v>
-      </c>
-      <c r="T55" s="1">
-        <v>69481</v>
-      </c>
-      <c r="Y55" s="1">
-        <v>38192</v>
-      </c>
-      <c r="Z55" s="1">
-        <v>47183</v>
-      </c>
-      <c r="AA55" s="1">
-        <v>72539</v>
-      </c>
-      <c r="AB55" s="1">
-        <v>78664</v>
-      </c>
-      <c r="AC55" s="1">
-        <v>79600</v>
-      </c>
-      <c r="AD55" s="1"/>
-    </row>
-    <row r="56" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+      <c r="J59" s="1">
+        <v>9708</v>
+      </c>
+      <c r="N59" s="1">
+        <v>11827</v>
+      </c>
+      <c r="R59" s="1">
+        <v>13227</v>
+      </c>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1">
+        <v>14522</v>
+      </c>
+      <c r="U59" s="1">
+        <v>14398</v>
+      </c>
+      <c r="V59" s="1">
+        <v>15227</v>
+      </c>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+      <c r="AB59" s="1">
+        <v>6536</v>
+      </c>
+      <c r="AC59" s="1">
+        <v>8190</v>
+      </c>
+      <c r="AD59" s="1">
+        <v>9708</v>
+      </c>
+      <c r="AE59" s="1">
+        <v>11827</v>
+      </c>
+      <c r="AF59" s="1">
+        <v>13227</v>
+      </c>
+      <c r="AG59" s="1">
+        <f t="shared" si="88"/>
+        <v>15227</v>
+      </c>
+    </row>
+    <row r="60" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" s="5">
+        <f t="shared" ref="C60:S60" si="89">SUM(C57:C59)</f>
+        <v>0</v>
+      </c>
+      <c r="D60" s="5">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="E60" s="5">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="F60" s="5">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="G60" s="5">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="H60" s="5">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="5">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="5">
+        <f t="shared" si="89"/>
+        <v>126385</v>
+      </c>
+      <c r="K60" s="5">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="L60" s="5">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="5">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="N60" s="5">
+        <f t="shared" si="89"/>
+        <v>142266</v>
+      </c>
+      <c r="O60" s="5">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="P60" s="5">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="Q60" s="5">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="R60" s="5">
+        <f t="shared" si="89"/>
+        <v>155393</v>
+      </c>
+      <c r="S60" s="5">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="T60" s="5">
+        <f>SUM(T57:T59)</f>
+        <v>148238</v>
+      </c>
+      <c r="U60" s="5">
+        <f t="shared" ref="U60:X60" si="90">SUM(U57:U59)</f>
+        <v>145214</v>
+      </c>
+      <c r="V60" s="5">
+        <f t="shared" si="90"/>
+        <v>164917</v>
+      </c>
+      <c r="W60" s="5">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="X60" s="5">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AB60" s="5">
+        <f t="shared" ref="AB60:AG60" si="91">SUM(AB57:AB59)</f>
+        <v>68391</v>
+      </c>
+      <c r="AC60" s="5">
+        <f t="shared" si="91"/>
+        <v>87812</v>
+      </c>
+      <c r="AD60" s="5">
+        <f t="shared" si="91"/>
+        <v>126385</v>
+      </c>
+      <c r="AE60" s="5">
+        <f t="shared" si="91"/>
+        <v>142266</v>
+      </c>
+      <c r="AF60" s="5">
+        <f t="shared" si="91"/>
+        <v>155393</v>
+      </c>
+      <c r="AG60" s="5">
+        <f t="shared" si="91"/>
+        <v>164917</v>
+      </c>
+    </row>
+    <row r="61" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
         <v>78</v>
       </c>
-      <c r="J56" s="1">
-        <v>44138</v>
-      </c>
-      <c r="N56" s="1">
-        <v>51775</v>
-      </c>
-      <c r="R56" s="1">
-        <v>62566</v>
-      </c>
-      <c r="T56" s="1">
-        <v>64235</v>
-      </c>
-      <c r="Y56" s="1">
-        <v>23663</v>
-      </c>
-      <c r="Z56" s="1">
-        <v>32439</v>
-      </c>
-      <c r="AA56" s="1">
-        <v>44138</v>
-      </c>
-      <c r="AB56" s="1">
-        <v>51775</v>
-      </c>
-      <c r="AC56" s="1">
-        <v>62566</v>
-      </c>
-      <c r="AD56" s="1"/>
-    </row>
-    <row r="57" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+      <c r="J61" s="1">
+        <v>52573</v>
+      </c>
+      <c r="N61" s="1">
+        <v>67651</v>
+      </c>
+      <c r="R61" s="1">
+        <v>72968</v>
+      </c>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1">
+        <v>75822</v>
+      </c>
+      <c r="U61" s="1">
+        <v>75891</v>
+      </c>
+      <c r="V61" s="1">
+        <v>77297</v>
+      </c>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+      <c r="AB61" s="1">
+        <v>9650</v>
+      </c>
+      <c r="AC61" s="1">
+        <v>39791</v>
+      </c>
+      <c r="AD61" s="1">
+        <v>52573</v>
+      </c>
+      <c r="AE61" s="1">
+        <v>67651</v>
+      </c>
+      <c r="AF61" s="1">
+        <v>72968</v>
+      </c>
+      <c r="AG61" s="1">
+        <f t="shared" ref="AG61:AG63" si="92">V61</f>
+        <v>77297</v>
+      </c>
+    </row>
+    <row r="62" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
         <v>79</v>
       </c>
-      <c r="J57" s="1">
-        <v>9708</v>
-      </c>
-      <c r="N57" s="1">
-        <v>11827</v>
-      </c>
-      <c r="R57" s="1">
-        <v>13227</v>
-      </c>
-      <c r="T57" s="1">
-        <v>14522</v>
-      </c>
-      <c r="Y57" s="1">
-        <v>6536</v>
-      </c>
-      <c r="Z57" s="1">
-        <v>8190</v>
-      </c>
-      <c r="AA57" s="1">
-        <v>9708</v>
-      </c>
-      <c r="AB57" s="1">
-        <v>11827</v>
-      </c>
-      <c r="AC57" s="1">
-        <v>13227</v>
-      </c>
-      <c r="AD57" s="1"/>
-    </row>
-    <row r="58" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+      <c r="J62" s="1">
+        <v>31816</v>
+      </c>
+      <c r="N62" s="1">
+        <v>48744</v>
+      </c>
+      <c r="R62" s="1">
+        <v>67150</v>
+      </c>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1">
+        <v>63092</v>
+      </c>
+      <c r="U62" s="1">
+        <v>61098</v>
+      </c>
+      <c r="V62" s="1">
+        <v>58314</v>
+      </c>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
+      <c r="AB62" s="1">
+        <v>23495</v>
+      </c>
+      <c r="AC62" s="1">
+        <v>23414</v>
+      </c>
+      <c r="AD62" s="1">
+        <v>31816</v>
+      </c>
+      <c r="AE62" s="1">
+        <v>48744</v>
+      </c>
+      <c r="AF62" s="1">
+        <v>67150</v>
+      </c>
+      <c r="AG62" s="1">
+        <f t="shared" si="92"/>
+        <v>58314</v>
+      </c>
+    </row>
+    <row r="63" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
         <v>80</v>
       </c>
-      <c r="J58" s="1">
-        <v>52573</v>
-      </c>
-      <c r="N58" s="1">
-        <v>67651</v>
-      </c>
-      <c r="R58" s="1">
-        <v>72968</v>
-      </c>
-      <c r="T58" s="1">
-        <v>75822</v>
-      </c>
-      <c r="Y58" s="1">
-        <v>9650</v>
-      </c>
-      <c r="Z58" s="1">
-        <v>39791</v>
-      </c>
-      <c r="AA58" s="1">
-        <v>52573</v>
-      </c>
-      <c r="AB58" s="1">
-        <v>67651</v>
-      </c>
-      <c r="AC58" s="1">
-        <v>72968</v>
-      </c>
-      <c r="AD58" s="1"/>
-    </row>
-    <row r="59" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+      <c r="J63" s="1">
+        <v>17017</v>
+      </c>
+      <c r="N63" s="1">
+        <v>23643</v>
+      </c>
+      <c r="R63" s="1">
+        <v>21121</v>
+      </c>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1">
+        <v>21853</v>
+      </c>
+      <c r="U63" s="1">
+        <v>21707</v>
+      </c>
+      <c r="V63" s="1">
+        <v>25451</v>
+      </c>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+      <c r="AB63" s="1">
+        <v>17563</v>
+      </c>
+      <c r="AC63" s="1">
+        <v>12171</v>
+      </c>
+      <c r="AD63" s="1">
+        <v>17017</v>
+      </c>
+      <c r="AE63" s="1">
+        <v>23643</v>
+      </c>
+      <c r="AF63" s="1">
+        <v>21121</v>
+      </c>
+      <c r="AG63" s="1">
+        <f t="shared" si="92"/>
+        <v>25451</v>
+      </c>
+    </row>
+    <row r="64" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" s="5">
+        <f t="shared" ref="C64:I64" si="93">SUM(C60:C63)</f>
+        <v>0</v>
+      </c>
+      <c r="D64" s="5">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="E64" s="5">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="F64" s="5">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="5">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="H64" s="5">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="5">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="5">
+        <f>SUM(J60:J63)</f>
+        <v>227791</v>
+      </c>
+      <c r="K64" s="5">
+        <f t="shared" ref="K64:T64" si="94">SUM(K60:K63)</f>
+        <v>0</v>
+      </c>
+      <c r="L64" s="5">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="M64" s="5">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="N64" s="5">
+        <f t="shared" si="94"/>
+        <v>282304</v>
+      </c>
+      <c r="O64" s="5">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="P64" s="5">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="Q64" s="5">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="R64" s="5">
+        <f t="shared" si="94"/>
+        <v>316632</v>
+      </c>
+      <c r="S64" s="5">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="T64" s="5">
+        <f t="shared" si="94"/>
+        <v>309005</v>
+      </c>
+      <c r="U64" s="5">
+        <f t="shared" ref="U64" si="95">SUM(U60:U63)</f>
+        <v>303910</v>
+      </c>
+      <c r="V64" s="5">
+        <f t="shared" ref="V64" si="96">SUM(V60:V63)</f>
+        <v>325979</v>
+      </c>
+      <c r="W64" s="5">
+        <f t="shared" ref="W64" si="97">SUM(W60:W63)</f>
+        <v>0</v>
+      </c>
+      <c r="X64" s="5">
+        <f t="shared" ref="X64" si="98">SUM(X60:X63)</f>
+        <v>0</v>
+      </c>
+      <c r="AB64" s="5">
+        <f t="shared" ref="AB64" si="99">SUM(AB60:AB63)</f>
+        <v>119099</v>
+      </c>
+      <c r="AC64" s="5">
+        <f t="shared" ref="AC64" si="100">SUM(AC60:AC63)</f>
+        <v>163188</v>
+      </c>
+      <c r="AD64" s="5">
+        <f t="shared" ref="AD64" si="101">SUM(AD60:AD63)</f>
+        <v>227791</v>
+      </c>
+      <c r="AE64" s="5">
+        <f t="shared" ref="AE64" si="102">SUM(AE60:AE63)</f>
+        <v>282304</v>
+      </c>
+      <c r="AF64" s="5">
+        <f t="shared" ref="AF64:AG64" si="103">SUM(AF60:AF63)</f>
+        <v>316632</v>
+      </c>
+      <c r="AG64" s="5">
+        <f t="shared" si="103"/>
+        <v>325979</v>
+      </c>
+    </row>
+    <row r="65" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
         <v>81</v>
       </c>
-      <c r="J59" s="1">
-        <v>31816</v>
-      </c>
-      <c r="N59" s="1">
-        <v>48744</v>
-      </c>
-      <c r="R59" s="1">
-        <v>67150</v>
-      </c>
-      <c r="T59" s="1">
-        <v>63092</v>
-      </c>
-      <c r="Y59" s="1">
-        <v>23495</v>
-      </c>
-      <c r="Z59" s="1">
-        <v>23414</v>
-      </c>
-      <c r="AA59" s="1">
-        <v>31816</v>
-      </c>
-      <c r="AB59" s="1">
-        <v>48744</v>
-      </c>
-      <c r="AC59" s="1">
-        <v>67150</v>
-      </c>
-      <c r="AD59" s="1"/>
-    </row>
-    <row r="60" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>82</v>
-      </c>
-      <c r="J60" s="1">
-        <v>17017</v>
-      </c>
-      <c r="N60" s="1">
-        <v>23643</v>
-      </c>
-      <c r="R60" s="1">
-        <v>21121</v>
-      </c>
-      <c r="T60" s="1">
-        <v>21853</v>
-      </c>
-      <c r="Y60" s="1">
-        <v>17563</v>
-      </c>
-      <c r="Z60" s="1">
-        <v>12171</v>
-      </c>
-      <c r="AA60" s="1">
-        <v>17017</v>
-      </c>
-      <c r="AB60" s="1">
-        <v>23643</v>
-      </c>
-      <c r="AC60" s="1">
-        <v>21121</v>
-      </c>
-      <c r="AD60" s="1"/>
-    </row>
-    <row r="61" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>83</v>
-      </c>
-      <c r="J61" s="1">
+      <c r="J65" s="1">
         <v>93404</v>
       </c>
-      <c r="N61" s="1">
+      <c r="N65" s="1">
         <v>138245</v>
       </c>
-      <c r="R61" s="1">
+      <c r="R65" s="1">
         <v>146043</v>
       </c>
-      <c r="T61" s="1">
+      <c r="S65" s="1"/>
+      <c r="T65" s="1">
         <v>168602</v>
       </c>
-      <c r="Y61" s="1">
+      <c r="U65" s="1">
+        <f>U56-U64</f>
+        <v>182973</v>
+      </c>
+      <c r="V65" s="1">
+        <f>V56-V64</f>
+        <v>201875</v>
+      </c>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+      <c r="AB65" s="1">
         <v>43549</v>
       </c>
-      <c r="Z61" s="1">
+      <c r="AC65" s="1">
         <v>62060</v>
       </c>
-      <c r="AA61" s="1">
+      <c r="AD65" s="1">
         <v>93404</v>
       </c>
-      <c r="AB61" s="1">
+      <c r="AE65" s="1">
         <v>138245</v>
       </c>
-      <c r="AC61" s="1">
+      <c r="AF65" s="1">
         <v>146043</v>
       </c>
-      <c r="AD61" s="1"/>
-    </row>
-    <row r="62" spans="2:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="J62" s="5">
-        <f>SUM(J55:J60)</f>
-        <v>227791</v>
-      </c>
-      <c r="N62" s="5">
-        <f>SUM(N55:N60)</f>
-        <v>282304</v>
-      </c>
-      <c r="R62" s="5">
-        <f>SUM(R55:R60)</f>
-        <v>316632</v>
-      </c>
-      <c r="T62" s="5">
-        <f>SUM(T55:T60)</f>
-        <v>309005</v>
-      </c>
-      <c r="Y62" s="5">
-        <f>SUM(Y55:Y60)</f>
-        <v>119099</v>
-      </c>
-      <c r="Z62" s="5">
-        <f>SUM(Z55:Z60)</f>
-        <v>163188</v>
-      </c>
-      <c r="AA62" s="5">
-        <f>SUM(AA55:AA60)</f>
-        <v>227791</v>
-      </c>
-      <c r="AB62" s="5">
-        <f>SUM(AB55:AB60)</f>
-        <v>282304</v>
-      </c>
-      <c r="AC62" s="5">
-        <f>SUM(AC55:AC60)</f>
-        <v>316632</v>
-      </c>
-      <c r="AD62" s="1"/>
-    </row>
-    <row r="63" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="AA63" s="1"/>
-    </row>
-    <row r="64" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="AC64" s="7"/>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="AC65" s="7"/>
-    </row>
-    <row r="66" spans="2:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="4" t="s">
+      <c r="AG65" s="1">
+        <f>AG56-AG64</f>
+        <v>201875</v>
+      </c>
+    </row>
+    <row r="66" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AF66" s="7"/>
+    </row>
+    <row r="67" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AF67" s="7"/>
+    </row>
+    <row r="68" spans="2:33" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="P66" s="5">
+      <c r="P68" s="5">
         <v>36599</v>
       </c>
-      <c r="Q66" s="5">
-        <f>P91</f>
+      <c r="Q68" s="5">
+        <f>P93</f>
         <v>37700</v>
       </c>
-      <c r="R66" s="5">
-        <f>Q91</f>
-        <v>0</v>
-      </c>
-      <c r="S66" s="5">
-        <f>R91</f>
-        <v>0</v>
-      </c>
-      <c r="T66" s="5">
-        <f>S91</f>
+      <c r="R68" s="5">
+        <f>Q93</f>
+        <v>0</v>
+      </c>
+      <c r="S68" s="5">
+        <f>R93</f>
+        <v>0</v>
+      </c>
+      <c r="T68" s="5">
+        <f>S93</f>
         <v>49734</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+    <row r="69" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>93</v>
+      </c>
+      <c r="P69" s="1">
+        <v>-2028</v>
+      </c>
+      <c r="T69" s="1">
+        <v>6750</v>
+      </c>
+    </row>
+    <row r="70" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>94</v>
+      </c>
+      <c r="P70" s="1">
+        <v>9716</v>
+      </c>
+      <c r="T70" s="1">
+        <v>11589</v>
+      </c>
+    </row>
+    <row r="71" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>95</v>
+      </c>
+      <c r="P71" s="1">
+        <v>5209</v>
+      </c>
+      <c r="T71" s="1">
+        <v>7127</v>
+      </c>
+    </row>
+    <row r="72" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
         <v>96</v>
       </c>
-      <c r="P67" s="1">
-        <v>-2028</v>
-      </c>
-      <c r="T67" s="1">
-        <v>6750</v>
-      </c>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
+      <c r="P72" s="1">
+        <v>6104</v>
+      </c>
+      <c r="T72" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="73" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
         <v>97</v>
       </c>
-      <c r="P68" s="1">
-        <v>9716</v>
-      </c>
-      <c r="T68" s="1">
-        <v>11589</v>
-      </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
+      <c r="P73" s="1">
+        <v>-1955</v>
+      </c>
+      <c r="T73" s="1">
+        <v>-2744</v>
+      </c>
+    </row>
+    <row r="74" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>70</v>
+      </c>
+      <c r="P74" s="1">
+        <v>-3890</v>
+      </c>
+      <c r="T74" s="1">
+        <v>-2373</v>
+      </c>
+    </row>
+    <row r="75" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>71</v>
+      </c>
+      <c r="P75" s="1">
+        <v>-6799</v>
+      </c>
+      <c r="T75" s="1">
+        <v>-5167</v>
+      </c>
+    </row>
+    <row r="76" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>75</v>
+      </c>
+      <c r="P76" s="1">
+        <v>3699</v>
+      </c>
+      <c r="T76" s="1">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="77" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
         <v>98</v>
       </c>
-      <c r="P69" s="1">
-        <v>5209</v>
-      </c>
-      <c r="T69" s="1">
-        <v>7127</v>
-      </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
+      <c r="P77" s="1">
+        <v>-1412</v>
+      </c>
+      <c r="T77" s="1">
+        <v>-1938</v>
+      </c>
+    </row>
+    <row r="78" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>77</v>
+      </c>
+      <c r="P78" s="1">
+        <v>321</v>
+      </c>
+      <c r="T78" s="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="79" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
         <v>99</v>
       </c>
-      <c r="P70" s="1">
-        <v>6104</v>
-      </c>
-      <c r="T70" s="1">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
+      <c r="P79" s="1">
+        <v>-15724</v>
+      </c>
+      <c r="T79" s="1">
+        <v>-11455</v>
+      </c>
+    </row>
+    <row r="80" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
         <v>100</v>
       </c>
-      <c r="P71" s="1">
-        <v>-1955</v>
-      </c>
-      <c r="T71" s="1">
-        <v>-2744</v>
-      </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>71</v>
-      </c>
-      <c r="P72" s="1">
-        <v>-3890</v>
-      </c>
-      <c r="T72" s="1">
-        <v>-2373</v>
-      </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>72</v>
-      </c>
-      <c r="P73" s="1">
-        <v>-6799</v>
-      </c>
-      <c r="T73" s="1">
-        <v>-5167</v>
-      </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>77</v>
-      </c>
-      <c r="P74" s="1">
-        <v>3699</v>
-      </c>
-      <c r="T74" s="1">
-        <v>3029</v>
-      </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>101</v>
-      </c>
-      <c r="P75" s="1">
-        <v>-1412</v>
-      </c>
-      <c r="T75" s="1">
-        <v>-1938</v>
-      </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>79</v>
-      </c>
-      <c r="P76" s="1">
-        <v>321</v>
-      </c>
-      <c r="T76" s="1">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>102</v>
-      </c>
-      <c r="P77" s="1">
-        <v>-15724</v>
-      </c>
-      <c r="T77" s="1">
-        <v>-11455</v>
-      </c>
-    </row>
-    <row r="78" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>103</v>
-      </c>
-      <c r="P78" s="1">
+      <c r="P80" s="1">
         <v>1626</v>
       </c>
-      <c r="T78" s="1">
+      <c r="T80" s="1">
         <v>1043</v>
-      </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>104</v>
-      </c>
-      <c r="P79" s="1">
-        <v>-259</v>
-      </c>
-      <c r="T79" s="1">
-        <v>-316</v>
-      </c>
-    </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>105</v>
-      </c>
-      <c r="P80" s="1">
-        <v>2608</v>
-      </c>
-      <c r="T80" s="1">
-        <v>1551</v>
       </c>
     </row>
     <row r="81" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="P81" s="1">
-        <v>-329</v>
+        <v>-259</v>
       </c>
       <c r="T81" s="1">
-        <v>-496</v>
+        <v>-316</v>
       </c>
     </row>
     <row r="82" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="P82" s="1">
-        <v>-3334</v>
+        <v>2608</v>
       </c>
       <c r="T82" s="1">
-        <v>0</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="83" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="P83" s="1">
-        <v>4865</v>
+        <v>-329</v>
       </c>
       <c r="T83" s="1">
-        <v>4399</v>
+        <v>-496</v>
       </c>
     </row>
     <row r="84" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="P84" s="1">
-        <v>-7610</v>
+        <v>-3334</v>
       </c>
       <c r="T84" s="1">
-        <v>-7641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="P85" s="1">
-        <v>12824</v>
+        <v>4865</v>
       </c>
       <c r="T85" s="1">
-        <v>0</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="86" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="P86" s="1">
-        <v>-1</v>
+        <v>-7610</v>
       </c>
       <c r="T86" s="1">
-        <v>-2000</v>
+        <v>-7641</v>
       </c>
     </row>
     <row r="87" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="P87" s="1">
-        <v>-2059</v>
+        <v>12824</v>
       </c>
       <c r="T87" s="1">
-        <v>-77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="P88" s="1">
-        <v>-59</v>
+        <v>-1</v>
       </c>
       <c r="T88" s="1">
-        <v>-1220</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="89" spans="2:20" x14ac:dyDescent="0.25">
@@ -4980,38 +6278,60 @@
         <v>113</v>
       </c>
       <c r="P89" s="1">
-        <v>-412</v>
+        <v>-2059</v>
       </c>
       <c r="T89" s="1">
-        <v>69</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="90" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>114</v>
-      </c>
-      <c r="P90" s="10">
-        <f>SUM(P67:P89)</f>
+        <v>109</v>
+      </c>
+      <c r="P90" s="1">
+        <v>-59</v>
+      </c>
+      <c r="T90" s="1">
+        <v>-1220</v>
+      </c>
+    </row>
+    <row r="91" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>110</v>
+      </c>
+      <c r="P91" s="1">
+        <v>-412</v>
+      </c>
+      <c r="T91" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="92" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>111</v>
+      </c>
+      <c r="P92" s="10">
+        <f>SUM(P69:P91)</f>
         <v>1101</v>
       </c>
-      <c r="T90" s="10">
-        <f>SUM(T67:T89)</f>
+      <c r="T92" s="10">
+        <f>SUM(T69:T91)</f>
         <v>333</v>
       </c>
     </row>
-    <row r="91" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="P91" s="5">
-        <f>P66+P90</f>
+    <row r="93" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="P93" s="5">
+        <f>P68+P92</f>
         <v>37700</v>
       </c>
-      <c r="S91" s="5">
+      <c r="S93" s="5">
         <v>49734</v>
       </c>
-      <c r="T91" s="5">
-        <f>T66+T90</f>
+      <c r="T93" s="5">
+        <f>T68+T92</f>
         <v>50067</v>
       </c>
     </row>
@@ -5027,13 +6347,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE45FBC5-94D3-4631-B6C6-3844514F6EB8}">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S15" sqref="S15"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5041,7 +6361,7 @@
     <col min="1" max="1" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -5075,32 +6395,39 @@
       <c r="K1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="N1" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="O1" s="4" t="s">
+      <c r="L1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B2" s="1">
         <v>52901</v>
@@ -5112,7 +6439,7 @@
         <v>49942</v>
       </c>
       <c r="E2" s="1">
-        <f>R2-D2-C2-B2</f>
+        <f>T2-D2-C2-B2</f>
         <v>66075</v>
       </c>
       <c r="F2" s="1">
@@ -5125,7 +6452,7 @@
         <v>53489</v>
       </c>
       <c r="I2" s="1">
-        <f>S2-H2-G2-F2</f>
+        <f>U2-H2-G2-F2</f>
         <v>64531</v>
       </c>
       <c r="J2" s="1">
@@ -5134,30 +6461,38 @@
       <c r="K2" s="1">
         <v>52966</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="N2" s="1">
+      <c r="L2" s="1">
+        <v>57267</v>
+      </c>
+      <c r="M2" s="1">
+        <f>V2-L2-K2-J2</f>
+        <v>70543</v>
+      </c>
+      <c r="P2" s="1">
         <v>108354</v>
       </c>
-      <c r="O2" s="1">
+      <c r="Q2" s="1">
         <v>122987</v>
       </c>
-      <c r="P2" s="1">
+      <c r="R2" s="1">
         <v>141247</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="S2" s="1">
         <v>197346</v>
       </c>
-      <c r="R2" s="1">
+      <c r="T2" s="1">
         <v>222075</v>
       </c>
-      <c r="S2" s="1">
+      <c r="U2" s="1">
         <v>220004</v>
       </c>
-      <c r="T2" s="1"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V2" s="1">
+        <v>231872</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B3" s="1">
         <v>3920</v>
@@ -5169,7 +6504,7 @@
         <v>4269</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E9" si="0">R3-D3-C3-B3</f>
+        <f>T3-D3-C3-B3</f>
         <v>4688</v>
       </c>
       <c r="F3" s="1">
@@ -5182,7 +6517,7 @@
         <v>4694</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I8" si="1">S3-H3-G3-F3</f>
+        <f>U3-H3-G3-F3</f>
         <v>4957</v>
       </c>
       <c r="J3" s="1">
@@ -5191,30 +6526,38 @@
       <c r="K3" s="1">
         <v>5024</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="N3" s="1">
+      <c r="L3" s="1">
+        <v>4959</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:M8" si="0">V3-L3-K3-J3</f>
+        <v>5152</v>
+      </c>
+      <c r="P3" s="1">
         <v>5798</v>
       </c>
-      <c r="O3" s="1">
+      <c r="Q3" s="1">
         <v>17224</v>
       </c>
-      <c r="P3" s="1">
+      <c r="R3" s="1">
         <v>17192</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="S3" s="1">
         <v>16227</v>
       </c>
-      <c r="R3" s="1">
+      <c r="T3" s="1">
         <v>17075</v>
       </c>
-      <c r="S3" s="1">
+      <c r="U3" s="1">
         <v>18963</v>
       </c>
-      <c r="T3" s="1"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V3" s="1">
+        <v>20030</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B4" s="1">
         <v>23709</v>
@@ -5226,7 +6569,7 @@
         <v>24252</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" si="0"/>
+        <f>T4-D4-C4-B4</f>
         <v>30320</v>
       </c>
       <c r="F4" s="1">
@@ -5239,7 +6582,7 @@
         <v>28666</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" si="1"/>
+        <f>U4-H4-G4-F4</f>
         <v>36339</v>
       </c>
       <c r="J4" s="1">
@@ -5248,30 +6591,38 @@
       <c r="K4" s="1">
         <v>32332</v>
       </c>
-      <c r="L4" s="1"/>
-      <c r="N4" s="1">
+      <c r="L4" s="1">
+        <v>34342</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="0"/>
+        <v>43559</v>
+      </c>
+      <c r="P4" s="1">
         <v>31881</v>
       </c>
-      <c r="O4" s="1">
+      <c r="Q4" s="1">
         <v>42745</v>
       </c>
-      <c r="P4" s="1">
+      <c r="R4" s="1">
         <v>53762</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="S4" s="1">
         <v>80461</v>
       </c>
-      <c r="R4" s="1">
+      <c r="T4" s="1">
         <v>103366</v>
       </c>
-      <c r="S4" s="1">
+      <c r="U4" s="1">
         <v>117716</v>
       </c>
-      <c r="T4" s="1"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V4" s="1">
+        <v>140053</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B5" s="1">
         <v>7580</v>
@@ -5283,7 +6634,7 @@
         <v>8148</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="0"/>
+        <f>T5-D5-C5-B5</f>
         <v>8123</v>
       </c>
       <c r="F5" s="1">
@@ -5296,7 +6647,7 @@
         <v>8903</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="1"/>
+        <f>U5-H5-G5-F5</f>
         <v>9189</v>
       </c>
       <c r="J5" s="1">
@@ -5305,30 +6656,38 @@
       <c r="K5" s="1">
         <v>9894</v>
       </c>
-      <c r="L5" s="1"/>
-      <c r="N5" s="1">
+      <c r="L5" s="1">
+        <v>10170</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="0"/>
+        <v>17185</v>
+      </c>
+      <c r="P5" s="1">
         <v>9721</v>
       </c>
-      <c r="O5" s="1">
+      <c r="Q5" s="1">
         <v>14168</v>
       </c>
-      <c r="P5" s="1">
+      <c r="R5" s="1">
         <v>19210</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="S5" s="1">
         <v>25207</v>
       </c>
-      <c r="R5" s="1">
+      <c r="T5" s="1">
         <v>31768</v>
       </c>
-      <c r="S5" s="1">
+      <c r="U5" s="1">
         <v>35218</v>
       </c>
-      <c r="T5" s="1"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V5" s="1">
+        <v>46906</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1">
         <v>6381</v>
@@ -5340,7 +6699,7 @@
         <v>7512</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="0"/>
+        <f>T6-D6-C6-B6</f>
         <v>9816</v>
       </c>
       <c r="F6" s="1">
@@ -5353,7 +6712,7 @@
         <v>9548</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="1"/>
+        <f>U6-H6-G6-F6</f>
         <v>11557</v>
       </c>
       <c r="J6" s="1">
@@ -5362,28 +6721,36 @@
       <c r="K6" s="1">
         <v>10683</v>
       </c>
-      <c r="L6" s="1"/>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1"/>
+      <c r="L6" s="1">
+        <v>12060</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="0"/>
+        <v>7957</v>
+      </c>
       <c r="P6" s="1">
         <v>0</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
         <v>19773</v>
       </c>
-      <c r="R6" s="1">
+      <c r="T6" s="1">
         <v>31160</v>
       </c>
-      <c r="S6" s="1">
+      <c r="U6" s="1">
         <v>37739</v>
       </c>
-      <c r="T6" s="1"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V6" s="1">
+        <v>40209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="1">
         <v>13503</v>
@@ -5395,7 +6762,7 @@
         <v>16110</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="0"/>
+        <f>T7-D7-C7-B7</f>
         <v>17780</v>
       </c>
       <c r="F7" s="1">
@@ -5408,7 +6775,7 @@
         <v>20538</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="1"/>
+        <f>U7-H7-G7-F7</f>
         <v>21378</v>
       </c>
       <c r="J7" s="1">
@@ -5417,30 +6784,38 @@
       <c r="K7" s="1">
         <v>22140</v>
       </c>
-      <c r="L7" s="1"/>
-      <c r="N7" s="1">
+      <c r="L7" s="1">
+        <v>23059</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="0"/>
+        <v>24204</v>
+      </c>
+      <c r="P7" s="1">
         <v>17459</v>
       </c>
-      <c r="O7" s="1">
+      <c r="Q7" s="1">
         <v>25655</v>
       </c>
-      <c r="P7" s="1">
+      <c r="R7" s="1">
         <v>35026</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="S7" s="1">
         <v>45370</v>
       </c>
-      <c r="R7" s="1">
+      <c r="T7" s="1">
         <v>62202</v>
       </c>
-      <c r="S7" s="1">
+      <c r="U7" s="1">
         <v>80096</v>
       </c>
-      <c r="T7" s="1"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V7" s="1">
+        <v>90757</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1">
         <v>524</v>
@@ -5452,7 +6827,7 @@
         <v>479</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="0"/>
+        <f>T8-D8-C8-B8</f>
         <v>710</v>
       </c>
       <c r="F8" s="1">
@@ -5465,7 +6840,7 @@
         <v>1263</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="1"/>
+        <f>U8-H8-G8-F8</f>
         <v>1253</v>
       </c>
       <c r="J8" s="1">
@@ -5474,28 +6849,36 @@
       <c r="K8" s="1">
         <v>1344</v>
       </c>
-      <c r="L8" s="1"/>
-      <c r="N8" s="1">
+      <c r="L8" s="1">
+        <v>1226</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="0"/>
+        <v>1361</v>
+      </c>
+      <c r="P8" s="1">
         <v>4653</v>
       </c>
-      <c r="O8" s="1">
+      <c r="Q8" s="1">
         <v>10108</v>
       </c>
-      <c r="P8" s="1">
+      <c r="R8" s="1">
         <v>14085</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="S8" s="1">
         <v>1680</v>
       </c>
-      <c r="R8" s="1">
+      <c r="T8" s="1">
         <v>2176</v>
       </c>
-      <c r="S8" s="1">
+      <c r="U8" s="1">
         <v>4247</v>
       </c>
-      <c r="T8" s="1"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V8" s="1">
+        <v>4958</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <f>SUM(B2:B8)</f>
         <v>108518</v>
@@ -5509,255 +6892,311 @@
         <v>110712</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="0"/>
+        <f>T9-D9-C9-B9</f>
         <v>137512</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" ref="F9:K9" si="2">SUM(F2:F8)</f>
+        <f t="shared" ref="F9:M9" si="1">SUM(F2:F8)</f>
         <v>116444</v>
       </c>
       <c r="G9" s="1">
+        <f t="shared" si="1"/>
+        <v>121234</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="1"/>
+        <v>127101</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="1"/>
+        <v>149204</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="1"/>
+        <v>127358</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="1"/>
+        <v>134383</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="1"/>
+        <v>143083</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="1"/>
+        <v>169961</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" ref="P9:V9" si="2">SUM(P2:P8)</f>
+        <v>177866</v>
+      </c>
+      <c r="Q9" s="1">
         <f t="shared" si="2"/>
-        <v>121234</v>
-      </c>
-      <c r="H9" s="1">
+        <v>232887</v>
+      </c>
+      <c r="R9" s="1">
         <f t="shared" si="2"/>
-        <v>127101</v>
-      </c>
-      <c r="I9" s="1">
+        <v>280522</v>
+      </c>
+      <c r="S9" s="1">
         <f t="shared" si="2"/>
-        <v>149204</v>
-      </c>
-      <c r="J9" s="1">
+        <v>386064</v>
+      </c>
+      <c r="T9" s="1">
         <f t="shared" si="2"/>
-        <v>127358</v>
-      </c>
-      <c r="K9" s="1">
+        <v>469822</v>
+      </c>
+      <c r="U9" s="1">
         <f t="shared" si="2"/>
-        <v>134383</v>
-      </c>
-      <c r="L9" s="1"/>
-      <c r="N9" s="1">
-        <f t="shared" ref="N9:T9" si="3">SUM(N2:N8)</f>
-        <v>177866</v>
-      </c>
-      <c r="O9" s="1">
-        <f t="shared" si="3"/>
-        <v>232887</v>
-      </c>
-      <c r="P9" s="1">
-        <f t="shared" si="3"/>
-        <v>280522</v>
-      </c>
-      <c r="Q9" s="1">
-        <f t="shared" si="3"/>
-        <v>386064</v>
-      </c>
-      <c r="R9" s="1">
-        <f t="shared" si="3"/>
-        <v>469822</v>
-      </c>
-      <c r="S9" s="1">
-        <f t="shared" si="3"/>
         <v>513983</v>
       </c>
-      <c r="T9" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V9" s="1">
+        <f t="shared" si="2"/>
+        <v>574785</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F12" s="7">
         <f>F2/B2-1</f>
         <v>-3.3496531256497986E-2</v>
       </c>
       <c r="G12" s="7">
-        <f t="shared" ref="G12:K12" si="4">G2/C2-1</f>
+        <f t="shared" ref="G12:K12" si="3">G2/C2-1</f>
         <v>-4.3305679402524611E-2</v>
       </c>
       <c r="H12" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7.102238596772259E-2</v>
       </c>
       <c r="I12" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-2.3367385546727237E-2</v>
       </c>
       <c r="J12" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-6.4542627471686487E-4</v>
       </c>
       <c r="K12" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.1510175990561393E-2</v>
       </c>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7">
-        <f t="shared" ref="O12:Q12" si="5">O2/N2-1</f>
+      <c r="L12" s="7">
+        <f t="shared" ref="L12" si="4">L2/H2-1</f>
+        <v>7.0631344762474457E-2</v>
+      </c>
+      <c r="M12" s="7">
+        <f t="shared" ref="M12" si="5">M2/I2-1</f>
+        <v>9.3164525576854507E-2</v>
+      </c>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7">
+        <f t="shared" ref="Q12:S12" si="6">Q2/P2-1</f>
         <v>0.13504808313490968</v>
       </c>
-      <c r="P12" s="7">
-        <f t="shared" si="5"/>
+      <c r="R12" s="7">
+        <f t="shared" si="6"/>
         <v>0.14847097660728359</v>
       </c>
-      <c r="Q12" s="7">
-        <f t="shared" si="5"/>
+      <c r="S12" s="7">
+        <f t="shared" si="6"/>
         <v>0.39716949740525465</v>
       </c>
-      <c r="R12" s="7">
-        <f>R2/Q2-1</f>
+      <c r="T12" s="7">
+        <f>T2/S2-1</f>
         <v>0.12530783497005249</v>
       </c>
-      <c r="S12" s="7">
-        <f>S2/R2-1</f>
+      <c r="U12" s="7">
+        <f>U2/T2-1</f>
         <v>-9.3256782618484912E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V12" s="7">
+        <f>V2/U2-1</f>
+        <v>5.3944473736841081E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7">
-        <f t="shared" ref="F13:K13" si="6">F6/B6-1</f>
+        <f t="shared" ref="F13:K13" si="7">F6/B6-1</f>
         <v>0.23444601159692846</v>
       </c>
       <c r="G13" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.17527848610924712</v>
       </c>
       <c r="H13" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.27103301384451539</v>
       </c>
       <c r="I13" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.17736348818255898</v>
       </c>
       <c r="J13" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.20718547670432907</v>
       </c>
       <c r="K13" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.21993833504624871</v>
       </c>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
+      <c r="L13" s="7">
+        <f t="shared" ref="L13:L14" si="8">L6/H6-1</f>
+        <v>0.26309174696271476</v>
+      </c>
+      <c r="M13" s="7">
+        <f>M6/I6-1</f>
+        <v>-0.31149952409794934</v>
+      </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
-      <c r="R13" s="7">
-        <f>R6/Q6-1</f>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7">
+        <f>T6/S6-1</f>
         <v>0.57588630961412024</v>
       </c>
-      <c r="S13" s="7">
-        <f>S6/R6-1</f>
+      <c r="U13" s="7">
+        <f>U6/T6-1</f>
         <v>0.21113607188703476</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V13" s="7">
+        <f>V6/U6-1</f>
+        <v>6.5449534963830436E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F14" s="7">
         <f>F7/B7-1</f>
         <v>0.36569651188624741</v>
       </c>
       <c r="G14" s="7">
-        <f t="shared" ref="G14:K14" si="7">G7/C7-1</f>
+        <f t="shared" ref="G14:K14" si="9">G7/C7-1</f>
         <v>0.33290566547369838</v>
       </c>
       <c r="H14" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.27486033519553077</v>
       </c>
       <c r="I14" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.20236220472440936</v>
       </c>
       <c r="J14" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.157963234097934</v>
       </c>
       <c r="K14" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.12163736764780375</v>
       </c>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7">
-        <f t="shared" ref="O14:Q14" si="8">O7/N7-1</f>
+      <c r="L14" s="7">
+        <f t="shared" si="8"/>
+        <v>0.1227480767358069</v>
+      </c>
+      <c r="M14" s="7">
+        <f t="shared" ref="M13:M14" si="10">M7/I7-1</f>
+        <v>0.13219197305641317</v>
+      </c>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7">
+        <f t="shared" ref="Q14:S14" si="11">Q7/P7-1</f>
         <v>0.46944269431238905</v>
       </c>
-      <c r="P14" s="7">
-        <f t="shared" si="8"/>
+      <c r="R14" s="7">
+        <f t="shared" si="11"/>
         <v>0.36526992788930035</v>
       </c>
-      <c r="Q14" s="7">
-        <f t="shared" si="8"/>
+      <c r="S14" s="7">
+        <f t="shared" si="11"/>
         <v>0.29532347399074976</v>
       </c>
-      <c r="R14" s="7">
-        <f>R7/Q7-1</f>
+      <c r="T14" s="7">
+        <f>T7/S7-1</f>
         <v>0.37099404893101173</v>
       </c>
-      <c r="S14" s="7">
-        <f>S7/R7-1</f>
+      <c r="U14" s="7">
+        <f>U7/T7-1</f>
         <v>0.28767563743931057</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V14" s="7">
+        <f>V7/U7-1</f>
+        <v>0.13310277666799841</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F15" s="7">
         <f>F4/B4-1</f>
         <v>6.8581551309629285E-2</v>
       </c>
       <c r="G15" s="7">
-        <f t="shared" ref="G15:K15" si="9">G4/C4-1</f>
+        <f t="shared" ref="G15:K15" si="12">G4/C4-1</f>
         <v>9.1329479768786026E-2</v>
       </c>
       <c r="H15" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.18200560778492503</v>
       </c>
       <c r="I15" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.19851583113456472</v>
       </c>
       <c r="J15" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.177027827116637</v>
       </c>
       <c r="K15" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.18103448275862077</v>
       </c>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7">
-        <f t="shared" ref="O15:Q15" si="10">O4/N4-1</f>
+      <c r="L15" s="7">
+        <f t="shared" ref="L15" si="13">L4/H4-1</f>
+        <v>0.19800460475825021</v>
+      </c>
+      <c r="M15" s="7">
+        <f t="shared" ref="M15" si="14">M4/I4-1</f>
+        <v>0.19868460882247718</v>
+      </c>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7">
+        <f t="shared" ref="Q15:S15" si="15">Q4/P4-1</f>
         <v>0.34076722812960702</v>
       </c>
-      <c r="P15" s="7">
-        <f t="shared" si="10"/>
+      <c r="R15" s="7">
+        <f t="shared" si="15"/>
         <v>0.25773774710492448</v>
       </c>
-      <c r="Q15" s="7">
-        <f t="shared" si="10"/>
+      <c r="S15" s="7">
+        <f t="shared" si="15"/>
         <v>0.49661470927420859</v>
       </c>
-      <c r="R15" s="7">
-        <f>R4/Q4-1</f>
+      <c r="T15" s="7">
+        <f>T4/S4-1</f>
         <v>0.28467207715539211</v>
       </c>
-      <c r="S15" s="7">
-        <f>S4/R4-1</f>
+      <c r="U15" s="7">
+        <f>U4/T4-1</f>
         <v>0.13882708047133496</v>
       </c>
+      <c r="V15" s="7">
+        <f>V4/U4-1</f>
+        <v>0.18975330456352579</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{0F37BD00-8BC5-4A2E-BAAF-684A290590FF}"/>
   </hyperlinks>

--- a/E-Com/AMZN.xlsx
+++ b/E-Com/AMZN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\E-Com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1D85BF-D888-4F96-A365-7EFFC41C7A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B619FC9-047E-4DB3-9767-D5E341C78980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -23,16 +23,16 @@
     <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">[1]Model!$B$25</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">[1]Model!$B$26</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">[1]Model!$L$25:$X$25</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">[1]Model!$L$26:$X$26</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">[1]Model!$L$2:$X$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">[1]Model!$B$6</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">[1]Model!$B$7</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">[1]Model!$L$2:$X$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">[1]Model!$L$6:$X$6</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">[1]Model!$L$7:$X$7</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">[1]Model!$B$6</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">[1]Model!$B$7</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">[1]Model!$L$2:$X$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">[1]Model!$L$6:$X$6</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">[1]Model!$L$7:$X$7</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">[1]Model!$B$25</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">[1]Model!$B$26</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">[1]Model!$L$25:$X$25</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">[1]Model!$L$26:$X$26</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">[1]Model!$L$2:$X$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -320,7 +320,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="256">
   <si>
     <t>Price</t>
   </si>
@@ -1086,6 +1086,9 @@
   <si>
     <t>EPS exp.</t>
   </si>
+  <si>
+    <t>Shares (basic)</t>
+  </si>
 </sst>
 </file>
 
@@ -1812,7 +1815,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1945,6 +1948,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2010,7 +2014,8 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2860,7 +2865,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$AC$2:$AK$2</c:f>
+              <c:f>Model!$AD$2:$AL$2</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -2895,7 +2900,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$AC$10:$AK$10</c:f>
+              <c:f>Model!$AD$10:$AL$10</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2921,10 +2926,10 @@
                   <c:v>574785</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>635140</c:v>
+                  <c:v>637560</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>703320</c:v>
+                  <c:v>706200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3036,7 +3041,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$AC$33:$AK$33</c:f>
+              <c:f>Model!$AD$33:$AL$33</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3059,10 +3064,10 @@
                   <c:v>0.1182957412988368</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.10500447993597617</c:v>
+                  <c:v>0.10921474986299229</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.10734641181471805</c:v>
+                  <c:v>0.10766045548654235</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4161,7 +4166,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$AC$2:$AK$2</c:f>
+              <c:f>Model!$AD$2:$AL$2</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -4196,7 +4201,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$AC$24:$AK$24</c:f>
+              <c:f>Model!$AD$24:$AL$24</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4318,7 +4323,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$AC$35:$AK$35</c:f>
+              <c:f>Model!$AD$35:$AL$35</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4892,6 +4897,9 @@
                 <c:pt idx="13">
                   <c:v>7.1038066726585886E-2</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.6774926515480532E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5098,6 +5106,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2.0550490954675388E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7076102897209792E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5496,7 +5507,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$AC$2:$AK$2</c:f>
+              <c:f>Model!$AD$2:$AL$2</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -5531,7 +5542,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$AC$38:$AK$38</c:f>
+              <c:f>Model!$AD$38:$AL$38</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="9"/>
@@ -5664,7 +5675,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$AC$2:$AK$2</c:f>
+              <c:f>Model!$AD$2:$AL$2</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -5699,7 +5710,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$AC$39:$AK$39</c:f>
+              <c:f>Model!$AD$39:$AL$39</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="9"/>
@@ -6284,18 +6295,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6339,7 +6350,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6359,7 +6370,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6390,18 +6401,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6445,7 +6456,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6465,7 +6476,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -12382,7 +12393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -12717,7 +12728,7 @@
         <v>120</v>
       </c>
       <c r="C13" s="92">
-        <f>C6/Model!AI29</f>
+        <f>C6/Model!AJ29</f>
         <v>58.850982685547194</v>
       </c>
       <c r="E13" s="84"/>
@@ -12730,8 +12741,8 @@
         <v>121</v>
       </c>
       <c r="C14" s="92">
-        <f>C6/Model!AJ29</f>
-        <v>36.752642706131077</v>
+        <f>C6/Model!AK29</f>
+        <v>33.821011673151752</v>
       </c>
       <c r="E14" s="93"/>
       <c r="F14" s="94"/>
@@ -12748,8 +12759,8 @@
         <v>122</v>
       </c>
       <c r="C15" s="92">
-        <f>C6/Model!AK29</f>
-        <v>29.920826161790021</v>
+        <f>C6/Model!AL29</f>
+        <v>28.312703583061893</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
@@ -12757,8 +12768,8 @@
         <v>123</v>
       </c>
       <c r="C16" s="96">
-        <f>Model!AJ29/Model!AI29-1</f>
-        <v>0.6012721358872426</v>
+        <f>Model!AK29/Model!AJ29-1</f>
+        <v>0.74007162335315546</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
@@ -12766,15 +12777,15 @@
         <v>124</v>
       </c>
       <c r="C17" s="96">
-        <f>Model!AK29/Model!AJ29-1</f>
-        <v>0.22832980972515826</v>
+        <f>Model!AL29/Model!AK29-1</f>
+        <v>0.19455252918287935</v>
       </c>
       <c r="E17" s="97" t="s">
         <v>177</v>
       </c>
-      <c r="L17" s="110"/>
-      <c r="M17" s="111"/>
-      <c r="N17" s="112"/>
+      <c r="L17" s="111"/>
+      <c r="M17" s="112"/>
+      <c r="N17" s="113"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="84" t="s">
@@ -12782,11 +12793,11 @@
       </c>
       <c r="C18" s="98">
         <f>C14/(C16*100)</f>
-        <v>0.61124806077864469</v>
-      </c>
-      <c r="L18" s="113"/>
-      <c r="M18" s="114"/>
-      <c r="N18" s="115"/>
+        <v>0.45699646636785957</v>
+      </c>
+      <c r="L18" s="114"/>
+      <c r="M18" s="115"/>
+      <c r="N18" s="116"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="84" t="s">
@@ -12794,83 +12805,83 @@
       </c>
       <c r="C19" s="98">
         <f>C15/(C17*100)</f>
-        <v>1.3104213680117314</v>
-      </c>
-      <c r="L19" s="113"/>
-      <c r="M19" s="114"/>
-      <c r="N19" s="115"/>
+        <v>1.4552729641693813</v>
+      </c>
+      <c r="L19" s="114"/>
+      <c r="M19" s="115"/>
+      <c r="N19" s="116"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="84" t="s">
         <v>178</v>
       </c>
       <c r="C20" s="96">
-        <f>Model!AJ11/Model!AI10-1</f>
-        <v>0.10500447993597617</v>
-      </c>
-      <c r="L20" s="113"/>
-      <c r="M20" s="114"/>
-      <c r="N20" s="115"/>
+        <f>Model!AK11/Model!AJ10-1</f>
+        <v>0.10921474986299229</v>
+      </c>
+      <c r="L20" s="114"/>
+      <c r="M20" s="115"/>
+      <c r="N20" s="116"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="84" t="s">
         <v>179</v>
       </c>
       <c r="C21" s="96">
-        <f>Model!AK11/Model!AJ11-1</f>
-        <v>0.10734641181471805</v>
-      </c>
-      <c r="L21" s="113"/>
-      <c r="M21" s="114"/>
-      <c r="N21" s="115"/>
+        <f>Model!AL11/Model!AK11-1</f>
+        <v>0.10766045548654235</v>
+      </c>
+      <c r="L21" s="114"/>
+      <c r="M21" s="115"/>
+      <c r="N21" s="116"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="84" t="s">
         <v>180</v>
       </c>
       <c r="C22" s="91">
-        <f>Model!AI18</f>
+        <f>Model!AJ18</f>
         <v>36852</v>
       </c>
-      <c r="L22" s="113"/>
-      <c r="M22" s="114"/>
-      <c r="N22" s="115"/>
+      <c r="L22" s="114"/>
+      <c r="M22" s="115"/>
+      <c r="N22" s="116"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="84" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="91">
-        <f>Model!AI22</f>
+        <f>Model!AJ22</f>
         <v>37557</v>
       </c>
-      <c r="L23" s="113"/>
-      <c r="M23" s="114"/>
-      <c r="N23" s="115"/>
+      <c r="L23" s="114"/>
+      <c r="M23" s="115"/>
+      <c r="N23" s="116"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="84" t="s">
         <v>181</v>
       </c>
       <c r="C24" s="99">
-        <f>Model!AI33</f>
+        <f>Model!AJ33</f>
         <v>0.1182957412988368</v>
       </c>
-      <c r="L24" s="113"/>
-      <c r="M24" s="114"/>
-      <c r="N24" s="115"/>
+      <c r="L24" s="114"/>
+      <c r="M24" s="115"/>
+      <c r="N24" s="116"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="84" t="s">
         <v>60</v>
       </c>
       <c r="C25" s="99">
-        <f>Model!AI35</f>
+        <f>Model!AJ35</f>
         <v>5.2953713127517246E-2</v>
       </c>
-      <c r="L25" s="113"/>
-      <c r="M25" s="114"/>
-      <c r="N25" s="115"/>
+      <c r="L25" s="114"/>
+      <c r="M25" s="115"/>
+      <c r="N25" s="116"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="84" t="s">
@@ -12880,9 +12891,9 @@
         <f>C12/C23</f>
         <v>47.58417019463748</v>
       </c>
-      <c r="L26" s="113"/>
-      <c r="M26" s="114"/>
-      <c r="N26" s="115"/>
+      <c r="L26" s="114"/>
+      <c r="M26" s="115"/>
+      <c r="N26" s="116"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="84" t="s">
@@ -12895,18 +12906,18 @@
       <c r="E27" t="s">
         <v>184</v>
       </c>
-      <c r="L27" s="113"/>
-      <c r="M27" s="114"/>
-      <c r="N27" s="115"/>
+      <c r="L27" s="114"/>
+      <c r="M27" s="115"/>
+      <c r="N27" s="116"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="84" t="s">
         <v>185</v>
       </c>
       <c r="C28" s="92"/>
-      <c r="L28" s="116"/>
-      <c r="M28" s="117"/>
-      <c r="N28" s="118"/>
+      <c r="L28" s="117"/>
+      <c r="M28" s="118"/>
+      <c r="N28" s="119"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="84" t="s">
@@ -12967,30 +12978,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18DAFE1B-0872-4079-929A-2D64CB797B54}">
-  <dimension ref="A1:AK99"/>
+  <dimension ref="A1:AL99"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="S45" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AD3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AK31" sqref="AK31"/>
+      <selection pane="bottomRight" activeCell="AL18" sqref="AL18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" style="129"/>
-    <col min="24" max="24" width="11.42578125" style="90"/>
-    <col min="35" max="35" width="11.42578125" style="90"/>
+    <col min="24" max="24" width="11.42578125" style="130"/>
+    <col min="25" max="25" width="11.42578125" style="90"/>
+    <col min="36" max="36" width="11.42578125" style="90"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>30</v>
       </c>
@@ -13051,13 +13062,13 @@
       <c r="V2" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="W2" s="130" t="s">
+      <c r="W2" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="X2" s="102" t="s">
+      <c r="X2" s="131" t="s">
         <v>117</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="102" t="s">
         <v>247</v>
       </c>
       <c r="Z2" s="4" t="s">
@@ -13065,40 +13076,41 @@
       </c>
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
-      <c r="AC2" s="4" t="s">
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AE2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AF2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AG2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AH2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AI2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AI2" s="102" t="s">
+      <c r="AJ2" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AK2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AK2" s="4" t="s">
+      <c r="AL2" s="4" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>59</v>
       </c>
@@ -13112,7 +13124,7 @@
         <v>42638</v>
       </c>
       <c r="F4" s="1">
-        <f>AE4-E4-D4-C4</f>
+        <f>AF4-E4-D4-C4</f>
         <v>53630</v>
       </c>
       <c r="G4" s="1">
@@ -13125,7 +13137,7 @@
         <v>59373</v>
       </c>
       <c r="J4" s="1">
-        <f>AF4-I4-H4-G4</f>
+        <f>AG4-I4-H4-G4</f>
         <v>75346</v>
       </c>
       <c r="K4" s="1">
@@ -13138,7 +13150,7 @@
         <v>65557</v>
       </c>
       <c r="N4" s="1">
-        <f>AG4-M4-L4-K4</f>
+        <f>AH4-M4-L4-K4</f>
         <v>82390</v>
       </c>
       <c r="O4" s="1">
@@ -13151,7 +13163,7 @@
         <v>78843</v>
       </c>
       <c r="R4" s="1">
-        <f>AH4-SUM(O4:Q4)</f>
+        <f>AI4-SUM(O4:Q4)</f>
         <v>93363</v>
       </c>
       <c r="S4" s="1">
@@ -13164,38 +13176,41 @@
         <v>87887</v>
       </c>
       <c r="V4" s="1">
-        <f>AI4-U4-T4-S4</f>
+        <f>AJ4-U4-T4-S4</f>
         <v>105514</v>
       </c>
-      <c r="W4" s="131">
+      <c r="W4" s="1">
         <v>86341</v>
       </c>
-      <c r="X4" s="91">
+      <c r="X4" s="132">
         <v>90033</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="Y4" s="91">
+        <v>95537</v>
+      </c>
+      <c r="AD4" s="1">
         <v>106110</v>
       </c>
-      <c r="AD4" s="1">
+      <c r="AE4" s="1">
         <v>141366</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AF4" s="1">
         <v>170733</v>
       </c>
-      <c r="AF4" s="1">
+      <c r="AG4" s="1">
         <v>236282</v>
       </c>
-      <c r="AG4" s="1">
+      <c r="AH4" s="1">
         <v>279833</v>
       </c>
-      <c r="AH4" s="1">
+      <c r="AI4" s="1">
         <v>315880</v>
       </c>
-      <c r="AI4" s="91">
+      <c r="AJ4" s="91">
         <v>352828</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>54</v>
       </c>
@@ -13209,7 +13224,7 @@
         <v>18348</v>
       </c>
       <c r="F5" s="1">
-        <f>AE5-E5-D5-C5</f>
+        <f>AF5-E5-D5-C5</f>
         <v>23813</v>
       </c>
       <c r="G5" s="1">
@@ -13222,7 +13237,7 @@
         <v>25171</v>
       </c>
       <c r="J5" s="1">
-        <f>AF5-I5-H5-G5</f>
+        <f>AG5-I5-H5-G5</f>
         <v>37467</v>
       </c>
       <c r="K5" s="1">
@@ -13235,7 +13250,7 @@
         <v>29145</v>
       </c>
       <c r="N5" s="1">
-        <f t="shared" ref="N5:N6" si="0">AG5-M5-L5-K5</f>
+        <f t="shared" ref="N5:N6" si="0">AH5-M5-L5-K5</f>
         <v>37272</v>
       </c>
       <c r="O5" s="1">
@@ -13248,7 +13263,7 @@
         <v>27720</v>
       </c>
       <c r="R5" s="1">
-        <f>AH5-SUM(O5:Q5)</f>
+        <f>AI5-SUM(O5:Q5)</f>
         <v>34463</v>
       </c>
       <c r="S5" s="1">
@@ -13261,38 +13276,41 @@
         <v>32137</v>
       </c>
       <c r="V5" s="1">
-        <f>AI5-U5-T5-S5</f>
+        <f>AJ5-U5-T5-S5</f>
         <v>40243</v>
       </c>
-      <c r="W5" s="131">
+      <c r="W5" s="1">
         <v>31935</v>
       </c>
-      <c r="X5" s="91">
+      <c r="X5" s="132">
         <v>31663</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="Y5" s="91">
+        <v>35888</v>
+      </c>
+      <c r="AD5" s="1">
         <v>54297</v>
       </c>
-      <c r="AD5" s="1">
+      <c r="AE5" s="1">
         <v>65866</v>
       </c>
-      <c r="AE5" s="1">
+      <c r="AF5" s="1">
         <v>74723</v>
       </c>
-      <c r="AF5" s="1">
+      <c r="AG5" s="1">
         <v>104412</v>
       </c>
-      <c r="AG5" s="1">
+      <c r="AH5" s="1">
         <v>127787</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="AI5" s="1">
         <v>118007</v>
       </c>
-      <c r="AI5" s="91">
+      <c r="AJ5" s="91">
         <v>131200</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>55</v>
       </c>
@@ -13306,7 +13324,7 @@
         <v>8995</v>
       </c>
       <c r="F6" s="1">
-        <f>AE6-E6-D6-C6</f>
+        <f>AF6-E6-D6-C6</f>
         <v>9954</v>
       </c>
       <c r="G6" s="1">
@@ -13319,7 +13337,7 @@
         <v>11601</v>
       </c>
       <c r="J6" s="1">
-        <f>AF6-I6-H6-G6</f>
+        <f>AG6-I6-H6-G6</f>
         <v>12742</v>
       </c>
       <c r="K6" s="1">
@@ -13345,7 +13363,7 @@
         <v>20538</v>
       </c>
       <c r="R6" s="1">
-        <f>AH6-SUM(O6:Q6)</f>
+        <f>AI6-SUM(O6:Q6)</f>
         <v>21378</v>
       </c>
       <c r="S6" s="1">
@@ -13358,41 +13376,44 @@
         <v>23059</v>
       </c>
       <c r="V6" s="1">
-        <f>AI6-U6-T6-S6</f>
+        <f>AJ6-U6-T6-S6</f>
         <v>24204</v>
       </c>
-      <c r="W6" s="131">
+      <c r="W6" s="1">
         <v>25037</v>
       </c>
-      <c r="X6" s="91">
+      <c r="X6" s="132">
         <v>26281</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="Y6" s="91">
+        <v>27452</v>
+      </c>
+      <c r="AD6" s="1">
         <v>17459</v>
       </c>
-      <c r="AD6" s="1">
+      <c r="AE6" s="1">
         <v>25655</v>
       </c>
-      <c r="AE6" s="1">
+      <c r="AF6" s="1">
         <v>35026</v>
       </c>
-      <c r="AF6" s="1">
+      <c r="AG6" s="1">
         <v>45370</v>
       </c>
-      <c r="AG6" s="1">
+      <c r="AH6" s="1">
         <v>62202</v>
       </c>
-      <c r="AH6" s="1">
+      <c r="AI6" s="1">
         <v>80096</v>
       </c>
-      <c r="AI6" s="91">
+      <c r="AJ6" s="91">
         <v>90757</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>32</v>
       </c>
@@ -13406,7 +13427,7 @@
         <v>39726</v>
       </c>
       <c r="F8" s="1">
-        <f>AE8-E8-D8-C8</f>
+        <f>AF8-E8-D8-C8</f>
         <v>50543</v>
       </c>
       <c r="G8" s="1">
@@ -13419,7 +13440,7 @@
         <v>52774</v>
       </c>
       <c r="J8" s="1">
-        <f>AF8-I8-H8-G8</f>
+        <f>AG8-I8-H8-G8</f>
         <v>71056</v>
       </c>
       <c r="K8" s="1">
@@ -13432,7 +13453,7 @@
         <v>54876</v>
       </c>
       <c r="N8" s="1">
-        <f>AG8-M8-L8-K8</f>
+        <f>AH8-M8-L8-K8</f>
         <v>71416</v>
       </c>
       <c r="O8" s="1">
@@ -13445,7 +13466,7 @@
         <v>59340</v>
       </c>
       <c r="R8" s="1">
-        <f>AH8-Q8-P8-O8</f>
+        <f>AI8-Q8-P8-O8</f>
         <v>70531</v>
       </c>
       <c r="S8" s="1">
@@ -13458,38 +13479,41 @@
         <v>63171</v>
       </c>
       <c r="V8" s="1">
-        <f>AI8-U8-T8-S8</f>
+        <f>AJ8-U8-T8-S8</f>
         <v>76703</v>
       </c>
-      <c r="W8" s="131">
+      <c r="W8" s="1">
         <v>60915</v>
       </c>
-      <c r="X8" s="91">
+      <c r="X8" s="132">
         <v>61569</v>
       </c>
-      <c r="AC8" s="1">
+      <c r="Y8" s="91">
+        <v>67601</v>
+      </c>
+      <c r="AD8" s="1">
         <v>118573</v>
       </c>
-      <c r="AD8" s="1">
+      <c r="AE8" s="1">
         <v>141915</v>
       </c>
-      <c r="AE8" s="1">
+      <c r="AF8" s="1">
         <v>160408</v>
       </c>
-      <c r="AF8" s="1">
+      <c r="AG8" s="1">
         <v>215915</v>
       </c>
-      <c r="AG8" s="1">
+      <c r="AH8" s="1">
         <v>241787</v>
       </c>
-      <c r="AH8" s="1">
+      <c r="AI8" s="1">
         <v>242901</v>
       </c>
-      <c r="AI8" s="91">
+      <c r="AJ8" s="91">
         <v>255887</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>33</v>
       </c>
@@ -13503,7 +13527,7 @@
         <v>30255</v>
       </c>
       <c r="F9" s="1">
-        <f>AE9-E9-D9-C9</f>
+        <f>AF9-E9-D9-C9</f>
         <v>36894</v>
       </c>
       <c r="G9" s="1">
@@ -13516,7 +13540,7 @@
         <v>43371</v>
       </c>
       <c r="J9" s="1">
-        <f>AF9-I9-H9-G9</f>
+        <f>AG9-I9-H9-G9</f>
         <v>54499</v>
       </c>
       <c r="K9" s="1">
@@ -13529,7 +13553,7 @@
         <v>55936</v>
       </c>
       <c r="N9" s="1">
-        <f>AG9-M9-L9-K9</f>
+        <f>AH9-M9-L9-K9</f>
         <v>65996</v>
       </c>
       <c r="O9" s="1">
@@ -13542,7 +13566,7 @@
         <v>67761</v>
       </c>
       <c r="R9" s="1">
-        <f>AH9-Q9-P9-O9</f>
+        <f>AI9-Q9-P9-O9</f>
         <v>78673</v>
       </c>
       <c r="S9" s="1">
@@ -13555,38 +13579,41 @@
         <v>79912</v>
       </c>
       <c r="V9" s="1">
-        <f>AI9-U9-T9-S9</f>
+        <f>AJ9-U9-T9-S9</f>
         <v>93258</v>
       </c>
-      <c r="W9" s="131">
+      <c r="W9" s="1">
         <v>82398</v>
       </c>
-      <c r="X9" s="91">
+      <c r="X9" s="132">
         <v>86408</v>
       </c>
-      <c r="AC9" s="1">
+      <c r="Y9" s="91">
+        <v>91276</v>
+      </c>
+      <c r="AD9" s="1">
         <v>59293</v>
       </c>
-      <c r="AD9" s="1">
+      <c r="AE9" s="1">
         <v>90972</v>
       </c>
-      <c r="AE9" s="1">
+      <c r="AF9" s="1">
         <v>120114</v>
       </c>
-      <c r="AF9" s="1">
+      <c r="AG9" s="1">
         <v>170149</v>
       </c>
-      <c r="AG9" s="1">
+      <c r="AH9" s="1">
         <v>228035</v>
       </c>
-      <c r="AH9" s="1">
+      <c r="AI9" s="1">
         <v>271082</v>
       </c>
-      <c r="AI9" s="91">
+      <c r="AJ9" s="91">
         <v>318898</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>34</v>
       </c>
@@ -13670,56 +13697,60 @@
         <f t="shared" si="2"/>
         <v>169961</v>
       </c>
-      <c r="W10" s="132">
-        <f t="shared" ref="W10:X10" si="3">W8+W9</f>
+      <c r="W10" s="5">
+        <f t="shared" ref="W10:Y10" si="3">W8+W9</f>
         <v>143313</v>
       </c>
-      <c r="X10" s="103">
+      <c r="X10" s="133">
         <f t="shared" si="3"/>
         <v>147977</v>
       </c>
-      <c r="Y10" s="10">
-        <v>157150</v>
+      <c r="Y10" s="103">
+        <f t="shared" si="3"/>
+        <v>158877</v>
       </c>
       <c r="Z10" s="10">
-        <v>186060</v>
-      </c>
-      <c r="AC10" s="5">
-        <f t="shared" ref="AC10:AH10" si="4">AC8+AC9</f>
+        <v>187200</v>
+      </c>
+      <c r="AA10" s="10">
+        <v>158560</v>
+      </c>
+      <c r="AD10" s="5">
+        <f t="shared" ref="AD10:AI10" si="4">AD8+AD9</f>
         <v>177866</v>
       </c>
-      <c r="AD10" s="5">
+      <c r="AE10" s="5">
         <f t="shared" si="4"/>
         <v>232887</v>
       </c>
-      <c r="AE10" s="5">
+      <c r="AF10" s="5">
         <f t="shared" si="4"/>
         <v>280522</v>
       </c>
-      <c r="AF10" s="5">
+      <c r="AG10" s="5">
         <f t="shared" si="4"/>
         <v>386064</v>
       </c>
-      <c r="AG10" s="5">
+      <c r="AH10" s="5">
         <f t="shared" si="4"/>
         <v>469822</v>
       </c>
-      <c r="AH10" s="5">
+      <c r="AI10" s="5">
         <f t="shared" si="4"/>
         <v>513983</v>
       </c>
-      <c r="AI10" s="103">
-        <f t="shared" ref="AI10" si="5">AI8+AI9</f>
+      <c r="AJ10" s="103">
+        <f t="shared" ref="AJ10" si="5">AJ8+AJ9</f>
         <v>574785</v>
       </c>
-      <c r="AJ10" s="10">
-        <v>635140</v>
-      </c>
       <c r="AK10" s="10">
-        <v>703320</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>637560</v>
+      </c>
+      <c r="AL10" s="10">
+        <v>706200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>246</v>
       </c>
@@ -13743,31 +13774,32 @@
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
       <c r="V11" s="10"/>
-      <c r="W11" s="133"/>
-      <c r="X11" s="104">
+      <c r="W11" s="10"/>
+      <c r="X11" s="134">
         <v>139870</v>
       </c>
-      <c r="Y11" s="10">
+      <c r="Y11" s="139">
         <v>157150</v>
       </c>
       <c r="Z11" s="10">
-        <v>186060</v>
-      </c>
-      <c r="AC11" s="10"/>
+        <v>187200</v>
+      </c>
+      <c r="AA11" s="10"/>
       <c r="AD11" s="10"/>
       <c r="AE11" s="10"/>
       <c r="AF11" s="10"/>
       <c r="AG11" s="10"/>
       <c r="AH11" s="10"/>
-      <c r="AI11" s="104"/>
-      <c r="AJ11" s="10">
-        <v>635140</v>
-      </c>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="104"/>
       <c r="AK11" s="10">
-        <v>703320</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+        <v>637560</v>
+      </c>
+      <c r="AL11" s="10">
+        <v>706200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>118</v>
       </c>
@@ -13781,7 +13813,7 @@
         <v>41302</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" ref="F12:F17" si="6">AE12-E12-D12-C12</f>
+        <f t="shared" ref="F12:F17" si="6">AF12-E12-D12-C12</f>
         <v>53977</v>
       </c>
       <c r="G12" s="1">
@@ -13794,7 +13826,7 @@
         <v>57106</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" ref="J12:J17" si="7">AF12-I12-H12-G12</f>
+        <f t="shared" ref="J12:J17" si="7">AG12-I12-H12-G12</f>
         <v>79284</v>
       </c>
       <c r="K12" s="1">
@@ -13807,7 +13839,7 @@
         <v>62930</v>
       </c>
       <c r="N12" s="1">
-        <f t="shared" ref="N12:N17" si="8">AG12-M12-L12-K12</f>
+        <f t="shared" ref="N12:N17" si="8">AH12-M12-L12-K12</f>
         <v>82835</v>
       </c>
       <c r="O12" s="1">
@@ -13820,7 +13852,7 @@
         <v>70268</v>
       </c>
       <c r="R12" s="1">
-        <f>AH12-SUM(O12:Q12)</f>
+        <f>AI12-SUM(O12:Q12)</f>
         <v>85640</v>
       </c>
       <c r="S12" s="1">
@@ -13833,38 +13865,41 @@
         <v>75022</v>
       </c>
       <c r="V12" s="1">
-        <f t="shared" ref="V12:V17" si="9">AI12-U12-T12-S12</f>
+        <f t="shared" ref="V12:V17" si="9">AJ12-U12-T12-S12</f>
         <v>92553</v>
       </c>
-      <c r="W12" s="131">
+      <c r="W12" s="1">
         <v>72633</v>
       </c>
-      <c r="X12" s="91">
+      <c r="X12" s="132">
         <v>73785</v>
       </c>
-      <c r="AC12" s="1">
+      <c r="Y12" s="91">
+        <v>80977</v>
+      </c>
+      <c r="AD12" s="1">
         <v>111934</v>
       </c>
-      <c r="AD12" s="1">
+      <c r="AE12" s="1">
         <v>139156</v>
       </c>
-      <c r="AE12" s="1">
+      <c r="AF12" s="1">
         <v>165536</v>
       </c>
-      <c r="AF12" s="1">
+      <c r="AG12" s="1">
         <v>233307</v>
       </c>
-      <c r="AG12" s="1">
+      <c r="AH12" s="1">
         <v>272344</v>
       </c>
-      <c r="AH12" s="1">
+      <c r="AI12" s="1">
         <v>288831</v>
       </c>
-      <c r="AI12" s="91">
+      <c r="AJ12" s="91">
         <v>304739</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>35</v>
       </c>
@@ -13917,7 +13952,7 @@
         <v>20583</v>
       </c>
       <c r="R13" s="1">
-        <f t="shared" ref="R13:R17" si="10">AH13-SUM(O13:Q13)</f>
+        <f t="shared" ref="R13:R17" si="10">AI13-SUM(O13:Q13)</f>
         <v>23103</v>
       </c>
       <c r="S13" s="1">
@@ -13933,35 +13968,38 @@
         <f t="shared" si="9"/>
         <v>26095</v>
       </c>
-      <c r="W13" s="131">
+      <c r="W13" s="1">
         <v>22317</v>
       </c>
-      <c r="X13" s="91">
+      <c r="X13" s="132">
         <v>23566</v>
       </c>
-      <c r="AC13" s="1">
+      <c r="Y13" s="91">
+        <v>24660</v>
+      </c>
+      <c r="AD13" s="1">
         <v>25249</v>
       </c>
-      <c r="AD13" s="1">
+      <c r="AE13" s="1">
         <v>34027</v>
       </c>
-      <c r="AE13" s="1">
+      <c r="AF13" s="1">
         <v>40232</v>
       </c>
-      <c r="AF13" s="1">
+      <c r="AG13" s="1">
         <v>58517</v>
       </c>
-      <c r="AG13" s="1">
+      <c r="AH13" s="1">
         <v>75111</v>
       </c>
-      <c r="AH13" s="1">
+      <c r="AI13" s="1">
         <v>84299</v>
       </c>
-      <c r="AI13" s="91">
+      <c r="AJ13" s="91">
         <v>90619</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>36</v>
       </c>
@@ -14030,35 +14068,38 @@
         <f t="shared" si="9"/>
         <v>22038</v>
       </c>
-      <c r="W14" s="131">
+      <c r="W14" s="1">
         <v>20424</v>
       </c>
-      <c r="X14" s="91">
+      <c r="X14" s="132">
         <v>22304</v>
       </c>
-      <c r="AC14" s="1">
+      <c r="Y14" s="91">
+        <v>22245</v>
+      </c>
+      <c r="AD14" s="1">
         <v>22620</v>
       </c>
-      <c r="AD14" s="1">
+      <c r="AE14" s="1">
         <v>28837</v>
       </c>
-      <c r="AE14" s="1">
+      <c r="AF14" s="1">
         <v>35931</v>
       </c>
-      <c r="AF14" s="1">
+      <c r="AG14" s="1">
         <v>42740</v>
       </c>
-      <c r="AG14" s="1">
+      <c r="AH14" s="1">
         <v>56052</v>
       </c>
-      <c r="AH14" s="1">
+      <c r="AI14" s="1">
         <v>73213</v>
       </c>
-      <c r="AI14" s="91">
+      <c r="AJ14" s="91">
         <v>85622</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>37</v>
       </c>
@@ -14127,35 +14168,38 @@
         <f t="shared" si="9"/>
         <v>12902</v>
       </c>
-      <c r="W15" s="131">
+      <c r="W15" s="1">
         <v>9662</v>
       </c>
-      <c r="X15" s="91">
+      <c r="X15" s="132">
         <v>10512</v>
       </c>
-      <c r="AC15" s="1">
+      <c r="Y15" s="91">
+        <v>10609</v>
+      </c>
+      <c r="AD15" s="1">
         <v>10069</v>
       </c>
-      <c r="AD15" s="1">
+      <c r="AE15" s="1">
         <v>13814</v>
       </c>
-      <c r="AE15" s="1">
+      <c r="AF15" s="1">
         <v>18878</v>
       </c>
-      <c r="AF15" s="1">
+      <c r="AG15" s="1">
         <v>22008</v>
       </c>
-      <c r="AG15" s="1">
+      <c r="AH15" s="1">
         <v>32551</v>
       </c>
-      <c r="AH15" s="1">
+      <c r="AI15" s="1">
         <v>42238</v>
       </c>
-      <c r="AI15" s="91">
+      <c r="AJ15" s="91">
         <v>44370</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>38</v>
       </c>
@@ -14224,35 +14268,38 @@
         <f t="shared" si="9"/>
         <v>3010</v>
       </c>
-      <c r="W16" s="131">
+      <c r="W16" s="1">
         <v>2742</v>
       </c>
-      <c r="X16" s="91">
+      <c r="X16" s="132">
         <v>3041</v>
       </c>
-      <c r="AC16" s="1">
+      <c r="Y16" s="91">
+        <v>2713</v>
+      </c>
+      <c r="AD16" s="1">
         <v>3674</v>
       </c>
-      <c r="AD16" s="1">
+      <c r="AE16" s="1">
         <v>4336</v>
       </c>
-      <c r="AE16" s="1">
+      <c r="AF16" s="1">
         <v>5203</v>
       </c>
-      <c r="AF16" s="1">
+      <c r="AG16" s="1">
         <v>6668</v>
       </c>
-      <c r="AG16" s="1">
+      <c r="AH16" s="1">
         <v>8823</v>
       </c>
-      <c r="AH16" s="1">
+      <c r="AI16" s="1">
         <v>11891</v>
       </c>
-      <c r="AI16" s="91">
+      <c r="AJ16" s="91">
         <v>11816</v>
       </c>
     </row>
-    <row r="17" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>39</v>
       </c>
@@ -14321,35 +14368,38 @@
         <f t="shared" si="9"/>
         <v>154</v>
       </c>
-      <c r="W17" s="131">
+      <c r="W17" s="1">
         <v>228</v>
       </c>
-      <c r="X17" s="91">
+      <c r="X17" s="132">
         <v>97</v>
       </c>
-      <c r="AC17" s="1">
+      <c r="Y17" s="91">
+        <v>262</v>
+      </c>
+      <c r="AD17" s="1">
         <v>214</v>
       </c>
-      <c r="AD17" s="1">
+      <c r="AE17" s="1">
         <v>296</v>
       </c>
-      <c r="AE17" s="1">
+      <c r="AF17" s="1">
         <v>201</v>
       </c>
-      <c r="AF17" s="1">
+      <c r="AG17" s="1">
         <v>-75</v>
       </c>
-      <c r="AG17" s="1">
+      <c r="AH17" s="1">
         <v>62</v>
       </c>
-      <c r="AH17" s="1">
+      <c r="AI17" s="1">
         <v>1263</v>
       </c>
-      <c r="AI17" s="91">
+      <c r="AJ17" s="91">
         <v>767</v>
       </c>
     </row>
-    <row r="18" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>40</v>
       </c>
@@ -14370,7 +14420,7 @@
         <v>3880</v>
       </c>
       <c r="G18" s="5">
-        <f t="shared" ref="G18:X18" si="11">G10-SUM(G12:G17)</f>
+        <f t="shared" ref="G18:Y18" si="11">G10-SUM(G12:G17)</f>
         <v>3989</v>
       </c>
       <c r="H18" s="5">
@@ -14433,46 +14483,50 @@
         <f t="shared" si="11"/>
         <v>13209</v>
       </c>
-      <c r="W18" s="132">
+      <c r="W18" s="5">
         <f>W10-SUM(W12:W17)</f>
         <v>15307</v>
       </c>
-      <c r="X18" s="103">
+      <c r="X18" s="133">
         <f t="shared" si="11"/>
         <v>14672</v>
       </c>
-      <c r="Y18" s="5"/>
+      <c r="Y18" s="103">
+        <f t="shared" si="11"/>
+        <v>17411</v>
+      </c>
       <c r="Z18" s="5"/>
-      <c r="AC18" s="5">
-        <f t="shared" ref="AC18:AH18" si="12">AC10-SUM(AC12:AC17)</f>
+      <c r="AA18" s="5"/>
+      <c r="AD18" s="5">
+        <f t="shared" ref="AD18:AI18" si="12">AD10-SUM(AD12:AD17)</f>
         <v>4106</v>
       </c>
-      <c r="AD18" s="5">
+      <c r="AE18" s="5">
         <f t="shared" si="12"/>
         <v>12421</v>
       </c>
-      <c r="AE18" s="5">
+      <c r="AF18" s="5">
         <f t="shared" si="12"/>
         <v>14541</v>
       </c>
-      <c r="AF18" s="5">
+      <c r="AG18" s="5">
         <f t="shared" si="12"/>
         <v>22899</v>
       </c>
-      <c r="AG18" s="5">
+      <c r="AH18" s="5">
         <f t="shared" si="12"/>
         <v>24879</v>
       </c>
-      <c r="AH18" s="5">
+      <c r="AI18" s="5">
         <f t="shared" si="12"/>
         <v>12248</v>
       </c>
-      <c r="AI18" s="103">
-        <f t="shared" ref="AI18" si="13">AI10-SUM(AI12:AI17)</f>
+      <c r="AJ18" s="103">
+        <f t="shared" ref="AJ18" si="13">AJ10-SUM(AJ12:AJ17)</f>
         <v>36852</v>
       </c>
     </row>
-    <row r="19" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>41</v>
       </c>
@@ -14486,7 +14540,7 @@
         <v>224</v>
       </c>
       <c r="F19" s="1">
-        <f>AE19-E19-D19-C19</f>
+        <f>AF19-E19-D19-C19</f>
         <v>210</v>
       </c>
       <c r="G19" s="1">
@@ -14499,7 +14553,7 @@
         <v>118</v>
       </c>
       <c r="J19" s="1">
-        <f>AF19-I19-H19-G19</f>
+        <f>AG19-I19-H19-G19</f>
         <v>100</v>
       </c>
       <c r="K19" s="1">
@@ -14512,7 +14566,7 @@
         <v>119</v>
       </c>
       <c r="N19" s="1">
-        <f>AG19-M19-L19-K19</f>
+        <f>AH19-M19-L19-K19</f>
         <v>118</v>
       </c>
       <c r="O19" s="1">
@@ -14525,7 +14579,7 @@
         <v>277</v>
       </c>
       <c r="R19" s="1">
-        <f>AH19-SUM(O19:Q19)</f>
+        <f>AI19-SUM(O19:Q19)</f>
         <v>445</v>
       </c>
       <c r="S19" s="1">
@@ -14538,38 +14592,41 @@
         <v>776</v>
       </c>
       <c r="V19" s="1">
-        <f t="shared" ref="V19:V21" si="14">AI19-U19-T19-S19</f>
+        <f t="shared" ref="V19:V21" si="14">AJ19-U19-T19-S19</f>
         <v>901</v>
       </c>
-      <c r="W19" s="131">
+      <c r="W19" s="1">
         <v>993</v>
       </c>
-      <c r="X19" s="91">
+      <c r="X19" s="132">
         <v>1180</v>
       </c>
-      <c r="AC19" s="1">
+      <c r="Y19" s="91">
+        <v>1256</v>
+      </c>
+      <c r="AD19" s="1">
         <v>202</v>
       </c>
-      <c r="AD19" s="1">
+      <c r="AE19" s="1">
         <v>440</v>
       </c>
-      <c r="AE19" s="1">
+      <c r="AF19" s="1">
         <v>832</v>
       </c>
-      <c r="AF19" s="1">
+      <c r="AG19" s="1">
         <v>555</v>
       </c>
-      <c r="AG19" s="1">
+      <c r="AH19" s="1">
         <v>448</v>
       </c>
-      <c r="AH19" s="1">
+      <c r="AI19" s="1">
         <v>989</v>
       </c>
-      <c r="AI19" s="91">
+      <c r="AJ19" s="91">
         <v>2949</v>
       </c>
     </row>
-    <row r="20" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>42</v>
       </c>
@@ -14583,7 +14640,7 @@
         <v>-396</v>
       </c>
       <c r="F20" s="1">
-        <f>AE20-E20-D20-C20</f>
+        <f>AF20-E20-D20-C20</f>
         <v>-455</v>
       </c>
       <c r="G20" s="1">
@@ -14596,7 +14653,7 @@
         <v>-428</v>
       </c>
       <c r="J20" s="1">
-        <f>AF20-I20-H20-G20</f>
+        <f>AG20-I20-H20-G20</f>
         <v>-414</v>
       </c>
       <c r="K20" s="1">
@@ -14609,7 +14666,7 @@
         <v>-493</v>
       </c>
       <c r="N20" s="1">
-        <f>AG20-M20-L20-K20</f>
+        <f>AH20-M20-L20-K20</f>
         <v>-482</v>
       </c>
       <c r="O20" s="1">
@@ -14622,7 +14679,7 @@
         <v>-617</v>
       </c>
       <c r="R20" s="1">
-        <f t="shared" ref="R20:R21" si="15">AH20-SUM(O20:Q20)</f>
+        <f t="shared" ref="R20:R21" si="15">AI20-SUM(O20:Q20)</f>
         <v>-694</v>
       </c>
       <c r="S20" s="1">
@@ -14638,36 +14695,39 @@
         <f t="shared" si="14"/>
         <v>-713</v>
       </c>
-      <c r="W20" s="131">
+      <c r="W20" s="1">
         <v>-644</v>
       </c>
-      <c r="X20" s="91">
+      <c r="X20" s="132">
         <v>-589</v>
       </c>
-      <c r="AC20" s="1">
+      <c r="Y20" s="91">
+        <v>-603</v>
+      </c>
+      <c r="AD20" s="1">
         <v>-848</v>
       </c>
-      <c r="AD20" s="1">
+      <c r="AE20" s="1">
         <v>-1417</v>
       </c>
-      <c r="AE20" s="1">
+      <c r="AF20" s="1">
         <v>-1600</v>
       </c>
-      <c r="AF20" s="1">
+      <c r="AG20" s="1">
         <v>-1647</v>
       </c>
-      <c r="AG20" s="1">
+      <c r="AH20" s="1">
         <v>-1809</v>
       </c>
-      <c r="AH20" s="1">
+      <c r="AI20" s="1">
         <f>-2367</f>
         <v>-2367</v>
       </c>
-      <c r="AI20" s="91">
+      <c r="AJ20" s="91">
         <v>-3182</v>
       </c>
     </row>
-    <row r="21" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>43</v>
       </c>
@@ -14681,7 +14741,7 @@
         <v>-353</v>
       </c>
       <c r="F21" s="1">
-        <f>AE21-E21-D21-C21</f>
+        <f>AF21-E21-D21-C21</f>
         <v>419</v>
       </c>
       <c r="G21" s="1">
@@ -14694,7 +14754,7 @@
         <v>925</v>
       </c>
       <c r="J21" s="1">
-        <f>AF21-I21-H21-G21</f>
+        <f>AG21-I21-H21-G21</f>
         <v>1206</v>
       </c>
       <c r="K21" s="1">
@@ -14707,7 +14767,7 @@
         <v>-163</v>
       </c>
       <c r="N21" s="1">
-        <f>AG21-M21-L21-K21</f>
+        <f>AH21-M21-L21-K21</f>
         <v>11838</v>
       </c>
       <c r="O21" s="1">
@@ -14736,35 +14796,38 @@
         <f t="shared" si="14"/>
         <v>289</v>
       </c>
-      <c r="W21" s="131">
+      <c r="W21" s="1">
         <v>-2673</v>
       </c>
-      <c r="X21" s="91">
+      <c r="X21" s="132">
         <v>-18</v>
       </c>
-      <c r="AC21" s="1">
+      <c r="Y21" s="91">
+        <v>-27</v>
+      </c>
+      <c r="AD21" s="1">
         <v>346</v>
       </c>
-      <c r="AD21" s="1">
+      <c r="AE21" s="1">
         <v>-183</v>
       </c>
-      <c r="AE21" s="1">
+      <c r="AF21" s="1">
         <v>203</v>
       </c>
-      <c r="AF21" s="1">
+      <c r="AG21" s="1">
         <v>2371</v>
       </c>
-      <c r="AG21" s="1">
+      <c r="AH21" s="1">
         <v>14633</v>
       </c>
-      <c r="AH21" s="8">
+      <c r="AI21" s="8">
         <v>-16806</v>
       </c>
-      <c r="AI21" s="91">
+      <c r="AJ21" s="91">
         <v>938</v>
       </c>
     </row>
-    <row r="22" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>45</v>
       </c>
@@ -14785,7 +14848,7 @@
         <v>4054</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" ref="G22:X22" si="16">G18+G19+G20+G21</f>
+        <f t="shared" ref="G22:Y22" si="16">G18+G19+G20+G21</f>
         <v>3383</v>
       </c>
       <c r="H22" s="5">
@@ -14848,46 +14911,50 @@
         <f t="shared" si="16"/>
         <v>13686</v>
       </c>
-      <c r="W22" s="132">
+      <c r="W22" s="5">
         <f t="shared" ref="W22" si="17">W18+W19+W20+W21</f>
         <v>12983</v>
       </c>
-      <c r="X22" s="103">
+      <c r="X22" s="133">
         <f t="shared" si="16"/>
         <v>15245</v>
       </c>
-      <c r="Y22" s="5"/>
+      <c r="Y22" s="103">
+        <f t="shared" si="16"/>
+        <v>18037</v>
+      </c>
       <c r="Z22" s="5"/>
-      <c r="AC22" s="5">
-        <f t="shared" ref="AC22:AH22" si="18">AC18+AC19+AC20+AC21</f>
+      <c r="AA22" s="5"/>
+      <c r="AD22" s="5">
+        <f t="shared" ref="AD22:AI22" si="18">AD18+AD19+AD20+AD21</f>
         <v>3806</v>
       </c>
-      <c r="AD22" s="5">
+      <c r="AE22" s="5">
         <f t="shared" si="18"/>
         <v>11261</v>
       </c>
-      <c r="AE22" s="5">
+      <c r="AF22" s="5">
         <f t="shared" si="18"/>
         <v>13976</v>
       </c>
-      <c r="AF22" s="5">
+      <c r="AG22" s="5">
         <f t="shared" si="18"/>
         <v>24178</v>
       </c>
-      <c r="AG22" s="5">
+      <c r="AH22" s="5">
         <f t="shared" si="18"/>
         <v>38151</v>
       </c>
-      <c r="AH22" s="5">
+      <c r="AI22" s="5">
         <f t="shared" si="18"/>
         <v>-5936</v>
       </c>
-      <c r="AI22" s="103">
-        <f t="shared" ref="AI22" si="19">AI18+AI19+AI20+AI21</f>
+      <c r="AJ22" s="103">
+        <f t="shared" ref="AJ22" si="19">AJ18+AJ19+AJ20+AJ21</f>
         <v>37557</v>
       </c>
     </row>
-    <row r="23" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>44</v>
       </c>
@@ -14904,7 +14971,7 @@
         <v>-498</v>
       </c>
       <c r="F23" s="1">
-        <f>AE23-E23-D23-C23</f>
+        <f>AF23-E23-D23-C23</f>
         <v>-786</v>
       </c>
       <c r="G23" s="1">
@@ -14934,7 +15001,7 @@
         <v>-1155</v>
       </c>
       <c r="N23" s="1">
-        <f>AG23-M23-L23-K23</f>
+        <f>AH23-M23-L23-K23</f>
         <v>-603</v>
       </c>
       <c r="O23" s="1">
@@ -14949,7 +15016,7 @@
         <v>-72</v>
       </c>
       <c r="R23" s="1">
-        <f>AH23-SUM(O23:Q23)</f>
+        <f>AI23-SUM(O23:Q23)</f>
         <v>1239</v>
       </c>
       <c r="S23" s="1">
@@ -14965,44 +15032,48 @@
         <v>-2310</v>
       </c>
       <c r="V23" s="1">
-        <f>AI23-U23-T23-S23</f>
+        <f>AJ23-U23-T23-S23</f>
         <v>-3050</v>
       </c>
-      <c r="W23" s="131">
+      <c r="W23" s="1">
         <f>-2467-85</f>
         <v>-2552</v>
       </c>
-      <c r="X23" s="91">
+      <c r="X23" s="132">
         <v>-1767</v>
       </c>
-      <c r="AC23" s="1">
+      <c r="Y23" s="91">
+        <f>-2706-3</f>
+        <v>-2709</v>
+      </c>
+      <c r="AD23" s="1">
         <f>-769-4</f>
         <v>-773</v>
       </c>
-      <c r="AD23" s="1">
+      <c r="AE23" s="1">
         <f>-1197+9</f>
         <v>-1188</v>
       </c>
-      <c r="AE23" s="1">
+      <c r="AF23" s="1">
         <f>-2374-14</f>
         <v>-2388</v>
       </c>
-      <c r="AF23" s="1">
+      <c r="AG23" s="1">
         <v>-2863</v>
       </c>
-      <c r="AG23" s="1">
+      <c r="AH23" s="1">
         <f>-4791+4</f>
         <v>-4787</v>
       </c>
-      <c r="AH23" s="1">
+      <c r="AI23" s="1">
         <f>3217-3</f>
         <v>3214</v>
       </c>
-      <c r="AI23" s="91">
+      <c r="AJ23" s="91">
         <v>-7120</v>
       </c>
     </row>
-    <row r="24" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>46</v>
       </c>
@@ -15086,49 +15157,50 @@
         <f t="shared" si="20"/>
         <v>10636</v>
       </c>
-      <c r="W24" s="132">
-        <f t="shared" ref="W24:X24" si="21">W22+W23</f>
+      <c r="W24" s="5">
+        <f t="shared" ref="W24:Y24" si="21">W22+W23</f>
         <v>10431</v>
       </c>
-      <c r="X24" s="103">
+      <c r="X24" s="133">
         <f t="shared" si="21"/>
         <v>13478</v>
       </c>
-      <c r="Y24" s="5">
-        <f>Y30*Y28</f>
-        <v>11627.999999999998</v>
+      <c r="Y24" s="103">
+        <f t="shared" si="21"/>
+        <v>15328</v>
       </c>
       <c r="Z24" s="5"/>
-      <c r="AC24" s="5">
-        <f t="shared" ref="AC24:AH24" si="22">AC22+AC23</f>
+      <c r="AA24" s="5"/>
+      <c r="AD24" s="5">
+        <f t="shared" ref="AD24:AI24" si="22">AD22+AD23</f>
         <v>3033</v>
       </c>
-      <c r="AD24" s="5">
+      <c r="AE24" s="5">
         <f t="shared" si="22"/>
         <v>10073</v>
       </c>
-      <c r="AE24" s="5">
+      <c r="AF24" s="5">
         <f t="shared" si="22"/>
         <v>11588</v>
       </c>
-      <c r="AF24" s="5">
+      <c r="AG24" s="5">
         <f t="shared" si="22"/>
         <v>21315</v>
       </c>
-      <c r="AG24" s="5">
+      <c r="AH24" s="5">
         <f t="shared" si="22"/>
         <v>33364</v>
       </c>
-      <c r="AH24" s="5">
+      <c r="AI24" s="5">
         <f t="shared" si="22"/>
         <v>-2722</v>
       </c>
-      <c r="AI24" s="103">
-        <f t="shared" ref="AI24" si="23">AI22+AI23</f>
+      <c r="AJ24" s="103">
+        <f t="shared" ref="AJ24" si="23">AJ22+AJ23</f>
         <v>30437</v>
       </c>
     </row>
-    <row r="25" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
         <v>249</v>
       </c>
@@ -15142,7 +15214,7 @@
         <v>1282</v>
       </c>
       <c r="F25" s="10">
-        <f>AE25-E25-D25-C25</f>
+        <f>AF25-E25-D25-C25</f>
         <v>1900</v>
       </c>
       <c r="G25" s="10">
@@ -15155,7 +15227,7 @@
         <v>2252</v>
       </c>
       <c r="J25" s="10">
-        <f>AF25-I25-H25-G25</f>
+        <f>AG25-I25-H25-G25</f>
         <v>2946</v>
       </c>
       <c r="K25" s="10">
@@ -15168,7 +15240,7 @@
         <v>880</v>
       </c>
       <c r="N25" s="10">
-        <f>AG25-M25-L25-K25</f>
+        <f>AH25-M25-L25-K25</f>
         <v>-206</v>
       </c>
       <c r="O25" s="10">
@@ -15181,7 +15253,7 @@
         <v>-412</v>
       </c>
       <c r="R25" s="10">
-        <f>AH25-SUM(O25:Q25)</f>
+        <f>AI25-SUM(O25:Q25)</f>
         <v>-240</v>
       </c>
       <c r="S25" s="10">
@@ -15194,38 +15266,41 @@
         <v>4307</v>
       </c>
       <c r="V25" s="1">
-        <f>AI25-U25-T25-S25</f>
+        <f>AJ25-U25-T25-S25</f>
         <v>6461</v>
       </c>
-      <c r="W25" s="133">
+      <c r="W25" s="10">
         <v>4983</v>
       </c>
-      <c r="X25" s="90">
+      <c r="X25" s="130">
         <v>5065</v>
       </c>
-      <c r="AC25">
+      <c r="Y25" s="90">
+        <v>5663</v>
+      </c>
+      <c r="AD25">
         <v>2837</v>
       </c>
-      <c r="AD25" s="1">
+      <c r="AE25" s="1">
         <v>7267</v>
       </c>
-      <c r="AE25" s="1">
+      <c r="AF25" s="1">
         <v>7033</v>
       </c>
-      <c r="AF25" s="1">
+      <c r="AG25" s="1">
         <v>8651</v>
       </c>
-      <c r="AG25" s="1">
+      <c r="AH25" s="1">
         <v>7271</v>
       </c>
-      <c r="AH25" s="1">
+      <c r="AI25" s="1">
         <v>-2847</v>
       </c>
-      <c r="AI25" s="91">
+      <c r="AJ25" s="91">
         <v>14877</v>
       </c>
     </row>
-    <row r="26" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
         <v>250</v>
       </c>
@@ -15239,7 +15314,7 @@
         <v>-386</v>
       </c>
       <c r="F26" s="10">
-        <f>AE26-E26-D26-C26</f>
+        <f>AF26-E26-D26-C26</f>
         <v>-616</v>
       </c>
       <c r="G26" s="10">
@@ -15252,7 +15327,7 @@
         <v>407</v>
       </c>
       <c r="J26" s="10">
-        <f>AF26-I26-H26-G26</f>
+        <f>AG26-I26-H26-G26</f>
         <v>363</v>
       </c>
       <c r="K26" s="10">
@@ -15265,7 +15340,7 @@
         <v>-911</v>
       </c>
       <c r="N26" s="10">
-        <f t="shared" ref="N26:N27" si="24">AG26-M26-L26-K26</f>
+        <f t="shared" ref="N26:N27" si="24">AH26-M26-L26-K26</f>
         <v>-1627</v>
       </c>
       <c r="O26" s="10">
@@ -15278,7 +15353,7 @@
         <v>-2466</v>
       </c>
       <c r="R26" s="10">
-        <f>AH26-SUM(O26:Q26)</f>
+        <f>AI26-SUM(O26:Q26)</f>
         <v>-2228</v>
       </c>
       <c r="S26" s="10">
@@ -15291,38 +15366,41 @@
         <v>-95</v>
       </c>
       <c r="V26" s="1">
-        <f>AI26-U26-T26-S26</f>
+        <f>AJ26-U26-T26-S26</f>
         <v>-419</v>
       </c>
-      <c r="W26" s="133">
+      <c r="W26" s="10">
         <v>903</v>
       </c>
-      <c r="X26" s="90">
+      <c r="X26" s="130">
         <v>273</v>
       </c>
-      <c r="AC26">
+      <c r="Y26" s="90">
+        <v>1301</v>
+      </c>
+      <c r="AD26">
         <v>-3062</v>
       </c>
-      <c r="AD26" s="1">
+      <c r="AE26" s="1">
         <v>-2142</v>
       </c>
-      <c r="AE26" s="1">
+      <c r="AF26" s="1">
         <v>-1693</v>
       </c>
-      <c r="AF26" s="1">
+      <c r="AG26" s="1">
         <v>717</v>
       </c>
-      <c r="AG26" s="1">
+      <c r="AH26" s="1">
         <v>-924</v>
       </c>
-      <c r="AH26" s="1">
+      <c r="AI26" s="1">
         <v>-7746</v>
       </c>
-      <c r="AI26" s="91">
+      <c r="AJ26" s="91">
         <v>-2656</v>
       </c>
     </row>
-    <row r="27" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
         <v>251</v>
       </c>
@@ -15336,7 +15414,7 @@
         <v>2261</v>
       </c>
       <c r="F27" s="10">
-        <f>AE27-E27-D27-C27</f>
+        <f>AF27-E27-D27-C27</f>
         <v>2596</v>
       </c>
       <c r="G27" s="10">
@@ -15349,7 +15427,7 @@
         <v>3535</v>
       </c>
       <c r="J27" s="10">
-        <f>AF27-I27-H27-G27</f>
+        <f>AG27-I27-H27-G27</f>
         <v>3564</v>
       </c>
       <c r="K27" s="10">
@@ -15375,7 +15453,7 @@
         <v>5403</v>
       </c>
       <c r="R27" s="10">
-        <f>AH27-SUM(O27:Q27)</f>
+        <f>AI27-SUM(O27:Q27)</f>
         <v>5205</v>
       </c>
       <c r="S27" s="10">
@@ -15388,40 +15466,43 @@
         <v>6976</v>
       </c>
       <c r="V27" s="1">
-        <f>AI27-U27-T27-S27</f>
+        <f>AJ27-U27-T27-S27</f>
         <v>7167</v>
       </c>
-      <c r="W27" s="133">
+      <c r="W27" s="10">
         <v>9421</v>
       </c>
-      <c r="X27" s="90">
+      <c r="X27" s="130">
         <v>9334</v>
       </c>
-      <c r="AC27">
+      <c r="Y27" s="90">
+        <v>10447</v>
+      </c>
+      <c r="AD27">
         <v>4331</v>
       </c>
-      <c r="AD27" s="1">
+      <c r="AE27" s="1">
         <v>7296</v>
       </c>
-      <c r="AE27" s="1">
+      <c r="AF27" s="1">
         <v>9201</v>
       </c>
-      <c r="AF27" s="1">
+      <c r="AG27" s="1">
         <v>13531</v>
       </c>
-      <c r="AG27" s="1">
+      <c r="AH27" s="1">
         <v>18532</v>
       </c>
-      <c r="AH27" s="1">
+      <c r="AI27" s="1">
         <v>22841</v>
       </c>
-      <c r="AI27" s="91">
+      <c r="AJ27" s="91">
         <v>24631</v>
       </c>
     </row>
-    <row r="28" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="C28" s="1">
         <v>491</v>
@@ -15485,39 +15566,40 @@
         <f>10304</f>
         <v>10304</v>
       </c>
-      <c r="W28" s="131">
+      <c r="W28" s="1">
         <v>10393</v>
       </c>
-      <c r="X28" s="91">
+      <c r="X28" s="132">
         <v>10477</v>
       </c>
-      <c r="Y28" s="1">
-        <v>10200</v>
+      <c r="Y28" s="91">
+        <v>10501</v>
       </c>
       <c r="Z28" s="1"/>
-      <c r="AC28" s="1">
+      <c r="AA28" s="1"/>
+      <c r="AD28" s="1">
         <v>480</v>
       </c>
-      <c r="AD28" s="1">
+      <c r="AE28" s="1">
         <v>487</v>
       </c>
-      <c r="AE28" s="1">
+      <c r="AF28" s="1">
         <v>494</v>
       </c>
-      <c r="AF28" s="1">
+      <c r="AG28" s="1">
         <v>10000</v>
       </c>
-      <c r="AG28" s="1">
+      <c r="AH28" s="1">
         <v>10117</v>
       </c>
-      <c r="AH28" s="1">
+      <c r="AI28" s="1">
         <v>10189</v>
       </c>
-      <c r="AI28" s="91">
+      <c r="AJ28" s="91">
         <v>10304</v>
       </c>
     </row>
-    <row r="29" spans="2:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>47</v>
       </c>
@@ -15582,11 +15664,11 @@
         <v>0.28181728976547932</v>
       </c>
       <c r="R29" s="105">
-        <f>AH29-SUM(O29:Q29)</f>
+        <f>AI29-SUM(O29:Q29)</f>
         <v>2.8182854480311437E-2</v>
       </c>
       <c r="S29" s="105">
-        <f t="shared" ref="S29:X29" si="26">S24/S28</f>
+        <f t="shared" ref="S29:Y29" si="26">S24/S28</f>
         <v>0.30946341463414634</v>
       </c>
       <c r="T29" s="105">
@@ -15601,52 +15683,56 @@
         <f t="shared" si="26"/>
         <v>1.03222049689441</v>
       </c>
-      <c r="W29" s="134">
+      <c r="W29" s="105">
         <f t="shared" si="26"/>
         <v>1.0036563071297988</v>
       </c>
-      <c r="X29" s="106">
+      <c r="X29" s="135">
         <f t="shared" si="26"/>
         <v>1.2864369571442207</v>
       </c>
-      <c r="Y29" s="105"/>
+      <c r="Y29" s="106">
+        <f t="shared" si="26"/>
+        <v>1.4596705075707075</v>
+      </c>
       <c r="Z29" s="105"/>
-      <c r="AC29" s="105">
-        <f t="shared" ref="AC29:AI29" si="27">AC24/AC28</f>
+      <c r="AA29" s="105"/>
+      <c r="AD29" s="105">
+        <f t="shared" ref="AD29:AJ29" si="27">AD24/AD28</f>
         <v>6.3187499999999996</v>
       </c>
-      <c r="AD29" s="105">
+      <c r="AE29" s="105">
         <f t="shared" si="27"/>
         <v>20.683778234086244</v>
       </c>
-      <c r="AE29" s="105">
+      <c r="AF29" s="105">
         <f t="shared" si="27"/>
         <v>23.457489878542511</v>
       </c>
-      <c r="AF29" s="105">
+      <c r="AG29" s="105">
         <f t="shared" si="27"/>
         <v>2.1315</v>
       </c>
-      <c r="AG29" s="105">
+      <c r="AH29" s="105">
         <f t="shared" si="27"/>
         <v>3.2978155579717305</v>
       </c>
-      <c r="AH29" s="105">
+      <c r="AI29" s="105">
         <f t="shared" si="27"/>
         <v>-0.2671508489547551</v>
       </c>
-      <c r="AI29" s="106">
+      <c r="AJ29" s="106">
         <f t="shared" si="27"/>
         <v>2.9539013975155282</v>
       </c>
-      <c r="AJ29" s="11">
-        <v>4.7300000000000004</v>
-      </c>
       <c r="AK29" s="11">
-        <v>5.81</v>
-      </c>
-    </row>
-    <row r="30" spans="2:37" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>5.14</v>
+      </c>
+      <c r="AL29" s="11">
+        <v>6.14</v>
+      </c>
+    </row>
+    <row r="30" spans="2:38" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
         <v>254</v>
       </c>
@@ -15670,31 +15756,34 @@
       <c r="T30" s="108"/>
       <c r="U30" s="108"/>
       <c r="V30" s="108"/>
-      <c r="W30" s="135"/>
-      <c r="X30" s="109">
+      <c r="W30" s="108"/>
+      <c r="X30" s="136">
         <v>0.94</v>
       </c>
-      <c r="Y30" s="108">
+      <c r="Y30" s="109">
         <v>1.1399999999999999</v>
       </c>
       <c r="Z30" s="108">
-        <v>1.35</v>
-      </c>
-      <c r="AC30" s="108"/>
+        <v>1.48</v>
+      </c>
+      <c r="AA30" s="108">
+        <v>1.37</v>
+      </c>
       <c r="AD30" s="108"/>
       <c r="AE30" s="108"/>
       <c r="AF30" s="108"/>
       <c r="AG30" s="108"/>
       <c r="AH30" s="108"/>
-      <c r="AI30" s="109"/>
-      <c r="AJ30" s="11">
-        <v>4.7300000000000004</v>
-      </c>
+      <c r="AI30" s="108"/>
+      <c r="AJ30" s="109"/>
       <c r="AK30" s="11">
-        <v>5.81</v>
-      </c>
-    </row>
-    <row r="31" spans="2:37" x14ac:dyDescent="0.25">
+        <v>5.14</v>
+      </c>
+      <c r="AL30" s="11">
+        <v>6.14</v>
+      </c>
+    </row>
+    <row r="31" spans="2:38" x14ac:dyDescent="0.25">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -15715,19 +15804,20 @@
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
-      <c r="W31" s="131"/>
-      <c r="X31" s="91"/>
-      <c r="Y31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="132"/>
+      <c r="Y31" s="91"/>
       <c r="Z31" s="1"/>
-      <c r="AC31" s="1"/>
+      <c r="AA31" s="1"/>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
       <c r="AF31" s="1"/>
       <c r="AG31" s="1"/>
       <c r="AH31" s="1"/>
-      <c r="AI31" s="91"/>
-    </row>
-    <row r="32" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="91"/>
+    </row>
+    <row r="32" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>181</v>
       </c>
@@ -15815,17 +15905,21 @@
         <f>1-(W12+W13+W14)/W10</f>
         <v>0.19495091164095368</v>
       </c>
-      <c r="X32" s="96">
+      <c r="X32" s="107">
         <f>1-(X12+X13+X14)/X10</f>
         <v>0.19139460862161006</v>
       </c>
-    </row>
-    <row r="33" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="Y32" s="96">
+        <f>1-(Y12+Y13+Y14)/Y10</f>
+        <v>0.19508802406893377</v>
+      </c>
+    </row>
+    <row r="33" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>48</v>
       </c>
       <c r="G33" s="7">
-        <f t="shared" ref="G33:X33" si="29">G10/C10-1</f>
+        <f t="shared" ref="G33:Y33" si="29">G10/C10-1</f>
         <v>0.26385259631490787</v>
       </c>
       <c r="H33" s="7">
@@ -15888,56 +15982,60 @@
         <f t="shared" si="29"/>
         <v>0.13911825420230017</v>
       </c>
-      <c r="W33" s="136">
+      <c r="W33" s="7">
         <f t="shared" si="29"/>
         <v>0.12527677884388888</v>
       </c>
-      <c r="X33" s="99">
+      <c r="X33" s="137">
         <f t="shared" si="29"/>
         <v>0.10115862869559389</v>
       </c>
-      <c r="Y33" s="6"/>
+      <c r="Y33" s="99">
+        <f t="shared" si="29"/>
+        <v>0.11038348371225104</v>
+      </c>
       <c r="Z33" s="6"/>
-      <c r="AC33" s="7"/>
-      <c r="AD33" s="7">
-        <f t="shared" ref="AD33:AK33" si="30">AD10/AC10-1</f>
+      <c r="AA33" s="6"/>
+      <c r="AD33" s="7"/>
+      <c r="AE33" s="7">
+        <f t="shared" ref="AE33:AL33" si="30">AE10/AD10-1</f>
         <v>0.3093396152159491</v>
       </c>
-      <c r="AE33" s="7">
+      <c r="AF33" s="7">
         <f t="shared" si="30"/>
         <v>0.20454125820676983</v>
       </c>
-      <c r="AF33" s="7">
+      <c r="AG33" s="7">
         <f t="shared" si="30"/>
         <v>0.37623430604373276</v>
       </c>
-      <c r="AG33" s="7">
+      <c r="AH33" s="7">
         <f t="shared" si="30"/>
         <v>0.21695366571345676</v>
       </c>
-      <c r="AH33" s="7">
+      <c r="AI33" s="7">
         <f t="shared" si="30"/>
         <v>9.399517263985091E-2</v>
       </c>
-      <c r="AI33" s="99">
+      <c r="AJ33" s="99">
         <f t="shared" si="30"/>
         <v>0.1182957412988368</v>
       </c>
-      <c r="AJ33" s="7">
-        <f t="shared" si="30"/>
-        <v>0.10500447993597617</v>
-      </c>
       <c r="AK33" s="7">
         <f t="shared" si="30"/>
-        <v>0.10734641181471805</v>
-      </c>
-    </row>
-    <row r="34" spans="2:37" x14ac:dyDescent="0.25">
+        <v>0.10921474986299229</v>
+      </c>
+      <c r="AL33" s="7">
+        <f t="shared" si="30"/>
+        <v>0.10766045548654235</v>
+      </c>
+    </row>
+    <row r="34" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>84</v>
       </c>
       <c r="G34" s="7">
-        <f t="shared" ref="G34:X34" si="31">G6/C6-1</f>
+        <f t="shared" ref="G34:W34" si="31">G6/C6-1</f>
         <v>0.32783264033264037</v>
       </c>
       <c r="H34" s="7">
@@ -16000,43 +16098,47 @@
         <f t="shared" si="31"/>
         <v>0.13219197305641317</v>
       </c>
-      <c r="W34" s="136">
+      <c r="W34" s="7">
         <f t="shared" si="31"/>
         <v>0.17247354125690739</v>
       </c>
-      <c r="X34" s="99">
+      <c r="X34" s="137">
         <f>X6/T6-1</f>
         <v>0.18703703703703711</v>
       </c>
-      <c r="Y34" s="6"/>
+      <c r="Y34" s="99">
+        <f>Y6/U6-1</f>
+        <v>0.1905112971074201</v>
+      </c>
       <c r="Z34" s="6"/>
-      <c r="AC34" s="7"/>
-      <c r="AD34" s="7">
-        <f t="shared" ref="AD34:AI34" si="32">AD6/AC6-1</f>
+      <c r="AA34" s="6"/>
+      <c r="AD34" s="7"/>
+      <c r="AE34" s="7">
+        <f t="shared" ref="AE34:AJ34" si="32">AE6/AD6-1</f>
         <v>0.46944269431238905</v>
       </c>
-      <c r="AE34" s="7">
+      <c r="AF34" s="7">
         <f t="shared" si="32"/>
         <v>0.36526992788930035</v>
       </c>
-      <c r="AF34" s="7">
+      <c r="AG34" s="7">
         <f t="shared" si="32"/>
         <v>0.29532347399074976</v>
       </c>
-      <c r="AG34" s="7">
+      <c r="AH34" s="7">
         <f t="shared" si="32"/>
         <v>0.37099404893101173</v>
       </c>
-      <c r="AH34" s="7">
+      <c r="AI34" s="7">
         <f t="shared" si="32"/>
         <v>0.28767563743931057</v>
       </c>
-      <c r="AI34" s="99">
+      <c r="AJ34" s="99">
         <f t="shared" si="32"/>
         <v>0.13310277666799841</v>
       </c>
     </row>
-    <row r="35" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>60</v>
       </c>
@@ -16120,48 +16222,52 @@
         <f t="shared" si="33"/>
         <v>6.2579062255458603E-2</v>
       </c>
-      <c r="W35" s="136">
+      <c r="W35" s="7">
         <f t="shared" si="33"/>
         <v>7.2784743882271671E-2</v>
       </c>
-      <c r="X35" s="99">
+      <c r="X35" s="137">
         <f t="shared" si="33"/>
         <v>9.1081722159524786E-2</v>
       </c>
-      <c r="Y35" s="7"/>
+      <c r="Y35" s="99">
+        <f t="shared" ref="Y35" si="34">Y24/Y10</f>
+        <v>9.6477148989469838E-2</v>
+      </c>
       <c r="Z35" s="7"/>
       <c r="AA35" s="7"/>
       <c r="AB35" s="7"/>
-      <c r="AC35" s="7">
-        <f t="shared" ref="AC35:AI35" si="34">AC24/AC10</f>
+      <c r="AC35" s="7"/>
+      <c r="AD35" s="7">
+        <f t="shared" ref="AD35:AJ35" si="35">AD24/AD10</f>
         <v>1.7052162864178651E-2</v>
       </c>
-      <c r="AD35" s="7">
-        <f t="shared" si="34"/>
+      <c r="AE35" s="7">
+        <f t="shared" si="35"/>
         <v>4.3252736305590261E-2</v>
       </c>
-      <c r="AE35" s="7">
-        <f t="shared" si="34"/>
+      <c r="AF35" s="7">
+        <f t="shared" si="35"/>
         <v>4.1308703060722513E-2</v>
       </c>
-      <c r="AF35" s="7">
-        <f t="shared" si="34"/>
+      <c r="AG35" s="7">
+        <f t="shared" si="35"/>
         <v>5.5211053089643171E-2</v>
       </c>
-      <c r="AG35" s="7">
-        <f t="shared" si="34"/>
+      <c r="AH35" s="7">
+        <f t="shared" si="35"/>
         <v>7.1014128755145567E-2</v>
       </c>
-      <c r="AH35" s="7">
-        <f t="shared" si="34"/>
+      <c r="AI35" s="7">
+        <f t="shared" si="35"/>
         <v>-5.2958950004183018E-3</v>
       </c>
-      <c r="AI35" s="99">
-        <f t="shared" si="34"/>
+      <c r="AJ35" s="99">
+        <f t="shared" si="35"/>
         <v>5.2953713127517246E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>49</v>
       </c>
@@ -16186,189 +16292,197 @@
         <v>2.1980276134122287</v>
       </c>
       <c r="L36" s="7">
-        <f t="shared" ref="L36:X36" si="35">-(L24/H24-1)</f>
+        <f t="shared" ref="L36:Y36" si="36">-(L24/H24-1)</f>
         <v>-0.48121304596604997</v>
       </c>
       <c r="M36" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.50086874111514768</v>
       </c>
       <c r="N36" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-0.9064786483969669</v>
       </c>
       <c r="O36" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.4740347847539164</v>
       </c>
       <c r="P36" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.2611382951326293</v>
       </c>
       <c r="Q36" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>9.1139240506329156E-2</v>
       </c>
       <c r="R36" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.9806712720675459</v>
       </c>
       <c r="S36" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.8253968253968254</v>
       </c>
       <c r="T36" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4.3284023668639051</v>
       </c>
       <c r="U36" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-2.4397632311977717</v>
       </c>
       <c r="V36" s="7">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>-37.397111913357399</v>
       </c>
-      <c r="W36" s="136">
-        <f t="shared" si="35"/>
+      <c r="W36" s="7">
+        <f t="shared" si="36"/>
         <v>-2.2884615384615383</v>
       </c>
-      <c r="X36" s="99">
-        <f t="shared" si="35"/>
+      <c r="X36" s="137">
+        <f t="shared" si="36"/>
         <v>-0.9967407407407407</v>
       </c>
-      <c r="Y36" s="6"/>
+      <c r="Y36" s="99">
+        <f t="shared" si="36"/>
+        <v>-0.55157404595606851</v>
+      </c>
       <c r="Z36" s="6"/>
-      <c r="AD36" s="7">
-        <f t="shared" ref="AD36:AI36" si="36">AD24/AC24-1</f>
+      <c r="AA36" s="6"/>
+      <c r="AE36" s="7">
+        <f t="shared" ref="AE36:AJ36" si="37">AE24/AD24-1</f>
         <v>2.3211341905703922</v>
       </c>
-      <c r="AE36" s="7">
-        <f t="shared" si="36"/>
+      <c r="AF36" s="7">
+        <f t="shared" si="37"/>
         <v>0.1504020649260398</v>
       </c>
-      <c r="AF36" s="7">
-        <f t="shared" si="36"/>
+      <c r="AG36" s="7">
+        <f t="shared" si="37"/>
         <v>0.83940283051432507</v>
       </c>
-      <c r="AG36" s="7">
-        <f t="shared" si="36"/>
+      <c r="AH36" s="7">
+        <f t="shared" si="37"/>
         <v>0.56528266479005396</v>
       </c>
-      <c r="AH36" s="7">
-        <f t="shared" si="36"/>
+      <c r="AI36" s="7">
+        <f t="shared" si="37"/>
         <v>-1.0815849418534949</v>
       </c>
-      <c r="AI36" s="99">
-        <f t="shared" si="36"/>
+      <c r="AJ36" s="99">
+        <f t="shared" si="37"/>
         <v>-12.181851579720794</v>
       </c>
     </row>
-    <row r="37" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>50</v>
       </c>
       <c r="G37" s="7">
-        <f t="shared" ref="G37:X37" si="37">-G23/G22</f>
+        <f t="shared" ref="G37:X37" si="38">-G23/G22</f>
         <v>0.25066509015666566</v>
       </c>
       <c r="H37" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.1572094518566147</v>
       </c>
       <c r="I37" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>7.0201204288441774E-2</v>
       </c>
       <c r="J37" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>3.1938184159690922E-2</v>
       </c>
       <c r="K37" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.21045968056096612</v>
       </c>
       <c r="L37" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.1005327773917072</v>
       </c>
       <c r="M37" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.26767091541135574</v>
       </c>
       <c r="N37" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4.0377661711530732E-2</v>
       </c>
       <c r="O37" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.27008547008547007</v>
       </c>
       <c r="P37" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.23558235959291368</v>
       </c>
       <c r="Q37" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>2.4456521739130436E-2</v>
       </c>
       <c r="R37" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1.287941787941788</v>
       </c>
       <c r="S37" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.22991017237193492</v>
       </c>
       <c r="T37" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.1074970249900833</v>
       </c>
       <c r="U37" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.18951513659857247</v>
       </c>
       <c r="V37" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.2228554727458717</v>
       </c>
-      <c r="W37" s="136">
-        <f t="shared" si="37"/>
+      <c r="W37" s="7">
+        <f t="shared" si="38"/>
         <v>0.19656473850419778</v>
       </c>
-      <c r="X37" s="99">
-        <f t="shared" si="37"/>
+      <c r="X37" s="137">
+        <f t="shared" si="38"/>
         <v>0.11590685470646113</v>
       </c>
-      <c r="Y37" s="6"/>
+      <c r="Y37" s="99">
+        <f t="shared" ref="Y37" si="39">-Y23/Y22</f>
+        <v>0.15019127349337472</v>
+      </c>
       <c r="Z37" s="6"/>
-      <c r="AC37" s="7"/>
-      <c r="AD37" s="7">
-        <f t="shared" ref="AD37:AI37" si="38">-AD23/AD22</f>
+      <c r="AA37" s="6"/>
+      <c r="AD37" s="7"/>
+      <c r="AE37" s="7">
+        <f t="shared" ref="AE37:AJ37" si="40">-AE23/AE22</f>
         <v>0.10549684752686263</v>
       </c>
-      <c r="AE37" s="7">
-        <f t="shared" si="38"/>
+      <c r="AF37" s="7">
+        <f t="shared" si="40"/>
         <v>0.1708643388666285</v>
       </c>
-      <c r="AF37" s="7">
-        <f t="shared" si="38"/>
+      <c r="AG37" s="7">
+        <f t="shared" si="40"/>
         <v>0.1184134337000579</v>
       </c>
-      <c r="AG37" s="7">
-        <f t="shared" si="38"/>
+      <c r="AH37" s="7">
+        <f t="shared" si="40"/>
         <v>0.12547508584309716</v>
       </c>
-      <c r="AH37" s="7">
-        <f t="shared" si="38"/>
+      <c r="AI37" s="7">
+        <f t="shared" si="40"/>
         <v>0.5414420485175202</v>
       </c>
-      <c r="AI37" s="99">
-        <f t="shared" si="38"/>
+      <c r="AJ37" s="99">
+        <f t="shared" si="40"/>
         <v>0.18957850733551668</v>
       </c>
     </row>
-    <row r="38" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>252</v>
       </c>
@@ -16377,121 +16491,125 @@
         <v>6.137353433835846E-2</v>
       </c>
       <c r="D38" s="12">
-        <f t="shared" ref="D38:X38" si="39">D15/D10</f>
+        <f t="shared" ref="D38:X38" si="41">D15/D10</f>
         <v>6.767711816289193E-2</v>
       </c>
       <c r="E38" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>6.7904145410897246E-2</v>
       </c>
       <c r="F38" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>7.0576529386872838E-2</v>
       </c>
       <c r="G38" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>6.3987700789906163E-2</v>
       </c>
       <c r="H38" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>4.8868544178513586E-2</v>
       </c>
       <c r="I38" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5.6518799729575124E-2</v>
       </c>
       <c r="J38" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5.8946278523356301E-2</v>
       </c>
       <c r="K38" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5.7197884221972389E-2</v>
       </c>
       <c r="L38" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>6.6536964980544747E-2</v>
       </c>
       <c r="M38" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>7.2284590116593869E-2</v>
       </c>
       <c r="N38" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>7.8668529677175206E-2</v>
       </c>
       <c r="O38" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>7.1450654391810656E-2</v>
       </c>
       <c r="P38" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>8.3194483395747074E-2</v>
       </c>
       <c r="Q38" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>8.6655494449296225E-2</v>
       </c>
       <c r="R38" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>8.5909224953754595E-2</v>
       </c>
       <c r="S38" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>7.9869344681920251E-2</v>
       </c>
       <c r="T38" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>7.9958030405631667E-2</v>
       </c>
       <c r="U38" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>7.3740416401668965E-2</v>
       </c>
       <c r="V38" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>7.5911532645724603E-2</v>
       </c>
       <c r="W38" s="107">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>6.7418866397326138E-2</v>
       </c>
-      <c r="X38" s="96">
-        <f t="shared" si="39"/>
+      <c r="X38" s="107">
+        <f t="shared" si="41"/>
         <v>7.1038066726585886E-2</v>
       </c>
-      <c r="Y38" s="6"/>
+      <c r="Y38" s="96">
+        <f t="shared" ref="Y38" si="42">Y15/Y10</f>
+        <v>6.6774926515480532E-2</v>
+      </c>
       <c r="Z38" s="6"/>
-      <c r="AC38" s="12">
-        <f t="shared" ref="AC38:AI38" si="40">AC15/AC10</f>
+      <c r="AA38" s="6"/>
+      <c r="AD38" s="12">
+        <f t="shared" ref="AD38:AJ38" si="43">AD15/AD10</f>
         <v>5.6610032271485276E-2</v>
       </c>
-      <c r="AD38" s="12">
-        <f t="shared" si="40"/>
+      <c r="AE38" s="12">
+        <f t="shared" si="43"/>
         <v>5.9316320790769775E-2</v>
       </c>
-      <c r="AE38" s="12">
-        <f t="shared" si="40"/>
+      <c r="AF38" s="12">
+        <f t="shared" si="43"/>
         <v>6.7295969656568824E-2</v>
       </c>
-      <c r="AF38" s="12">
-        <f t="shared" si="40"/>
+      <c r="AG38" s="12">
+        <f t="shared" si="43"/>
         <v>5.7006092254134028E-2</v>
       </c>
-      <c r="AG38" s="12">
-        <f t="shared" si="40"/>
+      <c r="AH38" s="12">
+        <f t="shared" si="43"/>
         <v>6.9283686161993263E-2</v>
       </c>
-      <c r="AH38" s="12">
-        <f t="shared" si="40"/>
+      <c r="AI38" s="12">
+        <f t="shared" si="43"/>
         <v>8.2177815219569517E-2</v>
       </c>
-      <c r="AI38" s="96">
-        <f t="shared" si="40"/>
+      <c r="AJ38" s="96">
+        <f t="shared" si="43"/>
         <v>7.7194081265168718E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>253</v>
       </c>
@@ -16500,121 +16618,125 @@
         <v>1.9648241206030152E-2</v>
       </c>
       <c r="D39" s="12">
-        <f t="shared" ref="D39:X39" si="41">D16/D10</f>
+        <f t="shared" ref="D39:X39" si="44">D16/D10</f>
         <v>2.0030282001135574E-2</v>
       </c>
       <c r="E39" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>1.9262371215044084E-2</v>
       </c>
       <c r="F39" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>1.6148769971522352E-2</v>
       </c>
       <c r="G39" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>1.924402268992207E-2</v>
       </c>
       <c r="H39" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>1.7770379701277667E-2</v>
       </c>
       <c r="I39" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>1.7348796089240209E-2</v>
       </c>
       <c r="J39" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>1.5674405638963003E-2</v>
       </c>
       <c r="K39" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>1.8310326397464015E-2</v>
       </c>
       <c r="L39" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>1.9083834453484258E-2</v>
       </c>
       <c r="M39" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>1.9429303685521423E-2</v>
       </c>
       <c r="N39" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>1.8375396617471545E-2</v>
       </c>
       <c r="O39" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>2.2276802583215967E-2</v>
       </c>
       <c r="P39" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>2.3945427850273027E-2</v>
       </c>
       <c r="Q39" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>2.4083209416133625E-2</v>
       </c>
       <c r="R39" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>2.2338543202595106E-2</v>
       </c>
       <c r="S39" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>2.3893277218549287E-2</v>
       </c>
       <c r="T39" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>2.3827418646703825E-2</v>
       </c>
       <c r="U39" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>1.7898702151897851E-2</v>
       </c>
       <c r="V39" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>1.7709945222727567E-2</v>
       </c>
       <c r="W39" s="107">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>1.9132946766866929E-2</v>
       </c>
-      <c r="X39" s="96">
-        <f t="shared" si="41"/>
+      <c r="X39" s="107">
+        <f t="shared" si="44"/>
         <v>2.0550490954675388E-2</v>
       </c>
-      <c r="Y39" s="6"/>
+      <c r="Y39" s="96">
+        <f t="shared" ref="Y39" si="45">Y16/Y10</f>
+        <v>1.7076102897209792E-2</v>
+      </c>
       <c r="Z39" s="6"/>
-      <c r="AC39" s="12">
-        <f t="shared" ref="AC39:AI39" si="42">AC16/AC10</f>
+      <c r="AA39" s="6"/>
+      <c r="AD39" s="12">
+        <f t="shared" ref="AD39:AJ39" si="46">AD16/AD10</f>
         <v>2.0655999460267842E-2</v>
       </c>
-      <c r="AD39" s="12">
-        <f t="shared" si="42"/>
+      <c r="AE39" s="12">
+        <f t="shared" si="46"/>
         <v>1.8618471619283171E-2</v>
       </c>
-      <c r="AE39" s="12">
-        <f t="shared" si="42"/>
+      <c r="AF39" s="12">
+        <f t="shared" si="46"/>
         <v>1.8547564896870834E-2</v>
       </c>
-      <c r="AF39" s="12">
-        <f t="shared" si="42"/>
+      <c r="AG39" s="12">
+        <f t="shared" si="46"/>
         <v>1.7271747689502258E-2</v>
       </c>
-      <c r="AG39" s="12">
-        <f t="shared" si="42"/>
+      <c r="AH39" s="12">
+        <f t="shared" si="46"/>
         <v>1.8779452643767215E-2</v>
       </c>
-      <c r="AH39" s="12">
-        <f t="shared" si="42"/>
+      <c r="AI39" s="12">
+        <f t="shared" si="46"/>
         <v>2.3135006410717866E-2</v>
       </c>
-      <c r="AI39" s="96">
-        <f t="shared" si="42"/>
+      <c r="AJ39" s="96">
+        <f t="shared" si="46"/>
         <v>2.0557251841993092E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:38" x14ac:dyDescent="0.25">
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
@@ -16631,885 +16753,914 @@
       <c r="T40" s="7"/>
       <c r="U40" s="7"/>
       <c r="V40" s="7"/>
-      <c r="W40" s="136"/>
-      <c r="X40" s="137"/>
-      <c r="Y40" s="6"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="138"/>
+      <c r="Y40" s="110"/>
       <c r="Z40" s="6"/>
-      <c r="AC40" s="7"/>
+      <c r="AA40" s="6"/>
       <c r="AD40" s="7"/>
       <c r="AE40" s="7"/>
       <c r="AF40" s="7"/>
       <c r="AG40" s="7"/>
       <c r="AH40" s="7"/>
-      <c r="AI40" s="99"/>
-    </row>
-    <row r="41" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AI40" s="7"/>
+      <c r="AJ40" s="99"/>
+    </row>
+    <row r="41" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>119</v>
       </c>
       <c r="C41" s="6">
-        <f t="shared" ref="C41:X41" si="43">C27/SUM(C25:C27)</f>
+        <f t="shared" ref="C41:X41" si="47">C27/SUM(C25:C27)</f>
         <v>0.50294117647058822</v>
       </c>
       <c r="D41" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.6877431906614786</v>
       </c>
       <c r="E41" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.71618625277161863</v>
       </c>
       <c r="F41" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.66907216494845356</v>
       </c>
       <c r="G41" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.77086989220355984</v>
       </c>
       <c r="H41" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.57453362998459701</v>
       </c>
       <c r="I41" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.57071359380045206</v>
       </c>
       <c r="J41" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.51855085115670008</v>
       </c>
       <c r="K41" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.46959954878736604</v>
       </c>
       <c r="L41" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.54440405089587118</v>
       </c>
       <c r="M41" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>1.0063891178895301</v>
       </c>
       <c r="N41" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>1.5297687861271676</v>
       </c>
       <c r="O41" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>1.7765058599073318</v>
       </c>
       <c r="P41" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>1.7229424178474526</v>
       </c>
       <c r="Q41" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>2.1398019801980199</v>
       </c>
       <c r="R41" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>1.9017172086225795</v>
       </c>
       <c r="S41" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>1.073104315039799</v>
       </c>
       <c r="T41" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.69847676083843246</v>
       </c>
       <c r="U41" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.62352520557740432</v>
       </c>
       <c r="V41" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.54258460140813081</v>
       </c>
-      <c r="W41" s="136">
-        <f t="shared" si="43"/>
+      <c r="W41" s="7">
+        <f t="shared" si="47"/>
         <v>0.61547004638400726</v>
       </c>
-      <c r="X41" s="99">
-        <f t="shared" si="43"/>
+      <c r="X41" s="137">
+        <f t="shared" si="47"/>
         <v>0.63617775354416572</v>
       </c>
-      <c r="Y41" s="6"/>
+      <c r="Y41" s="99">
+        <f t="shared" ref="Y41" si="48">Y27/SUM(Y25:Y27)</f>
+        <v>0.60002297398196547</v>
+      </c>
       <c r="Z41" s="6"/>
-      <c r="AC41" s="7">
-        <f t="shared" ref="AC41:AI41" si="44">AC27/SUM(AC25:AC27)</f>
+      <c r="AA41" s="6"/>
+      <c r="AD41" s="7">
+        <f t="shared" ref="AD41:AJ41" si="49">AD27/SUM(AD25:AD27)</f>
         <v>1.0547978567949343</v>
       </c>
-      <c r="AD41" s="7">
-        <f t="shared" si="44"/>
+      <c r="AE41" s="7">
+        <f t="shared" si="49"/>
         <v>0.58739231945898074</v>
       </c>
-      <c r="AE41" s="7">
-        <f t="shared" si="44"/>
+      <c r="AF41" s="7">
+        <f t="shared" si="49"/>
         <v>0.63276253352589229</v>
       </c>
-      <c r="AF41" s="7">
-        <f t="shared" si="44"/>
+      <c r="AG41" s="7">
+        <f t="shared" si="49"/>
         <v>0.59089916590244118</v>
       </c>
-      <c r="AG41" s="7">
-        <f t="shared" si="44"/>
+      <c r="AH41" s="7">
+        <f t="shared" si="49"/>
         <v>0.74488524458378558</v>
       </c>
-      <c r="AH41" s="7">
-        <f t="shared" si="44"/>
+      <c r="AI41" s="7">
+        <f t="shared" si="49"/>
         <v>1.8648758981058131</v>
       </c>
-      <c r="AI41" s="99">
-        <f t="shared" si="44"/>
+      <c r="AJ41" s="99">
+        <f t="shared" si="49"/>
         <v>0.668376207532834</v>
       </c>
     </row>
-    <row r="42" spans="2:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="W42" s="130"/>
-      <c r="X42" s="102"/>
-      <c r="AI42" s="102"/>
-    </row>
-    <row r="44" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="X42" s="131"/>
+      <c r="Y42" s="102"/>
+      <c r="AJ42" s="102"/>
+    </row>
+    <row r="44" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>56</v>
       </c>
       <c r="C44" s="7">
-        <f t="shared" ref="C44:X44" si="45">C4/SUM(C$4:C$6)</f>
+        <f t="shared" ref="C44:X44" si="50">C4/SUM(C$4:C$6)</f>
         <v>0.59986599664991624</v>
       </c>
       <c r="D44" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0.60963030723613654</v>
       </c>
       <c r="E44" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0.6092796616224404</v>
       </c>
       <c r="F44" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0.61363662368273508</v>
       </c>
       <c r="G44" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0.61134231034299957</v>
       </c>
       <c r="H44" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0.62349289184811951</v>
       </c>
       <c r="I44" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0.61753601331322483</v>
       </c>
       <c r="J44" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0.60010354028115165</v>
       </c>
       <c r="K44" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0.59302411326598337</v>
       </c>
       <c r="L44" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0.59736469755925004</v>
       </c>
       <c r="M44" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0.5916056022813414</v>
       </c>
       <c r="N44" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0.59945286011553967</v>
       </c>
       <c r="O44" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0.59465494143107411</v>
       </c>
       <c r="P44" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0.61393668442846061</v>
       </c>
       <c r="Q44" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0.62031770009677345</v>
       </c>
       <c r="R44" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0.62574059676684268</v>
       </c>
       <c r="S44" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0.60366054743321973</v>
       </c>
       <c r="T44" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0.61425924410081634</v>
       </c>
       <c r="U44" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0.61423788989607431</v>
       </c>
       <c r="V44" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0.62081301004348055</v>
       </c>
-      <c r="W44" s="136">
-        <f t="shared" si="45"/>
+      <c r="W44" s="7">
+        <f t="shared" si="50"/>
         <v>0.60246453566668756</v>
       </c>
-      <c r="X44" s="99">
-        <f t="shared" si="45"/>
+      <c r="X44" s="137">
+        <f t="shared" si="50"/>
         <v>0.60842563371334735</v>
       </c>
-      <c r="Y44" s="7"/>
+      <c r="Y44" s="99">
+        <f t="shared" ref="Y44" si="51">Y4/SUM(Y$4:Y$6)</f>
+        <v>0.60132681256569542</v>
+      </c>
       <c r="Z44" s="7"/>
       <c r="AA44" s="7"/>
       <c r="AB44" s="7"/>
       <c r="AC44" s="7"/>
-      <c r="AD44" s="7">
-        <f t="shared" ref="AD44:AI46" si="46">AD4/SUM(AD$4:AD$6)</f>
+      <c r="AD44" s="7"/>
+      <c r="AE44" s="7">
+        <f t="shared" ref="AE44:AJ46" si="52">AE4/SUM(AE$4:AE$6)</f>
         <v>0.6070154194952917</v>
       </c>
-      <c r="AE44" s="7">
-        <f t="shared" si="46"/>
+      <c r="AF44" s="7">
+        <f t="shared" si="52"/>
         <v>0.60871285857916013</v>
       </c>
-      <c r="AF44" s="7">
-        <f t="shared" si="46"/>
+      <c r="AG44" s="7">
+        <f t="shared" si="52"/>
         <v>0.61202805752414102</v>
       </c>
-      <c r="AG44" s="7">
-        <f t="shared" si="46"/>
+      <c r="AH44" s="7">
+        <f t="shared" si="52"/>
         <v>0.59561493501794294</v>
       </c>
-      <c r="AH44" s="7">
-        <f t="shared" si="46"/>
+      <c r="AI44" s="7">
+        <f t="shared" si="52"/>
         <v>0.61457285552245888</v>
       </c>
-      <c r="AI44" s="99">
-        <f t="shared" si="46"/>
+      <c r="AJ44" s="99">
+        <f t="shared" si="52"/>
         <v>0.61384343711126765</v>
       </c>
     </row>
-    <row r="45" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>57</v>
       </c>
       <c r="C45" s="7">
-        <f t="shared" ref="C45:X45" si="47">C5/SUM(C$4:C$6)</f>
+        <f t="shared" ref="C45:X45" si="53">C5/SUM(C$4:C$6)</f>
         <v>0.27122278056951421</v>
       </c>
       <c r="D45" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0.25818560343196012</v>
       </c>
       <c r="E45" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0.26218545033651991</v>
       </c>
       <c r="F45" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0.2724693067267755</v>
       </c>
       <c r="G45" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0.25322059057413987</v>
       </c>
       <c r="H45" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0.25494871333453301</v>
       </c>
       <c r="I45" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0.26180248582869625</v>
       </c>
       <c r="J45" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0.2984110549161722</v>
       </c>
       <c r="K45" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0.28251050807462574</v>
       </c>
       <c r="L45" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0.27167492041032898</v>
       </c>
       <c r="M45" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0.26301303107966645</v>
       </c>
       <c r="N45" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0.27118348103199896</v>
       </c>
       <c r="O45" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0.24697708769880802</v>
       </c>
       <c r="P45" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0.223245954105284</v>
       </c>
       <c r="Q45" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0.21809427148488211</v>
       </c>
       <c r="R45" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0.23097906222353287</v>
       </c>
       <c r="S45" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0.22867036228583992</v>
       </c>
       <c r="T45" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0.22098777375114412</v>
       </c>
       <c r="U45" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0.22460390123215196</v>
       </c>
       <c r="V45" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0.23677784903595531</v>
       </c>
-      <c r="W45" s="136">
-        <f t="shared" si="47"/>
+      <c r="W45" s="7">
+        <f t="shared" si="53"/>
         <v>0.22283393690732872</v>
       </c>
-      <c r="X45" s="99">
-        <f t="shared" si="47"/>
+      <c r="X45" s="137">
+        <f t="shared" si="53"/>
         <v>0.21397244166323146</v>
       </c>
-      <c r="Y45" s="7"/>
+      <c r="Y45" s="99">
+        <f t="shared" ref="Y45" si="54">Y5/SUM(Y$4:Y$6)</f>
+        <v>0.22588543338557501</v>
+      </c>
       <c r="Z45" s="7"/>
       <c r="AA45" s="7"/>
       <c r="AB45" s="7"/>
       <c r="AC45" s="7"/>
-      <c r="AD45" s="7">
-        <f t="shared" si="46"/>
+      <c r="AD45" s="7"/>
+      <c r="AE45" s="7">
+        <f t="shared" si="52"/>
         <v>0.28282385878129734</v>
       </c>
-      <c r="AE45" s="7">
-        <f t="shared" si="46"/>
+      <c r="AF45" s="7">
+        <f t="shared" si="52"/>
         <v>0.26640925264366339</v>
       </c>
-      <c r="AF45" s="7">
-        <f t="shared" si="46"/>
+      <c r="AG45" s="7">
+        <f t="shared" si="52"/>
         <v>0.27045256744995649</v>
       </c>
-      <c r="AG45" s="7">
-        <f t="shared" si="46"/>
+      <c r="AH45" s="7">
+        <f t="shared" si="52"/>
         <v>0.27199024311334929</v>
       </c>
-      <c r="AH45" s="7">
-        <f t="shared" si="46"/>
+      <c r="AI45" s="7">
+        <f t="shared" si="52"/>
         <v>0.22959319666214642</v>
       </c>
-      <c r="AI45" s="99">
-        <f t="shared" si="46"/>
+      <c r="AJ45" s="99">
+        <f t="shared" si="52"/>
         <v>0.22825926215889419</v>
       </c>
     </row>
-    <row r="46" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>58</v>
       </c>
       <c r="C46" s="7">
-        <f t="shared" ref="C46:X46" si="48">C6/SUM(C$4:C$6)</f>
+        <f t="shared" ref="C46:X46" si="55">C6/SUM(C$4:C$6)</f>
         <v>0.12891122278056952</v>
       </c>
       <c r="D46" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>0.13218408933190334</v>
       </c>
       <c r="E46" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>0.12853488804103971</v>
       </c>
       <c r="F46" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>0.11389406959048938</v>
       </c>
       <c r="G46" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>0.13543709908286064</v>
       </c>
       <c r="H46" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>0.1215583948173475</v>
       </c>
       <c r="I46" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>0.12066150085807895</v>
       </c>
       <c r="J46" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>0.10148540480267612</v>
       </c>
       <c r="K46" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>0.1244653786593909</v>
       </c>
       <c r="L46" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>0.13096038203042093</v>
       </c>
       <c r="M46" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>0.14538136663899218</v>
       </c>
       <c r="N46" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>0.1293636588524614</v>
       </c>
       <c r="O46" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>0.15836797087011784</v>
       </c>
       <c r="P46" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>0.16281736146625533</v>
       </c>
       <c r="Q46" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>0.16158802841834446</v>
       </c>
       <c r="R46" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>0.14328034100962442</v>
       </c>
       <c r="S46" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>0.16766909028094035</v>
       </c>
       <c r="T46" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>0.16475298214803955</v>
       </c>
       <c r="U46" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>0.16115820887177373</v>
       </c>
       <c r="V46" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>0.14240914092056414</v>
       </c>
-      <c r="W46" s="136">
-        <f t="shared" si="48"/>
+      <c r="W46" s="7">
+        <f t="shared" si="55"/>
         <v>0.17470152742598369</v>
       </c>
-      <c r="X46" s="99">
-        <f t="shared" si="48"/>
+      <c r="X46" s="137">
+        <f t="shared" si="55"/>
         <v>0.1776019246234212</v>
       </c>
-      <c r="Y46" s="7"/>
+      <c r="Y46" s="99">
+        <f t="shared" ref="Y46" si="56">Y6/SUM(Y$4:Y$6)</f>
+        <v>0.17278775404872951</v>
+      </c>
       <c r="Z46" s="7"/>
       <c r="AA46" s="7"/>
       <c r="AB46" s="7"/>
       <c r="AC46" s="7"/>
-      <c r="AD46" s="7">
-        <f t="shared" si="46"/>
+      <c r="AD46" s="7"/>
+      <c r="AE46" s="7">
+        <f t="shared" si="52"/>
         <v>0.11016072172341093</v>
       </c>
-      <c r="AE46" s="7">
-        <f t="shared" si="46"/>
+      <c r="AF46" s="7">
+        <f t="shared" si="52"/>
         <v>0.12487788877717643</v>
       </c>
-      <c r="AF46" s="7">
-        <f t="shared" si="46"/>
+      <c r="AG46" s="7">
+        <f t="shared" si="52"/>
         <v>0.11751937502590244</v>
       </c>
-      <c r="AG46" s="7">
-        <f t="shared" si="46"/>
+      <c r="AH46" s="7">
+        <f t="shared" si="52"/>
         <v>0.13239482186870771</v>
       </c>
-      <c r="AH46" s="7">
-        <f t="shared" si="46"/>
+      <c r="AI46" s="7">
+        <f t="shared" si="52"/>
         <v>0.15583394781539467</v>
       </c>
-      <c r="AI46" s="99">
-        <f t="shared" si="46"/>
+      <c r="AJ46" s="99">
+        <f t="shared" si="52"/>
         <v>0.15789730072983812</v>
       </c>
     </row>
-    <row r="47" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>61</v>
       </c>
       <c r="C47" s="7">
-        <f t="shared" ref="C47:X47" si="49">C25/C4</f>
+        <f t="shared" ref="C47:X47" si="57">C25/C4</f>
         <v>6.3861275550094937E-2</v>
       </c>
       <c r="D47" s="7">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>4.0462577290249137E-2</v>
       </c>
       <c r="E47" s="7">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>3.0067076316900417E-2</v>
       </c>
       <c r="F47" s="7">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>3.5427932127540557E-2</v>
       </c>
       <c r="G47" s="7">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>2.8443211134476554E-2</v>
       </c>
       <c r="H47" s="7">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>3.8621112634389207E-2</v>
       </c>
       <c r="I47" s="7">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>3.7929698684587274E-2</v>
       </c>
       <c r="J47" s="7">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>3.9099620417805854E-2</v>
       </c>
       <c r="K47" s="7">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>5.3624720218851035E-2</v>
       </c>
       <c r="L47" s="7">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>4.6587712805329383E-2</v>
       </c>
       <c r="M47" s="7">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>1.3423433043000747E-2</v>
       </c>
       <c r="N47" s="7">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>-2.5003034348828742E-3</v>
       </c>
       <c r="O47" s="7">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>-2.2644561261625555E-2</v>
       </c>
       <c r="P47" s="7">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>-8.4240225715437322E-3</v>
       </c>
       <c r="Q47" s="7">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>-5.2255748766536023E-3</v>
       </c>
       <c r="R47" s="7">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>-2.5706114842068057E-3</v>
       </c>
       <c r="S47" s="7">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>1.1680389172877564E-2</v>
       </c>
       <c r="T47" s="7">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>3.8899522690378698E-2</v>
       </c>
       <c r="U47" s="7">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>4.9006110118675117E-2</v>
       </c>
       <c r="V47" s="7">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>6.1233580377959326E-2</v>
       </c>
-      <c r="W47" s="136">
-        <f t="shared" si="49"/>
+      <c r="W47" s="7">
+        <f t="shared" si="57"/>
         <v>5.7713021623562386E-2</v>
       </c>
-      <c r="X47" s="99">
-        <f t="shared" si="49"/>
+      <c r="X47" s="137">
+        <f t="shared" si="57"/>
         <v>5.6257150156053891E-2</v>
       </c>
-      <c r="Y47" s="7"/>
+      <c r="Y47" s="99">
+        <f t="shared" ref="Y47" si="58">Y25/Y4</f>
+        <v>5.9275463956372926E-2</v>
+      </c>
       <c r="Z47" s="7"/>
       <c r="AA47" s="7"/>
       <c r="AB47" s="7"/>
       <c r="AC47" s="7"/>
-      <c r="AD47" s="7">
-        <f t="shared" ref="AD47:AI49" si="50">AD25/AD4</f>
+      <c r="AD47" s="7"/>
+      <c r="AE47" s="7">
+        <f t="shared" ref="AE47:AJ49" si="59">AE25/AE4</f>
         <v>5.1405571353790869E-2</v>
       </c>
-      <c r="AE47" s="7">
-        <f t="shared" si="50"/>
+      <c r="AF47" s="7">
+        <f t="shared" si="59"/>
         <v>4.1192973824626757E-2</v>
       </c>
-      <c r="AF47" s="7">
-        <f t="shared" si="50"/>
+      <c r="AG47" s="7">
+        <f t="shared" si="59"/>
         <v>3.6613030192735797E-2</v>
       </c>
-      <c r="AG47" s="7">
-        <f t="shared" si="50"/>
+      <c r="AH47" s="7">
+        <f t="shared" si="59"/>
         <v>2.5983354357777676E-2</v>
       </c>
-      <c r="AH47" s="7">
-        <f t="shared" si="50"/>
+      <c r="AI47" s="7">
+        <f t="shared" si="59"/>
         <v>-9.0129162973280989E-3</v>
       </c>
-      <c r="AI47" s="99">
-        <f t="shared" si="50"/>
+      <c r="AJ47" s="99">
+        <f t="shared" si="59"/>
         <v>4.2165020916707291E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>62</v>
       </c>
       <c r="C48" s="7">
-        <f t="shared" ref="C48:X48" si="51">C26/C5</f>
+        <f t="shared" ref="C48:X48" si="60">C26/C5</f>
         <v>-5.558300395256917E-3</v>
       </c>
       <c r="D48" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="60"/>
         <v>-3.6713500305436776E-2</v>
       </c>
       <c r="E48" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="60"/>
         <v>-2.10377152823196E-2</v>
       </c>
       <c r="F48" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="60"/>
         <v>-2.5868223239407045E-2</v>
       </c>
       <c r="G48" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="60"/>
         <v>-2.0831152517533758E-2</v>
       </c>
       <c r="H48" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="60"/>
         <v>1.5219692959237693E-2</v>
       </c>
       <c r="I48" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="60"/>
         <v>1.6169401295141234E-2</v>
       </c>
       <c r="J48" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="60"/>
         <v>9.6885259027944589E-3</v>
       </c>
       <c r="K48" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="60"/>
         <v>4.084961988971908E-2</v>
       </c>
       <c r="L48" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="60"/>
         <v>1.178347059015006E-2</v>
       </c>
       <c r="M48" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="60"/>
         <v>-3.1257505575570423E-2</v>
       </c>
       <c r="N48" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="60"/>
         <v>-4.3652071259927025E-2</v>
       </c>
       <c r="O48" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="60"/>
         <v>-4.4542577975590247E-2</v>
       </c>
       <c r="P48" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="60"/>
         <v>-6.5435063735451687E-2</v>
       </c>
       <c r="Q48" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="60"/>
         <v>-8.8961038961038963E-2</v>
       </c>
       <c r="R48" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="60"/>
         <v>-6.4649043902155937E-2</v>
       </c>
       <c r="S48" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="60"/>
         <v>-4.2818390962469526E-2</v>
       </c>
       <c r="T48" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="60"/>
         <v>-3.0137724349260868E-2</v>
       </c>
       <c r="U48" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="60"/>
         <v>-2.9560942216137163E-3</v>
       </c>
       <c r="V48" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="60"/>
         <v>-1.0411748627090425E-2</v>
       </c>
-      <c r="W48" s="136">
-        <f t="shared" si="51"/>
+      <c r="W48" s="7">
+        <f t="shared" si="60"/>
         <v>2.8276186002818223E-2</v>
       </c>
-      <c r="X48" s="99">
-        <f t="shared" si="51"/>
+      <c r="X48" s="137">
+        <f t="shared" si="60"/>
         <v>8.6220509743233434E-3</v>
       </c>
-      <c r="Y48" s="7"/>
+      <c r="Y48" s="99">
+        <f t="shared" ref="Y48" si="61">Y26/Y5</f>
+        <v>3.625167186803388E-2</v>
+      </c>
       <c r="Z48" s="7"/>
       <c r="AA48" s="7"/>
       <c r="AB48" s="7"/>
       <c r="AC48" s="7"/>
-      <c r="AD48" s="7">
-        <f t="shared" si="50"/>
+      <c r="AD48" s="7"/>
+      <c r="AE48" s="7">
+        <f t="shared" si="59"/>
         <v>-3.2520572070567515E-2</v>
       </c>
-      <c r="AE48" s="7">
-        <f t="shared" si="50"/>
+      <c r="AF48" s="7">
+        <f t="shared" si="59"/>
         <v>-2.2657013235549965E-2</v>
       </c>
-      <c r="AF48" s="7">
-        <f t="shared" si="50"/>
+      <c r="AG48" s="7">
+        <f t="shared" si="59"/>
         <v>6.8670267785312031E-3</v>
       </c>
-      <c r="AG48" s="7">
-        <f t="shared" si="50"/>
+      <c r="AH48" s="7">
+        <f t="shared" si="59"/>
         <v>-7.2307824739605746E-3</v>
       </c>
-      <c r="AH48" s="7">
-        <f t="shared" si="50"/>
+      <c r="AI48" s="7">
+        <f t="shared" si="59"/>
         <v>-6.5640173887989692E-2</v>
       </c>
-      <c r="AI48" s="99">
-        <f t="shared" si="50"/>
+      <c r="AJ48" s="99">
+        <f t="shared" si="59"/>
         <v>-2.0243902439024391E-2</v>
       </c>
     </row>
-    <row r="49" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>63</v>
       </c>
       <c r="C49" s="7">
-        <f t="shared" ref="C49:X49" si="52">C27/C6</f>
+        <f t="shared" ref="C49:X49" si="62">C27/C6</f>
         <v>0.28885135135135137</v>
       </c>
       <c r="D49" s="7">
-        <f t="shared" si="52"/>
+        <f t="shared" si="62"/>
         <v>0.25307242572485383</v>
       </c>
       <c r="E49" s="7">
-        <f t="shared" si="52"/>
+        <f t="shared" si="62"/>
         <v>0.25136186770428015</v>
       </c>
       <c r="F49" s="7">
-        <f t="shared" si="52"/>
+        <f t="shared" si="62"/>
         <v>0.26079967852119751</v>
       </c>
       <c r="G49" s="7">
-        <f t="shared" si="52"/>
+        <f t="shared" si="62"/>
         <v>0.30091006947842253</v>
       </c>
       <c r="H49" s="7">
-        <f t="shared" si="52"/>
+        <f t="shared" si="62"/>
         <v>0.31060325684678014</v>
       </c>
       <c r="I49" s="7">
-        <f t="shared" si="52"/>
+        <f t="shared" si="62"/>
         <v>0.30471511076631325</v>
       </c>
       <c r="J49" s="7">
-        <f t="shared" si="52"/>
+        <f t="shared" si="62"/>
         <v>0.27970491288651705</v>
       </c>
       <c r="K49" s="7">
-        <f t="shared" si="52"/>
+        <f t="shared" si="62"/>
         <v>0.30830185884618233</v>
       </c>
       <c r="L49" s="7">
-        <f t="shared" si="52"/>
+        <f t="shared" si="62"/>
         <v>0.28313863191302585</v>
       </c>
       <c r="M49" s="7">
-        <f t="shared" si="52"/>
+        <f t="shared" si="62"/>
         <v>0.3031036623215394</v>
       </c>
       <c r="N49" s="7">
-        <f t="shared" si="52"/>
+        <f t="shared" si="62"/>
         <v>0.29769403824521934</v>
       </c>
       <c r="O49" s="7">
-        <f t="shared" si="52"/>
+        <f t="shared" si="62"/>
         <v>0.35345154818068436</v>
       </c>
       <c r="P49" s="7">
-        <f t="shared" si="52"/>
+        <f t="shared" si="62"/>
         <v>0.28952834490095747</v>
       </c>
       <c r="Q49" s="7">
-        <f t="shared" si="52"/>
+        <f t="shared" si="62"/>
         <v>0.26307332749050538</v>
       </c>
       <c r="R49" s="7">
-        <f t="shared" si="52"/>
+        <f t="shared" si="62"/>
         <v>0.24347460005613247</v>
       </c>
       <c r="S49" s="7">
-        <f t="shared" si="52"/>
+        <f t="shared" si="62"/>
         <v>0.23990821391776718</v>
       </c>
       <c r="T49" s="7">
-        <f t="shared" si="52"/>
+        <f t="shared" si="62"/>
         <v>0.2423215898825655</v>
       </c>
       <c r="U49" s="7">
-        <f t="shared" si="52"/>
+        <f t="shared" si="62"/>
         <v>0.30252829697731903</v>
       </c>
       <c r="V49" s="7">
-        <f t="shared" si="52"/>
+        <f t="shared" si="62"/>
         <v>0.29610808130887456</v>
       </c>
-      <c r="W49" s="136">
-        <f t="shared" si="52"/>
+      <c r="W49" s="7">
+        <f t="shared" si="62"/>
         <v>0.37628310101050444</v>
       </c>
-      <c r="X49" s="99">
-        <f t="shared" si="52"/>
+      <c r="X49" s="137">
+        <f t="shared" si="62"/>
         <v>0.35516152353411212</v>
       </c>
-      <c r="Y49" s="7"/>
+      <c r="Y49" s="99">
+        <f t="shared" ref="Y49" si="63">Y27/Y6</f>
+        <v>0.38055515080868424</v>
+      </c>
       <c r="Z49" s="7"/>
       <c r="AA49" s="7"/>
       <c r="AB49" s="7"/>
       <c r="AC49" s="7"/>
-      <c r="AD49" s="7">
-        <f t="shared" si="50"/>
+      <c r="AD49" s="7"/>
+      <c r="AE49" s="7">
+        <f t="shared" si="59"/>
         <v>0.28438900799064509</v>
       </c>
-      <c r="AE49" s="7">
-        <f t="shared" si="50"/>
+      <c r="AF49" s="7">
+        <f t="shared" si="59"/>
         <v>0.26269057271740992</v>
       </c>
-      <c r="AF49" s="7">
-        <f t="shared" si="50"/>
+      <c r="AG49" s="7">
+        <f t="shared" si="59"/>
         <v>0.29823672029975756</v>
       </c>
-      <c r="AG49" s="7">
-        <f t="shared" si="50"/>
+      <c r="AH49" s="7">
+        <f t="shared" si="59"/>
         <v>0.29793254236198191</v>
       </c>
-      <c r="AH49" s="7">
-        <f t="shared" si="50"/>
+      <c r="AI49" s="7">
+        <f t="shared" si="59"/>
         <v>0.28517029564522572</v>
       </c>
-      <c r="AI49" s="99">
-        <f t="shared" si="50"/>
+      <c r="AJ49" s="99">
+        <f t="shared" si="59"/>
         <v>0.27139504390845887</v>
       </c>
     </row>
-    <row r="52" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>4</v>
       </c>
@@ -17534,49 +17685,53 @@
         <v>878</v>
       </c>
       <c r="U52" s="5">
-        <f t="shared" ref="U52:X52" si="53">U53+U54-U68</f>
+        <f t="shared" ref="U52:Y52" si="64">U53+U54-U68</f>
         <v>3071</v>
       </c>
       <c r="V52" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v>28466</v>
       </c>
-      <c r="W52" s="132">
-        <f t="shared" si="53"/>
+      <c r="W52" s="5">
+        <f t="shared" si="64"/>
         <v>27440</v>
       </c>
-      <c r="X52" s="103">
-        <f t="shared" si="53"/>
+      <c r="X52" s="133">
+        <f t="shared" si="64"/>
         <v>34203</v>
       </c>
-      <c r="Y52" s="5"/>
+      <c r="Y52" s="103">
+        <f t="shared" si="64"/>
+        <v>33161</v>
+      </c>
       <c r="Z52" s="5"/>
-      <c r="AD52" s="5">
-        <f t="shared" ref="AD52:AH52" si="54">AD53+AD54-AD68</f>
+      <c r="AA52" s="5"/>
+      <c r="AE52" s="5">
+        <f t="shared" ref="AE52:AI52" si="65">AE53+AE54-AE68</f>
         <v>17755</v>
       </c>
-      <c r="AE52" s="5">
-        <f t="shared" si="54"/>
+      <c r="AF52" s="5">
+        <f t="shared" si="65"/>
         <v>31607</v>
       </c>
-      <c r="AF52" s="5">
-        <f t="shared" si="54"/>
+      <c r="AG52" s="5">
+        <f t="shared" si="65"/>
         <v>52580</v>
       </c>
-      <c r="AG52" s="5">
-        <f t="shared" si="54"/>
+      <c r="AH52" s="5">
+        <f t="shared" si="65"/>
         <v>47305</v>
       </c>
-      <c r="AH52" s="5">
-        <f t="shared" si="54"/>
+      <c r="AI52" s="5">
+        <f t="shared" si="65"/>
         <v>2876</v>
       </c>
-      <c r="AI52" s="103">
-        <f>AI53+AI54-AI68</f>
+      <c r="AJ52" s="103">
+        <f>AJ53+AJ54-AJ68</f>
         <v>28466</v>
       </c>
     </row>
-    <row r="53" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>3</v>
       </c>
@@ -17599,35 +17754,38 @@
       <c r="V53" s="1">
         <v>73387</v>
       </c>
-      <c r="W53" s="131">
+      <c r="W53" s="1">
         <v>72852</v>
       </c>
-      <c r="X53" s="91">
+      <c r="X53" s="132">
         <v>71178</v>
       </c>
-      <c r="Y53" s="1"/>
+      <c r="Y53" s="91">
+        <v>75091</v>
+      </c>
       <c r="Z53" s="1"/>
-      <c r="AD53" s="1">
+      <c r="AA53" s="1"/>
+      <c r="AE53" s="1">
         <v>31750</v>
       </c>
-      <c r="AE53" s="1">
+      <c r="AF53" s="1">
         <v>36092</v>
       </c>
-      <c r="AF53" s="1">
+      <c r="AG53" s="1">
         <v>42122</v>
       </c>
-      <c r="AG53" s="1">
+      <c r="AH53" s="1">
         <v>36220</v>
       </c>
-      <c r="AH53" s="1">
+      <c r="AI53" s="1">
         <v>53888</v>
       </c>
-      <c r="AI53" s="91">
+      <c r="AJ53" s="91">
         <f>V53</f>
         <v>73387</v>
       </c>
     </row>
-    <row r="54" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>65</v>
       </c>
@@ -17650,35 +17808,38 @@
       <c r="V54" s="1">
         <v>13393</v>
       </c>
-      <c r="W54" s="131">
+      <c r="W54" s="1">
         <v>12222</v>
       </c>
-      <c r="X54" s="91">
+      <c r="X54" s="132">
         <v>17914</v>
       </c>
-      <c r="Y54" s="1"/>
+      <c r="Y54" s="91">
+        <v>12960</v>
+      </c>
       <c r="Z54" s="1"/>
-      <c r="AD54" s="1">
+      <c r="AA54" s="1"/>
+      <c r="AE54" s="1">
         <v>9500</v>
       </c>
-      <c r="AE54" s="1">
+      <c r="AF54" s="1">
         <v>18929</v>
       </c>
-      <c r="AF54" s="1">
+      <c r="AG54" s="1">
         <v>42274</v>
       </c>
-      <c r="AG54" s="1">
+      <c r="AH54" s="1">
         <v>59829</v>
       </c>
-      <c r="AH54" s="1">
+      <c r="AI54" s="1">
         <v>16138</v>
       </c>
-      <c r="AI54" s="91">
-        <f t="shared" ref="AI54:AI56" si="55">V54</f>
+      <c r="AJ54" s="91">
+        <f t="shared" ref="AJ54:AJ56" si="66">V54</f>
         <v>13393</v>
       </c>
     </row>
-    <row r="55" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>66</v>
       </c>
@@ -17701,35 +17862,38 @@
       <c r="V55" s="1">
         <v>33318</v>
       </c>
-      <c r="W55" s="131">
+      <c r="W55" s="1">
         <v>31147</v>
       </c>
-      <c r="X55" s="91">
+      <c r="X55" s="132">
         <v>34109</v>
       </c>
-      <c r="Y55" s="1"/>
+      <c r="Y55" s="91">
+        <v>36103</v>
+      </c>
       <c r="Z55" s="1"/>
-      <c r="AD55" s="1">
+      <c r="AA55" s="1"/>
+      <c r="AE55" s="1">
         <v>17174</v>
       </c>
-      <c r="AE55" s="1">
+      <c r="AF55" s="1">
         <v>20497</v>
       </c>
-      <c r="AF55" s="1">
+      <c r="AG55" s="1">
         <v>23795</v>
       </c>
-      <c r="AG55" s="1">
+      <c r="AH55" s="1">
         <v>32640</v>
       </c>
-      <c r="AH55" s="1">
+      <c r="AI55" s="1">
         <v>34405</v>
       </c>
-      <c r="AI55" s="91">
-        <f t="shared" si="55"/>
+      <c r="AJ55" s="91">
+        <f t="shared" si="66"/>
         <v>33318</v>
       </c>
     </row>
-    <row r="56" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>67</v>
       </c>
@@ -17752,104 +17916,107 @@
       <c r="V56" s="1">
         <v>52253</v>
       </c>
-      <c r="W56" s="131">
+      <c r="W56" s="1">
         <v>47768</v>
       </c>
-      <c r="X56" s="91">
+      <c r="X56" s="132">
         <v>50106</v>
       </c>
-      <c r="Y56" s="1"/>
+      <c r="Y56" s="91">
+        <v>51638</v>
+      </c>
       <c r="Z56" s="1"/>
-      <c r="AD56" s="1">
+      <c r="AA56" s="1"/>
+      <c r="AE56" s="1">
         <v>16677</v>
       </c>
-      <c r="AE56" s="1">
+      <c r="AF56" s="1">
         <v>20816</v>
       </c>
-      <c r="AF56" s="1">
+      <c r="AG56" s="1">
         <v>24542</v>
       </c>
-      <c r="AG56" s="1">
+      <c r="AH56" s="1">
         <v>32891</v>
       </c>
-      <c r="AH56" s="1">
+      <c r="AI56" s="1">
         <v>42360</v>
       </c>
-      <c r="AI56" s="91">
-        <f t="shared" si="55"/>
+      <c r="AJ56" s="91">
+        <f t="shared" si="66"/>
         <v>52253</v>
       </c>
     </row>
-    <row r="57" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C57" s="5">
-        <f t="shared" ref="C57:S57" si="56">SUM(C53:C56)</f>
+        <f t="shared" ref="C57:S57" si="67">SUM(C53:C56)</f>
         <v>0</v>
       </c>
       <c r="D57" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="E57" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="F57" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="G57" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="H57" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="I57" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="J57" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="67"/>
         <v>132733</v>
       </c>
       <c r="K57" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="L57" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="M57" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="N57" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="67"/>
         <v>161580</v>
       </c>
       <c r="O57" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="P57" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="Q57" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="R57" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="67"/>
         <v>146791</v>
       </c>
       <c r="S57" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="T57" s="5">
@@ -17857,49 +18024,53 @@
         <v>140482</v>
       </c>
       <c r="U57" s="5">
-        <f t="shared" ref="U57:X57" si="57">SUM(U53:U56)</f>
+        <f t="shared" ref="U57:Y57" si="68">SUM(U53:U56)</f>
         <v>142995</v>
       </c>
       <c r="V57" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="68"/>
         <v>172351</v>
       </c>
-      <c r="W57" s="132">
-        <f t="shared" si="57"/>
+      <c r="W57" s="5">
+        <f t="shared" si="68"/>
         <v>163989</v>
       </c>
-      <c r="X57" s="103">
-        <f t="shared" si="57"/>
+      <c r="X57" s="133">
+        <f t="shared" si="68"/>
         <v>173307</v>
       </c>
-      <c r="Y57" s="5"/>
+      <c r="Y57" s="103">
+        <f t="shared" si="68"/>
+        <v>175792</v>
+      </c>
       <c r="Z57" s="5"/>
-      <c r="AD57" s="5">
-        <f t="shared" ref="AD57:AI57" si="58">SUM(AD53:AD56)</f>
+      <c r="AA57" s="5"/>
+      <c r="AE57" s="5">
+        <f t="shared" ref="AE57:AJ57" si="69">SUM(AE53:AE56)</f>
         <v>75101</v>
       </c>
-      <c r="AE57" s="5">
-        <f t="shared" si="58"/>
+      <c r="AF57" s="5">
+        <f t="shared" si="69"/>
         <v>96334</v>
       </c>
-      <c r="AF57" s="5">
-        <f t="shared" si="58"/>
+      <c r="AG57" s="5">
+        <f t="shared" si="69"/>
         <v>132733</v>
       </c>
-      <c r="AG57" s="5">
-        <f t="shared" si="58"/>
+      <c r="AH57" s="5">
+        <f t="shared" si="69"/>
         <v>161580</v>
       </c>
-      <c r="AH57" s="5">
-        <f t="shared" si="58"/>
+      <c r="AI57" s="5">
+        <f t="shared" si="69"/>
         <v>146791</v>
       </c>
-      <c r="AI57" s="103">
-        <f t="shared" si="58"/>
+      <c r="AJ57" s="103">
+        <f t="shared" si="69"/>
         <v>172351</v>
       </c>
     </row>
-    <row r="58" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>68</v>
       </c>
@@ -17922,35 +18093,38 @@
       <c r="V58" s="1">
         <v>204177</v>
       </c>
-      <c r="W58" s="131">
+      <c r="W58" s="1">
         <v>209950</v>
       </c>
-      <c r="X58" s="91">
+      <c r="X58" s="132">
         <v>220717</v>
       </c>
-      <c r="Y58" s="1"/>
+      <c r="Y58" s="91">
+        <v>237917</v>
+      </c>
       <c r="Z58" s="1"/>
-      <c r="AD58" s="1">
+      <c r="AA58" s="1"/>
+      <c r="AE58" s="1">
         <v>61797</v>
       </c>
-      <c r="AE58" s="1">
+      <c r="AF58" s="1">
         <v>72705</v>
       </c>
-      <c r="AF58" s="1">
+      <c r="AG58" s="1">
         <v>113114</v>
       </c>
-      <c r="AG58" s="1">
+      <c r="AH58" s="1">
         <v>160281</v>
       </c>
-      <c r="AH58" s="1">
+      <c r="AI58" s="1">
         <v>186715</v>
       </c>
-      <c r="AI58" s="91">
-        <f t="shared" ref="AI58:AI61" si="59">V58</f>
+      <c r="AJ58" s="91">
+        <f t="shared" ref="AJ58:AJ61" si="70">V58</f>
         <v>204177</v>
       </c>
     </row>
-    <row r="59" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>69</v>
       </c>
@@ -17973,35 +18147,38 @@
       <c r="V59" s="1">
         <v>72513</v>
       </c>
-      <c r="W59" s="131">
+      <c r="W59" s="1">
         <v>73313</v>
       </c>
-      <c r="X59" s="91">
+      <c r="X59" s="132">
         <v>74575</v>
       </c>
-      <c r="Y59" s="1"/>
+      <c r="Y59" s="91">
+        <v>76527</v>
+      </c>
       <c r="Z59" s="1"/>
-      <c r="AD59" s="1">
+      <c r="AA59" s="1"/>
+      <c r="AE59" s="1">
         <v>0</v>
       </c>
-      <c r="AE59" s="1">
+      <c r="AF59" s="1">
         <v>25141</v>
       </c>
-      <c r="AF59" s="1">
+      <c r="AG59" s="1">
         <v>37553</v>
       </c>
-      <c r="AG59" s="1">
+      <c r="AH59" s="1">
         <v>56082</v>
       </c>
-      <c r="AH59" s="1">
+      <c r="AI59" s="1">
         <v>66123</v>
       </c>
-      <c r="AI59" s="91">
-        <f t="shared" si="59"/>
+      <c r="AJ59" s="91">
+        <f t="shared" si="70"/>
         <v>72513</v>
       </c>
     </row>
-    <row r="60" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>70</v>
       </c>
@@ -18024,35 +18201,38 @@
       <c r="V60" s="1">
         <v>22789</v>
       </c>
-      <c r="W60" s="131">
+      <c r="W60" s="1">
         <v>22770</v>
       </c>
-      <c r="X60" s="91">
+      <c r="X60" s="132">
         <v>22879</v>
       </c>
-      <c r="Y60" s="1"/>
+      <c r="Y60" s="91">
+        <v>23081</v>
+      </c>
       <c r="Z60" s="1"/>
-      <c r="AD60" s="1">
+      <c r="AA60" s="1"/>
+      <c r="AE60" s="1">
         <v>14548</v>
       </c>
-      <c r="AE60" s="1">
+      <c r="AF60" s="1">
         <v>14754</v>
       </c>
-      <c r="AF60" s="1">
+      <c r="AG60" s="1">
         <v>15017</v>
       </c>
-      <c r="AG60" s="1">
+      <c r="AH60" s="1">
         <v>15371</v>
       </c>
-      <c r="AH60" s="1">
+      <c r="AI60" s="1">
         <v>20288</v>
       </c>
-      <c r="AI60" s="91">
-        <f t="shared" si="59"/>
+      <c r="AJ60" s="91">
+        <f t="shared" si="70"/>
         <v>22789</v>
       </c>
     </row>
-    <row r="61" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>39</v>
       </c>
@@ -18075,104 +18255,107 @@
       <c r="V61" s="1">
         <v>56024</v>
       </c>
-      <c r="W61" s="131">
+      <c r="W61" s="1">
         <v>60947</v>
       </c>
-      <c r="X61" s="91">
+      <c r="X61" s="132">
         <v>63340</v>
       </c>
-      <c r="Y61" s="1"/>
+      <c r="Y61" s="91">
+        <v>71309</v>
+      </c>
       <c r="Z61" s="1"/>
-      <c r="AD61" s="1">
+      <c r="AA61" s="1"/>
+      <c r="AE61" s="1">
         <v>11202</v>
       </c>
-      <c r="AE61" s="1">
+      <c r="AF61" s="1">
         <v>16314</v>
       </c>
-      <c r="AF61" s="1">
+      <c r="AG61" s="1">
         <v>22778</v>
       </c>
-      <c r="AG61" s="1">
+      <c r="AH61" s="1">
         <v>27235</v>
       </c>
-      <c r="AH61" s="1">
+      <c r="AI61" s="1">
         <v>42758</v>
       </c>
-      <c r="AI61" s="91">
-        <f t="shared" si="59"/>
+      <c r="AJ61" s="91">
+        <f t="shared" si="70"/>
         <v>56024</v>
       </c>
     </row>
-    <row r="62" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C62" s="5">
-        <f t="shared" ref="C62:S62" si="60">SUM(C57:C61)</f>
+        <f t="shared" ref="C62:S62" si="71">SUM(C57:C61)</f>
         <v>0</v>
       </c>
       <c r="D62" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="E62" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="F62" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="G62" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="H62" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="I62" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="J62" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>321195</v>
       </c>
       <c r="K62" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="L62" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="M62" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="N62" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>420549</v>
       </c>
       <c r="O62" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="P62" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="Q62" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="R62" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>462675</v>
       </c>
       <c r="S62" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="T62" s="5">
@@ -18180,49 +18363,53 @@
         <v>477607</v>
       </c>
       <c r="U62" s="5">
-        <f t="shared" ref="U62:X62" si="61">SUM(U57:U61)</f>
+        <f t="shared" ref="U62:Y62" si="72">SUM(U57:U61)</f>
         <v>486883</v>
       </c>
       <c r="V62" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="72"/>
         <v>527854</v>
       </c>
-      <c r="W62" s="132">
-        <f t="shared" si="61"/>
+      <c r="W62" s="5">
+        <f t="shared" si="72"/>
         <v>530969</v>
       </c>
-      <c r="X62" s="103">
-        <f t="shared" si="61"/>
+      <c r="X62" s="133">
+        <f t="shared" si="72"/>
         <v>554818</v>
       </c>
-      <c r="Y62" s="5"/>
+      <c r="Y62" s="103">
+        <f t="shared" si="72"/>
+        <v>584626</v>
+      </c>
       <c r="Z62" s="5"/>
-      <c r="AD62" s="5">
-        <f>SUM(AD57:AD61)</f>
-        <v>162648</v>
-      </c>
+      <c r="AA62" s="5"/>
       <c r="AE62" s="5">
         <f>SUM(AE57:AE61)</f>
+        <v>162648</v>
+      </c>
+      <c r="AF62" s="5">
+        <f>SUM(AF57:AF61)</f>
         <v>225248</v>
       </c>
-      <c r="AF62" s="5">
-        <f t="shared" ref="AF62:AI62" si="62">SUM(AF57:AF61)</f>
+      <c r="AG62" s="5">
+        <f t="shared" ref="AG62:AJ62" si="73">SUM(AG57:AG61)</f>
         <v>321195</v>
       </c>
-      <c r="AG62" s="5">
-        <f t="shared" si="62"/>
+      <c r="AH62" s="5">
+        <f t="shared" si="73"/>
         <v>420549</v>
       </c>
-      <c r="AH62" s="5">
-        <f t="shared" si="62"/>
+      <c r="AI62" s="5">
+        <f t="shared" si="73"/>
         <v>462675</v>
       </c>
-      <c r="AI62" s="103">
-        <f t="shared" si="62"/>
+      <c r="AJ62" s="103">
+        <f t="shared" si="73"/>
         <v>527854</v>
       </c>
     </row>
-    <row r="63" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>71</v>
       </c>
@@ -18245,35 +18432,38 @@
       <c r="V63" s="1">
         <v>84981</v>
       </c>
-      <c r="W63" s="131">
+      <c r="W63" s="1">
         <v>73068</v>
       </c>
-      <c r="X63" s="91">
+      <c r="X63" s="132">
         <v>81817</v>
       </c>
-      <c r="Y63" s="1"/>
+      <c r="Y63" s="91">
+        <v>84570</v>
+      </c>
       <c r="Z63" s="1"/>
-      <c r="AD63" s="1">
+      <c r="AA63" s="1"/>
+      <c r="AE63" s="1">
         <v>38192</v>
       </c>
-      <c r="AE63" s="1">
+      <c r="AF63" s="1">
         <v>47183</v>
       </c>
-      <c r="AF63" s="1">
+      <c r="AG63" s="1">
         <v>72539</v>
       </c>
-      <c r="AG63" s="1">
+      <c r="AH63" s="1">
         <v>78664</v>
       </c>
-      <c r="AH63" s="1">
+      <c r="AI63" s="1">
         <v>79600</v>
       </c>
-      <c r="AI63" s="91">
-        <f t="shared" ref="AI63:AI65" si="63">V63</f>
+      <c r="AJ63" s="91">
+        <f t="shared" ref="AJ63:AJ65" si="74">V63</f>
         <v>84981</v>
       </c>
     </row>
-    <row r="64" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>72</v>
       </c>
@@ -18296,35 +18486,38 @@
       <c r="V64" s="1">
         <v>64709</v>
       </c>
-      <c r="W64" s="131">
+      <c r="W64" s="1">
         <v>63970</v>
       </c>
-      <c r="X64" s="91">
+      <c r="X64" s="132">
         <v>60351</v>
       </c>
-      <c r="Y64" s="1"/>
+      <c r="Y64" s="91">
+        <v>60602</v>
+      </c>
       <c r="Z64" s="1"/>
-      <c r="AD64" s="1">
+      <c r="AA64" s="1"/>
+      <c r="AE64" s="1">
         <v>23663</v>
       </c>
-      <c r="AE64" s="1">
+      <c r="AF64" s="1">
         <v>32439</v>
       </c>
-      <c r="AF64" s="1">
+      <c r="AG64" s="1">
         <v>44138</v>
       </c>
-      <c r="AG64" s="1">
+      <c r="AH64" s="1">
         <v>51775</v>
       </c>
-      <c r="AH64" s="1">
+      <c r="AI64" s="1">
         <v>62566</v>
       </c>
-      <c r="AI64" s="91">
-        <f t="shared" si="63"/>
+      <c r="AJ64" s="91">
+        <f t="shared" si="74"/>
         <v>64709</v>
       </c>
     </row>
-    <row r="65" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>73</v>
       </c>
@@ -18347,104 +18540,107 @@
       <c r="V65" s="1">
         <v>15227</v>
       </c>
-      <c r="W65" s="131">
+      <c r="W65" s="1">
         <v>15927</v>
       </c>
-      <c r="X65" s="91">
+      <c r="X65" s="132">
         <v>16004</v>
       </c>
-      <c r="Y65" s="1"/>
+      <c r="Y65" s="91">
+        <v>16305</v>
+      </c>
       <c r="Z65" s="1"/>
-      <c r="AD65" s="1">
+      <c r="AA65" s="1"/>
+      <c r="AE65" s="1">
         <v>6536</v>
       </c>
-      <c r="AE65" s="1">
+      <c r="AF65" s="1">
         <v>8190</v>
       </c>
-      <c r="AF65" s="1">
+      <c r="AG65" s="1">
         <v>9708</v>
       </c>
-      <c r="AG65" s="1">
+      <c r="AH65" s="1">
         <v>11827</v>
       </c>
-      <c r="AH65" s="1">
+      <c r="AI65" s="1">
         <v>13227</v>
       </c>
-      <c r="AI65" s="91">
-        <f t="shared" si="63"/>
+      <c r="AJ65" s="91">
+        <f t="shared" si="74"/>
         <v>15227</v>
       </c>
     </row>
-    <row r="66" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C66" s="5">
-        <f t="shared" ref="C66:S66" si="64">SUM(C63:C65)</f>
+        <f t="shared" ref="C66:S66" si="75">SUM(C63:C65)</f>
         <v>0</v>
       </c>
       <c r="D66" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="E66" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="F66" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="G66" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="H66" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="I66" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="J66" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>126385</v>
       </c>
       <c r="K66" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="L66" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="M66" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="N66" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>142266</v>
       </c>
       <c r="O66" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="P66" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="Q66" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="R66" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>155393</v>
       </c>
       <c r="S66" s="5">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="T66" s="5">
@@ -18452,49 +18648,53 @@
         <v>148238</v>
       </c>
       <c r="U66" s="5">
-        <f t="shared" ref="U66:X66" si="65">SUM(U63:U65)</f>
+        <f t="shared" ref="U66:Y66" si="76">SUM(U63:U65)</f>
         <v>145214</v>
       </c>
       <c r="V66" s="5">
-        <f t="shared" si="65"/>
+        <f t="shared" si="76"/>
         <v>164917</v>
       </c>
-      <c r="W66" s="132">
-        <f t="shared" si="65"/>
+      <c r="W66" s="5">
+        <f t="shared" si="76"/>
         <v>152965</v>
       </c>
-      <c r="X66" s="103">
-        <f t="shared" si="65"/>
+      <c r="X66" s="133">
+        <f t="shared" si="76"/>
         <v>158172</v>
       </c>
-      <c r="Y66" s="5"/>
+      <c r="Y66" s="103">
+        <f t="shared" si="76"/>
+        <v>161477</v>
+      </c>
       <c r="Z66" s="5"/>
-      <c r="AD66" s="5">
-        <f t="shared" ref="AD66:AI66" si="66">SUM(AD63:AD65)</f>
+      <c r="AA66" s="5"/>
+      <c r="AE66" s="5">
+        <f t="shared" ref="AE66:AJ66" si="77">SUM(AE63:AE65)</f>
         <v>68391</v>
       </c>
-      <c r="AE66" s="5">
-        <f t="shared" si="66"/>
+      <c r="AF66" s="5">
+        <f t="shared" si="77"/>
         <v>87812</v>
       </c>
-      <c r="AF66" s="5">
-        <f t="shared" si="66"/>
+      <c r="AG66" s="5">
+        <f t="shared" si="77"/>
         <v>126385</v>
       </c>
-      <c r="AG66" s="5">
-        <f t="shared" si="66"/>
+      <c r="AH66" s="5">
+        <f t="shared" si="77"/>
         <v>142266</v>
       </c>
-      <c r="AH66" s="5">
-        <f t="shared" si="66"/>
+      <c r="AI66" s="5">
+        <f t="shared" si="77"/>
         <v>155393</v>
       </c>
-      <c r="AI66" s="103">
-        <f t="shared" si="66"/>
+      <c r="AJ66" s="103">
+        <f t="shared" si="77"/>
         <v>164917</v>
       </c>
     </row>
-    <row r="67" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>74</v>
       </c>
@@ -18517,35 +18717,38 @@
       <c r="V67" s="1">
         <v>77297</v>
       </c>
-      <c r="W67" s="131">
+      <c r="W67" s="1">
         <v>77052</v>
       </c>
-      <c r="X67" s="91">
+      <c r="X67" s="132">
         <v>78084</v>
       </c>
-      <c r="Y67" s="1"/>
+      <c r="Y67" s="91">
+        <v>79802</v>
+      </c>
       <c r="Z67" s="1"/>
-      <c r="AD67" s="1">
+      <c r="AA67" s="1"/>
+      <c r="AE67" s="1">
         <v>9650</v>
       </c>
-      <c r="AE67" s="1">
+      <c r="AF67" s="1">
         <v>39791</v>
       </c>
-      <c r="AF67" s="1">
+      <c r="AG67" s="1">
         <v>52573</v>
       </c>
-      <c r="AG67" s="1">
+      <c r="AH67" s="1">
         <v>67651</v>
       </c>
-      <c r="AH67" s="1">
+      <c r="AI67" s="1">
         <v>72968</v>
       </c>
-      <c r="AI67" s="91">
-        <f t="shared" ref="AI67:AI69" si="67">V67</f>
+      <c r="AJ67" s="91">
+        <f t="shared" ref="AJ67:AJ69" si="78">V67</f>
         <v>77297</v>
       </c>
     </row>
-    <row r="68" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>75</v>
       </c>
@@ -18568,35 +18771,38 @@
       <c r="V68" s="1">
         <v>58314</v>
       </c>
-      <c r="W68" s="131">
+      <c r="W68" s="1">
         <v>57634</v>
       </c>
-      <c r="X68" s="91">
+      <c r="X68" s="132">
         <v>54889</v>
       </c>
-      <c r="Y68" s="1"/>
+      <c r="Y68" s="91">
+        <v>54890</v>
+      </c>
       <c r="Z68" s="1"/>
-      <c r="AD68" s="1">
+      <c r="AA68" s="1"/>
+      <c r="AE68" s="1">
         <v>23495</v>
       </c>
-      <c r="AE68" s="1">
+      <c r="AF68" s="1">
         <v>23414</v>
       </c>
-      <c r="AF68" s="1">
+      <c r="AG68" s="1">
         <v>31816</v>
       </c>
-      <c r="AG68" s="1">
+      <c r="AH68" s="1">
         <v>48744</v>
       </c>
-      <c r="AH68" s="1">
+      <c r="AI68" s="1">
         <v>67150</v>
       </c>
-      <c r="AI68" s="91">
-        <f t="shared" si="67"/>
+      <c r="AJ68" s="91">
+        <f t="shared" si="78"/>
         <v>58314</v>
       </c>
     </row>
-    <row r="69" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>76</v>
       </c>
@@ -18619,64 +18825,67 @@
       <c r="V69" s="1">
         <v>25451</v>
       </c>
-      <c r="W69" s="131">
+      <c r="W69" s="1">
         <v>26657</v>
       </c>
-      <c r="X69" s="91">
+      <c r="X69" s="132">
         <v>27226</v>
       </c>
-      <c r="Y69" s="1"/>
+      <c r="Y69" s="91">
+        <v>29306</v>
+      </c>
       <c r="Z69" s="1"/>
-      <c r="AD69" s="1">
+      <c r="AA69" s="1"/>
+      <c r="AE69" s="1">
         <v>17563</v>
       </c>
-      <c r="AE69" s="1">
+      <c r="AF69" s="1">
         <v>12171</v>
       </c>
-      <c r="AF69" s="1">
+      <c r="AG69" s="1">
         <v>17017</v>
       </c>
-      <c r="AG69" s="1">
+      <c r="AH69" s="1">
         <v>23643</v>
       </c>
-      <c r="AH69" s="1">
+      <c r="AI69" s="1">
         <v>21121</v>
       </c>
-      <c r="AI69" s="91">
-        <f t="shared" si="67"/>
+      <c r="AJ69" s="91">
+        <f t="shared" si="78"/>
         <v>25451</v>
       </c>
     </row>
-    <row r="70" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="4" t="s">
         <v>113</v>
       </c>
       <c r="C70" s="5">
-        <f t="shared" ref="C70:I70" si="68">SUM(C66:C69)</f>
+        <f t="shared" ref="C70:I70" si="79">SUM(C66:C69)</f>
         <v>0</v>
       </c>
       <c r="D70" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="E70" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="F70" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="G70" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="H70" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="I70" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="J70" s="5">
@@ -18684,89 +18893,93 @@
         <v>227791</v>
       </c>
       <c r="K70" s="5">
-        <f t="shared" ref="K70:T70" si="69">SUM(K66:K69)</f>
+        <f t="shared" ref="K70:T70" si="80">SUM(K66:K69)</f>
         <v>0</v>
       </c>
       <c r="L70" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="M70" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="N70" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="80"/>
         <v>282304</v>
       </c>
       <c r="O70" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="P70" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="Q70" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="R70" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="80"/>
         <v>316632</v>
       </c>
       <c r="S70" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="T70" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="80"/>
         <v>309005</v>
       </c>
       <c r="U70" s="5">
-        <f t="shared" ref="U70" si="70">SUM(U66:U69)</f>
+        <f t="shared" ref="U70" si="81">SUM(U66:U69)</f>
         <v>303910</v>
       </c>
       <c r="V70" s="5">
-        <f t="shared" ref="V70" si="71">SUM(V66:V69)</f>
+        <f t="shared" ref="V70" si="82">SUM(V66:V69)</f>
         <v>325979</v>
       </c>
-      <c r="W70" s="132">
-        <f t="shared" ref="W70" si="72">SUM(W66:W69)</f>
+      <c r="W70" s="5">
+        <f t="shared" ref="W70" si="83">SUM(W66:W69)</f>
         <v>314308</v>
       </c>
-      <c r="X70" s="103">
-        <f t="shared" ref="X70" si="73">SUM(X66:X69)</f>
+      <c r="X70" s="133">
+        <f t="shared" ref="X70:Y70" si="84">SUM(X66:X69)</f>
         <v>318371</v>
       </c>
-      <c r="Y70" s="5"/>
+      <c r="Y70" s="103">
+        <f t="shared" si="84"/>
+        <v>325475</v>
+      </c>
       <c r="Z70" s="5"/>
-      <c r="AD70" s="5">
-        <f t="shared" ref="AD70" si="74">SUM(AD66:AD69)</f>
+      <c r="AA70" s="5"/>
+      <c r="AE70" s="5">
+        <f t="shared" ref="AE70" si="85">SUM(AE66:AE69)</f>
         <v>119099</v>
       </c>
-      <c r="AE70" s="5">
-        <f t="shared" ref="AE70" si="75">SUM(AE66:AE69)</f>
+      <c r="AF70" s="5">
+        <f t="shared" ref="AF70" si="86">SUM(AF66:AF69)</f>
         <v>163188</v>
       </c>
-      <c r="AF70" s="5">
-        <f t="shared" ref="AF70" si="76">SUM(AF66:AF69)</f>
+      <c r="AG70" s="5">
+        <f t="shared" ref="AG70" si="87">SUM(AG66:AG69)</f>
         <v>227791</v>
       </c>
-      <c r="AG70" s="5">
-        <f t="shared" ref="AG70" si="77">SUM(AG66:AG69)</f>
+      <c r="AH70" s="5">
+        <f t="shared" ref="AH70" si="88">SUM(AH66:AH69)</f>
         <v>282304</v>
       </c>
-      <c r="AH70" s="5">
-        <f t="shared" ref="AH70:AI70" si="78">SUM(AH66:AH69)</f>
+      <c r="AI70" s="5">
+        <f t="shared" ref="AI70:AJ70" si="89">SUM(AI66:AI69)</f>
         <v>316632</v>
       </c>
-      <c r="AI70" s="103">
-        <f t="shared" si="78"/>
+      <c r="AJ70" s="103">
+        <f t="shared" si="89"/>
         <v>325979</v>
       </c>
     </row>
-    <row r="71" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>77</v>
       </c>
@@ -18791,43 +19004,47 @@
         <f>V62-V70</f>
         <v>201875</v>
       </c>
-      <c r="W71" s="131">
+      <c r="W71" s="1">
         <f>W62-W70</f>
         <v>216661</v>
       </c>
-      <c r="X71" s="91">
+      <c r="X71" s="132">
         <f>X62-X70</f>
         <v>236447</v>
       </c>
-      <c r="Y71" s="1"/>
+      <c r="Y71" s="91">
+        <f>Y62-Y70</f>
+        <v>259151</v>
+      </c>
       <c r="Z71" s="1"/>
-      <c r="AD71" s="1">
+      <c r="AA71" s="1"/>
+      <c r="AE71" s="1">
         <v>43549</v>
       </c>
-      <c r="AE71" s="1">
+      <c r="AF71" s="1">
         <v>62060</v>
       </c>
-      <c r="AF71" s="1">
+      <c r="AG71" s="1">
         <v>93404</v>
       </c>
-      <c r="AG71" s="1">
+      <c r="AH71" s="1">
         <v>138245</v>
       </c>
-      <c r="AH71" s="1">
+      <c r="AI71" s="1">
         <v>146043</v>
       </c>
-      <c r="AI71" s="91">
-        <f>AI62-AI70</f>
+      <c r="AJ71" s="91">
+        <f>AJ62-AJ70</f>
         <v>201875</v>
       </c>
     </row>
-    <row r="72" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="AH72" s="7"/>
-    </row>
-    <row r="73" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="AH73" s="7"/>
-    </row>
-    <row r="74" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AI72" s="7"/>
+    </row>
+    <row r="73" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AI73" s="7"/>
+    </row>
+    <row r="74" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="4" t="s">
         <v>3</v>
       </c>
@@ -18850,11 +19067,11 @@
         <f>S99</f>
         <v>49734</v>
       </c>
-      <c r="W74" s="130"/>
-      <c r="X74" s="102"/>
-      <c r="AI74" s="102"/>
-    </row>
-    <row r="75" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="X74" s="131"/>
+      <c r="Y74" s="102"/>
+      <c r="AJ74" s="102"/>
+    </row>
+    <row r="75" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>89</v>
       </c>
@@ -18865,7 +19082,7 @@
         <v>6750</v>
       </c>
     </row>
-    <row r="76" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>90</v>
       </c>
@@ -18876,7 +19093,7 @@
         <v>11589</v>
       </c>
     </row>
-    <row r="77" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>91</v>
       </c>
@@ -18887,7 +19104,7 @@
         <v>7127</v>
       </c>
     </row>
-    <row r="78" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>92</v>
       </c>
@@ -18898,7 +19115,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="79" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>93</v>
       </c>
@@ -18909,7 +19126,7 @@
         <v>-2744</v>
       </c>
     </row>
-    <row r="80" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>66</v>
       </c>
@@ -19096,7 +19313,7 @@
         <v>-1220</v>
       </c>
     </row>
-    <row r="97" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>106</v>
       </c>
@@ -19107,7 +19324,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="98" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>107</v>
       </c>
@@ -19120,7 +19337,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="99" spans="2:35" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B99" s="4" t="s">
         <v>108</v>
       </c>
@@ -19135,9 +19352,9 @@
         <f>T74+T98</f>
         <v>50067</v>
       </c>
-      <c r="W99" s="130"/>
-      <c r="X99" s="102"/>
-      <c r="AI99" s="102"/>
+      <c r="X99" s="131"/>
+      <c r="Y99" s="102"/>
+      <c r="AJ99" s="102"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -19169,10 +19386,10 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O24" sqref="O24"/>
+      <selection pane="bottomRight" activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19305,6 +19522,9 @@
       <c r="O2" s="1">
         <v>55392</v>
       </c>
+      <c r="P2" s="1">
+        <v>61441</v>
+      </c>
       <c r="T2" s="1">
         <v>108354</v>
       </c>
@@ -19376,6 +19596,9 @@
       <c r="O3" s="1">
         <v>5206</v>
       </c>
+      <c r="P3" s="1">
+        <v>5228</v>
+      </c>
       <c r="T3" s="1">
         <v>5798</v>
       </c>
@@ -19447,6 +19670,9 @@
       <c r="O4" s="1">
         <v>36201</v>
       </c>
+      <c r="P4" s="1">
+        <v>37864</v>
+      </c>
       <c r="T4" s="1">
         <v>31881</v>
       </c>
@@ -19518,6 +19744,9 @@
       <c r="O5" s="1">
         <v>10866</v>
       </c>
+      <c r="P5" s="1">
+        <v>14331</v>
+      </c>
       <c r="T5" s="1">
         <v>9721</v>
       </c>
@@ -19589,6 +19818,9 @@
       <c r="O6" s="1">
         <v>12771</v>
       </c>
+      <c r="P6" s="1">
+        <v>11278</v>
+      </c>
       <c r="T6" s="1">
         <v>0</v>
       </c>
@@ -19658,6 +19890,9 @@
       <c r="O7" s="1">
         <v>26281</v>
       </c>
+      <c r="P7" s="1">
+        <v>27452</v>
+      </c>
       <c r="T7" s="1">
         <v>17459</v>
       </c>
@@ -19728,6 +19963,9 @@
       </c>
       <c r="O8" s="1">
         <v>1260</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1313</v>
       </c>
       <c r="T8" s="1">
         <v>4653</v>
@@ -19769,7 +20007,7 @@
         <v>137512</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" ref="F9:O9" si="3">SUM(F2:F8)</f>
+        <f t="shared" ref="F9:P9" si="3">SUM(F2:F8)</f>
         <v>116444</v>
       </c>
       <c r="G9" s="1">
@@ -19808,6 +20046,10 @@
         <f t="shared" si="3"/>
         <v>147977</v>
       </c>
+      <c r="P9" s="1">
+        <f t="shared" si="3"/>
+        <v>158907</v>
+      </c>
       <c r="T9" s="1">
         <f t="shared" ref="T9:Z9" si="4">SUM(T2:T8)</f>
         <v>177866</v>
@@ -19878,8 +20120,12 @@
         <v>6.9946766870205179E-2</v>
       </c>
       <c r="O12" s="7">
-        <f t="shared" ref="O12" si="9">O2/K2-1</f>
+        <f t="shared" ref="O12:P12" si="9">O2/K2-1</f>
         <v>4.5802967941698469E-2</v>
+      </c>
+      <c r="P12" s="7">
+        <f t="shared" si="9"/>
+        <v>7.288665374473946E-2</v>
       </c>
       <c r="T12" s="7"/>
       <c r="U12" s="7">
@@ -19944,12 +20190,16 @@
         <v>-0.31149952409794934</v>
       </c>
       <c r="N13" s="7">
-        <f t="shared" ref="N13:O14" si="13">N6/J6-1</f>
+        <f t="shared" ref="N13:P14" si="13">N6/J6-1</f>
         <v>0.24345357030181924</v>
       </c>
       <c r="O13" s="7">
         <f t="shared" si="13"/>
         <v>0.19545071609098574</v>
+      </c>
+      <c r="P13" s="7">
+        <f t="shared" si="13"/>
+        <v>-6.4842454394693161E-2</v>
       </c>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
@@ -20012,6 +20262,10 @@
         <f t="shared" si="13"/>
         <v>0.18703703703703711</v>
       </c>
+      <c r="P14" s="7">
+        <f t="shared" si="13"/>
+        <v>0.1905112971074201</v>
+      </c>
       <c r="T14" s="7"/>
       <c r="U14" s="7">
         <f t="shared" ref="U14:W14" si="17">U7/T7-1</f>
@@ -20079,8 +20333,12 @@
         <v>0.16016096579476868</v>
       </c>
       <c r="O15" s="7">
-        <f t="shared" ref="O15" si="22">O4/K4-1</f>
+        <f t="shared" ref="O15:P15" si="22">O4/K4-1</f>
         <v>0.11966472844240994</v>
+      </c>
+      <c r="P15" s="7">
+        <f t="shared" si="22"/>
+        <v>0.10255663618892319</v>
       </c>
       <c r="T15" s="7"/>
       <c r="U15" s="7">
@@ -20150,14 +20408,14 @@
       <c r="D1" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H1" s="119" t="s">
+      <c r="H1" s="120" t="s">
         <v>129</v>
       </c>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="122"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9">
@@ -20660,10 +20918,10 @@
         <f t="shared" si="0"/>
         <v>4.6565840336498798E-3</v>
       </c>
-      <c r="H17" s="122" t="s">
+      <c r="H17" s="123" t="s">
         <v>137</v>
       </c>
-      <c r="I17" s="123"/>
+      <c r="I17" s="124"/>
       <c r="M17" s="36"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
@@ -20677,8 +20935,8 @@
         <f t="shared" si="0"/>
         <v>6.4582688495500973E-2</v>
       </c>
-      <c r="H18" s="124"/>
-      <c r="I18" s="125"/>
+      <c r="H18" s="125"/>
+      <c r="I18" s="126"/>
       <c r="M18" s="36"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
@@ -21251,14 +21509,14 @@
         <f t="shared" si="0"/>
         <v>-3.4748984580063036E-2</v>
       </c>
-      <c r="H43" s="126" t="s">
+      <c r="H43" s="127" t="s">
         <v>162</v>
       </c>
-      <c r="I43" s="127"/>
-      <c r="J43" s="127"/>
-      <c r="K43" s="127"/>
-      <c r="L43" s="127"/>
-      <c r="M43" s="128"/>
+      <c r="I43" s="128"/>
+      <c r="J43" s="128"/>
+      <c r="K43" s="128"/>
+      <c r="L43" s="128"/>
+      <c r="M43" s="129"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="9">
